--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="272">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -426,6 +426,9 @@
     <t>November</t>
   </si>
   <si>
+    <t>October</t>
+  </si>
+  <si>
     <t>Gwanyika Rural Health Centre</t>
   </si>
   <si>
@@ -438,9 +441,21 @@
     <t>Huchu Clinic</t>
   </si>
   <si>
+    <t>Kezi</t>
+  </si>
+  <si>
+    <t>Mbembeswana</t>
+  </si>
+  <si>
+    <t>MAPHISA - 100890 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
+    <t>MATOBO</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
@@ -450,6 +465,9 @@
     <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>73</t>
   </si>
   <si>
@@ -469,6 +487,27 @@
   </si>
   <si>
     <t>60</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>79</t>
   </si>
   <si>
     <t>Client is healing</t>
@@ -478,6 +517,12 @@
 client healing</t>
   </si>
   <si>
+    <t>client healing</t>
+  </si>
+  <si>
+    <t>Client healing</t>
+  </si>
+  <si>
     <t>Severe</t>
   </si>
   <si>
@@ -493,6 +538,9 @@
     <t>SSE</t>
   </si>
   <si>
+    <t>CO-A</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -520,9 +568,30 @@
     <t>2024-11-05</t>
   </si>
   <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>2024-10-02</t>
+  </si>
+  <si>
+    <t>Sankonjana</t>
+  </si>
+  <si>
     <t>Krima Clinic</t>
   </si>
   <si>
+    <t>Maphisa Hospital</t>
+  </si>
+  <si>
+    <t>Natisa</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -535,34 +604,76 @@
     <t>15</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>28</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>Surgical</t>
@@ -574,7 +685,22 @@
     <t>Client had high fever</t>
   </si>
   <si>
-    <t>October</t>
+    <t>Referred for Bilharzia treatment</t>
+  </si>
+  <si>
+    <t>Client had elaveted BP</t>
+  </si>
+  <si>
+    <t>Client had high BP</t>
+  </si>
+  <si>
+    <t>client had a rash not circumcised</t>
+  </si>
+  <si>
+    <t>Client had high blood</t>
+  </si>
+  <si>
+    <t>September</t>
   </si>
   <si>
     <t>Hypertensive</t>
@@ -583,31 +709,52 @@
     <t>OPD</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>62</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>67</t>
   </si>
   <si>
     <t>77</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>71</t>
   </si>
   <si>
-    <t>56</t>
+    <t>133</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>59</t>
+    <t>91</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
   <si>
     <t>345534</t>
@@ -622,34 +769,70 @@
     <t>00056</t>
   </si>
   <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>34565</t>
+  </si>
+  <si>
+    <t>566777</t>
+  </si>
+  <si>
+    <t>Outreach</t>
+  </si>
+  <si>
     <t>Static</t>
   </si>
   <si>
-    <t>Outreach</t>
-  </si>
-  <si>
     <t>cancelthisAEReport</t>
   </si>
   <si>
-    <t>Client healing</t>
+    <t>Client Healimg at home</t>
+  </si>
+  <si>
+    <t>Client Healing</t>
   </si>
   <si>
     <t>2024-11-08</t>
   </si>
   <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
     <t>467233</t>
   </si>
   <si>
     <t>245555</t>
   </si>
   <si>
+    <t>233446</t>
+  </si>
+  <si>
+    <t>3467</t>
+  </si>
+  <si>
+    <t>578988</t>
+  </si>
+  <si>
+    <t>Client has rash and was linked to OPD</t>
+  </si>
+  <si>
     <t>high fever</t>
   </si>
   <si>
-    <t>Client had high BP</t>
-  </si>
-  <si>
     <t>Client had  severe fever</t>
+  </si>
+  <si>
+    <t>Client had elevated BP</t>
+  </si>
+  <si>
+    <t>Client had fever</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EW8"/>
+  <dimension ref="A1:EW17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1476,82 +1659,109 @@
     </row>
     <row r="2" spans="1:153">
       <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H2" t="s">
         <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="U2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="V2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="W2" t="s">
-        <v>174</v>
-      </c>
-      <c r="X2" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="AC2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AD2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="AE2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>158</v>
+        <v>202</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>175</v>
       </c>
       <c r="BH2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BI2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="BJ2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="BK2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BL2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BM2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BN2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BO2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BR2" t="s">
         <v>134</v>
@@ -1566,225 +1776,234 @@
         <v>134</v>
       </c>
       <c r="BV2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="BX2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BY2" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="BZ2" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>172</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>180</v>
+        <v>202</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>175</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>209</v>
       </c>
       <c r="CU2">
         <v>0</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>173</v>
+      <c r="CW2" t="s">
+        <v>174</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>175</v>
       </c>
       <c r="DM2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DN2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DO2" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="DP2" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="DQ2" t="s">
+        <v>149</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>197</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>217</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>209</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP2" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES2" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EV2" t="s">
         <v>144</v>
       </c>
-      <c r="DR2" t="s">
-        <v>180</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>192</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>159</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>193</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>158</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>146</v>
-      </c>
-      <c r="DY2">
-        <v>0</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>194</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>194</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>195</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>159</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>159</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>140</v>
-      </c>
       <c r="EW2" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:153">
-      <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
         <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L3" t="s">
-        <v>155</v>
-      </c>
-      <c r="M3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="O3" t="s">
-        <v>159</v>
-      </c>
-      <c r="P3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="S3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="U3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="V3" t="s">
-        <v>172</v>
+        <v>194</v>
+      </c>
+      <c r="W3" t="s">
+        <v>203</v>
+      </c>
+      <c r="X3" t="s">
+        <v>206</v>
       </c>
       <c r="AC3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AD3" t="s">
-        <v>172</v>
+        <v>194</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>174</v>
       </c>
       <c r="BH3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BI3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="BJ3" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="BK3" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="BL3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BM3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BN3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BO3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BQ3" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="BR3" t="s">
         <v>134</v>
@@ -1799,407 +2018,392 @@
         <v>134</v>
       </c>
       <c r="BV3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="BW3" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="BX3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="BY3" t="s">
-        <v>159</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>146</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>172</v>
+        <v>194</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>209</v>
       </c>
       <c r="CU3">
         <v>0</v>
       </c>
+      <c r="CZ3" t="s">
+        <v>198</v>
+      </c>
       <c r="DM3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="DN3" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>217</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>209</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>175</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>199</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>152</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER3" t="s">
         <v>159</v>
       </c>
-      <c r="DO3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>145</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY3">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>194</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>145</v>
-      </c>
       <c r="ES3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="ET3" t="s">
-        <v>159</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="EV3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="EW3" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:153">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" t="s">
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>146</v>
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" t="s">
+        <v>174</v>
       </c>
       <c r="O4" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="P4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>177</v>
+      </c>
+      <c r="R4" t="s">
+        <v>179</v>
       </c>
       <c r="S4" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="U4" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="V4" t="s">
+        <v>197</v>
       </c>
       <c r="AC4" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>197</v>
       </c>
       <c r="BH4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="BI4" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="BJ4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BK4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BL4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BM4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BN4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BO4" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>221</v>
       </c>
       <c r="BR4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BS4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BT4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BU4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="BV4" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>229</v>
       </c>
       <c r="BX4" t="s">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>152</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>197</v>
       </c>
       <c r="CU4">
         <v>0</v>
       </c>
       <c r="DM4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="DN4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DO4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DP4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DQ4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="DR4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DS4" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="DT4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="DU4" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="DV4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DW4" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="DX4" t="s">
-        <v>159</v>
-      </c>
-      <c r="DY4">
-        <v>0</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="EA4" t="s">
-        <v>194</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>240</v>
       </c>
       <c r="ED4" t="s">
-        <v>194</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>240</v>
       </c>
       <c r="EG4" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>194</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>240</v>
       </c>
       <c r="ER4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="ES4" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="ET4" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>246</v>
       </c>
       <c r="EV4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="EW4" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:153">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" t="s">
-        <v>140</v>
-      </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J5" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>146</v>
-      </c>
-      <c r="R5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="S5" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="U5" t="s">
-        <v>168</v>
-      </c>
-      <c r="V5" t="s">
-        <v>171</v>
-      </c>
-      <c r="W5" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="AC5" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="BH5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="BI5" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="BJ5" t="s">
         <v>175</v>
       </c>
       <c r="BK5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BL5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BM5" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="BN5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BO5" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BR5" t="s">
         <v>135</v>
@@ -2214,166 +2418,91 @@
         <v>135</v>
       </c>
       <c r="BV5" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="BX5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>159</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>159</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>159</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>159</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>159</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>178</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>168</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>172</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="CU5">
         <v>0</v>
       </c>
-      <c r="CV5" t="s">
-        <v>169</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>159</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>159</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>159</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>159</v>
-      </c>
       <c r="DM5" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="DN5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="DO5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DP5" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="DQ5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="DR5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DS5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="DT5" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="DU5" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="DV5" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="DW5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="DX5" t="s">
-        <v>180</v>
-      </c>
-      <c r="DY5">
-        <v>0</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="EA5" t="s">
-        <v>194</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>240</v>
       </c>
       <c r="ED5" t="s">
-        <v>194</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>240</v>
       </c>
       <c r="EG5" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>240</v>
       </c>
       <c r="EJ5" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="EM5" t="s">
-        <v>194</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="EP5" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="ER5" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="ES5" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="ET5" t="s">
-        <v>159</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="EV5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="EW5" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:153">
@@ -2384,145 +2513,136 @@
         <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" t="s">
+        <v>170</v>
+      </c>
+      <c r="M6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q6" t="s">
         <v>152</v>
       </c>
-      <c r="K6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L6" t="s">
-        <v>156</v>
-      </c>
-      <c r="M6" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" t="s">
-        <v>158</v>
-      </c>
-      <c r="O6" t="s">
-        <v>159</v>
-      </c>
-      <c r="P6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>161</v>
-      </c>
       <c r="R6" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="S6" t="s">
         <v>138</v>
       </c>
       <c r="U6" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="V6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="W6" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="Y6" t="s">
-        <v>179</v>
+        <v>210</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>209</v>
       </c>
       <c r="AC6" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AD6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AE6" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="AG6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>159</v>
+        <v>208</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>175</v>
       </c>
       <c r="BH6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="BI6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="BJ6" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="BK6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BL6" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="BM6" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="BN6" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="BO6" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="BP6" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="BR6" t="s">
         <v>135</v>
@@ -2537,773 +2657,3152 @@
         <v>135</v>
       </c>
       <c r="BV6" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="BX6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BY6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BZ6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="CB6" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>175</v>
       </c>
       <c r="CF6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="CG6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="CH6" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="CJ6" t="s">
-        <v>179</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>188</v>
+        <v>210</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>191</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>209</v>
       </c>
       <c r="CU6">
         <v>0</v>
       </c>
-      <c r="CW6" t="s">
-        <v>158</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DE6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>159</v>
+      <c r="CV6" t="s">
+        <v>192</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>175</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>218</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>202</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>175</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>175</v>
       </c>
       <c r="DM6" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="DN6" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="DO6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DP6" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="DQ6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="DR6" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="DS6" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DT6" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>208</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>218</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>192</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>209</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER6" t="s">
         <v>191</v>
       </c>
-      <c r="DU6" t="s">
-        <v>146</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>159</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>171</v>
-      </c>
-      <c r="DY6">
-        <v>0</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EE6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EF6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EJ6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EK6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EN6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EP6" t="s">
-        <v>194</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>194</v>
-      </c>
-      <c r="ER6" t="s">
-        <v>148</v>
-      </c>
       <c r="ES6" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="ET6" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="EU6" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="EV6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="EW6" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:153">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>154</v>
+      </c>
+      <c r="J7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N7" t="s">
+        <v>174</v>
       </c>
       <c r="O7" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="P7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>177</v>
+      </c>
+      <c r="R7" t="s">
+        <v>181</v>
       </c>
       <c r="S7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="U7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="V7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="W7" t="s">
-        <v>159</v>
-      </c>
-      <c r="X7" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="Y7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="AC7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AD7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="AE7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="AG7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>169</v>
+        <v>152</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>175</v>
       </c>
       <c r="BH7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="BI7" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="BJ7" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="BK7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BL7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="BM7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BN7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="BO7" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>219</v>
       </c>
       <c r="BR7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="BS7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="BT7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="BU7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="BV7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BX7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BY7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BZ7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="CB7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="CF7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="CG7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="CH7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="CJ7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CK7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>159</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>169</v>
-      </c>
-      <c r="CO7" t="s">
-        <v>169</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>169</v>
-      </c>
-      <c r="CQ7" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="CR7" t="s">
-        <v>169</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>169</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>169</v>
+        <v>217</v>
       </c>
       <c r="CU7">
         <v>0</v>
       </c>
+      <c r="CW7" t="s">
+        <v>174</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>175</v>
+      </c>
       <c r="DM7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="DN7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DO7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DP7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DQ7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="DR7" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="DS7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DT7" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="DU7" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="DV7" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="DW7" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="DX7" t="s">
-        <v>159</v>
-      </c>
-      <c r="DY7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="DZ7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="EA7" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>240</v>
       </c>
       <c r="EC7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="ED7" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>240</v>
       </c>
       <c r="EF7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="EG7" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>240</v>
       </c>
       <c r="EI7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="EJ7" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>240</v>
       </c>
       <c r="EL7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="EM7" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>240</v>
       </c>
       <c r="EO7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="EP7" t="s">
-        <v>194</v>
+        <v>240</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>240</v>
       </c>
       <c r="ER7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="ES7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="ET7" t="s">
-        <v>159</v>
+        <v>174</v>
+      </c>
+      <c r="EU7" t="s">
+        <v>248</v>
       </c>
       <c r="EV7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="EW7" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:153">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
       <c r="D8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>150</v>
-      </c>
-      <c r="J8" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" t="s">
-        <v>158</v>
-      </c>
-      <c r="N8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
-      </c>
-      <c r="P8" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>162</v>
-      </c>
-      <c r="R8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="S8" t="s">
         <v>139</v>
       </c>
       <c r="U8" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="V8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="W8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="X8" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>175</v>
       </c>
       <c r="AC8" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="AD8" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="AE8" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="AF8" t="s">
-        <v>177</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>159</v>
+        <v>192</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>192</v>
       </c>
       <c r="BH8" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="BI8" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="BJ8" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="BK8" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="BL8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="BM8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="BN8" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="BO8" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>182</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="BR8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BS8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BU8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BV8" t="s">
-        <v>158</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="BX8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BY8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="BZ8" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="CA8" t="s">
-        <v>159</v>
+        <v>175</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>175</v>
       </c>
       <c r="CF8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="CG8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CH8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="CI8" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>175</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>192</v>
       </c>
       <c r="CU8">
         <v>0</v>
       </c>
-      <c r="CV8" t="s">
-        <v>170</v>
-      </c>
-      <c r="CW8" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY8" t="s">
+      <c r="DM8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>155</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>155</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>175</v>
+      </c>
+      <c r="DX8" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>155</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET8" t="s">
+        <v>175</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:153">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M9" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" t="s">
+        <v>140</v>
+      </c>
+      <c r="U9" t="s">
+        <v>193</v>
+      </c>
+      <c r="V9" t="s">
+        <v>198</v>
+      </c>
+      <c r="W9" t="s">
+        <v>197</v>
+      </c>
+      <c r="X9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>209</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>208</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>175</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>198</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>208</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>193</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>209</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DC9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>209</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>156</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>199</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>217</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>194</v>
+      </c>
+      <c r="DX9" t="s">
+        <v>152</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>239</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET9" t="s">
+        <v>174</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>249</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:153">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L10" t="s">
+        <v>171</v>
+      </c>
+      <c r="M10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N10" t="s">
+        <v>174</v>
+      </c>
+      <c r="O10" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" t="s">
+        <v>183</v>
+      </c>
+      <c r="S10" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" t="s">
+        <v>152</v>
+      </c>
+      <c r="V10" t="s">
+        <v>199</v>
+      </c>
+      <c r="W10" t="s">
+        <v>197</v>
+      </c>
+      <c r="X10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>209</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>175</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>152</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>199</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>197</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>209</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>174</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>195</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>175</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>178</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>217</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>217</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>239</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>218</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>199</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>199</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>241</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>174</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>250</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:153">
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S11" t="s">
+        <v>142</v>
+      </c>
+      <c r="U11" t="s">
+        <v>152</v>
+      </c>
+      <c r="V11" t="s">
+        <v>200</v>
+      </c>
+      <c r="W11" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD11" t="s">
         <v>159</v>
       </c>
-      <c r="DA8" t="s">
+      <c r="AE11" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI11" t="s">
         <v>159</v>
       </c>
-      <c r="DC8" t="s">
+      <c r="BJ11" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>135</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>152</v>
+      </c>
+      <c r="CG11" t="s">
         <v>159</v>
       </c>
-      <c r="DE8" t="s">
+      <c r="CH11" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>209</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>209</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>158</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>199</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>197</v>
+      </c>
+      <c r="DX11" t="s">
+        <v>152</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>209</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>158</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET11" t="s">
+        <v>175</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:153">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" t="s">
+        <v>175</v>
+      </c>
+      <c r="P12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>152</v>
+      </c>
+      <c r="R12" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V12" t="s">
         <v>159</v>
       </c>
-      <c r="DG8" t="s">
+      <c r="W12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>209</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI12" t="s">
         <v>159</v>
       </c>
-      <c r="DI8" t="s">
+      <c r="BJ12" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>228</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>210</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>205</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>209</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>218</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>231</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>210</v>
+      </c>
+      <c r="CW12" t="s">
+        <v>152</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>232</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>197</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DC12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>217</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>208</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>158</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>234</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>237</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>152</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>217</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>206</v>
+      </c>
+      <c r="DX12" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>242</v>
+      </c>
+      <c r="ES12" t="s">
+        <v>151</v>
+      </c>
+      <c r="ET12" t="s">
+        <v>174</v>
+      </c>
+      <c r="EU12" t="s">
+        <v>251</v>
+      </c>
+      <c r="EV12" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:153">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" t="s">
         <v>159</v>
       </c>
-      <c r="DL8" t="s">
+      <c r="J13" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>152</v>
+      </c>
+      <c r="R13" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" t="s">
+        <v>141</v>
+      </c>
+      <c r="U13" t="s">
+        <v>152</v>
+      </c>
+      <c r="V13" t="s">
+        <v>201</v>
+      </c>
+      <c r="W13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>228</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>201</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>206</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>174</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>177</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>201</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>209</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ13" t="s">
         <v>159</v>
       </c>
-      <c r="DM8" t="s">
-        <v>158</v>
-      </c>
-      <c r="DN8" t="s">
-        <v>158</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>180</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>159</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>150</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>159</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>159</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>150</v>
-      </c>
-      <c r="DU8" t="s">
+      <c r="DR13" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>152</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>209</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>152</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>152</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>243</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>175</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>252</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:153">
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" t="s">
+        <v>175</v>
+      </c>
+      <c r="S14" t="s">
+        <v>186</v>
+      </c>
+      <c r="T14" t="s">
+        <v>190</v>
+      </c>
+      <c r="U14" t="s">
+        <v>152</v>
+      </c>
+      <c r="V14" t="s">
         <v>193</v>
       </c>
-      <c r="DV8" t="s">
+      <c r="W14" t="s">
+        <v>207</v>
+      </c>
+      <c r="X14" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>207</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>197</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>209</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>227</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>227</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>161</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>207</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>209</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>209</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>174</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>174</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>209</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>175</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>199</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>175</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>199</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>199</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>209</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>160</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>175</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:153">
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" t="s">
+        <v>175</v>
+      </c>
+      <c r="S15" t="s">
+        <v>141</v>
+      </c>
+      <c r="U15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>161</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>175</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>161</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>161</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>161</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>198</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER15" t="s">
+        <v>161</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>175</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:153">
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>175</v>
+      </c>
+      <c r="S16" t="s">
         <v>188</v>
       </c>
-      <c r="DW8" t="s">
-        <v>171</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>146</v>
-      </c>
-      <c r="DY8">
+      <c r="U16" t="s">
+        <v>194</v>
+      </c>
+      <c r="V16" t="s">
+        <v>201</v>
+      </c>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>209</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>194</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>209</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>227</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>229</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>175</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>216</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>149</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>197</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>209</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>217</v>
+      </c>
+      <c r="CU16">
         <v>0</v>
       </c>
-      <c r="DZ8" t="s">
+      <c r="CV16" t="s">
         <v>194</v>
       </c>
-      <c r="EA8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EE8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EF8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EG8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EH8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EI8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EJ8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EL8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EN8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EP8" t="s">
-        <v>194</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>194</v>
-      </c>
-      <c r="ER8" t="s">
-        <v>196</v>
-      </c>
-      <c r="ES8" t="s">
-        <v>159</v>
-      </c>
-      <c r="ET8" t="s">
-        <v>158</v>
-      </c>
-      <c r="EU8" t="s">
-        <v>200</v>
-      </c>
-      <c r="EV8" t="s">
-        <v>140</v>
-      </c>
-      <c r="EW8" t="s">
-        <v>202</v>
+      <c r="CX16" t="s">
+        <v>201</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>175</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>208</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>175</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>162</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>217</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>238</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>212</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>208</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>244</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>175</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>175</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="4:153">
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>175</v>
+      </c>
+      <c r="P17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>152</v>
+      </c>
+      <c r="R17" t="s">
+        <v>185</v>
+      </c>
+      <c r="S17" t="s">
+        <v>189</v>
+      </c>
+      <c r="U17" t="s">
+        <v>195</v>
+      </c>
+      <c r="V17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>218</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>209</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>195</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>199</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>219</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>227</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>227</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>227</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>227</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>228</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>175</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>175</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>199</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>203</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>209</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>199</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>209</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DC17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DG17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>209</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>163</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>163</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>152</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>231</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>210</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>240</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EN17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EP17" t="s">
+        <v>240</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>240</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>245</v>
+      </c>
+      <c r="ES17" t="s">
+        <v>209</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>174</v>
+      </c>
+      <c r="EU17" t="s">
+        <v>253</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3313,7 +5812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3333,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>203</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -3365,37 +5864,37 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" t="s">
         <v>167</v>
       </c>
-      <c r="C2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>204</v>
-      </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="L2" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M2" t="s">
-        <v>206</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3403,75 +5902,72 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
         <v>167</v>
       </c>
-      <c r="C3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" t="s">
+        <v>170</v>
+      </c>
+      <c r="I3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" t="s">
         <v>204</v>
       </c>
-      <c r="G3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H3" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" t="s">
-        <v>175</v>
-      </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M3" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="K4" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M4" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3479,113 +5975,361 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" t="s">
         <v>155</v>
       </c>
-      <c r="I5" t="s">
-        <v>160</v>
-      </c>
-      <c r="J5" t="s">
-        <v>146</v>
-      </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M5" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
-      </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" t="s">
         <v>152</v>
       </c>
-      <c r="G6" t="s">
-        <v>153</v>
-      </c>
-      <c r="H6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J6" t="s">
-        <v>161</v>
-      </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>219</v>
       </c>
       <c r="M6" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J8" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" t="s">
+        <v>219</v>
+      </c>
+      <c r="M8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
         <v>135</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" t="s">
+        <v>219</v>
+      </c>
+      <c r="M9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
         <v>139</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" t="s">
+        <v>219</v>
+      </c>
+      <c r="M10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
         <v>140</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
         <v>141</v>
       </c>
-      <c r="F7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I7" t="s">
-        <v>160</v>
-      </c>
-      <c r="J7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" t="s">
+        <v>183</v>
+      </c>
+      <c r="L12" t="s">
+        <v>219</v>
+      </c>
+      <c r="M12" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H13" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s">
+        <v>184</v>
+      </c>
+      <c r="L13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
         <v>166</v>
       </c>
-      <c r="L7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M7" t="s">
-        <v>200</v>
+      <c r="G14" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" t="s">
+        <v>176</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" t="s">
+        <v>219</v>
+      </c>
+      <c r="M14" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +6339,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3623,42 +6367,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3666,19 +6404,19 @@
         <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3686,53 +6424,53 @@
         <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3740,19 +6478,175 @@
         <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
         <v>140</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
         <v>141</v>
       </c>
-      <c r="E8" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" t="s">
-        <v>187</v>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="22188" windowHeight="8700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
     <sheet name="AEs" sheetId="2" r:id="rId2"/>
     <sheet name="Referrals" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -423,401 +436,401 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>MATOBO</t>
+  </si>
+  <si>
+    <t>MAPHISA - 100890 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Sankonjana</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>December</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Outreach</t>
+  </si>
+  <si>
+    <t>GOKWE SOUTH</t>
+  </si>
+  <si>
+    <t>Gokwe South District Hospital</t>
+  </si>
+  <si>
+    <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Client had elavated BP</t>
+  </si>
+  <si>
+    <t>Hypertensive</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Gwanyika Rural Health Centre</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Client is healing</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>Surgical</t>
+  </si>
+  <si>
+    <t>Client had high fever</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
+    <t>345534</t>
+  </si>
+  <si>
+    <t>Krima Clinic</t>
+  </si>
+  <si>
     <t>November</t>
   </si>
   <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>Gwanyika Rural Health Centre</t>
-  </si>
-  <si>
     <t>Katema RDC</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>234556</t>
+  </si>
+  <si>
     <t>Jahana Clinic</t>
   </si>
   <si>
-    <t>Huchu Clinic</t>
-  </si>
-  <si>
-    <t>Kezi</t>
-  </si>
-  <si>
-    <t>Mbembeswana</t>
-  </si>
-  <si>
-    <t>MAPHISA - 100890 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>MATOBO</t>
-  </si>
-  <si>
-    <t>GOKWE SOUTH</t>
-  </si>
-  <si>
-    <t>Gokwe South District Hospital</t>
-  </si>
-  <si>
-    <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>80</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Client is healing</t>
   </si>
   <si>
     <t>Sature elavated  by lignocaine,
 client healing</t>
   </si>
   <si>
+    <t>COA</t>
+  </si>
+  <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>234455</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>Huchu Clinic</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>00056</t>
+  </si>
+  <si>
+    <t>Kezi</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Referred for Bilharzia treatment</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>Mbembeswana</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2024-10-03</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Client had elaveted BP</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
     <t>client healing</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Client had high BP</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>34565</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Maphisa Hospital</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>client had a rash not circumcised</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
     <t>Client healing</t>
   </si>
   <si>
-    <t>Severe</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>SSE</t>
-  </si>
-  <si>
     <t>CO-A</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>2024-12-12</t>
-  </si>
-  <si>
-    <t>2024-11-14</t>
-  </si>
-  <si>
-    <t>2024-11-10</t>
-  </si>
-  <si>
-    <t>2024-11-05</t>
-  </si>
-  <si>
-    <t>2024-12-05</t>
-  </si>
-  <si>
-    <t>2024-10-03</t>
-  </si>
-  <si>
     <t>2024-10-02</t>
   </si>
   <si>
-    <t>Sankonjana</t>
-  </si>
-  <si>
-    <t>Krima Clinic</t>
-  </si>
-  <si>
-    <t>Maphisa Hospital</t>
-  </si>
-  <si>
     <t>Natisa</t>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Surgical</t>
-  </si>
-  <si>
-    <t>Client had elavated BP</t>
-  </si>
-  <si>
-    <t>Client had high fever</t>
-  </si>
-  <si>
-    <t>Referred for Bilharzia treatment</t>
-  </si>
-  <si>
-    <t>Client had elaveted BP</t>
-  </si>
-  <si>
-    <t>Client had high BP</t>
-  </si>
-  <si>
-    <t>client had a rash not circumcised</t>
-  </si>
-  <si>
     <t>Client had high blood</t>
   </si>
   <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>Hypertensive</t>
-  </si>
-  <si>
-    <t>OPD</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
-    <t>345534</t>
-  </si>
-  <si>
-    <t>234556</t>
-  </si>
-  <si>
-    <t>234455</t>
-  </si>
-  <si>
-    <t>00056</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>34565</t>
-  </si>
-  <si>
     <t>566777</t>
   </si>
   <si>
-    <t>Outreach</t>
-  </si>
-  <si>
-    <t>Static</t>
-  </si>
-  <si>
     <t>cancelthisAEReport</t>
   </si>
   <si>
+    <t>467233</t>
+  </si>
+  <si>
+    <t>2024-11-08</t>
+  </si>
+  <si>
+    <t>245555</t>
+  </si>
+  <si>
+    <t>233446</t>
+  </si>
+  <si>
+    <t>3467</t>
+  </si>
+  <si>
     <t>Client Healimg at home</t>
   </si>
   <si>
+    <t>2024-09-03</t>
+  </si>
+  <si>
     <t>Client Healing</t>
   </si>
   <si>
-    <t>2024-11-08</t>
-  </si>
-  <si>
-    <t>2024-09-03</t>
-  </si>
-  <si>
     <t>2024-12-03</t>
-  </si>
-  <si>
-    <t>467233</t>
-  </si>
-  <si>
-    <t>245555</t>
-  </si>
-  <si>
-    <t>233446</t>
-  </si>
-  <si>
-    <t>3467</t>
   </si>
   <si>
     <t>578988</t>
@@ -841,13 +854,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,19 +874,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -890,9 +1246,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -900,11 +1498,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1187,17 +1837,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:EX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:154">
       <c r="A1" s="1" t="s">
@@ -1663,4214 +2315,4218 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:154">
+    <row r="2" spans="4:154">
       <c r="D2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O2" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC2" t="s">
         <v>144</v>
       </c>
-      <c r="I2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O2" t="s">
-        <v>176</v>
-      </c>
-      <c r="S2" t="s">
-        <v>187</v>
-      </c>
-      <c r="U2" t="s">
-        <v>153</v>
-      </c>
-      <c r="V2" t="s">
-        <v>197</v>
-      </c>
-      <c r="W2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>210</v>
-      </c>
       <c r="BD2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BE2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BF2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BG2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BH2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="BI2" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="BJ2" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="BK2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BL2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BM2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BN2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BO2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BR2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="BS2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="BT2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="BU2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="BV2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BX2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="BY2" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="BZ2" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="CG2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CO2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CU2">
         <v>0</v>
       </c>
       <c r="CW2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="CY2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DA2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DC2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DE2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DG2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DI2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DL2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DM2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DN2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO2" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DP2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="DR2">
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DT2" t="s">
-        <v>236</v>
+        <v>147</v>
       </c>
       <c r="DU2" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DV2" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="DW2" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DX2" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DY2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EA2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EB2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ED2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EG2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EJ2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EM2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EP2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER2" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES2" t="s">
+        <v>137</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>138</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>143</v>
+      </c>
+      <c r="EW2" t="s">
         <v>150</v>
       </c>
-      <c r="ET2" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>175</v>
-      </c>
-      <c r="EW2" t="s">
+      <c r="EX2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="4:154">
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
         <v>145</v>
       </c>
-      <c r="EX2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:154">
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
       <c r="F3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" t="s">
+        <v>140</v>
+      </c>
+      <c r="V3" t="s">
+        <v>156</v>
+      </c>
+      <c r="W3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>158</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CA3" t="s">
         <v>148</v>
       </c>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" t="s">
-        <v>176</v>
-      </c>
-      <c r="S3" t="s">
-        <v>148</v>
-      </c>
-      <c r="U3" t="s">
-        <v>153</v>
-      </c>
-      <c r="V3" t="s">
-        <v>195</v>
-      </c>
-      <c r="W3" t="s">
-        <v>204</v>
-      </c>
-      <c r="X3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>204</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>207</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>229</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>204</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>198</v>
-      </c>
       <c r="CI3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CQ3" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CU3">
         <v>0</v>
       </c>
       <c r="CZ3" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="DM3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DN3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DO3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DP3" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DQ3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="DR3">
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DT3" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="DU3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DV3" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="DW3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DX3" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="DY3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="EB3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER3" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="ET3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EU3" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EW3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX3" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:154">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
         <v>145</v>
       </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K4" t="s">
         <v>169</v>
       </c>
       <c r="L4" t="s">
+        <v>170</v>
+      </c>
+      <c r="M4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O4" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" t="s">
         <v>171</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R4" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" t="s">
+        <v>140</v>
+      </c>
+      <c r="V4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ4" t="s">
         <v>175</v>
       </c>
-      <c r="N4" t="s">
-        <v>175</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="BR4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW4" t="s">
         <v>176</v>
       </c>
-      <c r="P4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>178</v>
-      </c>
-      <c r="R4" t="s">
-        <v>180</v>
-      </c>
-      <c r="S4" t="s">
-        <v>138</v>
-      </c>
-      <c r="U4" t="s">
-        <v>153</v>
-      </c>
-      <c r="V4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>230</v>
-      </c>
       <c r="BX4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="CG4" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="CU4">
         <v>0</v>
       </c>
       <c r="DM4" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DP4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ4" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="DR4">
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT4" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>138</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>148</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>149</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>167</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>177</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="4:154">
+      <c r="D5" t="s">
         <v>152</v>
       </c>
-      <c r="DV4" t="s">
-        <v>198</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>176</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>198</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>198</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>241</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>241</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>241</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>152</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>176</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>247</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>145</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:154">
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="O5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="S5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="U5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AC5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="BH5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="BI5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BJ5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BK5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BL5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BM5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BN5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BO5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BR5" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BS5" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BT5" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BU5" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BV5" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BX5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="CU5">
         <v>0</v>
       </c>
       <c r="DM5" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DN5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DP5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DR5">
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DU5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DV5" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DW5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DX5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DY5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EB5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ5" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="ET5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EU5" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EW5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX5" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:154">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6" t="s">
         <v>170</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" t="s">
+        <v>143</v>
+      </c>
+      <c r="O6" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" t="s">
         <v>171</v>
       </c>
-      <c r="M6" t="s">
-        <v>175</v>
-      </c>
-      <c r="N6" t="s">
-        <v>175</v>
-      </c>
-      <c r="O6" t="s">
-        <v>176</v>
-      </c>
-      <c r="P6" t="s">
-        <v>177</v>
-      </c>
       <c r="Q6" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="R6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S6" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="U6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="V6" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="W6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="Y6" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="Z6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AA6" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="AB6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="AC6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AD6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AE6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="AG6" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="AH6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AI6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AJ6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AS6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AT6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AU6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="AW6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="AX6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AY6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AZ6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BH6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="BI6" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="BJ6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="BK6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BL6" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="BM6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="BN6" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="BO6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BP6" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="BR6" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BS6" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BT6" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BU6" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BV6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BX6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BZ6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CB6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CC6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CD6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CE6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="CG6" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="CH6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="CJ6" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="CK6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="CL6" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="CM6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CU6">
         <v>0</v>
       </c>
       <c r="CV6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CX6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CZ6" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="DD6" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="DF6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DH6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DK6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DM6" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN6" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="DO6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DP6" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="DQ6" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="DR6">
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU6" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="DV6" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="DW6" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="DX6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="DY6" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="EB6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER6" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="ET6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EU6" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EV6" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="EW6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX6" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:154">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="K7" t="s">
         <v>169</v>
       </c>
       <c r="L7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N7" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" t="s">
         <v>172</v>
       </c>
-      <c r="M7" t="s">
-        <v>175</v>
-      </c>
-      <c r="N7" t="s">
-        <v>175</v>
-      </c>
-      <c r="O7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>178</v>
-      </c>
       <c r="R7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="S7" t="s">
+        <v>192</v>
+      </c>
+      <c r="U7" t="s">
         <v>140</v>
       </c>
-      <c r="U7" t="s">
-        <v>153</v>
-      </c>
       <c r="V7" t="s">
+        <v>148</v>
+      </c>
+      <c r="W7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC7" t="s">
         <v>198</v>
       </c>
-      <c r="W7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>162</v>
-      </c>
       <c r="AD7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH7" t="s">
         <v>198</v>
       </c>
-      <c r="AE7" t="s">
-        <v>195</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>175</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>162</v>
-      </c>
       <c r="BI7" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF7" t="s">
         <v>198</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>195</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>153</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>220</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>162</v>
-      </c>
       <c r="CG7" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="CH7" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="CJ7" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="CR7" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="CU7">
         <v>0</v>
       </c>
       <c r="CW7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="CY7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DA7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DC7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DE7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DG7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DI7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DL7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DM7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DP7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="DR7">
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DT7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU7" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="DV7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DW7" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DX7" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="DY7" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="EA7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EB7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ED7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EG7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EJ7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EM7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EP7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER7" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="ET7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EU7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EV7" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
       <c r="EW7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX7" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:154">
+    <row r="8" spans="4:154">
       <c r="D8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="O8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="U8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="V8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="W8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="X8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="Y8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="Z8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AD8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AE8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AF8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AG8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AH8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AI8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BH8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BI8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BJ8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BK8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BL8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BM8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BN8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="BO8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BR8" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="BS8" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="BT8" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="BU8" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="BV8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BX8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BZ8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CA8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CB8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CC8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CD8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CG8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CH8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CI8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CJ8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CK8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CL8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CN8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CO8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CP8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CQ8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CR8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CS8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CT8" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="CU8">
         <v>0</v>
       </c>
       <c r="DM8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DN8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DP8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ8" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="DR8">
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="DT8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DV8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DW8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DX8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DY8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EB8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER8" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES8" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="ET8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EU8" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EW8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX8" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:154">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K9" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L9" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="M9" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" t="s">
+        <v>138</v>
+      </c>
+      <c r="P9" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>205</v>
+      </c>
+      <c r="R9" t="s">
+        <v>206</v>
+      </c>
+      <c r="S9" t="s">
+        <v>202</v>
+      </c>
+      <c r="U9" t="s">
+        <v>207</v>
+      </c>
+      <c r="V9" t="s">
+        <v>161</v>
+      </c>
+      <c r="W9" t="s">
+        <v>148</v>
+      </c>
+      <c r="X9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>188</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ9" t="s">
         <v>175</v>
       </c>
-      <c r="N9" t="s">
-        <v>175</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="BR9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW9" t="s">
         <v>176</v>
       </c>
-      <c r="P9" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>179</v>
-      </c>
-      <c r="R9" t="s">
-        <v>183</v>
-      </c>
-      <c r="S9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U9" t="s">
-        <v>194</v>
-      </c>
-      <c r="V9" t="s">
-        <v>199</v>
-      </c>
-      <c r="W9" t="s">
-        <v>198</v>
-      </c>
-      <c r="X9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>210</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>199</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>209</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>230</v>
-      </c>
       <c r="BX9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BZ9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CA9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF9" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="CG9" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="CH9" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="CI9" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="CU9">
         <v>0</v>
       </c>
       <c r="CV9" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="CW9" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CY9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DA9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DC9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DE9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DG9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DI9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DL9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DM9" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN9" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DO9" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DP9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ9" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="DR9">
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU9" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="DV9" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="DW9" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DX9" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="DY9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="EA9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EB9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ED9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EG9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EJ9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EM9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EP9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER9" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES9" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="ET9" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EU9" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EV9" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="EW9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX9" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:154">
       <c r="A10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
         <v>135</v>
       </c>
-      <c r="B10" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I10" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K10" t="s">
         <v>169</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="M10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q10" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="R10" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="S10" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="U10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="V10" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="W10" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="X10" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="Z10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AB10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AC10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="AD10" t="s">
         <v>214</v>
       </c>
       <c r="AE10" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="AF10" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="AH10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>148</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>215</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BW10" t="s">
         <v>176</v>
       </c>
-      <c r="AL10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>218</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>175</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>175</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>175</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>223</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>175</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>230</v>
-      </c>
       <c r="BX10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BZ10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CA10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CC10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CE10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF10" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="CG10" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="CH10" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="CI10" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CK10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="CM10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="CU10">
         <v>0</v>
       </c>
       <c r="CV10" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CW10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CX10" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="CY10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DA10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DC10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DE10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DG10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DI10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DL10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DM10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN10" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DO10" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DP10" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DQ10" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="DR10">
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT10" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU10" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="DV10" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="DW10" t="s">
+        <v>189</v>
+      </c>
+      <c r="DX10" t="s">
+        <v>163</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>163</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>149</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>149</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>216</v>
+      </c>
+      <c r="ET10" t="s">
+        <v>138</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>143</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>217</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="4:154">
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>218</v>
+      </c>
+      <c r="O11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S11" t="s">
         <v>219</v>
       </c>
-      <c r="DX10" t="s">
-        <v>200</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>200</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>241</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EF10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EI10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EN10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EP10" t="s">
-        <v>241</v>
-      </c>
-      <c r="EQ10" t="s">
-        <v>241</v>
-      </c>
-      <c r="ER10" t="s">
-        <v>241</v>
-      </c>
-      <c r="ES10" t="s">
-        <v>242</v>
-      </c>
-      <c r="ET10" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU10" t="s">
-        <v>175</v>
-      </c>
-      <c r="EV10" t="s">
-        <v>251</v>
-      </c>
-      <c r="EW10" t="s">
-        <v>145</v>
-      </c>
-      <c r="EX10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:154">
-      <c r="D11" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="U11" t="s">
+        <v>140</v>
+      </c>
+      <c r="V11" t="s">
+        <v>220</v>
+      </c>
+      <c r="W11" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y11" t="s">
         <v>144</v>
       </c>
-      <c r="I11" t="s">
-        <v>159</v>
-      </c>
-      <c r="O11" t="s">
-        <v>176</v>
-      </c>
-      <c r="S11" t="s">
-        <v>143</v>
-      </c>
-      <c r="U11" t="s">
-        <v>153</v>
-      </c>
-      <c r="V11" t="s">
-        <v>201</v>
-      </c>
-      <c r="W11" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>210</v>
-      </c>
       <c r="AC11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AD11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AE11" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="AG11" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BH11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="BI11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="BJ11" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="BK11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BL11" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BM11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BN11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BO11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BR11" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BS11" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BT11" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BU11" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="BX11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BZ11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CB11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="CG11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="CH11" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="CJ11" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CU11">
         <v>0</v>
       </c>
       <c r="DM11" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DN11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DP11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ11" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="DR11">
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU11" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="DV11" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="DW11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DX11" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="DY11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DZ11" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="EB11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER11" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES11" t="s">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="ET11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EU11" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EW11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX11" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:154">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" t="s">
+        <v>195</v>
+      </c>
+      <c r="O12" t="s">
+        <v>138</v>
+      </c>
+      <c r="P12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>140</v>
+      </c>
+      <c r="R12" t="s">
+        <v>222</v>
+      </c>
+      <c r="S12" t="s">
+        <v>219</v>
+      </c>
+      <c r="U12" t="s">
+        <v>140</v>
+      </c>
+      <c r="V12" t="s">
+        <v>164</v>
+      </c>
+      <c r="W12" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS12" t="s">
         <v>143</v>
       </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="AT12" t="s">
         <v>144</v>
       </c>
-      <c r="I12" t="s">
-        <v>159</v>
-      </c>
-      <c r="J12" t="s">
-        <v>165</v>
-      </c>
-      <c r="K12" t="s">
-        <v>170</v>
-      </c>
-      <c r="L12" t="s">
-        <v>172</v>
-      </c>
-      <c r="O12" t="s">
-        <v>176</v>
-      </c>
-      <c r="P12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>153</v>
-      </c>
-      <c r="R12" t="s">
-        <v>185</v>
-      </c>
-      <c r="S12" t="s">
-        <v>143</v>
-      </c>
-      <c r="U12" t="s">
-        <v>153</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="AV12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW12" t="s">
         <v>160</v>
       </c>
-      <c r="W12" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>210</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BH12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>210</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>229</v>
-      </c>
       <c r="BX12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BZ12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CB12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF12" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="CG12" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="CH12" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="CJ12" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CN12" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="CO12" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="CU12">
         <v>0</v>
       </c>
       <c r="CV12" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="CW12" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="CX12" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="CY12" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="DA12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DC12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DE12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DG12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DI12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DL12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DM12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN12" t="s">
+        <v>146</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>138</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>188</v>
+      </c>
+      <c r="DQ12" t="s">
         <v>218</v>
-      </c>
-      <c r="DO12" t="s">
-        <v>176</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>209</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>159</v>
       </c>
       <c r="DR12">
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="DT12" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="DV12" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DW12" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DX12" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="DY12" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="DZ12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EA12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EB12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ED12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EG12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EJ12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EM12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EP12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER12" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES12" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="ET12" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="EU12" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EV12" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="EW12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX12" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:154">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J13" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="K13" t="s">
         <v>169</v>
       </c>
       <c r="L13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>140</v>
+      </c>
+      <c r="R13" t="s">
+        <v>222</v>
+      </c>
+      <c r="S13" t="s">
+        <v>210</v>
+      </c>
+      <c r="U13" t="s">
+        <v>140</v>
+      </c>
+      <c r="V13" t="s">
+        <v>234</v>
+      </c>
+      <c r="W13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>236</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>160</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF13" t="s">
         <v>172</v>
       </c>
-      <c r="O13" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>153</v>
-      </c>
-      <c r="R13" t="s">
-        <v>185</v>
-      </c>
-      <c r="S13" t="s">
-        <v>142</v>
-      </c>
-      <c r="U13" t="s">
-        <v>153</v>
-      </c>
-      <c r="V13" t="s">
-        <v>202</v>
-      </c>
-      <c r="W13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>153</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>207</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>220</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>225</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>229</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>176</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>178</v>
-      </c>
       <c r="CG13" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="CH13" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="CN13" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="CU13">
         <v>0</v>
       </c>
       <c r="CV13" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="CX13" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="DM13" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN13" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DO13" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ13" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DR13">
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DT13" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU13" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="DV13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DW13" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DX13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DY13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DZ13" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EB13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>149</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>237</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>138</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>138</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>238</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="4:154">
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" t="s">
+        <v>239</v>
+      </c>
+      <c r="O14" t="s">
+        <v>138</v>
+      </c>
+      <c r="S14" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" t="s">
+        <v>240</v>
+      </c>
+      <c r="U14" t="s">
+        <v>140</v>
+      </c>
+      <c r="V14" t="s">
+        <v>207</v>
+      </c>
+      <c r="W14" t="s">
         <v>241</v>
       </c>
-      <c r="EC13" t="s">
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE14" t="s">
         <v>241</v>
       </c>
-      <c r="EE13" t="s">
+      <c r="AF14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>198</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ14" t="s">
         <v>241</v>
       </c>
-      <c r="EF13" t="s">
+      <c r="BK14" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>143</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>242</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>198</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH14" t="s">
         <v>241</v>
       </c>
-      <c r="EH13" t="s">
-        <v>241</v>
-      </c>
-      <c r="EI13" t="s">
-        <v>241</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>241</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>241</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>241</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>241</v>
-      </c>
-      <c r="EQ13" t="s">
-        <v>241</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>241</v>
-      </c>
-      <c r="ES13" t="s">
-        <v>244</v>
-      </c>
-      <c r="ET13" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU13" t="s">
-        <v>176</v>
-      </c>
-      <c r="EV13" t="s">
-        <v>253</v>
-      </c>
-      <c r="EW13" t="s">
-        <v>145</v>
-      </c>
-      <c r="EX13" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:154">
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="CI14" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ14" t="s">
         <v>144</v>
       </c>
-      <c r="I14" t="s">
-        <v>161</v>
-      </c>
-      <c r="O14" t="s">
-        <v>176</v>
-      </c>
-      <c r="S14" t="s">
-        <v>187</v>
-      </c>
-      <c r="T14" t="s">
-        <v>191</v>
-      </c>
-      <c r="U14" t="s">
-        <v>153</v>
-      </c>
-      <c r="V14" t="s">
-        <v>194</v>
-      </c>
-      <c r="W14" t="s">
-        <v>208</v>
-      </c>
-      <c r="X14" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>210</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>175</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH14" t="s">
-        <v>162</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>210</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>210</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>175</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>175</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>228</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>228</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>228</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>228</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>176</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC14" t="s">
-        <v>176</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>176</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>176</v>
-      </c>
-      <c r="CF14" t="s">
-        <v>162</v>
-      </c>
-      <c r="CG14" t="s">
-        <v>194</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI14" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>210</v>
-      </c>
       <c r="CK14" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CL14" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="CM14" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="CU14">
         <v>0</v>
       </c>
       <c r="DM14" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DN14" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO14" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ14" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="DR14">
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT14" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU14" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="DV14" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="DW14" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DX14" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="DY14" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="DZ14" t="s">
+        <v>144</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>149</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>239</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>138</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>138</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="4:154">
+      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I15" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" t="s">
         <v>210</v>
       </c>
-      <c r="EB14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EC14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EI14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EK14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EL14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EN14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EO14" t="s">
-        <v>241</v>
-      </c>
-      <c r="EQ14" t="s">
-        <v>241</v>
-      </c>
-      <c r="ER14" t="s">
-        <v>241</v>
-      </c>
-      <c r="ES14" t="s">
-        <v>161</v>
-      </c>
-      <c r="ET14" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU14" t="s">
-        <v>176</v>
-      </c>
-      <c r="EW14" t="s">
-        <v>145</v>
-      </c>
-      <c r="EX14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="1:154">
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" t="s">
-        <v>162</v>
-      </c>
-      <c r="O15" t="s">
-        <v>176</v>
-      </c>
-      <c r="S15" t="s">
-        <v>142</v>
-      </c>
       <c r="U15" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="AC15" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="BH15" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="BI15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BJ15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BK15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BL15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BM15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BN15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BO15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BR15" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BS15" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BT15" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BU15" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BX15" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="CU15">
         <v>0</v>
       </c>
       <c r="DM15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DN15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DO15" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ15" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="DR15">
         <v>0</v>
       </c>
       <c r="DS15" t="s">
+        <v>138</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>198</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>138</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>161</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>138</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>138</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>138</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>138</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>149</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>149</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>198</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>138</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>138</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>150</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="4:154">
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" t="s">
+        <v>244</v>
+      </c>
+      <c r="U16" t="s">
+        <v>156</v>
+      </c>
+      <c r="V16" t="s">
+        <v>234</v>
+      </c>
+      <c r="W16" t="s">
+        <v>137</v>
+      </c>
+      <c r="X16" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>234</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>246</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW16" t="s">
         <v>176</v>
       </c>
-      <c r="DT15" t="s">
-        <v>162</v>
-      </c>
-      <c r="DU15" t="s">
-        <v>176</v>
-      </c>
-      <c r="DV15" t="s">
-        <v>199</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>176</v>
-      </c>
-      <c r="DX15" t="s">
-        <v>176</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>176</v>
-      </c>
-      <c r="DZ15" t="s">
-        <v>176</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EC15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EF15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EI15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>241</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>241</v>
-      </c>
-      <c r="ES15" t="s">
-        <v>162</v>
-      </c>
-      <c r="ET15" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU15" t="s">
-        <v>176</v>
-      </c>
-      <c r="EW15" t="s">
-        <v>145</v>
-      </c>
-      <c r="EX15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="16" spans="1:154">
-      <c r="D16" t="s">
+      <c r="BX16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>138</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>138</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>156</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>245</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>137</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>144</v>
+      </c>
+      <c r="CO16" t="s">
         <v>146</v>
-      </c>
-      <c r="H16" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" t="s">
-        <v>163</v>
-      </c>
-      <c r="O16" t="s">
-        <v>176</v>
-      </c>
-      <c r="S16" t="s">
-        <v>189</v>
-      </c>
-      <c r="U16" t="s">
-        <v>195</v>
-      </c>
-      <c r="V16" t="s">
-        <v>202</v>
-      </c>
-      <c r="W16" t="s">
-        <v>150</v>
-      </c>
-      <c r="X16" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>218</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>218</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>195</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>202</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>150</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>210</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>176</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>176</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>226</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>228</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>228</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>228</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>228</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>230</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>176</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>176</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>176</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>195</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>217</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>150</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>198</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>218</v>
       </c>
       <c r="CU16">
         <v>0</v>
       </c>
       <c r="CV16" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="CX16" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="DM16" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DN16" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="DO16" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DQ16" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="DR16">
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="DT16" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU16" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="DV16" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="DW16" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="DX16" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="DY16" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="DZ16" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EB16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER16" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES16" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="ET16" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EU16" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="EW16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX16" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="4:154">
       <c r="D17" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="K17" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>251</v>
       </c>
       <c r="O17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q17" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="R17" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="S17" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="U17" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="V17" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="AC17" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="AD17" t="s">
         <v>214</v>
       </c>
       <c r="AK17" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="AL17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AM17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AN17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AO17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AP17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AQ17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AR17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="AS17" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="AT17" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="AV17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BA17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BB17" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="BC17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BD17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BE17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BF17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BG17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BH17" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="BI17" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="BJ17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BK17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BL17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BM17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BN17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BO17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BP17" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="BQ17" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="BR17" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BS17" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BT17" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BU17" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="BW17" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="BX17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="BY17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="CF17" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="CG17" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="CU17">
         <v>0</v>
       </c>
       <c r="CV17" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="CW17" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="CX17" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="CY17" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DA17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DC17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DE17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DG17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DI17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DL17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DM17" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="DN17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="DO17" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="DQ17" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="DR17">
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DT17" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="DU17" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="DV17" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="DW17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="DX17" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="DY17" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="DZ17" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EA17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EB17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EC17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ED17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EE17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EF17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EG17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EH17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EI17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EJ17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EK17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EL17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EM17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EN17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EO17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EP17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="EQ17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ER17" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="ES17" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="ET17" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="EU17" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="EV17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="EW17" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="EX17" t="s">
-        <v>255</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -5915,206 +6571,206 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
         <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
         <v>170</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>171</v>
       </c>
-      <c r="I3" t="s">
-        <v>177</v>
-      </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="K3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" t="s">
         <v>260</v>
-      </c>
-      <c r="L3" t="s">
-        <v>220</v>
-      </c>
-      <c r="M3" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
         <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="L4" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J5" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="K5" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="L5" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="4:13">
       <c r="D6" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G6" t="s">
         <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J6" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L6" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M6" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="4:13">
       <c r="D7" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L7" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M7" t="s">
         <v>267</v>
@@ -6122,282 +6778,286 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
         <v>169</v>
       </c>
       <c r="H8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" t="s">
         <v>171</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M8" t="s">
         <v>177</v>
-      </c>
-      <c r="J8" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" t="s">
-        <v>180</v>
-      </c>
-      <c r="L8" t="s">
-        <v>220</v>
-      </c>
-      <c r="M8" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H9" t="s">
         <v>170</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>171</v>
       </c>
-      <c r="I9" t="s">
-        <v>177</v>
-      </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L9" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M9" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="G10" t="s">
         <v>169</v>
       </c>
       <c r="H10" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" t="s">
         <v>172</v>
       </c>
-      <c r="I10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J10" t="s">
-        <v>178</v>
-      </c>
       <c r="K10" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="L10" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M10" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G11" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H11" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="L11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M11" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" t="s">
         <v>135</v>
       </c>
-      <c r="B12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" t="s">
-        <v>146</v>
-      </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s">
         <v>169</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J12" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="K12" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="L12" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M12" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G13" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="H13" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J13" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="L13" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M13" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s">
         <v>169</v>
       </c>
       <c r="H14" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="L14" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -6421,289 +7081,290 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
         <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
         <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
         <v>269</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F5" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
         <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>271</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
         <v>272</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="4:6">
       <c r="D10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" t="s">
         <v>135</v>
       </c>
-      <c r="B15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
-        <v>146</v>
-      </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="289">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -432,6 +432,9 @@
     <t>October</t>
   </si>
   <si>
+    <t>Chipuriro</t>
+  </si>
+  <si>
     <t>Guruve District Hospital</t>
   </si>
   <si>
@@ -459,22 +462,25 @@
     <t>2024</t>
   </si>
   <si>
+    <t>GURUVE</t>
+  </si>
+  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
-    <t>GURUVE</t>
-  </si>
-  <si>
     <t>MATOBO</t>
   </si>
   <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
+    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
     <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
   </si>
   <si>
-    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
+    <t>46</t>
   </si>
   <si>
     <t>24</t>
@@ -541,12 +547,12 @@
     <t>Client healing</t>
   </si>
   <si>
+    <t>Severe</t>
+  </si>
+  <si>
     <t>Moderate</t>
   </si>
   <si>
-    <t>Severe</t>
-  </si>
-  <si>
     <t>COA</t>
   </si>
   <si>
@@ -565,15 +571,18 @@
     <t>0</t>
   </si>
   <si>
+    <t>Nurse</t>
+  </si>
+  <si>
     <t>Doctor</t>
   </si>
   <si>
-    <t>Nurse</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
     <t>2024-12-02</t>
   </si>
   <si>
@@ -652,6 +661,9 @@
     <t>30</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -691,6 +703,9 @@
     <t>27</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -736,9 +751,6 @@
     <t>62</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>67</t>
   </si>
   <si>
@@ -769,6 +781,9 @@
     <t>OK</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
@@ -785,6 +800,9 @@
   </si>
   <si>
     <t>70</t>
+  </si>
+  <si>
+    <t>008886</t>
   </si>
   <si>
     <t>000456</t>
@@ -1223,7 +1241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EX19"/>
+  <dimension ref="A1:EX20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1694,110 +1712,107 @@
       </c>
     </row>
     <row r="2" spans="1:154">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="J2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" t="s">
+        <v>176</v>
+      </c>
+      <c r="L2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" t="s">
+        <v>182</v>
       </c>
       <c r="O2" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="P2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" t="s">
+        <v>187</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U2" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="V2" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="W2" t="s">
+        <v>214</v>
       </c>
       <c r="X2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="AC2" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="AD2" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>228</v>
       </c>
       <c r="AF2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>181</v>
+        <v>220</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>220</v>
       </c>
       <c r="BH2" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="BI2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="BJ2" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="BK2" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="BL2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BM2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO2" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>231</v>
       </c>
       <c r="BR2" t="s">
         <v>135</v>
@@ -1812,264 +1827,234 @@
         <v>135</v>
       </c>
       <c r="BV2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BX2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="BY2" t="s">
-        <v>205</v>
+        <v>183</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>183</v>
       </c>
       <c r="CA2" t="s">
-        <v>199</v>
+        <v>183</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>202</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>220</v>
       </c>
       <c r="CU2">
         <v>0</v>
       </c>
-      <c r="CW2" t="s">
-        <v>181</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>216</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>181</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>181</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>181</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>181</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>181</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>181</v>
+      <c r="CZ2" t="s">
+        <v>214</v>
       </c>
       <c r="DM2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DN2" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="DO2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="DP2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DR2">
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DT2" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="DU2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="DV2" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="DW2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="DX2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DY2" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="EA2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EB2" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ED2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EE2" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EG2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EH2" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EJ2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EK2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EM2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EN2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EP2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EQ2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES2" t="s">
-        <v>153</v>
+        <v>254</v>
       </c>
       <c r="ET2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU2" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>261</v>
       </c>
       <c r="EW2" t="s">
-        <v>146</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:154">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
-      </c>
       <c r="D3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K3" t="s">
-        <v>174</v>
-      </c>
-      <c r="L3" t="s">
-        <v>176</v>
-      </c>
-      <c r="M3" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="O3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="S3" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="U3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="V3" t="s">
-        <v>203</v>
-      </c>
-      <c r="W3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="X3" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="AC3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AD3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="AF3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>183</v>
       </c>
       <c r="BH3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="BI3" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="BJ3" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="BK3" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="BL3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BM3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BN3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>226</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="BR3" t="s">
         <v>135</v>
@@ -2084,246 +2069,264 @@
         <v>135</v>
       </c>
       <c r="BV3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>236</v>
+        <v>183</v>
       </c>
       <c r="BX3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="BY3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="CA3" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>206</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>216</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>180</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="CU3">
         <v>0</v>
       </c>
-      <c r="CZ3" t="s">
-        <v>205</v>
+      <c r="CW3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>220</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>183</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>183</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>183</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>183</v>
       </c>
       <c r="DM3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="DN3" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="DO3" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="DP3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="DR3">
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DT3" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="DU3" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="DV3" t="s">
         <v>206</v>
       </c>
       <c r="DW3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="DX3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="DY3" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>253</v>
       </c>
       <c r="EB3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EC3" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>253</v>
       </c>
       <c r="EE3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EF3" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>253</v>
       </c>
       <c r="EH3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EI3" t="s">
-        <v>249</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>253</v>
       </c>
       <c r="EL3" t="s">
-        <v>249</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>253</v>
       </c>
       <c r="EO3" t="s">
-        <v>249</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>253</v>
       </c>
       <c r="ER3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES3" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
       <c r="ET3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU3" t="s">
-        <v>181</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="EW3" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="EX3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:154">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I4" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="J4" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" t="s">
+        <v>182</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="P4" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" t="s">
+        <v>188</v>
       </c>
       <c r="S4" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="U4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="V4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="W4" t="s">
-        <v>198</v>
+        <v>208</v>
+      </c>
+      <c r="X4" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>182</v>
       </c>
       <c r="AC4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="AD4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AE4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>181</v>
+        <v>229</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>220</v>
       </c>
       <c r="BH4" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="BI4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="BJ4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="BK4" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BL4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BM4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO4" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>231</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>232</v>
       </c>
       <c r="BR4" t="s">
         <v>135</v>
@@ -2338,237 +2341,246 @@
         <v>135</v>
       </c>
       <c r="BV4" t="s">
-        <v>216</v>
+        <v>182</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>241</v>
       </c>
       <c r="BX4" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="BY4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="BZ4" t="s">
-        <v>198</v>
+        <v>183</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>202</v>
       </c>
       <c r="CG4" t="s">
-        <v>181</v>
+        <v>209</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>208</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>182</v>
       </c>
       <c r="CO4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="CU4">
         <v>0</v>
       </c>
-      <c r="CW4" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>181</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>216</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>181</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>181</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>181</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>181</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>181</v>
+      <c r="CZ4" t="s">
+        <v>208</v>
       </c>
       <c r="DM4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DN4" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="DO4" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DP4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DR4">
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="DT4" t="s">
-        <v>243</v>
+        <v>183</v>
       </c>
       <c r="DU4" t="s">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="DV4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="DW4" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="DX4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="DY4" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="EA4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EB4" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ED4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EE4" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EG4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EH4" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EJ4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EK4" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EM4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EN4" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EP4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EQ4" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES4" t="s">
-        <v>155</v>
+        <v>255</v>
       </c>
       <c r="ET4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU4" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>262</v>
       </c>
       <c r="EW4" t="s">
-        <v>146</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>265</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:154">
       <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F5" t="s">
         <v>150</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>146</v>
       </c>
-      <c r="H5" t="s">
-        <v>151</v>
-      </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S5" t="s">
-        <v>150</v>
+        <v>196</v>
       </c>
       <c r="U5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W5" t="s">
-        <v>211</v>
-      </c>
-      <c r="X5" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AC5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AD5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>214</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>180</v>
+        <v>201</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>220</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>183</v>
       </c>
       <c r="BH5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BI5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BJ5" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="BK5" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="BL5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BM5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO5" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="BR5" t="s">
         <v>135</v>
@@ -2583,225 +2595,237 @@
         <v>135</v>
       </c>
       <c r="BV5" t="s">
-        <v>180</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="BX5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BY5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BZ5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>206</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>181</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>216</v>
+        <v>201</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>183</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>220</v>
       </c>
       <c r="CU5">
         <v>0</v>
       </c>
-      <c r="CZ5" t="s">
-        <v>207</v>
+      <c r="CW5" t="s">
+        <v>182</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>220</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>183</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>183</v>
       </c>
       <c r="DM5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DN5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="DO5" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="DP5" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DQ5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="DR5">
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="DT5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="DU5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DV5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="DW5" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="DX5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="DY5" t="s">
-        <v>158</v>
+        <v>182</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>253</v>
       </c>
       <c r="EB5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EC5" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>253</v>
       </c>
       <c r="EE5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EF5" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>253</v>
       </c>
       <c r="EH5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EI5" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>253</v>
       </c>
       <c r="EK5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EL5" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>253</v>
       </c>
       <c r="EN5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EO5" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>253</v>
       </c>
       <c r="EQ5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ER5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES5" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="ET5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EW5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:154">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" t="s">
-        <v>146</v>
-      </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
         <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S6" t="s">
         <v>151</v>
       </c>
-      <c r="I6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L6" t="s">
-        <v>177</v>
-      </c>
-      <c r="M6" t="s">
-        <v>180</v>
-      </c>
-      <c r="N6" t="s">
-        <v>180</v>
-      </c>
-      <c r="O6" t="s">
-        <v>181</v>
-      </c>
-      <c r="P6" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>153</v>
-      </c>
-      <c r="R6" t="s">
-        <v>186</v>
-      </c>
-      <c r="S6" t="s">
-        <v>139</v>
-      </c>
       <c r="U6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V6" t="s">
         <v>206</v>
       </c>
+      <c r="W6" t="s">
+        <v>215</v>
+      </c>
+      <c r="X6" t="s">
+        <v>218</v>
+      </c>
       <c r="AC6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AD6" t="s">
         <v>206</v>
       </c>
+      <c r="AE6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>182</v>
+      </c>
       <c r="BH6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BI6" t="s">
         <v>206</v>
       </c>
       <c r="BJ6" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="BK6" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="BL6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BM6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO6" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="BQ6" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="BR6" t="s">
         <v>135</v>
@@ -2816,407 +2840,398 @@
         <v>135</v>
       </c>
       <c r="BV6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BW6" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BX6" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="BY6" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF6" t="s">
-        <v>158</v>
-      </c>
-      <c r="CG6" t="s">
         <v>206</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>215</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>209</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>220</v>
       </c>
       <c r="CU6">
         <v>0</v>
       </c>
+      <c r="CZ6" t="s">
+        <v>210</v>
+      </c>
       <c r="DM6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="DN6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DO6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DP6" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="DQ6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DR6">
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="DT6" t="s">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="DU6" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="DV6" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="DW6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DX6" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="DY6" t="s">
-        <v>206</v>
+        <v>160</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>253</v>
       </c>
       <c r="EB6" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>253</v>
       </c>
       <c r="EE6" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF6" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>253</v>
       </c>
       <c r="EH6" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>253</v>
       </c>
       <c r="EK6" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>253</v>
       </c>
       <c r="EN6" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>253</v>
       </c>
       <c r="EQ6" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES6" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="ET6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU6" t="s">
-        <v>181</v>
-      </c>
-      <c r="EV6" t="s">
-        <v>257</v>
+        <v>183</v>
       </c>
       <c r="EW6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX6" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:154">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
       <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" t="s">
         <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M7" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7" t="s">
+        <v>182</v>
       </c>
       <c r="O7" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="P7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>155</v>
+      </c>
+      <c r="R7" t="s">
+        <v>189</v>
       </c>
       <c r="S7" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="U7" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="V7" t="s">
+        <v>209</v>
       </c>
       <c r="AC7" t="s">
-        <v>158</v>
+        <v>160</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>209</v>
       </c>
       <c r="BH7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BI7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="BJ7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BK7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BL7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BM7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO7" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>234</v>
       </c>
       <c r="BR7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BS7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BT7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BU7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BV7" t="s">
-        <v>216</v>
+        <v>182</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>242</v>
       </c>
       <c r="BX7" t="s">
-        <v>158</v>
+        <v>183</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>209</v>
       </c>
       <c r="CU7">
         <v>0</v>
       </c>
       <c r="DM7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="DN7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DO7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DP7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DR7">
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DT7" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="DU7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="DV7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="DW7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DX7" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="DY7" t="s">
-        <v>181</v>
+        <v>209</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>253</v>
       </c>
       <c r="EB7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>253</v>
       </c>
       <c r="EE7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>253</v>
       </c>
       <c r="EH7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>253</v>
       </c>
       <c r="EK7" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>253</v>
       </c>
       <c r="EN7" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP7" t="s">
+        <v>253</v>
       </c>
       <c r="EQ7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="ET7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU7" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="EV7" t="s">
+        <v>263</v>
       </c>
       <c r="EW7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:154">
-      <c r="A8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>146</v>
-      </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" t="s">
-        <v>177</v>
-      </c>
-      <c r="M8" t="s">
-        <v>180</v>
-      </c>
-      <c r="N8" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O8" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>158</v>
-      </c>
-      <c r="R8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="S8" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="U8" t="s">
-        <v>200</v>
-      </c>
-      <c r="V8" t="s">
-        <v>203</v>
-      </c>
-      <c r="W8" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="AC8" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>216</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>181</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="BH8" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="BI8" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="BJ8" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="BK8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BL8" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="BM8" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="BN8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="BO8" t="s">
-        <v>216</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="BR8" t="s">
         <v>136</v>
@@ -3231,166 +3246,94 @@
         <v>136</v>
       </c>
       <c r="BV8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BX8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>181</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>203</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>212</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>217</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>200</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>206</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>216</v>
+        <v>160</v>
       </c>
       <c r="CU8">
         <v>0</v>
       </c>
-      <c r="CV8" t="s">
-        <v>201</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>181</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DD8" t="s">
-        <v>198</v>
-      </c>
-      <c r="DF8" t="s">
-        <v>181</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>181</v>
-      </c>
-      <c r="DK8" t="s">
-        <v>181</v>
-      </c>
       <c r="DM8" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="DN8" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="DO8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DP8" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="DQ8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DR8">
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DT8" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="DU8" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="DV8" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="DW8" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="DX8" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="DY8" t="s">
-        <v>216</v>
+        <v>183</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>253</v>
       </c>
       <c r="EB8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>253</v>
       </c>
       <c r="EE8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF8" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>253</v>
       </c>
       <c r="EH8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EN8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>249</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER8" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>253</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>253</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>253</v>
       </c>
       <c r="ES8" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="ET8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU8" t="s">
-        <v>181</v>
-      </c>
-      <c r="EV8" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="EW8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:154">
@@ -3401,145 +3344,136 @@
         <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" t="s">
+        <v>183</v>
+      </c>
+      <c r="P9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" t="s">
         <v>160</v>
       </c>
-      <c r="J9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" t="s">
-        <v>176</v>
-      </c>
-      <c r="M9" t="s">
-        <v>180</v>
-      </c>
-      <c r="N9" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>153</v>
-      </c>
       <c r="R9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="S9" t="s">
         <v>141</v>
       </c>
       <c r="U9" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="V9" t="s">
         <v>206</v>
       </c>
       <c r="W9" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z9" t="s">
         <v>203</v>
       </c>
-      <c r="Y9" t="s">
-        <v>218</v>
+      <c r="AA9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>220</v>
       </c>
       <c r="AC9" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="AD9" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="AE9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>220</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH9" t="s">
         <v>203</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>180</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>167</v>
       </c>
       <c r="BI9" t="s">
         <v>206</v>
       </c>
       <c r="BJ9" t="s">
+        <v>216</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>221</v>
+      </c>
+      <c r="BM9" t="s">
         <v>203</v>
       </c>
-      <c r="BK9" t="s">
-        <v>181</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>158</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>181</v>
-      </c>
       <c r="BN9" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="BO9" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BP9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BR9" t="s">
         <v>136</v>
@@ -3554,1700 +3488,1670 @@
         <v>136</v>
       </c>
       <c r="BV9" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BX9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CB9" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>183</v>
       </c>
       <c r="CF9" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="CG9" t="s">
         <v>206</v>
       </c>
       <c r="CH9" t="s">
+        <v>216</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>221</v>
+      </c>
+      <c r="CK9" t="s">
         <v>203</v>
       </c>
-      <c r="CJ9" t="s">
-        <v>218</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>225</v>
+      <c r="CL9" t="s">
+        <v>209</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>220</v>
       </c>
       <c r="CU9">
         <v>0</v>
       </c>
-      <c r="CW9" t="s">
-        <v>180</v>
-      </c>
-      <c r="CY9" t="s">
-        <v>181</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>181</v>
-      </c>
-      <c r="DC9" t="s">
-        <v>181</v>
-      </c>
-      <c r="DE9" t="s">
-        <v>181</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>181</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>181</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>181</v>
+      <c r="CV9" t="s">
+        <v>204</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>183</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>229</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>201</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>183</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>183</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>183</v>
       </c>
       <c r="DM9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DN9" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="DO9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DP9" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="DQ9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DR9">
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DT9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU9" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="DV9" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="DW9" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="DX9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="DY9" t="s">
+        <v>220</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>253</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>253</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>253</v>
+      </c>
+      <c r="ES9" t="s">
         <v>203</v>
       </c>
-      <c r="EA9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EB9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>249</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EN9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EP9" t="s">
-        <v>249</v>
-      </c>
-      <c r="EQ9" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER9" t="s">
-        <v>249</v>
-      </c>
-      <c r="ES9" t="s">
-        <v>160</v>
-      </c>
       <c r="ET9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="EU9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="EV9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="EW9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:154">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="J10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" t="s">
+        <v>176</v>
+      </c>
+      <c r="L10" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" t="s">
+        <v>182</v>
+      </c>
+      <c r="N10" t="s">
+        <v>182</v>
       </c>
       <c r="O10" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="P10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>155</v>
+      </c>
+      <c r="R10" t="s">
+        <v>191</v>
       </c>
       <c r="S10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U10" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="V10" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="W10" t="s">
-        <v>181</v>
-      </c>
-      <c r="X10" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="Y10" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="AC10" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="AD10" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="AE10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AG10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>201</v>
+        <v>160</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>183</v>
       </c>
       <c r="BH10" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="BI10" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="BJ10" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="BK10" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="BL10" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="BM10" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="BN10" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="BO10" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>231</v>
       </c>
       <c r="BR10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BS10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BV10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BX10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CB10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CF10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="CG10" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="CH10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="CJ10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CK10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CL10" t="s">
-        <v>181</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>201</v>
-      </c>
-      <c r="CO10" t="s">
-        <v>201</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>201</v>
-      </c>
-      <c r="CQ10" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="CR10" t="s">
-        <v>201</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>201</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="CU10">
         <v>0</v>
       </c>
+      <c r="CW10" t="s">
+        <v>182</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>183</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>183</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>183</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>183</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>183</v>
+      </c>
       <c r="DM10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DN10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DO10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DP10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DR10">
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>161</v>
+        <v>230</v>
       </c>
       <c r="DT10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU10" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="DV10" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="DW10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DX10" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="DY10" t="s">
-        <v>181</v>
+        <v>206</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>253</v>
       </c>
       <c r="EB10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EC10" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>253</v>
       </c>
       <c r="EE10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EF10" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>253</v>
       </c>
       <c r="EH10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EI10" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>253</v>
       </c>
       <c r="EK10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EL10" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>253</v>
       </c>
       <c r="EN10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EO10" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>253</v>
       </c>
       <c r="EQ10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ER10" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="ET10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EU10" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>265</v>
       </c>
       <c r="EW10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX10" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:154">
-      <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
       <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" t="s">
-        <v>170</v>
-      </c>
-      <c r="K11" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" t="s">
-        <v>178</v>
-      </c>
-      <c r="M11" t="s">
-        <v>180</v>
-      </c>
-      <c r="N11" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="O11" t="s">
-        <v>181</v>
-      </c>
-      <c r="P11" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="S11" t="s">
         <v>142</v>
       </c>
       <c r="U11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="V11" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="W11" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="X11" t="s">
-        <v>205</v>
+        <v>183</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>183</v>
       </c>
       <c r="AC11" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="AD11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AE11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF11" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>180</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>216</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>181</v>
+        <v>204</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>204</v>
       </c>
       <c r="BH11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="BI11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="BJ11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BK11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BL11" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="BM11" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="BN11" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="BO11" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>226</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="BR11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BS11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV11" t="s">
-        <v>180</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="BX11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CA11" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>183</v>
       </c>
       <c r="CF11" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="CG11" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="CH11" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="CI11" t="s">
-        <v>205</v>
+        <v>183</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>204</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>204</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>204</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>204</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>204</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>204</v>
       </c>
       <c r="CU11">
         <v>0</v>
       </c>
-      <c r="CV11" t="s">
-        <v>202</v>
-      </c>
-      <c r="CW11" t="s">
-        <v>216</v>
-      </c>
-      <c r="CY11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DA11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DC11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DE11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DG11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>181</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>181</v>
-      </c>
       <c r="DM11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="DN11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="DO11" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="DP11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DR11">
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="DT11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU11" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="DV11" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="DW11" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DX11" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="DY11" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="EA11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EB11" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ED11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EE11" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EG11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EH11" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EJ11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EK11" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EM11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EN11" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EP11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EQ11" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES11" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="ET11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU11" t="s">
-        <v>180</v>
-      </c>
-      <c r="EV11" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="EW11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX11" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:154">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>149</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F12" t="s">
         <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S12" t="s">
         <v>143</v>
       </c>
       <c r="U12" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="V12" t="s">
+        <v>210</v>
+      </c>
+      <c r="W12" t="s">
+        <v>209</v>
+      </c>
+      <c r="X12" t="s">
         <v>208</v>
       </c>
-      <c r="W12" t="s">
-        <v>206</v>
-      </c>
-      <c r="X12" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>180</v>
-      </c>
       <c r="AC12" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="AD12" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AE12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AF12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="AK12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AM12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AN12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AO12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AP12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AQ12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AR12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AS12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="AV12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BA12" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BB12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BC12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BD12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BE12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BF12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BG12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BH12" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="BI12" t="s">
+        <v>210</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>209</v>
+      </c>
+      <c r="BK12" t="s">
         <v>208</v>
       </c>
-      <c r="BJ12" t="s">
-        <v>206</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>216</v>
-      </c>
       <c r="BL12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BM12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BN12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BP12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BQ12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="BR12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BS12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BT12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BU12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BV12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BW12" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="BX12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CA12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CF12" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="CG12" t="s">
+        <v>210</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>209</v>
+      </c>
+      <c r="CI12" t="s">
         <v>208</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>206</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>216</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>180</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>180</v>
       </c>
       <c r="CU12">
         <v>0</v>
       </c>
       <c r="CV12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="CW12" t="s">
-        <v>181</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="CY12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DA12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DC12" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="DE12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DG12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DI12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DL12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DM12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DN12" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="DO12" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="DP12" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DQ12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DR12">
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DT12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU12" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DV12" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="DW12" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="DX12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="DY12" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="EA12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EB12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EC12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ED12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EE12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EF12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EG12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EH12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EI12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EJ12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EK12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EL12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EM12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EN12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EO12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EP12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EQ12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ER12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="ET12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="EV12" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="EW12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX12" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:154">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I13" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="J13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" t="s">
+        <v>182</v>
+      </c>
+      <c r="N13" t="s">
+        <v>182</v>
       </c>
       <c r="O13" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="P13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>186</v>
+      </c>
+      <c r="R13" t="s">
+        <v>193</v>
       </c>
       <c r="S13" t="s">
         <v>144</v>
       </c>
       <c r="U13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V13" t="s">
+        <v>211</v>
+      </c>
+      <c r="W13" t="s">
         <v>209</v>
       </c>
-      <c r="W13" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>216</v>
+      <c r="X13" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>182</v>
       </c>
       <c r="AC13" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="AD13" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
       <c r="AE13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>183</v>
       </c>
       <c r="BH13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BI13" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="BJ13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="BK13" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BL13" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="BM13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BN13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO13" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>235</v>
       </c>
       <c r="BR13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BS13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BT13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BU13" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>242</v>
       </c>
       <c r="BX13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ13" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>183</v>
       </c>
       <c r="CF13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="CG13" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="CH13" t="s">
-        <v>213</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>216</v>
+        <v>209</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>182</v>
       </c>
       <c r="CU13">
         <v>0</v>
       </c>
+      <c r="CV13" t="s">
+        <v>207</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>183</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>186</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>183</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>183</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>182</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>183</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>183</v>
+      </c>
       <c r="DM13" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="DN13" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="DO13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DP13" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="DQ13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DR13">
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DT13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DV13" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="DW13" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="DX13" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="DY13" t="s">
-        <v>158</v>
-      </c>
-      <c r="DZ13" t="s">
-        <v>216</v>
+        <v>211</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>253</v>
       </c>
       <c r="EB13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EC13" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>253</v>
       </c>
       <c r="EE13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EF13" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>253</v>
       </c>
       <c r="EH13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EI13" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>253</v>
       </c>
       <c r="EK13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EL13" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>253</v>
       </c>
       <c r="EN13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EO13" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>253</v>
       </c>
       <c r="EQ13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ER13" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES13" t="s">
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="ET13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU13" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>267</v>
       </c>
       <c r="EW13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX13" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:154">
-      <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
         <v>146</v>
       </c>
-      <c r="D14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
+        <v>166</v>
+      </c>
+      <c r="O14" t="s">
+        <v>183</v>
+      </c>
+      <c r="S14" t="s">
         <v>145</v>
       </c>
-      <c r="I14" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" t="s">
-        <v>176</v>
-      </c>
-      <c r="O14" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>158</v>
-      </c>
-      <c r="R14" t="s">
-        <v>191</v>
-      </c>
-      <c r="S14" t="s">
-        <v>144</v>
-      </c>
       <c r="U14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V14" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="W14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Y14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AC14" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="AD14" t="s">
-        <v>221</v>
+        <v>167</v>
       </c>
       <c r="AE14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG14" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>216</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BH14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BI14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BJ14" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="BK14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BL14" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="BM14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO14" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>226</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
       <c r="BR14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BS14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="BX14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CB14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CF14" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>167</v>
+      </c>
+      <c r="CH14" t="s">
         <v>217</v>
       </c>
-      <c r="CG14" t="s">
-        <v>238</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>213</v>
-      </c>
       <c r="CJ14" t="s">
-        <v>216</v>
-      </c>
-      <c r="CN14" t="s">
-        <v>224</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="CU14">
         <v>0</v>
       </c>
-      <c r="CV14" t="s">
-        <v>217</v>
-      </c>
-      <c r="CW14" t="s">
-        <v>158</v>
-      </c>
-      <c r="CX14" t="s">
-        <v>240</v>
-      </c>
-      <c r="CY14" t="s">
-        <v>206</v>
-      </c>
-      <c r="DA14" t="s">
-        <v>181</v>
-      </c>
-      <c r="DC14" t="s">
-        <v>181</v>
-      </c>
-      <c r="DE14" t="s">
-        <v>181</v>
-      </c>
-      <c r="DG14" t="s">
-        <v>181</v>
-      </c>
-      <c r="DI14" t="s">
-        <v>181</v>
-      </c>
-      <c r="DL14" t="s">
-        <v>181</v>
-      </c>
       <c r="DM14" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="DN14" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DO14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DP14" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="DQ14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="DR14">
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="DT14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU14" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="DV14" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="DW14" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DX14" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="DY14" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="DZ14" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="EA14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EB14" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ED14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EE14" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EG14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EH14" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EJ14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EK14" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EM14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EN14" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EP14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EQ14" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES14" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="ET14" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="EU14" t="s">
-        <v>180</v>
-      </c>
-      <c r="EV14" t="s">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="EW14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX14" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:154">
@@ -5258,10 +5162,10 @@
         <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
         <v>137</v>
@@ -5270,91 +5174,145 @@
         <v>145</v>
       </c>
       <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
         <v>146</v>
       </c>
-      <c r="H15" t="s">
-        <v>145</v>
-      </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
         <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="U15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V15" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="W15" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>220</v>
       </c>
       <c r="AC15" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="AD15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AE15" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>183</v>
       </c>
       <c r="AS15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AT15" t="s">
-        <v>180</v>
+        <v>220</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>183</v>
       </c>
       <c r="BH15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BI15" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="BJ15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BK15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BL15" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BM15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BP15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="BQ15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="BR15" t="s">
         <v>137</v>
@@ -5369,1050 +5327,1349 @@
         <v>137</v>
       </c>
       <c r="BW15" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="BX15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ15" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>183</v>
       </c>
       <c r="CF15" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="CG15" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="CH15" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>220</v>
       </c>
       <c r="CN15" t="s">
-        <v>180</v>
+        <v>229</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>228</v>
       </c>
       <c r="CU15">
         <v>0</v>
       </c>
       <c r="CV15" t="s">
-        <v>153</v>
+        <v>221</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>160</v>
       </c>
       <c r="CX15" t="s">
-        <v>210</v>
+        <v>244</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>209</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>183</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>183</v>
       </c>
       <c r="DM15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DN15" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="DO15" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>208</v>
       </c>
       <c r="DQ15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DR15">
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="DT15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU15" t="s">
+        <v>250</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>230</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>218</v>
+      </c>
+      <c r="DY15" t="s">
         <v>209</v>
       </c>
-      <c r="DV15" t="s">
-        <v>158</v>
-      </c>
-      <c r="DW15" t="s">
-        <v>216</v>
-      </c>
-      <c r="DX15" t="s">
-        <v>158</v>
-      </c>
-      <c r="DY15" t="s">
-        <v>158</v>
-      </c>
       <c r="DZ15" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>253</v>
       </c>
       <c r="EB15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EC15" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>253</v>
       </c>
       <c r="EE15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EF15" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG15" t="s">
+        <v>253</v>
       </c>
       <c r="EH15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EI15" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ15" t="s">
+        <v>253</v>
       </c>
       <c r="EK15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EL15" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>253</v>
       </c>
       <c r="EN15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="EO15" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>253</v>
       </c>
       <c r="EQ15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ER15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ET15" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="EU15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="EV15" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="EW15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX15" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:154">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" t="s">
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="P16" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>160</v>
+      </c>
+      <c r="R16" t="s">
+        <v>194</v>
       </c>
       <c r="S16" t="s">
-        <v>193</v>
-      </c>
-      <c r="T16" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="U16" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V16" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="W16" t="s">
-        <v>215</v>
-      </c>
-      <c r="X16" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="AC16" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="AD16" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="AE16" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>180</v>
+        <v>218</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>182</v>
       </c>
       <c r="BH16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="BI16" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="BJ16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BK16" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="BL16" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="BM16" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="BN16" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="BO16" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>231</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>237</v>
       </c>
       <c r="BR16" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="BS16" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="BT16" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="BU16" t="s">
-        <v>235</v>
+        <v>137</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>241</v>
       </c>
       <c r="BX16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BZ16" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>181</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>181</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>181</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="CF16" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="CG16" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="CH16" t="s">
-        <v>215</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>206</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>216</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>216</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>180</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>180</v>
+        <v>218</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>182</v>
       </c>
       <c r="CU16">
         <v>0</v>
       </c>
+      <c r="CV16" t="s">
+        <v>155</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>213</v>
+      </c>
       <c r="DM16" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="DN16" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="DO16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="DR16">
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="DT16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DU16" t="s">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="DV16" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="DW16" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="DX16" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="DY16" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
       <c r="DZ16" t="s">
-        <v>216</v>
+        <v>182</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>253</v>
       </c>
       <c r="EB16" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC16" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>253</v>
       </c>
       <c r="EE16" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>253</v>
       </c>
       <c r="EH16" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI16" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>253</v>
       </c>
       <c r="EK16" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL16" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>253</v>
       </c>
       <c r="EN16" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO16" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>253</v>
       </c>
       <c r="EQ16" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER16" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES16" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
       <c r="ET16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU16" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>269</v>
       </c>
       <c r="EW16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX16" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="4:154">
       <c r="D17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S17" t="s">
-        <v>143</v>
+        <v>196</v>
+      </c>
+      <c r="T17" t="s">
+        <v>200</v>
       </c>
       <c r="U17" t="s">
-        <v>167</v>
+        <v>160</v>
+      </c>
+      <c r="V17" t="s">
+        <v>205</v>
+      </c>
+      <c r="W17" t="s">
+        <v>219</v>
+      </c>
+      <c r="X17" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>182</v>
       </c>
       <c r="AC17" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>182</v>
       </c>
       <c r="BH17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BI17" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="BJ17" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="BK17" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="BL17" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BM17" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BN17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BO17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BR17" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BS17" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BT17" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BU17" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BX17" t="s">
-        <v>167</v>
+        <v>183</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>183</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CC17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>169</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>205</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI17" t="s">
+        <v>209</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>220</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>220</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>182</v>
       </c>
       <c r="CU17">
         <v>0</v>
       </c>
       <c r="DM17" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="DN17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DO17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DR17">
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DT17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="DU17" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="DV17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="DW17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DX17" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="DY17" t="s">
-        <v>181</v>
+        <v>211</v>
       </c>
       <c r="DZ17" t="s">
-        <v>181</v>
+        <v>220</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>253</v>
       </c>
       <c r="EB17" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC17" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>253</v>
       </c>
       <c r="EE17" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF17" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>253</v>
       </c>
       <c r="EH17" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI17" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>253</v>
       </c>
       <c r="EK17" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EM17" t="s">
+        <v>253</v>
       </c>
       <c r="EN17" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EP17" t="s">
+        <v>253</v>
       </c>
       <c r="EQ17" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="ES17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="ET17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU17" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EW17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="4:154">
       <c r="D18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S18" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="U18" t="s">
-        <v>203</v>
-      </c>
-      <c r="V18" t="s">
-        <v>210</v>
-      </c>
-      <c r="W18" t="s">
-        <v>155</v>
-      </c>
-      <c r="X18" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="AC18" t="s">
-        <v>206</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>155</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>216</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>225</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="BH18" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="BI18" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="BJ18" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="BK18" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="BL18" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="BM18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO18" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
       <c r="BR18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BS18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BT18" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BU18" t="s">
-        <v>235</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BX18" t="s">
-        <v>181</v>
-      </c>
-      <c r="BY18" t="s">
-        <v>181</v>
-      </c>
-      <c r="BZ18" t="s">
-        <v>181</v>
-      </c>
-      <c r="CA18" t="s">
-        <v>181</v>
-      </c>
-      <c r="CB18" t="s">
-        <v>181</v>
-      </c>
-      <c r="CF18" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG18" t="s">
-        <v>223</v>
-      </c>
-      <c r="CH18" t="s">
-        <v>155</v>
-      </c>
-      <c r="CI18" t="s">
-        <v>206</v>
-      </c>
-      <c r="CJ18" t="s">
-        <v>216</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="CU18">
         <v>0</v>
       </c>
-      <c r="CV18" t="s">
-        <v>203</v>
-      </c>
-      <c r="CX18" t="s">
-        <v>210</v>
-      </c>
       <c r="DM18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DN18" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="DO18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="DQ18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="DR18">
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="DT18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="DU18" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="DV18" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="DW18" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="DX18" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="DY18" t="s">
-        <v>219</v>
+        <v>183</v>
       </c>
       <c r="DZ18" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>253</v>
       </c>
       <c r="EB18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC18" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="ED18" t="s">
+        <v>253</v>
       </c>
       <c r="EE18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF18" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>253</v>
       </c>
       <c r="EH18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EK18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EN18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO18" t="s">
-        <v>249</v>
-      </c>
-      <c r="EQ18" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER18" t="s">
-        <v>249</v>
+        <v>253</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>253</v>
+      </c>
+      <c r="EM18" t="s">
+        <v>253</v>
+      </c>
+      <c r="EP18" t="s">
+        <v>253</v>
       </c>
       <c r="ES18" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="ET18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EU18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="EW18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EX18" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="4:154">
       <c r="D19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>169</v>
-      </c>
-      <c r="J19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="O19" t="s">
-        <v>181</v>
-      </c>
-      <c r="P19" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>158</v>
-      </c>
-      <c r="R19" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="S19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="U19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="V19" t="s">
-        <v>158</v>
+        <v>213</v>
+      </c>
+      <c r="W19" t="s">
+        <v>157</v>
+      </c>
+      <c r="X19" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>220</v>
       </c>
       <c r="AC19" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AD19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>216</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>181</v>
+        <v>227</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>220</v>
       </c>
       <c r="AS19" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="AT19" t="s">
-        <v>224</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>181</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>216</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>181</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>181</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>181</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="BH19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BI19" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="BJ19" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="BK19" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="BL19" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="BM19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BN19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BO19" t="s">
-        <v>181</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="BQ19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="BR19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BS19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BT19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BU19" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="BW19" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="BX19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="BY19" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>183</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>183</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>183</v>
       </c>
       <c r="CF19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="CG19" t="s">
-        <v>208</v>
+        <v>227</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>209</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>220</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>230</v>
       </c>
       <c r="CU19">
         <v>0</v>
       </c>
       <c r="CV19" t="s">
-        <v>211</v>
-      </c>
-      <c r="CW19" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="CX19" t="s">
+        <v>213</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>183</v>
+      </c>
+      <c r="DN19" t="s">
         <v>208</v>
       </c>
-      <c r="CY19" t="s">
-        <v>216</v>
-      </c>
-      <c r="DA19" t="s">
-        <v>181</v>
-      </c>
-      <c r="DC19" t="s">
-        <v>181</v>
-      </c>
-      <c r="DE19" t="s">
-        <v>181</v>
-      </c>
-      <c r="DG19" t="s">
-        <v>181</v>
-      </c>
-      <c r="DI19" t="s">
-        <v>181</v>
-      </c>
-      <c r="DL19" t="s">
-        <v>181</v>
-      </c>
-      <c r="DM19" t="s">
-        <v>180</v>
-      </c>
-      <c r="DN19" t="s">
-        <v>201</v>
-      </c>
       <c r="DO19" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="DQ19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DR19">
         <v>0</v>
       </c>
       <c r="DS19" t="s">
+        <v>230</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>183</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>251</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>223</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>208</v>
+      </c>
+      <c r="DX19" t="s">
+        <v>223</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>223</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>182</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>253</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EE19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EH19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EK19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EM19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EN19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EP19" t="s">
+        <v>253</v>
+      </c>
+      <c r="EQ19" t="s">
+        <v>253</v>
+      </c>
+      <c r="ES19" t="s">
+        <v>259</v>
+      </c>
+      <c r="ET19" t="s">
+        <v>183</v>
+      </c>
+      <c r="EU19" t="s">
+        <v>183</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>147</v>
+      </c>
+      <c r="EX19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="4:154">
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I20" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>177</v>
+      </c>
+      <c r="L20" t="s">
         <v>181</v>
       </c>
-      <c r="DT19" t="s">
-        <v>181</v>
-      </c>
-      <c r="DU19" t="s">
-        <v>169</v>
-      </c>
-      <c r="DV19" t="s">
-        <v>158</v>
-      </c>
-      <c r="DW19" t="s">
+      <c r="O20" t="s">
+        <v>183</v>
+      </c>
+      <c r="P20" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>160</v>
+      </c>
+      <c r="R20" t="s">
+        <v>195</v>
+      </c>
+      <c r="S20" t="s">
+        <v>199</v>
+      </c>
+      <c r="U20" t="s">
+        <v>207</v>
+      </c>
+      <c r="V20" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>220</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>220</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>211</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>231</v>
+      </c>
+      <c r="BQ20" t="s">
         <v>239</v>
       </c>
-      <c r="DX19" t="s">
-        <v>217</v>
-      </c>
-      <c r="DY19" t="s">
-        <v>217</v>
-      </c>
-      <c r="DZ19" t="s">
-        <v>180</v>
-      </c>
-      <c r="EA19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EB19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EC19" t="s">
-        <v>249</v>
-      </c>
-      <c r="ED19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EE19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EG19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EH19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EI19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EJ19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EK19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EM19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EN19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EO19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EP19" t="s">
-        <v>249</v>
-      </c>
-      <c r="EQ19" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER19" t="s">
-        <v>249</v>
-      </c>
-      <c r="ES19" t="s">
-        <v>255</v>
-      </c>
-      <c r="ET19" t="s">
-        <v>216</v>
-      </c>
-      <c r="EU19" t="s">
-        <v>180</v>
-      </c>
-      <c r="EV19" t="s">
-        <v>264</v>
-      </c>
-      <c r="EW19" t="s">
-        <v>146</v>
-      </c>
-      <c r="EX19" t="s">
-        <v>265</v>
+      <c r="BR20" t="s">
+        <v>240</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>240</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>240</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>240</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>183</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>183</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>207</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CU20">
+        <v>0</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>215</v>
+      </c>
+      <c r="CW20" t="s">
+        <v>220</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>220</v>
+      </c>
+      <c r="DA20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DC20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DE20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DI20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DL20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DM20" t="s">
+        <v>182</v>
+      </c>
+      <c r="DN20" t="s">
+        <v>204</v>
+      </c>
+      <c r="DO20" t="s">
+        <v>220</v>
+      </c>
+      <c r="DQ20" t="s">
+        <v>171</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DT20" t="s">
+        <v>183</v>
+      </c>
+      <c r="DU20" t="s">
+        <v>171</v>
+      </c>
+      <c r="DV20" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW20" t="s">
+        <v>228</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>221</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>221</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>182</v>
+      </c>
+      <c r="EA20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>253</v>
+      </c>
+      <c r="ED20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EE20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EH20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EI20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EK20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EL20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EM20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EN20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EO20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EP20" t="s">
+        <v>253</v>
+      </c>
+      <c r="EQ20" t="s">
+        <v>253</v>
+      </c>
+      <c r="ER20" t="s">
+        <v>253</v>
+      </c>
+      <c r="ES20" t="s">
+        <v>260</v>
+      </c>
+      <c r="ET20" t="s">
+        <v>220</v>
+      </c>
+      <c r="EU20" t="s">
+        <v>182</v>
+      </c>
+      <c r="EV20" t="s">
+        <v>270</v>
+      </c>
+      <c r="EW20" t="s">
+        <v>147</v>
+      </c>
+      <c r="EX20" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6422,7 +6679,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6442,7 +6699,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -6474,37 +6731,37 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6512,37 +6769,37 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L3" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6550,34 +6807,34 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L4" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6585,95 +6842,95 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="D6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K6" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="D7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6684,34 +6941,34 @@
         <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6722,72 +6979,72 @@
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M9" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
         <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="I10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M10" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6798,34 +7055,34 @@
         <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6836,110 +7093,110 @@
         <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H12" t="s">
         <v>178</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L12" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M12" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
         <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H13" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L13" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M13" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="K14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L14" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M14" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6950,34 +7207,72 @@
         <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
         <v>172</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
+        <v>178</v>
+      </c>
+      <c r="I15" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s">
+        <v>231</v>
+      </c>
+      <c r="M15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" t="s">
         <v>176</v>
       </c>
-      <c r="I15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J15" t="s">
-        <v>158</v>
-      </c>
-      <c r="K15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L15" t="s">
-        <v>226</v>
-      </c>
-      <c r="M15" t="s">
-        <v>263</v>
+      <c r="H16" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>194</v>
+      </c>
+      <c r="L16" t="s">
+        <v>231</v>
+      </c>
+      <c r="M16" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7018,19 +7313,19 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7038,13 +7333,13 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7052,19 +7347,19 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7072,19 +7367,19 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7092,19 +7387,19 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7112,13 +7407,13 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7126,19 +7421,19 @@
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7146,35 +7441,35 @@
         <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -7182,19 +7477,19 @@
         <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -7202,19 +7497,19 @@
         <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7222,19 +7517,19 @@
         <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -7242,19 +7537,19 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F15" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7262,19 +7557,19 @@
         <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F16" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7282,19 +7577,19 @@
         <v>137</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7302,19 +7597,19 @@
         <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F18" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="295">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -432,6 +432,9 @@
     <t>October</t>
   </si>
   <si>
+    <t>Musume Hospital</t>
+  </si>
+  <si>
     <t>Chipuriro</t>
   </si>
   <si>
@@ -462,6 +465,9 @@
     <t>2024</t>
   </si>
   <si>
+    <t>MBERENGWA</t>
+  </si>
+  <si>
     <t>GURUVE</t>
   </si>
   <si>
@@ -474,12 +480,18 @@
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
+    <t>MUSUME - 101157 - MISSION HOSPITAL</t>
+  </si>
+  <si>
     <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
   </si>
   <si>
     <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>46</t>
   </si>
   <si>
@@ -496,9 +508,6 @@
   </si>
   <si>
     <t>37</t>
-  </si>
-  <si>
-    <t>25</t>
   </si>
   <si>
     <t>94</t>
@@ -547,12 +556,12 @@
     <t>Client healing</t>
   </si>
   <si>
+    <t>Moderate</t>
+  </si>
+  <si>
     <t>Severe</t>
   </si>
   <si>
-    <t>Moderate</t>
-  </si>
-  <si>
     <t>COA</t>
   </si>
   <si>
@@ -580,6 +589,9 @@
     <t>55</t>
   </si>
   <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
     <t>2024-12-06</t>
   </si>
   <si>
@@ -802,6 +814,9 @@
     <t>70</t>
   </si>
   <si>
+    <t>009857</t>
+  </si>
+  <si>
     <t>008886</t>
   </si>
   <si>
@@ -871,6 +886,12 @@
     <t>578988</t>
   </si>
   <si>
+    <t>client had fever</t>
+  </si>
+  <si>
+    <t>Client had elevated BP</t>
+  </si>
+  <si>
     <t>Client has rash and was linked to OPD</t>
   </si>
   <si>
@@ -878,9 +899,6 @@
   </si>
   <si>
     <t>Client had  severe fever</t>
-  </si>
-  <si>
-    <t>Client had elevated BP</t>
   </si>
   <si>
     <t>Client had fever</t>
@@ -1241,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EX20"/>
+  <dimension ref="A1:EX21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1719,100 +1737,145 @@
         <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="R2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="S2" t="s">
         <v>138</v>
       </c>
       <c r="U2" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="V2" t="s">
-        <v>202</v>
-      </c>
-      <c r="W2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="X2" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>185</v>
       </c>
       <c r="AC2" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="AD2" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AF2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>186</v>
       </c>
       <c r="BH2" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="BI2" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="BJ2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="BK2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="BL2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BM2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BN2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BP2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BR2" t="s">
         <v>135</v>
@@ -1827,234 +1890,249 @@
         <v>135</v>
       </c>
       <c r="BV2" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BX2" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="BY2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="CA2" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>202</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>214</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>220</v>
+        <v>206</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>185</v>
       </c>
       <c r="CU2">
         <v>0</v>
       </c>
-      <c r="CZ2" t="s">
-        <v>214</v>
+      <c r="CW2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>186</v>
       </c>
       <c r="DM2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DN2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="DO2" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DP2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="DR2">
         <v>0</v>
       </c>
       <c r="DS2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DT2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="DU2" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="DV2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="DW2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="DX2" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="DY2" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="EA2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EB2" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>257</v>
       </c>
       <c r="ED2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE2" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>257</v>
       </c>
       <c r="EG2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH2" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>257</v>
       </c>
       <c r="EJ2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EM2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EP2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES2" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="ET2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EV2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="EW2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:154">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" t="s">
+        <v>185</v>
       </c>
       <c r="O3" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="P3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" t="s">
+        <v>191</v>
       </c>
       <c r="S3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="V3" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="W3" t="s">
+        <v>218</v>
       </c>
       <c r="X3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="AC3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="AD3" t="s">
-        <v>208</v>
+        <v>206</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>232</v>
       </c>
       <c r="AF3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>183</v>
+        <v>224</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>224</v>
       </c>
       <c r="BH3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="BI3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BJ3" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="BK3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="BL3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BM3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO3" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>235</v>
       </c>
       <c r="BR3" t="s">
         <v>135</v>
@@ -2069,264 +2147,234 @@
         <v>135</v>
       </c>
       <c r="BV3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BX3" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="BY3" t="s">
-        <v>208</v>
+        <v>186</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>186</v>
       </c>
       <c r="CA3" t="s">
-        <v>202</v>
+        <v>186</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>218</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>224</v>
       </c>
       <c r="CU3">
         <v>0</v>
       </c>
-      <c r="CW3" t="s">
-        <v>183</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>220</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>183</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>183</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>183</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>183</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>183</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>183</v>
+      <c r="CZ3" t="s">
+        <v>218</v>
       </c>
       <c r="DM3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DN3" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DO3" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="DP3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="DR3">
         <v>0</v>
       </c>
       <c r="DS3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DT3" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="DU3" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="DV3" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="DW3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="DX3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="DY3" t="s">
-        <v>209</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="EB3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EC3" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EF3" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EI3" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>257</v>
       </c>
       <c r="EL3" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>257</v>
       </c>
       <c r="EO3" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>257</v>
       </c>
       <c r="ER3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES3" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="ET3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU3" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>266</v>
       </c>
       <c r="EW3" t="s">
-        <v>147</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:154">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" t="s">
-        <v>147</v>
-      </c>
       <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K4" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" t="s">
-        <v>178</v>
-      </c>
-      <c r="M4" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="O4" t="s">
-        <v>183</v>
-      </c>
-      <c r="P4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>160</v>
-      </c>
-      <c r="R4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="S4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="U4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V4" t="s">
+        <v>212</v>
+      </c>
+      <c r="X4" t="s">
         <v>206</v>
       </c>
-      <c r="W4" t="s">
-        <v>208</v>
-      </c>
-      <c r="X4" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>182</v>
-      </c>
       <c r="AC4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AF4" t="s">
         <v>206</v>
       </c>
-      <c r="AE4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>220</v>
+      <c r="AK4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>186</v>
       </c>
       <c r="BH4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="BI4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK4" t="s">
         <v>206</v>
       </c>
-      <c r="BJ4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>220</v>
-      </c>
       <c r="BL4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BM4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="BN4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="BR4" t="s">
         <v>135</v>
@@ -2341,246 +2389,264 @@
         <v>135</v>
       </c>
       <c r="BV4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="BX4" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="BY4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="CA4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>202</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>209</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>182</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="CU4">
         <v>0</v>
       </c>
-      <c r="CZ4" t="s">
-        <v>208</v>
+      <c r="CW4" t="s">
+        <v>186</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>186</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>186</v>
       </c>
       <c r="DM4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DN4" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="DO4" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DP4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="DR4">
         <v>0</v>
       </c>
       <c r="DS4" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DT4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="DU4" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="DV4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DW4" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="DX4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="DY4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="EA4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EB4" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>257</v>
       </c>
       <c r="ED4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE4" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>257</v>
       </c>
       <c r="EG4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH4" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>257</v>
       </c>
       <c r="EJ4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EM4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EP4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES4" t="s">
-        <v>255</v>
+        <v>159</v>
       </c>
       <c r="ET4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU4" t="s">
-        <v>183</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="EW4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="EX4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:154">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>148</v>
+      </c>
       <c r="D5" t="s">
         <v>150</v>
       </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>148</v>
+      </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>175</v>
+      </c>
+      <c r="K5" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" t="s">
+        <v>186</v>
+      </c>
+      <c r="P5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q5" t="s">
         <v>157</v>
       </c>
-      <c r="O5" t="s">
-        <v>183</v>
+      <c r="R5" t="s">
+        <v>192</v>
       </c>
       <c r="S5" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="U5" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="V5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="W5" t="s">
-        <v>201</v>
+        <v>212</v>
+      </c>
+      <c r="X5" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>185</v>
       </c>
       <c r="AC5" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AD5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="AE5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>220</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>183</v>
+        <v>233</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>224</v>
       </c>
       <c r="BH5" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="BI5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="BJ5" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="BK5" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BL5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BM5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BN5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO5" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>236</v>
       </c>
       <c r="BR5" t="s">
         <v>135</v>
@@ -2595,237 +2661,246 @@
         <v>135</v>
       </c>
       <c r="BV5" t="s">
-        <v>220</v>
+        <v>185</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>245</v>
       </c>
       <c r="BX5" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="BY5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="BZ5" t="s">
-        <v>201</v>
+        <v>186</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>206</v>
       </c>
       <c r="CG5" t="s">
-        <v>183</v>
+        <v>213</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>224</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>185</v>
       </c>
       <c r="CO5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="CU5">
         <v>0</v>
       </c>
-      <c r="CW5" t="s">
-        <v>182</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>220</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>183</v>
+      <c r="CZ5" t="s">
+        <v>212</v>
       </c>
       <c r="DM5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DN5" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DO5" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DP5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="DR5">
         <v>0</v>
       </c>
       <c r="DS5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="DT5" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="DU5" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="DV5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="DW5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="DX5" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="DY5" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="EB5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EC5" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EF5" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EI5" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EL5" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EO5" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ER5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES5" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="ET5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU5" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>267</v>
       </c>
       <c r="EW5" t="s">
-        <v>147</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>271</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:154">
       <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" t="s">
         <v>147</v>
       </c>
-      <c r="H6" t="s">
-        <v>153</v>
-      </c>
       <c r="I6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S6" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="U6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V6" t="s">
         <v>206</v>
       </c>
       <c r="W6" t="s">
-        <v>215</v>
-      </c>
-      <c r="X6" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="AC6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AD6" t="s">
         <v>206</v>
       </c>
       <c r="AE6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>182</v>
+        <v>205</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>224</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>186</v>
       </c>
       <c r="BH6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BI6" t="s">
         <v>206</v>
       </c>
       <c r="BJ6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="BK6" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="BL6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BM6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO6" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>233</v>
+        <v>186</v>
       </c>
       <c r="BR6" t="s">
         <v>135</v>
@@ -2840,225 +2915,237 @@
         <v>135</v>
       </c>
       <c r="BV6" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="BX6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BY6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BZ6" t="s">
-        <v>215</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>209</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>183</v>
-      </c>
-      <c r="CQ6" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>224</v>
       </c>
       <c r="CU6">
         <v>0</v>
       </c>
-      <c r="CZ6" t="s">
-        <v>210</v>
+      <c r="CW6" t="s">
+        <v>185</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>186</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>224</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>186</v>
       </c>
       <c r="DM6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DN6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DO6" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="DP6" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DQ6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="DR6">
         <v>0</v>
       </c>
       <c r="DS6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="DT6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="DU6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DV6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="DW6" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="DX6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="DY6" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="EA6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EB6" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>257</v>
       </c>
       <c r="ED6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE6" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>257</v>
       </c>
       <c r="EG6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH6" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>257</v>
       </c>
       <c r="EJ6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK6" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>257</v>
       </c>
       <c r="EM6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN6" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>257</v>
       </c>
       <c r="EP6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ6" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>257</v>
       </c>
       <c r="ES6" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="ET6" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EW6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX6" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:154">
-      <c r="A7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
-        <v>147</v>
-      </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" t="s">
         <v>153</v>
       </c>
-      <c r="I7" t="s">
-        <v>159</v>
-      </c>
-      <c r="J7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" t="s">
-        <v>179</v>
-      </c>
-      <c r="M7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N7" t="s">
-        <v>182</v>
-      </c>
-      <c r="O7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>155</v>
-      </c>
-      <c r="R7" t="s">
-        <v>189</v>
-      </c>
-      <c r="S7" t="s">
-        <v>140</v>
-      </c>
       <c r="U7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V7" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="W7" t="s">
+        <v>219</v>
+      </c>
+      <c r="X7" t="s">
+        <v>222</v>
       </c>
       <c r="AC7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AD7" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>185</v>
       </c>
       <c r="BH7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BI7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BJ7" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="BK7" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="BL7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BM7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="BQ7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="BR7" t="s">
         <v>135</v>
@@ -3073,407 +3160,398 @@
         <v>135</v>
       </c>
       <c r="BV7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BW7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="BX7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="BY7" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF7" t="s">
-        <v>160</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>219</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>213</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>224</v>
       </c>
       <c r="CU7">
         <v>0</v>
       </c>
+      <c r="CZ7" t="s">
+        <v>214</v>
+      </c>
       <c r="DM7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DN7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DO7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DP7" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="DQ7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="DR7">
         <v>0</v>
       </c>
       <c r="DS7" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DT7" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="DU7" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="DV7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DW7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DX7" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="DY7" t="s">
-        <v>209</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>253</v>
+        <v>157</v>
       </c>
       <c r="EB7" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>257</v>
       </c>
       <c r="EE7" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>257</v>
       </c>
       <c r="EH7" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>257</v>
       </c>
       <c r="EK7" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>257</v>
       </c>
       <c r="EN7" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP7" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>257</v>
       </c>
       <c r="EQ7" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>257</v>
       </c>
       <c r="ES7" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="ET7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU7" t="s">
-        <v>183</v>
-      </c>
-      <c r="EV7" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="EW7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:154">
+      <c r="A8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>148</v>
+      </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L8" t="s">
+        <v>182</v>
+      </c>
+      <c r="M8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" t="s">
+        <v>185</v>
       </c>
       <c r="O8" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="P8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>159</v>
+      </c>
+      <c r="R8" t="s">
+        <v>193</v>
       </c>
       <c r="S8" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="U8" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="V8" t="s">
+        <v>213</v>
       </c>
       <c r="AC8" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>213</v>
       </c>
       <c r="BH8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BI8" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="BJ8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BK8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BL8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BM8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO8" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>238</v>
       </c>
       <c r="BR8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BS8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BT8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BU8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BV8" t="s">
-        <v>220</v>
+        <v>185</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>246</v>
       </c>
       <c r="BX8" t="s">
-        <v>160</v>
+        <v>186</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>213</v>
       </c>
       <c r="CU8">
         <v>0</v>
       </c>
       <c r="DM8" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="DN8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DO8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DP8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="DR8">
         <v>0</v>
       </c>
       <c r="DS8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DT8" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="DU8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="DV8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="DW8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DX8" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="DY8" t="s">
-        <v>183</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="EB8" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED8" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>257</v>
       </c>
       <c r="EE8" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG8" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>257</v>
       </c>
       <c r="EH8" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ8" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP8" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>257</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>257</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>257</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>257</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>257</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>257</v>
       </c>
       <c r="ES8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="ET8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU8" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>268</v>
       </c>
       <c r="EW8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:154">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>147</v>
-      </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" t="s">
-        <v>177</v>
-      </c>
-      <c r="L9" t="s">
-        <v>179</v>
-      </c>
-      <c r="M9" t="s">
-        <v>182</v>
-      </c>
-      <c r="N9" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="O9" t="s">
-        <v>183</v>
-      </c>
-      <c r="P9" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>160</v>
-      </c>
-      <c r="R9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S9" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="U9" t="s">
-        <v>203</v>
-      </c>
-      <c r="V9" t="s">
-        <v>206</v>
-      </c>
-      <c r="W9" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="AC9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>208</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="BH9" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="BI9" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="BJ9" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="BK9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BL9" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="BM9" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="BN9" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="BO9" t="s">
-        <v>220</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="BR9" t="s">
         <v>136</v>
@@ -3488,166 +3566,94 @@
         <v>136</v>
       </c>
       <c r="BV9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BX9" t="s">
-        <v>183</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CC9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF9" t="s">
-        <v>203</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>206</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>216</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>221</v>
-      </c>
-      <c r="CK9" t="s">
-        <v>203</v>
-      </c>
-      <c r="CL9" t="s">
-        <v>209</v>
-      </c>
-      <c r="CM9" t="s">
-        <v>220</v>
+        <v>157</v>
       </c>
       <c r="CU9">
         <v>0</v>
       </c>
-      <c r="CV9" t="s">
-        <v>204</v>
-      </c>
-      <c r="CX9" t="s">
-        <v>183</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>229</v>
-      </c>
-      <c r="DD9" t="s">
-        <v>201</v>
-      </c>
-      <c r="DF9" t="s">
-        <v>183</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>183</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>183</v>
-      </c>
       <c r="DM9" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="DN9" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="DO9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DP9" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="DQ9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="DR9">
         <v>0</v>
       </c>
       <c r="DS9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DT9" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="DU9" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="DV9" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="DW9" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="DX9" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="DY9" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="EB9" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>257</v>
       </c>
       <c r="EE9" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>257</v>
       </c>
       <c r="EH9" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>257</v>
       </c>
       <c r="EK9" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN9" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES9" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="ET9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU9" t="s">
-        <v>183</v>
-      </c>
-      <c r="EV9" t="s">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="EW9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:154">
@@ -3658,145 +3664,136 @@
         <v>142</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="R10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="S10" t="s">
         <v>142</v>
       </c>
       <c r="U10" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="V10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W10" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="Y10" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>224</v>
       </c>
       <c r="AC10" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="AD10" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="AE10" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="AG10" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>183</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>183</v>
+        <v>212</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>186</v>
       </c>
       <c r="BH10" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="BI10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BJ10" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="BK10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BL10" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
       <c r="BM10" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="BN10" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="BO10" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BP10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BR10" t="s">
         <v>136</v>
@@ -3811,1700 +3808,1670 @@
         <v>136</v>
       </c>
       <c r="BV10" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BX10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BY10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BZ10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CB10" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>186</v>
       </c>
       <c r="CF10" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="CG10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CH10" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="CJ10" t="s">
-        <v>222</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>230</v>
+        <v>225</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>207</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>213</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>224</v>
       </c>
       <c r="CU10">
         <v>0</v>
       </c>
-      <c r="CW10" t="s">
-        <v>182</v>
-      </c>
-      <c r="CY10" t="s">
-        <v>183</v>
-      </c>
-      <c r="DA10" t="s">
-        <v>183</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>183</v>
-      </c>
-      <c r="DE10" t="s">
-        <v>183</v>
-      </c>
-      <c r="DG10" t="s">
-        <v>183</v>
-      </c>
-      <c r="DI10" t="s">
-        <v>183</v>
-      </c>
-      <c r="DL10" t="s">
-        <v>183</v>
+      <c r="CV10" t="s">
+        <v>208</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>186</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>233</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>205</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>186</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>186</v>
       </c>
       <c r="DM10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DN10" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="DO10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DP10" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="DQ10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="DR10">
         <v>0</v>
       </c>
       <c r="DS10" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DT10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU10" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="DV10" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="DW10" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="DX10" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="DY10" t="s">
-        <v>206</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="EB10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EC10" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EF10" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EI10" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EL10" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EO10" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ER10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES10" t="s">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="ET10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="EU10" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="EV10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="EW10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX10" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:154">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="J11" t="s">
+        <v>176</v>
+      </c>
+      <c r="K11" t="s">
+        <v>180</v>
+      </c>
+      <c r="L11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N11" t="s">
+        <v>185</v>
       </c>
       <c r="O11" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="P11" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>159</v>
+      </c>
+      <c r="R11" t="s">
+        <v>195</v>
       </c>
       <c r="S11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U11" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="V11" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="W11" t="s">
-        <v>183</v>
-      </c>
-      <c r="X11" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="Y11" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="AC11" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="AD11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AE11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="AG11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>204</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>204</v>
+        <v>157</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>186</v>
       </c>
       <c r="BH11" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
       <c r="BI11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="BJ11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="BK11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="BL11" t="s">
-        <v>204</v>
+        <v>157</v>
       </c>
       <c r="BM11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="BN11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="BO11" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>235</v>
       </c>
       <c r="BR11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BS11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BV11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BX11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BY11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BZ11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CB11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CF11" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="CG11" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="CH11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="CJ11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>183</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>204</v>
-      </c>
-      <c r="CO11" t="s">
-        <v>204</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>204</v>
-      </c>
-      <c r="CQ11" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="CR11" t="s">
-        <v>204</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>204</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="CU11">
         <v>0</v>
       </c>
+      <c r="CW11" t="s">
+        <v>185</v>
+      </c>
+      <c r="CY11" t="s">
+        <v>186</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>186</v>
+      </c>
+      <c r="DC11" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>186</v>
+      </c>
       <c r="DM11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DN11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DO11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DP11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="DR11">
         <v>0</v>
       </c>
       <c r="DS11" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="DT11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU11" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="DV11" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="DW11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DX11" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="DY11" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="EA11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EB11" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>257</v>
       </c>
       <c r="ED11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE11" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>257</v>
       </c>
       <c r="EG11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH11" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>257</v>
       </c>
       <c r="EJ11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK11" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>257</v>
       </c>
       <c r="EM11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN11" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>257</v>
       </c>
       <c r="EP11" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ11" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>257</v>
       </c>
       <c r="ES11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="ET11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EU11" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="EV11" t="s">
+        <v>270</v>
       </c>
       <c r="EW11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:154">
-      <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
       <c r="D12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" t="s">
-        <v>172</v>
-      </c>
-      <c r="K12" t="s">
-        <v>177</v>
-      </c>
-      <c r="L12" t="s">
-        <v>180</v>
-      </c>
-      <c r="M12" t="s">
-        <v>182</v>
-      </c>
-      <c r="N12" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="O12" t="s">
-        <v>183</v>
-      </c>
-      <c r="P12" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>186</v>
-      </c>
-      <c r="R12" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="S12" t="s">
         <v>143</v>
       </c>
       <c r="U12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="V12" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="W12" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="X12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC12" t="s">
         <v>208</v>
       </c>
-      <c r="AC12" t="s">
-        <v>160</v>
-      </c>
       <c r="AD12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AE12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF12" t="s">
         <v>208</v>
       </c>
-      <c r="AK12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>182</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>220</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>183</v>
+      <c r="AG12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>208</v>
       </c>
       <c r="BH12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BI12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BJ12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BK12" t="s">
         <v>208</v>
       </c>
       <c r="BL12" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="BM12" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="BN12" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="BO12" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="BR12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BS12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV12" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="BX12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BY12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BZ12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CA12" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>186</v>
       </c>
       <c r="CF12" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="CG12" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="CH12" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="CI12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>186</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>208</v>
+      </c>
+      <c r="CT12" t="s">
         <v>208</v>
       </c>
       <c r="CU12">
         <v>0</v>
       </c>
-      <c r="CV12" t="s">
-        <v>205</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>220</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>183</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>183</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>183</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>183</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>183</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>183</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>183</v>
-      </c>
       <c r="DM12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DN12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DO12" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="DP12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="DR12">
         <v>0</v>
       </c>
       <c r="DS12" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="DT12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU12" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="DV12" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="DW12" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DX12" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="DY12" t="s">
-        <v>160</v>
-      </c>
-      <c r="EA12" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="EB12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EC12" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EF12" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EI12" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EL12" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EO12" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ER12" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES12" t="s">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="ET12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU12" t="s">
-        <v>182</v>
-      </c>
-      <c r="EV12" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="EW12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX12" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:154">
       <c r="A13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13" t="s">
         <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="I13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K13" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q13" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="R13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="S13" t="s">
         <v>144</v>
       </c>
       <c r="U13" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="V13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="W13" t="s">
+        <v>213</v>
+      </c>
+      <c r="X13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>185</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH13" t="s">
         <v>209</v>
       </c>
-      <c r="X13" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE13" t="s">
+      <c r="BI13" t="s">
+        <v>214</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>213</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>212</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>238</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>185</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>246</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF13" t="s">
         <v>209</v>
       </c>
-      <c r="AF13" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>160</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>220</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>182</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>182</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>235</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>135</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>135</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>135</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>182</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>242</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CC13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF13" t="s">
-        <v>160</v>
-      </c>
       <c r="CG13" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CH13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="CI13" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="CU13">
         <v>0</v>
       </c>
       <c r="CV13" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="CW13" t="s">
-        <v>183</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="CY13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DA13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DC13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DE13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DG13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DI13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DL13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DM13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DN13" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="DO13" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="DP13" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DQ13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="DR13">
         <v>0</v>
       </c>
       <c r="DS13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DT13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="DV13" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="DW13" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="DX13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="DY13" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="EA13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EB13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EC13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ED13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EF13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EG13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EI13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EJ13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EL13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EM13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EO13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EP13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ER13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES13" t="s">
         <v>256</v>
       </c>
       <c r="ET13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EV13" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="EW13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX13" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:154">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>148</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="J14" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" t="s">
+        <v>180</v>
+      </c>
+      <c r="L14" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" t="s">
+        <v>185</v>
+      </c>
+      <c r="N14" t="s">
+        <v>185</v>
       </c>
       <c r="O14" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="P14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>189</v>
+      </c>
+      <c r="R14" t="s">
+        <v>197</v>
       </c>
       <c r="S14" t="s">
         <v>145</v>
       </c>
       <c r="U14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V14" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="W14" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="X14" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>185</v>
       </c>
       <c r="AC14" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="AD14" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="AE14" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>186</v>
       </c>
       <c r="BH14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BI14" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="BJ14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="BK14" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BL14" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="BM14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BN14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO14" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>239</v>
       </c>
       <c r="BR14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BS14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BT14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BU14" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>185</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>246</v>
       </c>
       <c r="BX14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BY14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BZ14" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>186</v>
       </c>
       <c r="CF14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="CG14" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="CH14" t="s">
-        <v>217</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>220</v>
+        <v>213</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>224</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>185</v>
       </c>
       <c r="CU14">
         <v>0</v>
       </c>
+      <c r="CV14" t="s">
+        <v>211</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>186</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>189</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>186</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>186</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>185</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>186</v>
+      </c>
       <c r="DM14" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="DN14" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="DO14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DP14" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="DQ14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="DR14">
         <v>0</v>
       </c>
       <c r="DS14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DT14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="DV14" t="s">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="DW14" t="s">
-        <v>183</v>
+        <v>233</v>
       </c>
       <c r="DX14" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DY14" t="s">
-        <v>160</v>
-      </c>
-      <c r="DZ14" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="EA14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EB14" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>257</v>
       </c>
       <c r="ED14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE14" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>257</v>
       </c>
       <c r="EG14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH14" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>257</v>
       </c>
       <c r="EJ14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK14" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>257</v>
       </c>
       <c r="EM14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN14" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>257</v>
       </c>
       <c r="EP14" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ14" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>257</v>
       </c>
       <c r="ES14" t="s">
-        <v>166</v>
+        <v>260</v>
       </c>
       <c r="ET14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU14" t="s">
-        <v>183</v>
+        <v>185</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>272</v>
       </c>
       <c r="EW14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX14" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:154">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
         <v>147</v>
       </c>
-      <c r="D15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" t="s">
-        <v>145</v>
-      </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
+        <v>169</v>
+      </c>
+      <c r="O15" t="s">
+        <v>186</v>
+      </c>
+      <c r="S15" t="s">
         <v>146</v>
       </c>
-      <c r="I15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K15" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" t="s">
-        <v>178</v>
-      </c>
-      <c r="O15" t="s">
-        <v>183</v>
-      </c>
-      <c r="P15" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>160</v>
-      </c>
-      <c r="R15" t="s">
-        <v>194</v>
-      </c>
-      <c r="S15" t="s">
-        <v>145</v>
-      </c>
       <c r="U15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V15" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="W15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Y15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AC15" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="AD15" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="AE15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AG15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>220</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BH15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BI15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BJ15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BK15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BL15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BM15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO15" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="BR15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BS15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU15" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="BX15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BY15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BZ15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CB15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CF15" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>170</v>
+      </c>
+      <c r="CH15" t="s">
         <v>221</v>
       </c>
-      <c r="CG15" t="s">
-        <v>243</v>
-      </c>
-      <c r="CH15" t="s">
-        <v>217</v>
-      </c>
       <c r="CJ15" t="s">
-        <v>220</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>229</v>
-      </c>
-      <c r="CO15" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="CU15">
         <v>0</v>
       </c>
-      <c r="CV15" t="s">
-        <v>221</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>160</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>244</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>209</v>
-      </c>
-      <c r="DA15" t="s">
-        <v>183</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>183</v>
-      </c>
-      <c r="DE15" t="s">
-        <v>183</v>
-      </c>
-      <c r="DG15" t="s">
-        <v>183</v>
-      </c>
-      <c r="DI15" t="s">
-        <v>183</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>183</v>
-      </c>
       <c r="DM15" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="DN15" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DO15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DP15" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="DQ15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="DR15">
         <v>0</v>
       </c>
       <c r="DS15" t="s">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="DT15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU15" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="DV15" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="DW15" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DX15" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="DY15" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="DZ15" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA15" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="EB15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EC15" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EF15" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EI15" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EL15" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EO15" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ER15" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES15" t="s">
-        <v>257</v>
+        <v>169</v>
       </c>
       <c r="ET15" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="EU15" t="s">
-        <v>182</v>
-      </c>
-      <c r="EV15" t="s">
-        <v>268</v>
+        <v>186</v>
       </c>
       <c r="EW15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EX15" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:154">
@@ -5515,10 +5482,10 @@
         <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
         <v>137</v>
@@ -5527,91 +5494,145 @@
         <v>146</v>
       </c>
       <c r="G16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
         <v>147</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s">
+        <v>181</v>
+      </c>
+      <c r="O16" t="s">
+        <v>186</v>
+      </c>
+      <c r="P16" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>157</v>
+      </c>
+      <c r="R16" t="s">
+        <v>198</v>
+      </c>
+      <c r="S16" t="s">
         <v>146</v>
       </c>
-      <c r="I16" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" t="s">
-        <v>174</v>
-      </c>
-      <c r="K16" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" t="s">
-        <v>178</v>
-      </c>
-      <c r="O16" t="s">
-        <v>183</v>
-      </c>
-      <c r="P16" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>160</v>
-      </c>
-      <c r="R16" t="s">
-        <v>194</v>
-      </c>
-      <c r="S16" t="s">
-        <v>144</v>
-      </c>
       <c r="U16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V16" t="s">
+        <v>170</v>
+      </c>
+      <c r="W16" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>224</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL16" t="s">
         <v>213</v>
       </c>
-      <c r="W16" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>218</v>
+      <c r="AM16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>186</v>
       </c>
       <c r="AS16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AT16" t="s">
-        <v>182</v>
+        <v>224</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>186</v>
       </c>
       <c r="BH16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="BI16" t="s">
-        <v>213</v>
+        <v>170</v>
       </c>
       <c r="BJ16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="BK16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BL16" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BM16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BP16" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="BQ16" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="BR16" t="s">
         <v>137</v>
@@ -5626,1050 +5647,1349 @@
         <v>137</v>
       </c>
       <c r="BW16" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="BX16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BY16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BZ16" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>186</v>
       </c>
       <c r="CF16" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="CG16" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="CH16" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>224</v>
       </c>
       <c r="CN16" t="s">
-        <v>182</v>
+        <v>233</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>232</v>
       </c>
       <c r="CU16">
         <v>0</v>
       </c>
       <c r="CV16" t="s">
-        <v>155</v>
+        <v>225</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>157</v>
       </c>
       <c r="CX16" t="s">
+        <v>248</v>
+      </c>
+      <c r="CY16" t="s">
         <v>213</v>
       </c>
+      <c r="DA16" t="s">
+        <v>186</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI16" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>186</v>
+      </c>
       <c r="DM16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="DN16" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="DO16" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>212</v>
       </c>
       <c r="DQ16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="DR16">
         <v>0</v>
       </c>
       <c r="DS16" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="DT16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU16" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="DV16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="DW16" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="DX16" t="s">
-        <v>160</v>
+        <v>222</v>
       </c>
       <c r="DY16" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="DZ16" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="EA16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EB16" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>257</v>
       </c>
       <c r="ED16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EE16" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>257</v>
       </c>
       <c r="EG16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EH16" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>257</v>
       </c>
       <c r="EJ16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EK16" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>257</v>
       </c>
       <c r="EM16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN16" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>257</v>
       </c>
       <c r="EP16" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ16" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>257</v>
       </c>
       <c r="ES16" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="ET16" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="EU16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="EV16" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="EW16" t="s">
+        <v>148</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:154">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
         <v>147</v>
       </c>
-      <c r="EX16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="4:154">
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>148</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I17" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" t="s">
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="P17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>157</v>
+      </c>
+      <c r="R17" t="s">
+        <v>198</v>
       </c>
       <c r="S17" t="s">
-        <v>196</v>
-      </c>
-      <c r="T17" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="U17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V17" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="W17" t="s">
-        <v>219</v>
-      </c>
-      <c r="X17" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="AC17" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="AD17" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="AE17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>182</v>
+        <v>222</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>185</v>
       </c>
       <c r="BH17" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="BI17" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="BJ17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="BK17" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="BL17" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="BM17" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="BN17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="BO17" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>241</v>
       </c>
       <c r="BR17" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="BS17" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="BT17" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="BU17" t="s">
-        <v>240</v>
+        <v>137</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>245</v>
       </c>
       <c r="BX17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BY17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BZ17" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB17" t="s">
-        <v>183</v>
-      </c>
-      <c r="CC17" t="s">
-        <v>183</v>
-      </c>
-      <c r="CD17" t="s">
-        <v>183</v>
-      </c>
-      <c r="CE17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="CF17" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="CG17" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="CH17" t="s">
-        <v>219</v>
-      </c>
-      <c r="CI17" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ17" t="s">
-        <v>220</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>220</v>
-      </c>
-      <c r="CL17" t="s">
-        <v>182</v>
-      </c>
-      <c r="CM17" t="s">
-        <v>182</v>
+        <v>222</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>185</v>
       </c>
       <c r="CU17">
         <v>0</v>
       </c>
+      <c r="CV17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>217</v>
+      </c>
       <c r="DM17" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="DN17" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DO17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="DR17">
         <v>0</v>
       </c>
       <c r="DS17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="DT17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU17" t="s">
-        <v>168</v>
+        <v>216</v>
       </c>
       <c r="DV17" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="DW17" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DX17" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="DY17" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="DZ17" t="s">
-        <v>220</v>
-      </c>
-      <c r="EA17" t="s">
-        <v>253</v>
+        <v>185</v>
       </c>
       <c r="EB17" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>257</v>
       </c>
       <c r="EE17" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG17" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>257</v>
       </c>
       <c r="EH17" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ17" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>257</v>
       </c>
       <c r="EK17" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM17" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>257</v>
       </c>
       <c r="EN17" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP17" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>257</v>
       </c>
       <c r="EQ17" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>257</v>
       </c>
       <c r="ES17" t="s">
-        <v>168</v>
+        <v>262</v>
       </c>
       <c r="ET17" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU17" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>274</v>
       </c>
       <c r="EW17" t="s">
+        <v>148</v>
+      </c>
+      <c r="EX17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:154">
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" t="s">
         <v>147</v>
       </c>
-      <c r="EX17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="4:154">
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" t="s">
-        <v>146</v>
-      </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S18" t="s">
-        <v>144</v>
+        <v>200</v>
+      </c>
+      <c r="T18" t="s">
+        <v>204</v>
       </c>
       <c r="U18" t="s">
-        <v>169</v>
+        <v>157</v>
+      </c>
+      <c r="V18" t="s">
+        <v>209</v>
+      </c>
+      <c r="W18" t="s">
+        <v>223</v>
+      </c>
+      <c r="X18" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>185</v>
       </c>
       <c r="AC18" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>209</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>185</v>
       </c>
       <c r="BH18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BI18" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="BJ18" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="BK18" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="BL18" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BM18" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BN18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BO18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="BR18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BS18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BT18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BU18" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BX18" t="s">
-        <v>169</v>
+        <v>186</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>186</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>186</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>186</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>172</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>209</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>223</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>213</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>224</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>224</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>185</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>185</v>
       </c>
       <c r="CU18">
         <v>0</v>
       </c>
       <c r="DM18" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="DN18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DO18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DR18">
         <v>0</v>
       </c>
       <c r="DS18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DT18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="DU18" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="DV18" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="DW18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DX18" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="DY18" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="DZ18" t="s">
-        <v>183</v>
-      </c>
-      <c r="EA18" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="EB18" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED18" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC18" t="s">
+        <v>257</v>
       </c>
       <c r="EE18" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG18" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>257</v>
       </c>
       <c r="EH18" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ18" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM18" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP18" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI18" t="s">
+        <v>257</v>
+      </c>
+      <c r="EK18" t="s">
+        <v>257</v>
+      </c>
+      <c r="EL18" t="s">
+        <v>257</v>
+      </c>
+      <c r="EN18" t="s">
+        <v>257</v>
+      </c>
+      <c r="EO18" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ18" t="s">
+        <v>257</v>
+      </c>
+      <c r="ER18" t="s">
+        <v>257</v>
       </c>
       <c r="ES18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="ET18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EW18" t="s">
+        <v>148</v>
+      </c>
+      <c r="EX18" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:154">
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H19" t="s">
         <v>147</v>
       </c>
-      <c r="EX18" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="4:154">
-      <c r="D19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" t="s">
-        <v>146</v>
-      </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S19" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="U19" t="s">
-        <v>206</v>
-      </c>
-      <c r="V19" t="s">
-        <v>213</v>
-      </c>
-      <c r="W19" t="s">
-        <v>157</v>
-      </c>
-      <c r="X19" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="AC19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>209</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>220</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>230</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="BH19" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="BI19" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="BJ19" t="s">
-        <v>157</v>
+        <v>186</v>
       </c>
       <c r="BK19" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="BL19" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="BM19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO19" t="s">
-        <v>183</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="BR19" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BS19" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BT19" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="BU19" t="s">
-        <v>240</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="BX19" t="s">
-        <v>183</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>183</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>183</v>
-      </c>
-      <c r="CB19" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>206</v>
-      </c>
-      <c r="CG19" t="s">
-        <v>227</v>
-      </c>
-      <c r="CH19" t="s">
-        <v>157</v>
-      </c>
-      <c r="CI19" t="s">
-        <v>209</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>220</v>
-      </c>
-      <c r="CO19" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="CU19">
         <v>0</v>
       </c>
-      <c r="CV19" t="s">
-        <v>206</v>
-      </c>
-      <c r="CX19" t="s">
-        <v>213</v>
-      </c>
       <c r="DM19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DN19" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="DO19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DQ19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DR19">
         <v>0</v>
       </c>
       <c r="DS19" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="DT19" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="DU19" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="DV19" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="DW19" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="DX19" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="DY19" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="DZ19" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA19" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="EB19" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED19" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>257</v>
       </c>
       <c r="EE19" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG19" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>257</v>
       </c>
       <c r="EH19" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ19" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="EI19" t="s">
+        <v>257</v>
       </c>
       <c r="EK19" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EN19" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="EQ19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="ES19" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="ET19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EU19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="EW19" t="s">
+        <v>148</v>
+      </c>
+      <c r="EX19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:154">
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" t="s">
         <v>147</v>
       </c>
-      <c r="EX19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="20" spans="4:154">
-      <c r="D20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" t="s">
-        <v>146</v>
-      </c>
       <c r="I20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>183</v>
-      </c>
-      <c r="P20" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>160</v>
-      </c>
-      <c r="R20" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="S20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="U20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="V20" t="s">
-        <v>160</v>
+        <v>217</v>
+      </c>
+      <c r="W20" t="s">
+        <v>161</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>224</v>
       </c>
       <c r="AC20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AD20" t="s">
-        <v>224</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>183</v>
+        <v>231</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>224</v>
       </c>
       <c r="AS20" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="AT20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="BH20" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BI20" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BJ20" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="BK20" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="BL20" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="BM20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BN20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="BO20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BP20" t="s">
+        <v>186</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>246</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>186</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>186</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>210</v>
+      </c>
+      <c r="CG20" t="s">
         <v>231</v>
       </c>
-      <c r="BQ20" t="s">
-        <v>239</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>240</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>240</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>240</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>241</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>183</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>183</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>207</v>
-      </c>
-      <c r="CG20" t="s">
-        <v>211</v>
+      <c r="CH20" t="s">
+        <v>161</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>213</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>234</v>
       </c>
       <c r="CU20">
         <v>0</v>
       </c>
       <c r="CV20" t="s">
-        <v>215</v>
-      </c>
-      <c r="CW20" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="CX20" t="s">
-        <v>211</v>
-      </c>
-      <c r="CY20" t="s">
-        <v>220</v>
-      </c>
-      <c r="DA20" t="s">
-        <v>183</v>
-      </c>
-      <c r="DC20" t="s">
-        <v>183</v>
-      </c>
-      <c r="DE20" t="s">
-        <v>183</v>
-      </c>
-      <c r="DG20" t="s">
-        <v>183</v>
-      </c>
-      <c r="DI20" t="s">
-        <v>183</v>
-      </c>
-      <c r="DL20" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="DM20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="DN20" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="DO20" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="DQ20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="DR20">
         <v>0</v>
       </c>
       <c r="DS20" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
       <c r="DT20" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="DU20" t="s">
-        <v>171</v>
+        <v>255</v>
       </c>
       <c r="DV20" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="DW20" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX20" t="s">
+        <v>227</v>
+      </c>
+      <c r="DY20" t="s">
+        <v>227</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>185</v>
+      </c>
+      <c r="EB20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EC20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EE20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EF20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EH20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EI20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EK20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EL20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EN20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EO20" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ20" t="s">
+        <v>257</v>
+      </c>
+      <c r="ER20" t="s">
+        <v>257</v>
+      </c>
+      <c r="ES20" t="s">
+        <v>263</v>
+      </c>
+      <c r="ET20" t="s">
+        <v>186</v>
+      </c>
+      <c r="EU20" t="s">
+        <v>186</v>
+      </c>
+      <c r="EW20" t="s">
+        <v>148</v>
+      </c>
+      <c r="EX20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:154">
+      <c r="D21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>178</v>
+      </c>
+      <c r="K21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L21" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" t="s">
+        <v>186</v>
+      </c>
+      <c r="P21" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>157</v>
+      </c>
+      <c r="R21" t="s">
+        <v>199</v>
+      </c>
+      <c r="S21" t="s">
+        <v>203</v>
+      </c>
+      <c r="U21" t="s">
+        <v>211</v>
+      </c>
+      <c r="V21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD21" t="s">
         <v>228</v>
       </c>
-      <c r="DX20" t="s">
-        <v>221</v>
-      </c>
-      <c r="DY20" t="s">
-        <v>221</v>
-      </c>
-      <c r="DZ20" t="s">
-        <v>182</v>
-      </c>
-      <c r="EA20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EB20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EC20" t="s">
-        <v>253</v>
-      </c>
-      <c r="ED20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EE20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EF20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EG20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EH20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EI20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EK20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EL20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EM20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EN20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EO20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EP20" t="s">
-        <v>253</v>
-      </c>
-      <c r="EQ20" t="s">
-        <v>253</v>
-      </c>
-      <c r="ER20" t="s">
-        <v>253</v>
-      </c>
-      <c r="ES20" t="s">
-        <v>260</v>
-      </c>
-      <c r="ET20" t="s">
-        <v>220</v>
-      </c>
-      <c r="EU20" t="s">
-        <v>182</v>
-      </c>
-      <c r="EV20" t="s">
-        <v>270</v>
-      </c>
-      <c r="EW20" t="s">
-        <v>147</v>
-      </c>
-      <c r="EX20" t="s">
-        <v>271</v>
+      <c r="AK21" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>224</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>215</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>235</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>243</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>244</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>245</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>186</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>186</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>211</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU21">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>219</v>
+      </c>
+      <c r="CW21" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>215</v>
+      </c>
+      <c r="CY21" t="s">
+        <v>224</v>
+      </c>
+      <c r="DA21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DC21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DG21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DI21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DL21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DM21" t="s">
+        <v>185</v>
+      </c>
+      <c r="DN21" t="s">
+        <v>208</v>
+      </c>
+      <c r="DO21" t="s">
+        <v>224</v>
+      </c>
+      <c r="DQ21" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR21">
+        <v>0</v>
+      </c>
+      <c r="DS21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DT21" t="s">
+        <v>186</v>
+      </c>
+      <c r="DU21" t="s">
+        <v>174</v>
+      </c>
+      <c r="DV21" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW21" t="s">
+        <v>232</v>
+      </c>
+      <c r="DX21" t="s">
+        <v>225</v>
+      </c>
+      <c r="DY21" t="s">
+        <v>225</v>
+      </c>
+      <c r="DZ21" t="s">
+        <v>185</v>
+      </c>
+      <c r="EA21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EB21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EC21" t="s">
+        <v>257</v>
+      </c>
+      <c r="ED21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EE21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EF21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EG21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EH21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EI21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EJ21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EK21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EL21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EM21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EN21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EO21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EP21" t="s">
+        <v>257</v>
+      </c>
+      <c r="EQ21" t="s">
+        <v>257</v>
+      </c>
+      <c r="ER21" t="s">
+        <v>257</v>
+      </c>
+      <c r="ES21" t="s">
+        <v>264</v>
+      </c>
+      <c r="ET21" t="s">
+        <v>224</v>
+      </c>
+      <c r="EU21" t="s">
+        <v>185</v>
+      </c>
+      <c r="EV21" t="s">
+        <v>275</v>
+      </c>
+      <c r="EW21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EX21" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6679,7 +6999,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6699,7 +7019,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -6731,37 +7051,37 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6769,37 +7089,37 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6807,34 +7127,34 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6842,95 +7162,95 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M5" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="D6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I6" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K6" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="L6" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="D7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6941,34 +7261,34 @@
         <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6979,34 +7299,34 @@
         <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L9" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7017,72 +7337,72 @@
         <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
         <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7093,34 +7413,34 @@
         <v>142</v>
       </c>
       <c r="C12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H12" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="I12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J12" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K12" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M12" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7131,110 +7451,110 @@
         <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J13" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M13" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
         <v>144</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I14" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L14" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
         <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="K15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="L15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -7245,34 +7565,72 @@
         <v>146</v>
       </c>
       <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" t="s">
+        <v>187</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" t="s">
+        <v>235</v>
+      </c>
+      <c r="M16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
         <v>147</v>
       </c>
-      <c r="D16" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" t="s">
-        <v>176</v>
-      </c>
-      <c r="H16" t="s">
-        <v>178</v>
-      </c>
-      <c r="I16" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" t="s">
-        <v>160</v>
-      </c>
-      <c r="K16" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" t="s">
-        <v>231</v>
-      </c>
-      <c r="M16" t="s">
-        <v>269</v>
+      <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" t="s">
+        <v>181</v>
+      </c>
+      <c r="I17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" t="s">
+        <v>235</v>
+      </c>
+      <c r="M17" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -7282,7 +7640,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7313,19 +7671,19 @@
         <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7333,53 +7691,53 @@
         <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7387,19 +7745,19 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7407,13 +7765,19 @@
         <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7421,19 +7785,19 @@
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -7441,75 +7805,69 @@
         <v>136</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" t="s">
-        <v>288</v>
-      </c>
-      <c r="F9" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
       <c r="D10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>290</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
       <c r="D11" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
-      </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" t="s">
-        <v>147</v>
-      </c>
       <c r="D13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" t="s">
-        <v>241</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -7520,36 +7878,36 @@
         <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -7557,59 +7915,99 @@
         <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>137</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>146</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" t="s">
         <v>147</v>
       </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" t="s">
         <v>241</v>
+      </c>
+      <c r="F20" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="303">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -435,6 +435,9 @@
     <t>October</t>
   </si>
   <si>
+    <t>Svita Clinic</t>
+  </si>
+  <si>
     <t>Musume Hospital</t>
   </si>
   <si>
@@ -495,6 +498,9 @@
     <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>43</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -508,9 +514,6 @@
   </si>
   <si>
     <t>34</t>
-  </si>
-  <si>
-    <t>43</t>
   </si>
   <si>
     <t>73</t>
@@ -565,12 +568,12 @@
     <t>Client healing</t>
   </si>
   <si>
+    <t>Severe</t>
+  </si>
+  <si>
     <t>Moderate</t>
   </si>
   <si>
-    <t>Severe</t>
-  </si>
-  <si>
     <t>COA</t>
   </si>
   <si>
@@ -595,9 +598,15 @@
     <t>Doctor</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>55</t>
   </si>
   <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
     <t>2024-12-18</t>
   </si>
   <si>
@@ -670,9 +679,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
@@ -739,6 +745,9 @@
     <t>Surgical</t>
   </si>
   <si>
+    <t>High fever</t>
+  </si>
+  <si>
     <t>Client had elevated BP</t>
   </si>
   <si>
@@ -827,6 +836,9 @@
   </si>
   <si>
     <t>70</t>
+  </si>
+  <si>
+    <t>0585858</t>
   </si>
   <si>
     <t>009857</t>
@@ -1271,7 +1283,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EY22"/>
+  <dimension ref="A1:EY23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1745,80 +1757,113 @@
       </c>
     </row>
     <row r="2" spans="1:155">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="J2" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L2" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" t="s">
+        <v>189</v>
       </c>
       <c r="O2" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="P2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" t="s">
+        <v>195</v>
       </c>
       <c r="S2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="U2" t="s">
-        <v>208</v>
-      </c>
-      <c r="V2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="W2" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="X2" t="s">
+        <v>193</v>
       </c>
       <c r="AC2" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AE2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>188</v>
+        <v>217</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>193</v>
       </c>
       <c r="BH2" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="BI2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BJ2" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="BK2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="BL2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="BM2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP2" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>241</v>
       </c>
       <c r="BR2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="BS2" t="s">
         <v>136</v>
@@ -1833,252 +1878,180 @@
         <v>136</v>
       </c>
       <c r="BW2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BX2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BY2" t="s">
-        <v>214</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CA2" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>193</v>
       </c>
       <c r="CV2">
         <v>0</v>
       </c>
-      <c r="DA2" t="s">
-        <v>221</v>
-      </c>
       <c r="DN2" t="s">
         <v>189</v>
       </c>
       <c r="DO2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DP2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DQ2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DS2">
         <v>0</v>
       </c>
       <c r="DT2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DV2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DW2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="DX2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DY2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DZ2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="EB2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET2" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="EU2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV2" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>273</v>
       </c>
       <c r="EX2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:155">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" t="s">
         <v>136</v>
       </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" t="s">
         <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
-        <v>160</v>
-      </c>
-      <c r="J3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M3" t="s">
-        <v>188</v>
-      </c>
-      <c r="N3" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="O3" t="s">
-        <v>189</v>
-      </c>
-      <c r="P3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>160</v>
-      </c>
-      <c r="R3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="S3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="U3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="V3" t="s">
-        <v>216</v>
-      </c>
-      <c r="X3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>188</v>
+        <v>211</v>
+      </c>
+      <c r="W3" t="s">
+        <v>223</v>
       </c>
       <c r="AC3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AD3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>189</v>
+        <v>211</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>189</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>229</v>
       </c>
       <c r="BI3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="BJ3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="BK3" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="BL3" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="BM3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BO3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>239</v>
+        <v>190</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>243</v>
       </c>
       <c r="BS3" t="s">
         <v>136</v>
@@ -2093,145 +2066,103 @@
         <v>136</v>
       </c>
       <c r="BW3" t="s">
-        <v>227</v>
+        <v>189</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>253</v>
       </c>
       <c r="BY3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="BZ3" t="s">
-        <v>216</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>188</v>
+        <v>211</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>223</v>
       </c>
       <c r="CV3">
         <v>0</v>
       </c>
-      <c r="CX3" t="s">
-        <v>227</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>189</v>
+      <c r="DA3" t="s">
+        <v>223</v>
       </c>
       <c r="DN3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DO3" t="s">
         <v>189</v>
       </c>
       <c r="DP3" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="DQ3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DV3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DW3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="DX3" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="DY3" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="DZ3" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="EB3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC3" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF3" t="s">
-        <v>262</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI3" t="s">
-        <v>262</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK3" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN3" t="s">
-        <v>262</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ3" t="s">
-        <v>262</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET3" t="s">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="EU3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV3" t="s">
-        <v>188</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="EX3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:155">
@@ -2242,7 +2173,7 @@
         <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
         <v>151</v>
@@ -2251,91 +2182,136 @@
         <v>157</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="S4" t="s">
         <v>140</v>
       </c>
       <c r="U4" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="V4" t="s">
-        <v>210</v>
-      </c>
-      <c r="W4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="X4" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>189</v>
       </c>
       <c r="AC4" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="AD4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="AF4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>229</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>190</v>
       </c>
       <c r="BI4" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="BJ4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="BK4" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
       <c r="BL4" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="BM4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN4" t="s">
         <v>189</v>
       </c>
       <c r="BO4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BQ4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BS4" t="s">
         <v>136</v>
@@ -2350,130 +2326,157 @@
         <v>136</v>
       </c>
       <c r="BW4" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BY4" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="BZ4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="CB4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>222</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>189</v>
       </c>
       <c r="CV4">
         <v>0</v>
       </c>
-      <c r="DA4" t="s">
-        <v>222</v>
+      <c r="CX4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>190</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>190</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>190</v>
       </c>
       <c r="DN4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DO4" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="DP4" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DQ4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DS4">
         <v>0</v>
       </c>
       <c r="DT4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU4" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="DV4" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="DW4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="DY4" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="DZ4" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="EB4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC4" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>265</v>
       </c>
       <c r="EE4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF4" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>265</v>
       </c>
       <c r="EH4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI4" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>265</v>
       </c>
       <c r="EK4" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>265</v>
       </c>
       <c r="EN4" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>265</v>
       </c>
       <c r="EQ4" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>265</v>
       </c>
       <c r="ET4" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="EU4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV4" t="s">
         <v>189</v>
       </c>
       <c r="EW4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="EX4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:155">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>150</v>
+      </c>
       <c r="D5" t="s">
         <v>152</v>
       </c>
@@ -2481,103 +2484,91 @@
         <v>158</v>
       </c>
       <c r="I5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" t="s">
+        <v>189</v>
+      </c>
+      <c r="N5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O5" t="s">
+        <v>190</v>
+      </c>
+      <c r="P5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" t="s">
         <v>162</v>
       </c>
-      <c r="O5" t="s">
-        <v>189</v>
+      <c r="R5" t="s">
+        <v>197</v>
       </c>
       <c r="S5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U5" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="V5" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="W5" t="s">
+        <v>224</v>
       </c>
       <c r="X5" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="AC5" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="AD5" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>238</v>
       </c>
       <c r="AF5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>189</v>
+        <v>229</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>229</v>
       </c>
       <c r="BI5" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="BJ5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="BK5" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="BL5" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="BM5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP5" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>241</v>
       </c>
       <c r="BS5" t="s">
         <v>136</v>
@@ -2592,264 +2583,234 @@
         <v>136</v>
       </c>
       <c r="BW5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BY5" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="BZ5" t="s">
-        <v>216</v>
+        <v>190</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>190</v>
       </c>
       <c r="CB5" t="s">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>162</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>213</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>224</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>229</v>
       </c>
       <c r="CV5">
         <v>0</v>
       </c>
-      <c r="CX5" t="s">
-        <v>189</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>227</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>189</v>
+      <c r="DA5" t="s">
+        <v>224</v>
       </c>
       <c r="DN5" t="s">
         <v>189</v>
       </c>
       <c r="DO5" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DP5" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="DQ5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DS5">
         <v>0</v>
       </c>
       <c r="DT5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU5" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="DV5" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="DW5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="DX5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="DY5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="DZ5" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="EB5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC5" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF5" t="s">
-        <v>262</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI5" t="s">
-        <v>262</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK5" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>265</v>
       </c>
       <c r="EN5" t="s">
-        <v>262</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>265</v>
       </c>
       <c r="EQ5" t="s">
-        <v>262</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>265</v>
       </c>
       <c r="ET5" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="EU5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV5" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>275</v>
       </c>
       <c r="EX5" t="s">
-        <v>149</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:155">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
       <c r="D6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L6" t="s">
-        <v>184</v>
-      </c>
-      <c r="M6" t="s">
-        <v>188</v>
-      </c>
-      <c r="N6" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="O6" t="s">
-        <v>189</v>
-      </c>
-      <c r="P6" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="S6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="U6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="V6" t="s">
-        <v>214</v>
-      </c>
-      <c r="W6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="X6" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="AC6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AD6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AF6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>227</v>
+        <v>213</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>190</v>
       </c>
       <c r="BI6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="BJ6" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="BK6" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="BL6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="BM6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BO6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP6" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>239</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="BS6" t="s">
         <v>136</v>
@@ -2864,246 +2825,264 @@
         <v>136</v>
       </c>
       <c r="BW6" t="s">
-        <v>188</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="BY6" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="BZ6" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA6" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="CB6" t="s">
-        <v>189</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG6" t="s">
-        <v>210</v>
-      </c>
-      <c r="CH6" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI6" t="s">
-        <v>216</v>
-      </c>
-      <c r="CJ6" t="s">
-        <v>227</v>
-      </c>
-      <c r="CL6" t="s">
-        <v>188</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="CV6">
         <v>0</v>
       </c>
-      <c r="DA6" t="s">
-        <v>216</v>
+      <c r="CX6" t="s">
+        <v>190</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>190</v>
       </c>
       <c r="DN6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DO6" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="DP6" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DQ6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DS6">
         <v>0</v>
       </c>
       <c r="DT6" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DU6" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="DV6" t="s">
-        <v>258</v>
+        <v>190</v>
       </c>
       <c r="DW6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="DX6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="DY6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="DZ6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="EB6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC6" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>265</v>
       </c>
       <c r="EE6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF6" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>265</v>
       </c>
       <c r="EH6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI6" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>265</v>
       </c>
       <c r="EK6" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>265</v>
       </c>
       <c r="EN6" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP6" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>265</v>
       </c>
       <c r="EQ6" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES6" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>265</v>
       </c>
       <c r="ET6" t="s">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="EU6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV6" t="s">
         <v>189</v>
       </c>
-      <c r="EW6" t="s">
-        <v>272</v>
-      </c>
       <c r="EX6" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:155">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" t="s">
+        <v>150</v>
       </c>
       <c r="H7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I7" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="J7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" t="s">
+        <v>185</v>
+      </c>
+      <c r="M7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N7" t="s">
+        <v>189</v>
       </c>
       <c r="O7" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="P7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>162</v>
+      </c>
+      <c r="R7" t="s">
+        <v>198</v>
       </c>
       <c r="S7" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="U7" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="V7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W7" t="s">
-        <v>209</v>
+        <v>219</v>
+      </c>
+      <c r="X7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>189</v>
       </c>
       <c r="AC7" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="AD7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AE7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>188</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>189</v>
+        <v>239</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>229</v>
       </c>
       <c r="BI7" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="BJ7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BK7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="BL7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BM7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN7" t="s">
         <v>189</v>
       </c>
       <c r="BO7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP7" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>244</v>
       </c>
       <c r="BS7" t="s">
         <v>136</v>
@@ -3118,237 +3097,246 @@
         <v>136</v>
       </c>
       <c r="BW7" t="s">
-        <v>227</v>
+        <v>189</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>254</v>
       </c>
       <c r="BY7" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="BZ7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="CA7" t="s">
-        <v>209</v>
+        <v>190</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>213</v>
       </c>
       <c r="CH7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>219</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL7" t="s">
         <v>189</v>
       </c>
       <c r="CP7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="CV7">
         <v>0</v>
       </c>
-      <c r="CX7" t="s">
-        <v>188</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>189</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>227</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>189</v>
+      <c r="DA7" t="s">
+        <v>219</v>
       </c>
       <c r="DN7" t="s">
         <v>189</v>
       </c>
       <c r="DO7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DP7" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DQ7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DS7">
         <v>0</v>
       </c>
       <c r="DT7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="DU7" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c r="DV7" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="DW7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="DX7" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="DY7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="DZ7" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="EB7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC7" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EM7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN7" t="s">
-        <v>262</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EP7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ7" t="s">
-        <v>262</v>
-      </c>
-      <c r="ER7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ES7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET7" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="EU7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV7" t="s">
-        <v>188</v>
+        <v>190</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>276</v>
       </c>
       <c r="EX7" t="s">
-        <v>149</v>
-      </c>
-      <c r="EY7" t="s">
-        <v>281</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:155">
       <c r="D8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" t="s">
         <v>149</v>
       </c>
-      <c r="H8" t="s">
-        <v>158</v>
-      </c>
       <c r="I8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S8" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="U8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W8" t="s">
-        <v>223</v>
-      </c>
-      <c r="X8" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="AC8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>225</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>188</v>
+        <v>212</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>229</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>190</v>
       </c>
       <c r="BI8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BJ8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BK8" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="BL8" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="BM8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP8" t="s">
-        <v>189</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="BS8" t="s">
         <v>136</v>
@@ -3363,225 +3351,237 @@
         <v>136</v>
       </c>
       <c r="BW8" t="s">
-        <v>188</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="BY8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BZ8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="CA8" t="s">
-        <v>223</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>208</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>189</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>227</v>
+        <v>212</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>190</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>229</v>
       </c>
       <c r="CV8">
         <v>0</v>
       </c>
-      <c r="DA8" t="s">
-        <v>217</v>
+      <c r="CX8" t="s">
+        <v>189</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>190</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>229</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>190</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>190</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>190</v>
       </c>
       <c r="DN8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DO8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DP8" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="DQ8" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DR8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="DS8">
         <v>0</v>
       </c>
       <c r="DT8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="DU8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="DV8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DW8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="DX8" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="DY8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="DZ8" t="s">
+        <v>189</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>265</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EF8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EP8" t="s">
+        <v>265</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>265</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>265</v>
+      </c>
+      <c r="ES8" t="s">
+        <v>265</v>
+      </c>
+      <c r="ET8" t="s">
         <v>160</v>
       </c>
-      <c r="EB8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EE8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EF8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EH8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EI8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EN8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP8" t="s">
-        <v>262</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES8" t="s">
-        <v>262</v>
-      </c>
-      <c r="ET8" t="s">
-        <v>173</v>
-      </c>
       <c r="EU8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV8" t="s">
         <v>189</v>
       </c>
       <c r="EX8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:155">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>149</v>
-      </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" t="s">
         <v>136</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
         <v>166</v>
       </c>
-      <c r="J9" t="s">
-        <v>178</v>
-      </c>
-      <c r="K9" t="s">
-        <v>183</v>
-      </c>
-      <c r="L9" t="s">
-        <v>185</v>
-      </c>
-      <c r="M9" t="s">
-        <v>188</v>
-      </c>
-      <c r="N9" t="s">
-        <v>188</v>
-      </c>
       <c r="O9" t="s">
-        <v>189</v>
-      </c>
-      <c r="P9" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q9" t="s">
+        <v>190</v>
+      </c>
+      <c r="S9" t="s">
+        <v>156</v>
+      </c>
+      <c r="U9" t="s">
         <v>162</v>
       </c>
-      <c r="R9" t="s">
-        <v>196</v>
-      </c>
-      <c r="S9" t="s">
-        <v>142</v>
-      </c>
-      <c r="U9" t="s">
-        <v>160</v>
-      </c>
       <c r="V9" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="W9" t="s">
+        <v>225</v>
+      </c>
+      <c r="X9" t="s">
+        <v>227</v>
       </c>
       <c r="AC9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AD9" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>189</v>
       </c>
       <c r="BI9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BJ9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="BK9" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="BL9" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="BM9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP9" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="BR9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="BS9" t="s">
         <v>136</v>
@@ -3596,37 +3596,46 @@
         <v>136</v>
       </c>
       <c r="BW9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BX9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="BY9" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="BZ9" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG9" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH9" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>211</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>190</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>229</v>
       </c>
       <c r="CV9">
         <v>0</v>
       </c>
+      <c r="DA9" t="s">
+        <v>193</v>
+      </c>
       <c r="DN9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DO9" t="s">
         <v>189</v>
       </c>
       <c r="DP9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DQ9" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="DR9" t="s">
         <v>166</v>
@@ -3635,368 +3644,350 @@
         <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DU9" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="DV9" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="DW9" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="DX9" t="s">
         <v>189</v>
       </c>
       <c r="DY9" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="DZ9" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="EB9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EM9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EP9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ES9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET9" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="EU9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV9" t="s">
-        <v>189</v>
-      </c>
-      <c r="EW9" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="EX9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY9" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:155">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>167</v>
+      </c>
+      <c r="J10" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" t="s">
+        <v>186</v>
+      </c>
+      <c r="M10" t="s">
+        <v>189</v>
+      </c>
+      <c r="N10" t="s">
+        <v>189</v>
       </c>
       <c r="O10" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="P10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>164</v>
+      </c>
+      <c r="R10" t="s">
+        <v>199</v>
       </c>
       <c r="S10" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="U10" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="V10" t="s">
+        <v>211</v>
       </c>
       <c r="AC10" t="s">
-        <v>160</v>
+        <v>162</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>211</v>
       </c>
       <c r="BI10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BJ10" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="BK10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BL10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BM10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP10" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>246</v>
       </c>
       <c r="BS10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BV10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BW10" t="s">
-        <v>227</v>
+        <v>189</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>253</v>
       </c>
       <c r="BY10" t="s">
-        <v>160</v>
+        <v>190</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>162</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>211</v>
       </c>
       <c r="CV10">
         <v>0</v>
       </c>
       <c r="DN10" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="DO10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DQ10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="DS10">
         <v>0</v>
       </c>
       <c r="DT10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU10" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="DV10" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="DW10" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="DX10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DY10" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="DZ10" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="EB10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK10" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>265</v>
       </c>
       <c r="EN10" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EP10" t="s">
+        <v>265</v>
       </c>
       <c r="EQ10" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ES10" t="s">
+        <v>265</v>
       </c>
       <c r="ET10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="EU10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV10" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>277</v>
       </c>
       <c r="EX10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY10" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:155">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>149</v>
-      </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" t="s">
-        <v>182</v>
-      </c>
-      <c r="L11" t="s">
-        <v>185</v>
-      </c>
-      <c r="M11" t="s">
-        <v>188</v>
-      </c>
-      <c r="N11" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="O11" t="s">
-        <v>189</v>
-      </c>
-      <c r="P11" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>160</v>
-      </c>
-      <c r="R11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="S11" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="U11" t="s">
-        <v>211</v>
-      </c>
-      <c r="V11" t="s">
-        <v>214</v>
-      </c>
-      <c r="W11" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="AC11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="BI11" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="BJ11" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="BK11" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="BL11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BM11" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="BN11" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="BO11" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="BP11" t="s">
-        <v>227</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="BS11" t="s">
         <v>137</v>
@@ -4011,166 +4002,94 @@
         <v>137</v>
       </c>
       <c r="BW11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BY11" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>189</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>189</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>211</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>214</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>221</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>228</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>211</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>208</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>227</v>
+        <v>162</v>
       </c>
       <c r="CV11">
         <v>0</v>
       </c>
-      <c r="CW11" t="s">
-        <v>212</v>
-      </c>
-      <c r="CY11" t="s">
-        <v>189</v>
-      </c>
-      <c r="DA11" t="s">
-        <v>237</v>
-      </c>
-      <c r="DE11" t="s">
-        <v>209</v>
-      </c>
-      <c r="DG11" t="s">
-        <v>189</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>189</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>189</v>
-      </c>
       <c r="DN11" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="DO11" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="DP11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DQ11" t="s">
-        <v>254</v>
+        <v>190</v>
       </c>
       <c r="DR11" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="DS11">
         <v>0</v>
       </c>
       <c r="DT11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU11" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="DV11" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="DW11" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="DX11" t="s">
-        <v>237</v>
+        <v>190</v>
       </c>
       <c r="DY11" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="DZ11" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="EB11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK11" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN11" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ11" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES11" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET11" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="EU11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV11" t="s">
-        <v>189</v>
-      </c>
-      <c r="EW11" t="s">
-        <v>274</v>
+        <v>190</v>
       </c>
       <c r="EX11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY11" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:155">
@@ -4181,13 +4100,13 @@
         <v>144</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
         <v>168</v>
@@ -4196,130 +4115,121 @@
         <v>179</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q12" t="s">
         <v>162</v>
       </c>
       <c r="R12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="S12" t="s">
         <v>144</v>
       </c>
       <c r="U12" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="V12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="W12" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z12" t="s">
         <v>214</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB12" t="s">
         <v>229</v>
       </c>
       <c r="AC12" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="AD12" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="AE12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI12" t="s">
         <v>214</v>
       </c>
-      <c r="AG12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>188</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>175</v>
-      </c>
       <c r="BJ12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="BK12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN12" t="s">
         <v>214</v>
       </c>
-      <c r="BL12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>189</v>
-      </c>
       <c r="BO12" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="BP12" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BQ12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BS12" t="s">
         <v>137</v>
@@ -4334,73 +4244,85 @@
         <v>137</v>
       </c>
       <c r="BW12" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BY12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CC12" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>190</v>
       </c>
       <c r="CG12" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="CH12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="CI12" t="s">
+        <v>223</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL12" t="s">
         <v>214</v>
       </c>
-      <c r="CK12" t="s">
+      <c r="CM12" t="s">
+        <v>211</v>
+      </c>
+      <c r="CN12" t="s">
         <v>229</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>238</v>
       </c>
       <c r="CV12">
         <v>0</v>
       </c>
-      <c r="CX12" t="s">
-        <v>188</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DB12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>189</v>
+      <c r="CW12" t="s">
+        <v>215</v>
+      </c>
+      <c r="CY12" t="s">
+        <v>190</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>239</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>212</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>190</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>190</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>190</v>
       </c>
       <c r="DN12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DO12" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="DP12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DQ12" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="DR12" t="s">
         <v>168</v>
@@ -4409,273 +4331,309 @@
         <v>0</v>
       </c>
       <c r="DT12" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DU12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV12" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="DW12" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="DX12" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="DY12" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DZ12" t="s">
+        <v>229</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EH12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EI12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EK12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EM12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EN12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EP12" t="s">
+        <v>265</v>
+      </c>
+      <c r="EQ12" t="s">
+        <v>265</v>
+      </c>
+      <c r="ES12" t="s">
+        <v>265</v>
+      </c>
+      <c r="ET12" t="s">
         <v>214</v>
       </c>
-      <c r="EB12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EC12" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EE12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EF12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EH12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EI12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EJ12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EK12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EN12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EO12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP12" t="s">
-        <v>262</v>
-      </c>
-      <c r="EQ12" t="s">
-        <v>262</v>
-      </c>
-      <c r="ER12" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES12" t="s">
-        <v>262</v>
-      </c>
-      <c r="ET12" t="s">
-        <v>168</v>
-      </c>
       <c r="EU12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="EV12" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="EW12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="EX12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:155">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
         <v>169</v>
       </c>
+      <c r="J13" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" t="s">
+        <v>183</v>
+      </c>
+      <c r="L13" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" t="s">
+        <v>189</v>
+      </c>
+      <c r="N13" t="s">
+        <v>189</v>
+      </c>
       <c r="O13" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="P13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>164</v>
+      </c>
+      <c r="R13" t="s">
+        <v>201</v>
       </c>
       <c r="S13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U13" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="V13" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="W13" t="s">
-        <v>189</v>
-      </c>
-      <c r="X13" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="Y13" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="AC13" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="AD13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AE13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="AG13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>212</v>
+        <v>162</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>190</v>
       </c>
       <c r="BI13" t="s">
-        <v>212</v>
+        <v>176</v>
       </c>
       <c r="BJ13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BK13" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="BL13" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="BM13" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="BN13" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="BO13" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="BP13" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>241</v>
       </c>
       <c r="BS13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BT13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BU13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BV13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BW13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BY13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CC13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CG13" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="CH13" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="CI13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="CK13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CQ13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="CS13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="CV13">
         <v>0</v>
       </c>
+      <c r="CX13" t="s">
+        <v>189</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>190</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>190</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>190</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>190</v>
+      </c>
       <c r="DN13" t="s">
         <v>189</v>
       </c>
       <c r="DO13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DQ13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR13" t="s">
         <v>169</v>
@@ -4684,61 +4642,79 @@
         <v>0</v>
       </c>
       <c r="DT13" t="s">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="DU13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV13" t="s">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="DW13" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="DX13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DY13" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="DZ13" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="EB13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC13" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>265</v>
       </c>
       <c r="EE13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF13" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>265</v>
       </c>
       <c r="EH13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI13" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>265</v>
       </c>
       <c r="EK13" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>265</v>
       </c>
       <c r="EM13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN13" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>265</v>
       </c>
       <c r="EP13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ13" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>265</v>
       </c>
       <c r="ES13" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET13" t="s">
         <v>169</v>
@@ -4749,259 +4725,190 @@
       <c r="EV13" t="s">
         <v>189</v>
       </c>
+      <c r="EW13" t="s">
+        <v>279</v>
+      </c>
       <c r="EX13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY13" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:155">
-      <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" t="s">
-        <v>149</v>
-      </c>
       <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
         <v>170</v>
       </c>
-      <c r="J14" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" t="s">
-        <v>182</v>
-      </c>
-      <c r="L14" t="s">
-        <v>186</v>
-      </c>
-      <c r="M14" t="s">
-        <v>188</v>
-      </c>
-      <c r="N14" t="s">
-        <v>188</v>
-      </c>
       <c r="O14" t="s">
-        <v>189</v>
-      </c>
-      <c r="P14" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>192</v>
-      </c>
-      <c r="R14" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="S14" t="s">
         <v>145</v>
       </c>
       <c r="U14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="V14" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="W14" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="X14" t="s">
-        <v>216</v>
+        <v>190</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>190</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>190</v>
       </c>
       <c r="AC14" t="s">
-        <v>160</v>
+        <v>215</v>
       </c>
       <c r="AD14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AE14" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AF14" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>227</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>189</v>
+        <v>215</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>215</v>
       </c>
       <c r="BI14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BJ14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BK14" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BL14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BM14" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="BN14" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="BO14" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="BP14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>239</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="BS14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BT14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BU14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BW14" t="s">
-        <v>188</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="BY14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB14" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>190</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>190</v>
       </c>
       <c r="CG14" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="CH14" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="CI14" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="CJ14" t="s">
-        <v>216</v>
+        <v>190</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>190</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>190</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>190</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>215</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>215</v>
       </c>
       <c r="CV14">
         <v>0</v>
       </c>
-      <c r="CW14" t="s">
-        <v>213</v>
-      </c>
-      <c r="CX14" t="s">
-        <v>227</v>
-      </c>
-      <c r="CZ14" t="s">
-        <v>189</v>
-      </c>
-      <c r="DB14" t="s">
-        <v>189</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF14" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH14" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ14" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM14" t="s">
-        <v>189</v>
-      </c>
       <c r="DN14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DO14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DP14" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="DQ14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR14" t="s">
         <v>170</v>
@@ -5010,375 +4917,324 @@
         <v>0</v>
       </c>
       <c r="DT14" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="DU14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV14" t="s">
+        <v>190</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>190</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>190</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>190</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>190</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>265</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>265</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>265</v>
+      </c>
+      <c r="ET14" t="s">
         <v>170</v>
       </c>
-      <c r="DW14" t="s">
-        <v>218</v>
-      </c>
-      <c r="DX14" t="s">
-        <v>238</v>
-      </c>
-      <c r="DY14" t="s">
-        <v>214</v>
-      </c>
-      <c r="DZ14" t="s">
-        <v>160</v>
-      </c>
-      <c r="EB14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EC14" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EG14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EI14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EJ14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EK14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EN14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EO14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP14" t="s">
-        <v>262</v>
-      </c>
-      <c r="EQ14" t="s">
-        <v>262</v>
-      </c>
-      <c r="ER14" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES14" t="s">
-        <v>262</v>
-      </c>
-      <c r="ET14" t="s">
-        <v>261</v>
-      </c>
       <c r="EU14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV14" t="s">
-        <v>188</v>
-      </c>
-      <c r="EW14" t="s">
-        <v>276</v>
+        <v>190</v>
       </c>
       <c r="EX14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY14" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:155">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F15" t="s">
         <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
         <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="R15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S15" t="s">
         <v>146</v>
       </c>
       <c r="U15" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="V15" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="W15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="X15" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AC15" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="AD15" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="AE15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF15" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="AK15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AP15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AQ15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AR15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AS15" t="s">
         <v>189</v>
       </c>
-      <c r="AT15" t="s">
-        <v>238</v>
-      </c>
       <c r="AV15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BA15" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BB15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BC15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BD15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BE15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BF15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BG15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BI15" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="BJ15" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="BK15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="BL15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="BM15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BN15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BO15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="BQ15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BR15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="BS15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BX15" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="BY15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CB15" t="s">
-        <v>189</v>
-      </c>
-      <c r="CD15" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CG15" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="CH15" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="CI15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="CJ15" t="s">
-        <v>227</v>
-      </c>
-      <c r="CL15" t="s">
-        <v>188</v>
-      </c>
-      <c r="CN15" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="CV15">
         <v>0</v>
       </c>
       <c r="CW15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CX15" t="s">
-        <v>189</v>
-      </c>
-      <c r="CY15" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="CZ15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DB15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DD15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DF15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DH15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DJ15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DM15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DN15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DO15" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="DP15" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="DQ15" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DR15" t="s">
         <v>171</v>
@@ -5387,213 +5243,375 @@
         <v>0</v>
       </c>
       <c r="DT15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV15" t="s">
         <v>171</v>
       </c>
       <c r="DW15" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="DX15" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="DY15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="DZ15" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="EB15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ED15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EG15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EJ15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EL15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EM15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EO15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EP15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ER15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ES15" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="EU15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EW15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="EX15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:155">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>150</v>
       </c>
       <c r="H16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
         <v>172</v>
       </c>
+      <c r="J16" t="s">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s">
+        <v>189</v>
+      </c>
       <c r="O16" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="P16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>194</v>
+      </c>
+      <c r="R16" t="s">
+        <v>203</v>
       </c>
       <c r="S16" t="s">
         <v>147</v>
       </c>
       <c r="U16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="W16" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>227</v>
+        <v>211</v>
+      </c>
+      <c r="X16" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>189</v>
       </c>
       <c r="AC16" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="AD16" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="AE16" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>227</v>
+        <v>211</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>190</v>
       </c>
       <c r="BI16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BJ16" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="BK16" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="BL16" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BM16" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="BN16" t="s">
         <v>189</v>
       </c>
       <c r="BO16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP16" t="s">
         <v>189</v>
       </c>
+      <c r="BQ16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>247</v>
+      </c>
       <c r="BS16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BV16" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>189</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>253</v>
       </c>
       <c r="BY16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA16" t="s">
-        <v>189</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>190</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>190</v>
       </c>
       <c r="CG16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="CH16" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="CI16" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>227</v>
+        <v>211</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>189</v>
       </c>
       <c r="CV16">
         <v>0</v>
       </c>
+      <c r="CW16" t="s">
+        <v>218</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>190</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>194</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>189</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>190</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>190</v>
+      </c>
       <c r="DN16" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="DO16" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="DP16" t="s">
         <v>189</v>
       </c>
       <c r="DQ16" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="DR16" t="s">
         <v>172</v>
@@ -5602,432 +5620,294 @@
         <v>0</v>
       </c>
       <c r="DT16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV16" t="s">
         <v>172</v>
       </c>
       <c r="DW16" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="DX16" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="DY16" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="DZ16" t="s">
-        <v>160</v>
-      </c>
-      <c r="EA16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="EB16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC16" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>265</v>
       </c>
       <c r="EE16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF16" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>265</v>
       </c>
       <c r="EH16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI16" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>265</v>
       </c>
       <c r="EK16" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>265</v>
       </c>
       <c r="EM16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN16" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>265</v>
       </c>
       <c r="EP16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ16" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>265</v>
       </c>
       <c r="ES16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET16" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="EU16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV16" t="s">
         <v>189</v>
       </c>
+      <c r="EW16" t="s">
+        <v>281</v>
+      </c>
       <c r="EX16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY16" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:155">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G17" t="s">
-        <v>149</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="O17" t="s">
+        <v>190</v>
+      </c>
+      <c r="S17" t="s">
         <v>148</v>
       </c>
-      <c r="I17" t="s">
-        <v>172</v>
-      </c>
-      <c r="J17" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" t="s">
-        <v>184</v>
-      </c>
-      <c r="O17" t="s">
-        <v>189</v>
-      </c>
-      <c r="P17" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>160</v>
-      </c>
-      <c r="R17" t="s">
-        <v>201</v>
-      </c>
-      <c r="S17" t="s">
-        <v>147</v>
-      </c>
       <c r="U17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V17" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="W17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Y17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AC17" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="AD17" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="AE17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG17" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>189</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG17" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BI17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BJ17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="BK17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="BL17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BM17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="BN17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP17" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>239</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="BS17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BT17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BU17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BV17" t="s">
-        <v>138</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="BY17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CC17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CG17" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="CH17" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="CI17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="CK17" t="s">
-        <v>227</v>
-      </c>
-      <c r="CO17" t="s">
-        <v>237</v>
-      </c>
-      <c r="CP17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="CV17">
         <v>0</v>
       </c>
-      <c r="CW17" t="s">
-        <v>228</v>
-      </c>
-      <c r="CX17" t="s">
-        <v>160</v>
-      </c>
-      <c r="CY17" t="s">
-        <v>253</v>
-      </c>
-      <c r="CZ17" t="s">
-        <v>208</v>
-      </c>
-      <c r="DB17" t="s">
-        <v>189</v>
-      </c>
-      <c r="DD17" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF17" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH17" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ17" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM17" t="s">
-        <v>189</v>
-      </c>
       <c r="DN17" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="DO17" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DP17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DQ17" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="DR17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DS17">
         <v>0</v>
       </c>
       <c r="DT17" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="DU17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV17" t="s">
-        <v>259</v>
+        <v>173</v>
       </c>
       <c r="DW17" t="s">
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="DX17" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DY17" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="DZ17" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="EA17" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
       <c r="EB17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC17" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF17" t="s">
-        <v>262</v>
-      </c>
-      <c r="EG17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI17" t="s">
-        <v>262</v>
-      </c>
-      <c r="EJ17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK17" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EM17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN17" t="s">
-        <v>262</v>
-      </c>
-      <c r="EO17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EP17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ17" t="s">
-        <v>262</v>
-      </c>
-      <c r="ER17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ES17" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET17" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="EU17" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="EV17" t="s">
-        <v>188</v>
-      </c>
-      <c r="EW17" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="EX17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY17" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:155">
@@ -6038,10 +5918,10 @@
         <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
         <v>138</v>
@@ -6050,91 +5930,145 @@
         <v>148</v>
       </c>
       <c r="G18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" t="s">
         <v>149</v>
-      </c>
-      <c r="H18" t="s">
-        <v>148</v>
       </c>
       <c r="I18" t="s">
         <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="R18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="U18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V18" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="W18" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>229</v>
       </c>
       <c r="AC18" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="AD18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AE18" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>229</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>190</v>
       </c>
       <c r="AS18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT18" t="s">
-        <v>188</v>
+        <v>229</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>190</v>
       </c>
       <c r="BI18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BJ18" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="BK18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BL18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BM18" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BN18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BQ18" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="BR18" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BS18" t="s">
         <v>138</v>
@@ -6149,46 +6083,82 @@
         <v>138</v>
       </c>
       <c r="BX18" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="BY18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="CA18" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>190</v>
       </c>
       <c r="CG18" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="CH18" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="CI18" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>229</v>
       </c>
       <c r="CO18" t="s">
-        <v>188</v>
+        <v>239</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>238</v>
       </c>
       <c r="CV18">
         <v>0</v>
       </c>
       <c r="CW18" t="s">
+        <v>230</v>
+      </c>
+      <c r="CX18" t="s">
         <v>162</v>
       </c>
       <c r="CY18" t="s">
-        <v>220</v>
+        <v>256</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>211</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DH18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ18" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM18" t="s">
+        <v>190</v>
       </c>
       <c r="DN18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="DO18" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="DP18" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>219</v>
       </c>
       <c r="DR18" t="s">
         <v>173</v>
@@ -6197,246 +6167,261 @@
         <v>0</v>
       </c>
       <c r="DT18" t="s">
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="DU18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV18" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="DW18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="DX18" t="s">
+        <v>240</v>
+      </c>
+      <c r="DY18" t="s">
         <v>227</v>
       </c>
-      <c r="DY18" t="s">
-        <v>160</v>
-      </c>
       <c r="DZ18" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="EA18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="EB18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC18" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ED18" t="s">
+        <v>265</v>
       </c>
       <c r="EE18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF18" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EG18" t="s">
+        <v>265</v>
       </c>
       <c r="EH18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI18" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EJ18" t="s">
+        <v>265</v>
       </c>
       <c r="EK18" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EL18" t="s">
+        <v>265</v>
       </c>
       <c r="EM18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN18" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EO18" t="s">
+        <v>265</v>
       </c>
       <c r="EP18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ18" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ER18" t="s">
+        <v>265</v>
       </c>
       <c r="ES18" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET18" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="EU18" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="EV18" t="s">
         <v>189</v>
       </c>
       <c r="EW18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="EX18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY18" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:155">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
       <c r="D19" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>150</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
         <v>174</v>
       </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
       <c r="O19" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="P19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>162</v>
+      </c>
+      <c r="R19" t="s">
+        <v>204</v>
       </c>
       <c r="S19" t="s">
-        <v>203</v>
-      </c>
-      <c r="T19" t="s">
-        <v>207</v>
+        <v>147</v>
       </c>
       <c r="U19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="V19" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="W19" t="s">
-        <v>226</v>
-      </c>
-      <c r="X19" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y19" t="s">
         <v>227</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AC19" t="s">
+        <v>218</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE19" t="s">
         <v>227</v>
       </c>
-      <c r="AA19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>226</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG19" t="s">
+      <c r="AS19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK19" t="s">
         <v>227</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="BL19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>254</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>190</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>190</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI19" t="s">
         <v>227</v>
       </c>
-      <c r="AI19" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>188</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>175</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>213</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>226</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>208</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>227</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>227</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>188</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>188</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>249</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>249</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>249</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>249</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB19" t="s">
-        <v>189</v>
-      </c>
-      <c r="CC19" t="s">
-        <v>189</v>
-      </c>
-      <c r="CD19" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE19" t="s">
-        <v>189</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG19" t="s">
-        <v>175</v>
-      </c>
-      <c r="CH19" t="s">
-        <v>213</v>
-      </c>
-      <c r="CI19" t="s">
-        <v>226</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>208</v>
-      </c>
-      <c r="CK19" t="s">
-        <v>227</v>
-      </c>
-      <c r="CL19" t="s">
-        <v>227</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>188</v>
-      </c>
-      <c r="CN19" t="s">
-        <v>188</v>
+      <c r="CO19" t="s">
+        <v>189</v>
       </c>
       <c r="CV19">
         <v>0</v>
       </c>
+      <c r="CW19" t="s">
+        <v>164</v>
+      </c>
+      <c r="CY19" t="s">
+        <v>222</v>
+      </c>
       <c r="DN19" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="DO19" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DP19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR19" t="s">
         <v>174</v>
@@ -6448,117 +6433,165 @@
         <v>189</v>
       </c>
       <c r="DU19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV19" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="DW19" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="DX19" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DY19" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="DZ19" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="EA19" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="EB19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EM19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EP19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ES19" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET19" t="s">
-        <v>174</v>
+        <v>270</v>
       </c>
       <c r="EU19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV19" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="EW19" t="s">
+        <v>283</v>
       </c>
       <c r="EX19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:155">
       <c r="D20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" t="s">
         <v>175</v>
       </c>
       <c r="O20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S20" t="s">
-        <v>146</v>
+        <v>206</v>
+      </c>
+      <c r="T20" t="s">
+        <v>210</v>
       </c>
       <c r="U20" t="s">
-        <v>175</v>
+        <v>162</v>
+      </c>
+      <c r="V20" t="s">
+        <v>216</v>
+      </c>
+      <c r="W20" t="s">
+        <v>228</v>
+      </c>
+      <c r="X20" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>189</v>
       </c>
       <c r="AC20" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>189</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>189</v>
       </c>
       <c r="BI20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BJ20" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="BK20" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="BL20" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="BM20" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BN20" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BO20" t="s">
         <v>189</v>
@@ -6567,31 +6600,76 @@
         <v>189</v>
       </c>
       <c r="BS20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BT20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BU20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BV20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BY20" t="s">
-        <v>175</v>
+        <v>190</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>216</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>228</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>229</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>229</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>189</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>189</v>
       </c>
       <c r="CV20">
         <v>0</v>
       </c>
       <c r="DN20" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="DO20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DP20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR20" t="s">
         <v>175</v>
@@ -6600,216 +6678,153 @@
         <v>0</v>
       </c>
       <c r="DT20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DU20" t="s">
+        <v>190</v>
+      </c>
+      <c r="DV20" t="s">
         <v>175</v>
       </c>
-      <c r="DV20" t="s">
-        <v>189</v>
-      </c>
       <c r="DW20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="DX20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DY20" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="DZ20" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="EA20" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="EB20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI20" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK20" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EM20" t="s">
+        <v>265</v>
       </c>
       <c r="EN20" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="EP20" t="s">
+        <v>265</v>
       </c>
       <c r="EQ20" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="ES20" t="s">
+        <v>265</v>
       </c>
       <c r="ET20" t="s">
         <v>175</v>
       </c>
       <c r="EU20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EX20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY20" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:155">
       <c r="D21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I21" t="s">
         <v>176</v>
       </c>
       <c r="O21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S21" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="U21" t="s">
-        <v>214</v>
-      </c>
-      <c r="V21" t="s">
-        <v>220</v>
-      </c>
-      <c r="W21" t="s">
-        <v>164</v>
-      </c>
-      <c r="X21" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="AC21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>208</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>227</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>238</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="BI21" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="BJ21" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="BK21" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="BL21" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="BM21" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="BN21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP21" t="s">
-        <v>189</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="BS21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BT21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BU21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BV21" t="s">
-        <v>249</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BY21" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>189</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>189</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>189</v>
-      </c>
-      <c r="CG21" t="s">
-        <v>214</v>
-      </c>
-      <c r="CH21" t="s">
-        <v>234</v>
-      </c>
-      <c r="CI21" t="s">
-        <v>164</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>208</v>
-      </c>
-      <c r="CK21" t="s">
-        <v>227</v>
-      </c>
-      <c r="CP21" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="CV21">
         <v>0</v>
       </c>
-      <c r="CW21" t="s">
-        <v>214</v>
-      </c>
-      <c r="CY21" t="s">
-        <v>220</v>
-      </c>
       <c r="DN21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DO21" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="DP21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DR21" t="s">
         <v>176</v>
@@ -6818,279 +6833,216 @@
         <v>0</v>
       </c>
       <c r="DT21" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="DU21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="DV21" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="DW21" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="DX21" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="DY21" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="DZ21" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="EA21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="EB21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EC21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EE21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EF21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EH21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EI21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EK21" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EN21" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="EQ21" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES21" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="ET21" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="EU21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EV21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="EX21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="EY21" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:155">
       <c r="D22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
         <v>177</v>
       </c>
-      <c r="J22" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" t="s">
-        <v>187</v>
-      </c>
       <c r="O22" t="s">
-        <v>189</v>
-      </c>
-      <c r="P22" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q22" t="s">
+        <v>190</v>
+      </c>
+      <c r="S22" t="s">
+        <v>208</v>
+      </c>
+      <c r="U22" t="s">
+        <v>217</v>
+      </c>
+      <c r="V22" t="s">
+        <v>222</v>
+      </c>
+      <c r="W22" t="s">
         <v>160</v>
       </c>
-      <c r="R22" t="s">
-        <v>202</v>
-      </c>
-      <c r="S22" t="s">
-        <v>206</v>
-      </c>
-      <c r="U22" t="s">
-        <v>215</v>
-      </c>
-      <c r="V22" t="s">
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE22" t="s">
         <v>160</v>
       </c>
-      <c r="AC22" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>189</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>189</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>189</v>
+      <c r="AF22" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>229</v>
       </c>
       <c r="AS22" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="AT22" t="s">
-        <v>237</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>227</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="BI22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="BJ22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="BK22" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="BL22" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="BM22" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="BN22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BO22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BP22" t="s">
-        <v>189</v>
-      </c>
-      <c r="BQ22" t="s">
-        <v>239</v>
+        <v>190</v>
       </c>
       <c r="BR22" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="BS22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BT22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BU22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BV22" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="BX22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BZ22" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>190</v>
       </c>
       <c r="CG22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="CH22" t="s">
-        <v>218</v>
+        <v>236</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>160</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>229</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>240</v>
       </c>
       <c r="CV22">
         <v>0</v>
       </c>
       <c r="CW22" t="s">
-        <v>223</v>
-      </c>
-      <c r="CX22" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="CY22" t="s">
-        <v>218</v>
-      </c>
-      <c r="CZ22" t="s">
-        <v>227</v>
-      </c>
-      <c r="DB22" t="s">
-        <v>189</v>
-      </c>
-      <c r="DD22" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF22" t="s">
-        <v>189</v>
-      </c>
-      <c r="DH22" t="s">
-        <v>189</v>
-      </c>
-      <c r="DJ22" t="s">
-        <v>189</v>
-      </c>
-      <c r="DM22" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="DN22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="DO22" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="DP22" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="DR22" t="s">
         <v>177</v>
@@ -7099,100 +7051,381 @@
         <v>0</v>
       </c>
       <c r="DT22" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="DU22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="DV22" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="DW22" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="DX22" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="DY22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="DZ22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="EA22" t="s">
+        <v>189</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EC22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EE22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EF22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EH22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EI22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EK22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EM22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EN22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EP22" t="s">
+        <v>265</v>
+      </c>
+      <c r="EQ22" t="s">
+        <v>265</v>
+      </c>
+      <c r="ES22" t="s">
+        <v>265</v>
+      </c>
+      <c r="ET22" t="s">
+        <v>271</v>
+      </c>
+      <c r="EU22" t="s">
+        <v>190</v>
+      </c>
+      <c r="EV22" t="s">
+        <v>190</v>
+      </c>
+      <c r="EX22" t="s">
+        <v>150</v>
+      </c>
+      <c r="EY22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:155">
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="H23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
         <v>188</v>
       </c>
-      <c r="EB22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EC22" t="s">
-        <v>262</v>
-      </c>
-      <c r="ED22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EE22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EF22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EG22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EH22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EI22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EJ22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EK22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EL22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EN22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EO22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP22" t="s">
-        <v>262</v>
-      </c>
-      <c r="EQ22" t="s">
-        <v>262</v>
-      </c>
-      <c r="ER22" t="s">
-        <v>262</v>
-      </c>
-      <c r="ES22" t="s">
-        <v>262</v>
-      </c>
-      <c r="ET22" t="s">
-        <v>269</v>
-      </c>
-      <c r="EU22" t="s">
-        <v>227</v>
-      </c>
-      <c r="EV22" t="s">
-        <v>188</v>
-      </c>
-      <c r="EW22" t="s">
-        <v>280</v>
-      </c>
-      <c r="EX22" t="s">
-        <v>149</v>
-      </c>
-      <c r="EY22" t="s">
-        <v>281</v>
+      <c r="O23" t="s">
+        <v>190</v>
+      </c>
+      <c r="P23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>162</v>
+      </c>
+      <c r="R23" t="s">
+        <v>205</v>
+      </c>
+      <c r="S23" t="s">
+        <v>209</v>
+      </c>
+      <c r="U23" t="s">
+        <v>218</v>
+      </c>
+      <c r="V23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>190</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>229</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>220</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>241</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>252</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>252</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>252</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>252</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>254</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>190</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>190</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>218</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>220</v>
+      </c>
+      <c r="CV23">
+        <v>0</v>
+      </c>
+      <c r="CW23" t="s">
+        <v>225</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>229</v>
+      </c>
+      <c r="CY23" t="s">
+        <v>220</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>229</v>
+      </c>
+      <c r="DB23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DD23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DF23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DH23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DJ23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DM23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DN23" t="s">
+        <v>189</v>
+      </c>
+      <c r="DO23" t="s">
+        <v>215</v>
+      </c>
+      <c r="DP23" t="s">
+        <v>229</v>
+      </c>
+      <c r="DR23" t="s">
+        <v>178</v>
+      </c>
+      <c r="DS23">
+        <v>0</v>
+      </c>
+      <c r="DT23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU23" t="s">
+        <v>190</v>
+      </c>
+      <c r="DV23" t="s">
+        <v>178</v>
+      </c>
+      <c r="DW23" t="s">
+        <v>162</v>
+      </c>
+      <c r="DX23" t="s">
+        <v>238</v>
+      </c>
+      <c r="DY23" t="s">
+        <v>230</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>230</v>
+      </c>
+      <c r="EA23" t="s">
+        <v>189</v>
+      </c>
+      <c r="EB23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EC23" t="s">
+        <v>265</v>
+      </c>
+      <c r="ED23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EE23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EF23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EG23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EH23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EI23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EJ23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EK23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EL23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EM23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EN23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EO23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EP23" t="s">
+        <v>265</v>
+      </c>
+      <c r="EQ23" t="s">
+        <v>265</v>
+      </c>
+      <c r="ER23" t="s">
+        <v>265</v>
+      </c>
+      <c r="ES23" t="s">
+        <v>265</v>
+      </c>
+      <c r="ET23" t="s">
+        <v>272</v>
+      </c>
+      <c r="EU23" t="s">
+        <v>229</v>
+      </c>
+      <c r="EV23" t="s">
+        <v>189</v>
+      </c>
+      <c r="EW23" t="s">
+        <v>284</v>
+      </c>
+      <c r="EX23" t="s">
+        <v>150</v>
+      </c>
+      <c r="EY23" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7202,7 +7435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7222,7 +7455,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -7254,37 +7487,37 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G2" t="s">
         <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7292,37 +7525,37 @@
         <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7330,34 +7563,34 @@
         <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
         <v>183</v>
       </c>
       <c r="H4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7365,95 +7598,95 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="D6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G6" t="s">
         <v>183</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="D7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7464,34 +7697,34 @@
         <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7502,34 +7735,34 @@
         <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
         <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7540,34 +7773,34 @@
         <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I10" t="s">
         <v>191</v>
       </c>
       <c r="J10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7578,72 +7811,72 @@
         <v>142</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
         <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H11" t="s">
         <v>185</v>
       </c>
       <c r="I11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J11" t="s">
         <v>162</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7654,34 +7887,34 @@
         <v>144</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F13" t="s">
         <v>179</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I13" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J13" t="s">
         <v>162</v>
       </c>
       <c r="K13" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7692,110 +7925,110 @@
         <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
         <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="K16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7806,34 +8039,72 @@
         <v>148</v>
       </c>
       <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" t="s">
+        <v>191</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" t="s">
+        <v>241</v>
+      </c>
+      <c r="M17" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
         <v>183</v>
       </c>
-      <c r="H17" t="s">
-        <v>184</v>
-      </c>
-      <c r="I17" t="s">
-        <v>190</v>
-      </c>
-      <c r="J17" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" t="s">
-        <v>201</v>
-      </c>
-      <c r="L17" t="s">
-        <v>239</v>
-      </c>
-      <c r="M17" t="s">
-        <v>279</v>
+      <c r="H18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s">
+        <v>204</v>
+      </c>
+      <c r="L18" t="s">
+        <v>241</v>
+      </c>
+      <c r="M18" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7843,7 +8114,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7874,19 +8145,19 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7894,19 +8165,19 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -7914,19 +8185,19 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -7934,13 +8205,13 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7948,19 +8219,19 @@
         <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -7968,19 +8239,19 @@
         <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7988,19 +8259,19 @@
         <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8008,13 +8279,13 @@
         <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -8022,19 +8293,19 @@
         <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8042,35 +8313,35 @@
         <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F11" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -8078,19 +8349,19 @@
         <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8098,19 +8369,19 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
         <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8118,19 +8389,19 @@
         <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
         <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8138,79 +8409,79 @@
         <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s">
         <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
         <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
         <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F20" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -8221,16 +8492,36 @@
         <v>148</v>
       </c>
       <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" t="s">
         <v>149</v>
       </c>
-      <c r="D21" t="s">
-        <v>153</v>
-      </c>
-      <c r="E21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" t="s">
-        <v>251</v>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="305">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -471,31 +471,37 @@
     <t>2024</t>
   </si>
   <si>
+    <t>GURUVE</t>
+  </si>
+  <si>
     <t>MBERENGWA</t>
   </si>
   <si>
-    <t>GURUVE</t>
-  </si>
-  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
     <t>MATOBO</t>
   </si>
   <si>
+    <t>Gota</t>
+  </si>
+  <si>
     <t>Neta Clinic</t>
   </si>
   <si>
     <t>Gokwe South District Hospital</t>
   </si>
   <si>
+    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
     <t>MUSUME - 101157 - MISSION HOSPITAL</t>
   </si>
   <si>
-    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
     <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>43</t>
@@ -652,6 +658,9 @@
     <t>105</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -670,9 +679,6 @@
     <t>26</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
@@ -700,9 +706,6 @@
     <t>48</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -743,6 +746,9 @@
   </si>
   <si>
     <t>Surgical</t>
+  </si>
+  <si>
+    <t>client referred for malaria treatment</t>
   </si>
   <si>
     <t>High fever</t>
@@ -1283,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EY23"/>
+  <dimension ref="A1:EY24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1757,15 +1763,6 @@
       </c>
     </row>
     <row r="2" spans="1:155">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>150</v>
-      </c>
       <c r="D2" t="s">
         <v>151</v>
       </c>
@@ -1773,97 +1770,106 @@
         <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>150</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N2" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="O2" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="U2" t="s">
-        <v>211</v>
-      </c>
-      <c r="W2" t="s">
-        <v>217</v>
-      </c>
-      <c r="X2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="AC2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>193</v>
+        <v>161</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>192</v>
       </c>
       <c r="BH2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="BI2" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="BJ2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BK2" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="BL2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BM2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="BR2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BS2" t="s">
         <v>136</v>
@@ -1878,180 +1884,246 @@
         <v>136</v>
       </c>
       <c r="BW2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BX2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BY2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>217</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="CV2">
         <v>0</v>
       </c>
+      <c r="CX2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>192</v>
+      </c>
       <c r="DN2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DO2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DP2" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="DQ2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DS2">
         <v>0</v>
       </c>
       <c r="DT2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DV2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DW2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="DX2" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="DY2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DZ2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="EB2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EC2" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>267</v>
       </c>
       <c r="EE2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF2" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>267</v>
       </c>
       <c r="EH2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI2" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>267</v>
       </c>
       <c r="EK2" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>267</v>
       </c>
       <c r="EN2" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>267</v>
       </c>
       <c r="EQ2" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>267</v>
       </c>
       <c r="ET2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="EU2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EV2" t="s">
-        <v>190</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="EX2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:155">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
         <v>150</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K3" t="s">
+        <v>185</v>
+      </c>
+      <c r="L3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>195</v>
+      </c>
+      <c r="R3" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" t="s">
+        <v>139</v>
+      </c>
+      <c r="U3" t="s">
+        <v>214</v>
+      </c>
+      <c r="W3" t="s">
         <v>161</v>
       </c>
-      <c r="O3" t="s">
-        <v>190</v>
-      </c>
-      <c r="S3" t="s">
-        <v>155</v>
-      </c>
-      <c r="U3" t="s">
-        <v>211</v>
-      </c>
-      <c r="V3" t="s">
-        <v>211</v>
-      </c>
-      <c r="W3" t="s">
-        <v>223</v>
+      <c r="X3" t="s">
+        <v>195</v>
       </c>
       <c r="AC3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AE3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>189</v>
+        <v>161</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>195</v>
       </c>
       <c r="BH3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="BI3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="BJ3" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="BK3" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="BL3" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="BM3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP3" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>242</v>
       </c>
       <c r="BR3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BS3" t="s">
         <v>136</v>
@@ -2066,252 +2138,180 @@
         <v>136</v>
       </c>
       <c r="BW3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BX3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BY3" t="s">
-        <v>217</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CA3" t="s">
-        <v>223</v>
+        <v>161</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>195</v>
       </c>
       <c r="CV3">
         <v>0</v>
       </c>
-      <c r="DA3" t="s">
-        <v>223</v>
-      </c>
       <c r="DN3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DO3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DQ3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DV3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DW3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="DX3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DY3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="DZ3" t="s">
-        <v>211</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="EC3" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>267</v>
       </c>
       <c r="EF3" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>267</v>
       </c>
       <c r="EI3" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>267</v>
       </c>
       <c r="ET3" t="s">
-        <v>266</v>
+        <v>162</v>
       </c>
       <c r="EU3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV3" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>275</v>
       </c>
       <c r="EX3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:155">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" t="s">
         <v>150</v>
       </c>
-      <c r="D4" t="s">
-        <v>151</v>
-      </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N4" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
-      </c>
-      <c r="P4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>162</v>
-      </c>
-      <c r="R4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="U4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="V4" t="s">
-        <v>219</v>
-      </c>
-      <c r="X4" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>189</v>
+        <v>214</v>
+      </c>
+      <c r="W4" t="s">
+        <v>225</v>
       </c>
       <c r="AC4" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="AD4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>190</v>
+        <v>214</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>230</v>
       </c>
       <c r="BI4" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="BJ4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="BK4" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="BL4" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="BM4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BO4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP4" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>241</v>
+        <v>192</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>245</v>
       </c>
       <c r="BS4" t="s">
         <v>136</v>
@@ -2326,142 +2326,100 @@
         <v>136</v>
       </c>
       <c r="BW4" t="s">
-        <v>229</v>
+        <v>191</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>255</v>
       </c>
       <c r="BY4" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="BZ4" t="s">
-        <v>219</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>213</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>189</v>
+        <v>214</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>225</v>
       </c>
       <c r="CV4">
         <v>0</v>
       </c>
-      <c r="CX4" t="s">
-        <v>229</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>190</v>
+      <c r="DA4" t="s">
+        <v>225</v>
       </c>
       <c r="DN4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DO4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DP4" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="DQ4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DS4">
         <v>0</v>
       </c>
       <c r="DT4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="DV4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DW4" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="DX4" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="DY4" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="DZ4" t="s">
-        <v>258</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="EC4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ED4" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EG4" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EJ4" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EL4" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EO4" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ER4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET4" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="EU4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV4" t="s">
-        <v>189</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="EX4" t="s">
         <v>150</v>
@@ -2472,7 +2430,7 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>150</v>
@@ -2481,94 +2439,139 @@
         <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="U5" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="V5" t="s">
-        <v>213</v>
-      </c>
-      <c r="W5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="X5" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>191</v>
       </c>
       <c r="AC5" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="AD5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="AF5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>230</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>192</v>
       </c>
       <c r="BI5" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="BJ5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="BK5" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="BL5" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="BM5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BO5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BQ5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BS5" t="s">
         <v>136</v>
@@ -2583,234 +2586,249 @@
         <v>136</v>
       </c>
       <c r="BW5" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BY5" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="BZ5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="CB5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>213</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>224</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>191</v>
       </c>
       <c r="CV5">
         <v>0</v>
       </c>
-      <c r="DA5" t="s">
-        <v>224</v>
+      <c r="CX5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>192</v>
       </c>
       <c r="DN5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DO5" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="DP5" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DQ5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DS5">
         <v>0</v>
       </c>
       <c r="DT5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU5" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="DV5" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="DW5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="DX5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DY5" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="DZ5" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="EB5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EC5" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>267</v>
       </c>
       <c r="EE5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF5" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>267</v>
       </c>
       <c r="EH5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI5" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>267</v>
       </c>
       <c r="EK5" t="s">
-        <v>265</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>267</v>
       </c>
       <c r="EN5" t="s">
-        <v>265</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>267</v>
       </c>
       <c r="EQ5" t="s">
-        <v>265</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>267</v>
       </c>
       <c r="ET5" t="s">
-        <v>266</v>
+        <v>164</v>
       </c>
       <c r="EU5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EW5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="EX5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:155">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L6" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O6" t="s">
+        <v>192</v>
+      </c>
+      <c r="P6" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q6" t="s">
         <v>164</v>
       </c>
-      <c r="O6" t="s">
-        <v>190</v>
+      <c r="R6" t="s">
+        <v>199</v>
       </c>
       <c r="S6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="U6" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="V6" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="W6" t="s">
+        <v>226</v>
       </c>
       <c r="X6" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="AC6" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="AD6" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>239</v>
       </c>
       <c r="AF6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>190</v>
+        <v>230</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>230</v>
       </c>
       <c r="BI6" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
       <c r="BJ6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="BK6" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="BL6" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="BM6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP6" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>242</v>
       </c>
       <c r="BS6" t="s">
         <v>136</v>
@@ -2825,264 +2843,234 @@
         <v>136</v>
       </c>
       <c r="BW6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BY6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="BZ6" t="s">
-        <v>219</v>
+        <v>192</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>192</v>
       </c>
       <c r="CB6" t="s">
-        <v>213</v>
+        <v>192</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>216</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>230</v>
       </c>
       <c r="CV6">
         <v>0</v>
       </c>
-      <c r="CX6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>229</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>190</v>
+      <c r="DA6" t="s">
+        <v>226</v>
       </c>
       <c r="DN6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DO6" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DP6" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="DQ6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DS6">
         <v>0</v>
       </c>
       <c r="DT6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU6" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="DV6" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="DW6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="DX6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DY6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="DZ6" t="s">
-        <v>211</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="EC6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ED6" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EG6" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EJ6" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EL6" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN6" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>267</v>
       </c>
       <c r="EO6" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>267</v>
       </c>
       <c r="ER6" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>267</v>
       </c>
       <c r="ET6" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="EU6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV6" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>277</v>
       </c>
       <c r="EX6" t="s">
         <v>150</v>
       </c>
-      <c r="EY6" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="7" spans="1:155">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
       <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M7" t="s">
-        <v>189</v>
-      </c>
-      <c r="N7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="O7" t="s">
-        <v>190</v>
-      </c>
-      <c r="P7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>162</v>
-      </c>
-      <c r="R7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="S7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="U7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="V7" t="s">
-        <v>217</v>
-      </c>
-      <c r="W7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="X7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AC7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AD7" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="AF7" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>229</v>
+        <v>216</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>192</v>
       </c>
       <c r="BI7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="BJ7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="BK7" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="BL7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="BM7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BO7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP7" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="BS7" t="s">
         <v>136</v>
@@ -3097,246 +3085,264 @@
         <v>136</v>
       </c>
       <c r="BW7" t="s">
-        <v>189</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="BY7" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="BZ7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="CB7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG7" t="s">
-        <v>213</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>211</v>
-      </c>
-      <c r="CI7" t="s">
-        <v>219</v>
-      </c>
-      <c r="CJ7" t="s">
-        <v>229</v>
-      </c>
-      <c r="CL7" t="s">
-        <v>189</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="CV7">
         <v>0</v>
       </c>
-      <c r="DA7" t="s">
-        <v>219</v>
+      <c r="CX7" t="s">
+        <v>192</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>192</v>
       </c>
       <c r="DN7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DO7" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="DP7" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DQ7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DS7">
         <v>0</v>
       </c>
       <c r="DT7" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DU7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="DV7" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="DW7" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="DX7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DY7" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="DZ7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="EB7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EC7" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>267</v>
       </c>
       <c r="EE7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF7" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>267</v>
       </c>
       <c r="EH7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI7" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>267</v>
       </c>
       <c r="EK7" t="s">
-        <v>265</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>267</v>
       </c>
       <c r="EN7" t="s">
-        <v>265</v>
-      </c>
-      <c r="EP7" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>267</v>
       </c>
       <c r="EQ7" t="s">
-        <v>265</v>
-      </c>
-      <c r="ES7" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>267</v>
       </c>
       <c r="ET7" t="s">
-        <v>267</v>
+        <v>166</v>
       </c>
       <c r="EU7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV7" t="s">
-        <v>190</v>
-      </c>
-      <c r="EW7" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="EX7" t="s">
         <v>150</v>
       </c>
+      <c r="EY7" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="8" spans="1:155">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
       <c r="D8" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>150</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>160</v>
+        <v>167</v>
+      </c>
+      <c r="J8" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" t="s">
+        <v>191</v>
+      </c>
+      <c r="N8" t="s">
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="P8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" t="s">
+        <v>200</v>
       </c>
       <c r="S8" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
       <c r="U8" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="V8" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="W8" t="s">
-        <v>212</v>
+        <v>221</v>
+      </c>
+      <c r="X8" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>191</v>
       </c>
       <c r="AC8" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="AD8" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>229</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG8" t="s">
-        <v>190</v>
+        <v>240</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>230</v>
       </c>
       <c r="BI8" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="BJ8" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="BK8" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="BL8" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BM8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BO8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP8" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>246</v>
       </c>
       <c r="BS8" t="s">
         <v>136</v>
@@ -3351,237 +3357,246 @@
         <v>136</v>
       </c>
       <c r="BW8" t="s">
-        <v>229</v>
+        <v>191</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>256</v>
       </c>
       <c r="BY8" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="BZ8" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="CA8" t="s">
-        <v>212</v>
+        <v>192</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>216</v>
       </c>
       <c r="CH8" t="s">
-        <v>190</v>
+        <v>214</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>221</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>191</v>
       </c>
       <c r="CP8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="CV8">
         <v>0</v>
       </c>
-      <c r="CX8" t="s">
-        <v>189</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DB8" t="s">
-        <v>229</v>
-      </c>
-      <c r="DD8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>190</v>
+      <c r="DA8" t="s">
+        <v>221</v>
       </c>
       <c r="DN8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DO8" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DP8" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DQ8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR8" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="DS8">
         <v>0</v>
       </c>
       <c r="DT8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="DU8" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="DV8" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="DW8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="DX8" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="DY8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="DZ8" t="s">
-        <v>189</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="EC8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ED8" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EG8" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EJ8" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EL8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EM8" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EO8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EP8" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ER8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ES8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET8" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="EU8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV8" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>278</v>
       </c>
       <c r="EX8" t="s">
         <v>150</v>
-      </c>
-      <c r="EY8" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:155">
       <c r="D9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S9" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="U9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W9" t="s">
-        <v>225</v>
-      </c>
-      <c r="X9" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="AC9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AD9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AE9" t="s">
-        <v>217</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>227</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>189</v>
+        <v>215</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>230</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>192</v>
       </c>
       <c r="BI9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BK9" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="BL9" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="BM9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP9" t="s">
-        <v>190</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="BS9" t="s">
         <v>136</v>
@@ -3596,136 +3611,160 @@
         <v>136</v>
       </c>
       <c r="BW9" t="s">
-        <v>189</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="BY9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BZ9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="CA9" t="s">
-        <v>225</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>211</v>
-      </c>
-      <c r="CJ9" t="s">
-        <v>190</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>229</v>
+        <v>215</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>192</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>230</v>
       </c>
       <c r="CV9">
         <v>0</v>
       </c>
-      <c r="DA9" t="s">
-        <v>193</v>
+      <c r="CX9" t="s">
+        <v>191</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>230</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>192</v>
       </c>
       <c r="DN9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DO9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP9" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="DQ9" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DR9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="DS9">
         <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="DU9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DW9" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="DX9" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="DY9" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="DZ9" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>267</v>
+      </c>
+      <c r="ED9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EG9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EJ9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EP9" t="s">
+        <v>267</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>267</v>
+      </c>
+      <c r="ES9" t="s">
+        <v>267</v>
+      </c>
+      <c r="ET9" t="s">
         <v>162</v>
       </c>
-      <c r="EB9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EF9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EI9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EP9" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ9" t="s">
-        <v>265</v>
-      </c>
-      <c r="ES9" t="s">
-        <v>265</v>
-      </c>
-      <c r="ET9" t="s">
-        <v>174</v>
-      </c>
       <c r="EU9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EX9" t="s">
         <v>150</v>
       </c>
       <c r="EY9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:155">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
       <c r="D10" t="s">
         <v>153</v>
       </c>
@@ -3733,88 +3772,76 @@
         <v>136</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
         <v>150</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" t="s">
-        <v>179</v>
-      </c>
-      <c r="K10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" t="s">
-        <v>186</v>
-      </c>
-      <c r="M10" t="s">
-        <v>189</v>
-      </c>
-      <c r="N10" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O10" t="s">
-        <v>190</v>
-      </c>
-      <c r="P10" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q10" t="s">
+        <v>192</v>
+      </c>
+      <c r="S10" t="s">
+        <v>157</v>
+      </c>
+      <c r="U10" t="s">
         <v>164</v>
       </c>
-      <c r="R10" t="s">
-        <v>199</v>
-      </c>
-      <c r="S10" t="s">
-        <v>143</v>
-      </c>
-      <c r="U10" t="s">
-        <v>162</v>
-      </c>
       <c r="V10" t="s">
-        <v>211</v>
+        <v>161</v>
+      </c>
+      <c r="W10" t="s">
+        <v>227</v>
+      </c>
+      <c r="X10" t="s">
+        <v>213</v>
       </c>
       <c r="AC10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AD10" t="s">
-        <v>211</v>
+        <v>161</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>191</v>
       </c>
       <c r="BI10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ10" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="BK10" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="BL10" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="BM10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP10" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="BR10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BS10" t="s">
         <v>136</v>
@@ -3829,407 +3856,398 @@
         <v>136</v>
       </c>
       <c r="BW10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BX10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="BY10" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="BZ10" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG10" t="s">
-        <v>162</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>211</v>
+        <v>161</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>227</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>214</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>192</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>230</v>
       </c>
       <c r="CV10">
         <v>0</v>
       </c>
+      <c r="DA10" t="s">
+        <v>195</v>
+      </c>
       <c r="DN10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DO10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DP10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DQ10" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="DR10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="DS10">
         <v>0</v>
       </c>
       <c r="DT10" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DU10" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="DV10" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="DW10" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="DX10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DY10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="DZ10" t="s">
-        <v>211</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="EC10" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE10" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>267</v>
       </c>
       <c r="EF10" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>267</v>
       </c>
       <c r="EI10" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK10" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>267</v>
       </c>
       <c r="EM10" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN10" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO10" t="s">
+        <v>267</v>
       </c>
       <c r="EP10" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ10" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER10" t="s">
+        <v>267</v>
       </c>
       <c r="ES10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="EU10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV10" t="s">
-        <v>190</v>
-      </c>
-      <c r="EW10" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="EX10" t="s">
         <v>150</v>
       </c>
       <c r="EY10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:155">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
       <c r="D11" t="s">
         <v>153</v>
       </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
       <c r="H11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="J11" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" t="s">
+        <v>191</v>
+      </c>
+      <c r="N11" t="s">
+        <v>191</v>
       </c>
       <c r="O11" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="P11" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>166</v>
+      </c>
+      <c r="R11" t="s">
+        <v>201</v>
       </c>
       <c r="S11" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="U11" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="V11" t="s">
+        <v>214</v>
       </c>
       <c r="AC11" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>214</v>
       </c>
       <c r="BI11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ11" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="BK11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BL11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BM11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP11" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>248</v>
       </c>
       <c r="BS11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BV11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BW11" t="s">
-        <v>229</v>
+        <v>191</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>255</v>
       </c>
       <c r="BY11" t="s">
-        <v>162</v>
+        <v>192</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>214</v>
       </c>
       <c r="CV11">
         <v>0</v>
       </c>
       <c r="DN11" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="DO11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DP11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DQ11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR11" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="DS11">
         <v>0</v>
       </c>
       <c r="DT11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU11" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="DV11" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="DW11" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="DX11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DY11" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="DZ11" t="s">
-        <v>190</v>
-      </c>
-      <c r="EB11" t="s">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="EC11" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE11" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED11" t="s">
+        <v>267</v>
       </c>
       <c r="EF11" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH11" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG11" t="s">
+        <v>267</v>
       </c>
       <c r="EI11" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK11" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN11" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ11" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ11" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>267</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>267</v>
+      </c>
+      <c r="EP11" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>267</v>
+      </c>
+      <c r="ES11" t="s">
+        <v>267</v>
       </c>
       <c r="ET11" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="EU11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV11" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>279</v>
       </c>
       <c r="EX11" t="s">
         <v>150</v>
       </c>
       <c r="EY11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:155">
-      <c r="A12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" t="s">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s">
-        <v>150</v>
-      </c>
       <c r="D12" t="s">
         <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J12" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" t="s">
-        <v>184</v>
-      </c>
-      <c r="L12" t="s">
-        <v>186</v>
-      </c>
-      <c r="M12" t="s">
-        <v>189</v>
-      </c>
-      <c r="N12" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="O12" t="s">
-        <v>190</v>
-      </c>
-      <c r="P12" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>162</v>
-      </c>
-      <c r="R12" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="S12" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="U12" t="s">
-        <v>214</v>
-      </c>
-      <c r="V12" t="s">
-        <v>217</v>
-      </c>
-      <c r="W12" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="AC12" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>219</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>229</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="BI12" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="BJ12" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="BK12" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="BL12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BM12" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="BN12" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="BO12" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="BP12" t="s">
-        <v>229</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>241</v>
+        <v>192</v>
       </c>
       <c r="BS12" t="s">
         <v>137</v>
@@ -4244,166 +4262,94 @@
         <v>137</v>
       </c>
       <c r="BW12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BY12" t="s">
-        <v>190</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CD12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG12" t="s">
-        <v>214</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>217</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>223</v>
-      </c>
-      <c r="CK12" t="s">
-        <v>230</v>
-      </c>
-      <c r="CL12" t="s">
-        <v>214</v>
-      </c>
-      <c r="CM12" t="s">
-        <v>211</v>
-      </c>
-      <c r="CN12" t="s">
-        <v>229</v>
+        <v>164</v>
       </c>
       <c r="CV12">
         <v>0</v>
       </c>
-      <c r="CW12" t="s">
-        <v>215</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>190</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>239</v>
-      </c>
-      <c r="DE12" t="s">
-        <v>212</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>190</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>190</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>190</v>
-      </c>
       <c r="DN12" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="DO12" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="DP12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DQ12" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="DR12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="DS12">
         <v>0</v>
       </c>
       <c r="DT12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU12" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="DV12" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="DW12" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="DX12" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="DY12" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="DZ12" t="s">
-        <v>229</v>
-      </c>
-      <c r="EB12" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="EC12" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE12" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>267</v>
       </c>
       <c r="EF12" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH12" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>267</v>
       </c>
       <c r="EI12" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK12" t="s">
-        <v>265</v>
-      </c>
-      <c r="EM12" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN12" t="s">
-        <v>265</v>
-      </c>
-      <c r="EP12" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ12" t="s">
-        <v>265</v>
-      </c>
-      <c r="ES12" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL12" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO12" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER12" t="s">
+        <v>267</v>
       </c>
       <c r="ET12" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="EU12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV12" t="s">
-        <v>190</v>
-      </c>
-      <c r="EW12" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="EX12" t="s">
         <v>150</v>
       </c>
       <c r="EY12" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:155">
@@ -4411,7 +4357,7 @@
         <v>137</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C13" t="s">
         <v>150</v>
@@ -4420,139 +4366,130 @@
         <v>153</v>
       </c>
       <c r="H13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q13" t="s">
         <v>164</v>
       </c>
       <c r="R13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U13" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="V13" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="W13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Y13" t="s">
         <v>231</v>
       </c>
+      <c r="Z13" t="s">
+        <v>217</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>230</v>
+      </c>
       <c r="AC13" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="AD13" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="AE13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI13" t="s">
         <v>217</v>
       </c>
-      <c r="AG13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>176</v>
-      </c>
       <c r="BJ13" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="BK13" t="s">
+        <v>225</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN13" t="s">
         <v>217</v>
       </c>
-      <c r="BL13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>162</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>190</v>
-      </c>
       <c r="BO13" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="BP13" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BQ13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BS13" t="s">
         <v>137</v>
@@ -4567,1700 +4504,1670 @@
         <v>137</v>
       </c>
       <c r="BW13" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BY13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CC13" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>192</v>
       </c>
       <c r="CG13" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="CH13" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="CI13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="CK13" t="s">
         <v>231</v>
       </c>
-      <c r="CS13" t="s">
-        <v>240</v>
+      <c r="CL13" t="s">
+        <v>217</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>214</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>230</v>
       </c>
       <c r="CV13">
         <v>0</v>
       </c>
-      <c r="CX13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CZ13" t="s">
-        <v>190</v>
-      </c>
-      <c r="DB13" t="s">
-        <v>190</v>
-      </c>
-      <c r="DD13" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH13" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ13" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>190</v>
+      <c r="CW13" t="s">
+        <v>218</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>192</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>240</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>215</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>192</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>192</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>192</v>
       </c>
       <c r="DN13" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DO13" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="DP13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DQ13" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="DR13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="DS13">
         <v>0</v>
       </c>
       <c r="DT13" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>192</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>170</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>221</v>
+      </c>
+      <c r="DX13" t="s">
         <v>240</v>
       </c>
-      <c r="DU13" t="s">
-        <v>190</v>
-      </c>
-      <c r="DV13" t="s">
-        <v>257</v>
-      </c>
-      <c r="DW13" t="s">
-        <v>162</v>
-      </c>
-      <c r="DX13" t="s">
-        <v>190</v>
-      </c>
       <c r="DY13" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DZ13" t="s">
+        <v>230</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>267</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>267</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>267</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>267</v>
+      </c>
+      <c r="ET13" t="s">
         <v>217</v>
       </c>
-      <c r="EB13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>265</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EF13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EI13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EJ13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EM13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EP13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ13" t="s">
-        <v>265</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>265</v>
-      </c>
-      <c r="ES13" t="s">
-        <v>265</v>
-      </c>
-      <c r="ET13" t="s">
-        <v>169</v>
-      </c>
       <c r="EU13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="EV13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="EW13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EX13" t="s">
         <v>150</v>
       </c>
       <c r="EY13" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:155">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="s">
         <v>153</v>
       </c>
       <c r="H14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="J14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" t="s">
+        <v>191</v>
+      </c>
+      <c r="N14" t="s">
+        <v>191</v>
       </c>
       <c r="O14" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="P14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>166</v>
+      </c>
+      <c r="R14" t="s">
+        <v>203</v>
       </c>
       <c r="S14" t="s">
         <v>145</v>
       </c>
       <c r="U14" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="V14" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="W14" t="s">
-        <v>190</v>
-      </c>
-      <c r="X14" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="AC14" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="AD14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AE14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="AG14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>215</v>
+        <v>164</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>192</v>
       </c>
       <c r="BI14" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="BJ14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BK14" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="BL14" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="BM14" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="BN14" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="BO14" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="BP14" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>242</v>
       </c>
       <c r="BS14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BT14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BU14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BV14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BW14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BY14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA14" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CC14" t="s">
-        <v>190</v>
-      </c>
-      <c r="CD14" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CG14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="CH14" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="CI14" t="s">
-        <v>190</v>
-      </c>
-      <c r="CJ14" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="CK14" t="s">
-        <v>190</v>
-      </c>
-      <c r="CL14" t="s">
-        <v>190</v>
-      </c>
-      <c r="CM14" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CQ14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CR14" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="CS14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>215</v>
-      </c>
-      <c r="CU14" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="CV14">
         <v>0</v>
       </c>
+      <c r="CX14" t="s">
+        <v>191</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>192</v>
+      </c>
       <c r="DN14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DO14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DP14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DQ14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DS14">
         <v>0</v>
       </c>
       <c r="DT14" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="DU14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV14" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="DW14" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="DX14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DY14" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="DZ14" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="EB14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EC14" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>267</v>
       </c>
       <c r="EE14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF14" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>267</v>
       </c>
       <c r="EH14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI14" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>267</v>
       </c>
       <c r="EK14" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>267</v>
       </c>
       <c r="EM14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EN14" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>267</v>
       </c>
       <c r="EP14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EQ14" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>267</v>
       </c>
       <c r="ES14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EU14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EV14" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="EW14" t="s">
+        <v>281</v>
       </c>
       <c r="EX14" t="s">
         <v>150</v>
       </c>
       <c r="EY14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:155">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
       <c r="D15" t="s">
         <v>153</v>
       </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" t="s">
-        <v>150</v>
-      </c>
       <c r="H15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J15" t="s">
-        <v>179</v>
-      </c>
-      <c r="K15" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" t="s">
-        <v>189</v>
-      </c>
-      <c r="N15" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="O15" t="s">
-        <v>190</v>
-      </c>
-      <c r="P15" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>194</v>
-      </c>
-      <c r="R15" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="S15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W15" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="X15" t="s">
-        <v>219</v>
+        <v>192</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>192</v>
       </c>
       <c r="AC15" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="AD15" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="AE15" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AF15" t="s">
-        <v>219</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>229</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>190</v>
+        <v>218</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>218</v>
       </c>
       <c r="BI15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="BJ15" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="BK15" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BL15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BM15" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="BN15" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="BO15" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="BP15" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="BS15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BT15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BU15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BW15" t="s">
-        <v>189</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="BY15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CB15" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>192</v>
       </c>
       <c r="CG15" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="CH15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CI15" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="CJ15" t="s">
-        <v>219</v>
+        <v>192</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>192</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>192</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>218</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>218</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>218</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>218</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>218</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>218</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>218</v>
       </c>
       <c r="CV15">
         <v>0</v>
       </c>
-      <c r="CW15" t="s">
-        <v>216</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>229</v>
-      </c>
-      <c r="CZ15" t="s">
-        <v>190</v>
-      </c>
-      <c r="DB15" t="s">
-        <v>190</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH15" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ15" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>190</v>
-      </c>
       <c r="DN15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DO15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DP15" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="DQ15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="DS15">
         <v>0</v>
       </c>
       <c r="DT15" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="DU15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV15" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="DW15" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="DX15" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DY15" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="DZ15" t="s">
-        <v>162</v>
-      </c>
-      <c r="EB15" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="EC15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ED15" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EG15" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EJ15" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EL15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EM15" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EO15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EP15" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ER15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ES15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET15" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="EU15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV15" t="s">
-        <v>189</v>
-      </c>
-      <c r="EW15" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="EX15" t="s">
         <v>150</v>
       </c>
       <c r="EY15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:155">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>150</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U16" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="V16" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="W16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="X16" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="AC16" t="s">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="AD16" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="AE16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AF16" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="AK16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AL16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AP16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AQ16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AR16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AS16" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="AV16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BA16" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BB16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BC16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BD16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BE16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BF16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BG16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BI16" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="BJ16" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="BK16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="BL16" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="BM16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BN16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BO16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BQ16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BR16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BS16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="BX16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BY16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CB16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CG16" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="CH16" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="CI16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="CJ16" t="s">
-        <v>229</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="CV16">
         <v>0</v>
       </c>
       <c r="CW16" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="CX16" t="s">
-        <v>190</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="CZ16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DB16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DD16" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DF16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DH16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DJ16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DM16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DN16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DO16" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="DP16" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="DQ16" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DR16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DS16">
         <v>0</v>
       </c>
       <c r="DT16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DW16" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="DX16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="DY16" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="DZ16" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="EB16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EC16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ED16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EE16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EG16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EH16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EJ16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EK16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EL16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EM16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EN16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EO16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EP16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EQ16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ER16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ES16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="EU16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="EW16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="EX16" t="s">
         <v>150</v>
       </c>
       <c r="EY16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:155">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
       <c r="D17" t="s">
         <v>154</v>
       </c>
+      <c r="E17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>150</v>
+      </c>
       <c r="H17" t="s">
         <v>149</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N17" t="s">
+        <v>191</v>
       </c>
       <c r="O17" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="P17" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>196</v>
+      </c>
+      <c r="R17" t="s">
+        <v>205</v>
       </c>
       <c r="S17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="U17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="W17" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>229</v>
+        <v>214</v>
+      </c>
+      <c r="X17" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>191</v>
       </c>
       <c r="AC17" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="AD17" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="AE17" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>229</v>
+        <v>214</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>241</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>192</v>
       </c>
       <c r="BI17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ17" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="BK17" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="BL17" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BM17" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="BN17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BO17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP17" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>249</v>
       </c>
       <c r="BS17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BV17" t="s">
-        <v>137</v>
+        <v>136</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>191</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>255</v>
       </c>
       <c r="BY17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA17" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC17" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>192</v>
       </c>
       <c r="CG17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="CH17" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="CI17" t="s">
-        <v>226</v>
-      </c>
-      <c r="CK17" t="s">
-        <v>229</v>
+        <v>214</v>
+      </c>
+      <c r="CJ17" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL17" t="s">
+        <v>191</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>191</v>
       </c>
       <c r="CV17">
         <v>0</v>
       </c>
+      <c r="CW17" t="s">
+        <v>220</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>192</v>
+      </c>
+      <c r="CY17" t="s">
+        <v>196</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD17" t="s">
+        <v>191</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>192</v>
+      </c>
       <c r="DN17" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="DO17" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="DP17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DQ17" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="DR17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DS17">
         <v>0</v>
       </c>
       <c r="DT17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DW17" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
       <c r="DX17" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="DY17" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="DZ17" t="s">
-        <v>162</v>
-      </c>
-      <c r="EA17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="EB17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EC17" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED17" t="s">
+        <v>267</v>
       </c>
       <c r="EE17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF17" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG17" t="s">
+        <v>267</v>
       </c>
       <c r="EH17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI17" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ17" t="s">
+        <v>267</v>
       </c>
       <c r="EK17" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EL17" t="s">
+        <v>267</v>
       </c>
       <c r="EM17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EN17" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO17" t="s">
+        <v>267</v>
       </c>
       <c r="EP17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EQ17" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER17" t="s">
+        <v>267</v>
       </c>
       <c r="ES17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET17" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="EU17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV17" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="EW17" t="s">
+        <v>283</v>
       </c>
       <c r="EX17" t="s">
         <v>150</v>
       </c>
       <c r="EY17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:155">
-      <c r="A18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" t="s">
-        <v>150</v>
-      </c>
       <c r="D18" t="s">
         <v>154</v>
       </c>
-      <c r="E18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" t="s">
-        <v>150</v>
-      </c>
       <c r="H18" t="s">
         <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
-      </c>
-      <c r="J18" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" t="s">
-        <v>184</v>
-      </c>
-      <c r="L18" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="O18" t="s">
-        <v>190</v>
-      </c>
-      <c r="P18" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>162</v>
-      </c>
-      <c r="R18" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="S18" t="s">
         <v>148</v>
       </c>
       <c r="U18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V18" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="W18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Y18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AC18" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="AD18" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="AE18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BC18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG18" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BI18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ18" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BK18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="BL18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BM18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BN18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP18" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ18" t="s">
-        <v>241</v>
-      </c>
-      <c r="BR18" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
       <c r="BS18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BT18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BU18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BV18" t="s">
-        <v>138</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="BY18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CC18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CG18" t="s">
+        <v>164</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>176</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>228</v>
+      </c>
+      <c r="CK18" t="s">
         <v>230</v>
-      </c>
-      <c r="CH18" t="s">
-        <v>255</v>
-      </c>
-      <c r="CI18" t="s">
-        <v>226</v>
-      </c>
-      <c r="CK18" t="s">
-        <v>229</v>
-      </c>
-      <c r="CO18" t="s">
-        <v>239</v>
-      </c>
-      <c r="CP18" t="s">
-        <v>238</v>
       </c>
       <c r="CV18">
         <v>0</v>
       </c>
-      <c r="CW18" t="s">
+      <c r="DN18" t="s">
         <v>230</v>
       </c>
-      <c r="CX18" t="s">
-        <v>162</v>
-      </c>
-      <c r="CY18" t="s">
-        <v>256</v>
-      </c>
-      <c r="CZ18" t="s">
-        <v>211</v>
-      </c>
-      <c r="DB18" t="s">
-        <v>190</v>
-      </c>
-      <c r="DD18" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF18" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH18" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ18" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM18" t="s">
-        <v>190</v>
-      </c>
-      <c r="DN18" t="s">
-        <v>189</v>
-      </c>
       <c r="DO18" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DP18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DQ18" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="DR18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="DS18">
         <v>0</v>
       </c>
       <c r="DT18" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="DU18" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV18" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
       <c r="DW18" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="DX18" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DY18" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="DZ18" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="EA18" t="s">
-        <v>189</v>
-      </c>
-      <c r="EB18" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="EC18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ED18" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EG18" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EJ18" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EL18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EM18" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EO18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EP18" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ER18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ES18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET18" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="EU18" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="EV18" t="s">
-        <v>189</v>
-      </c>
-      <c r="EW18" t="s">
-        <v>282</v>
+        <v>192</v>
       </c>
       <c r="EX18" t="s">
         <v>150</v>
       </c>
       <c r="EY18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:155">
@@ -6268,7 +6175,7 @@
         <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>150</v>
@@ -6280,7 +6187,7 @@
         <v>138</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
         <v>150</v>
@@ -6289,85 +6196,139 @@
         <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
         <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="S19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V19" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="W19" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>230</v>
       </c>
       <c r="AC19" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="AD19" t="s">
         <v>235</v>
       </c>
       <c r="AE19" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>230</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>192</v>
       </c>
       <c r="AS19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AT19" t="s">
-        <v>189</v>
+        <v>230</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>192</v>
       </c>
       <c r="BI19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ19" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="BK19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BL19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BM19" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BN19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BQ19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BR19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BS19" t="s">
         <v>138</v>
@@ -6382,375 +6343,429 @@
         <v>138</v>
       </c>
       <c r="BX19" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BY19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA19" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>192</v>
       </c>
       <c r="CG19" t="s">
-        <v>164</v>
+        <v>231</v>
       </c>
       <c r="CH19" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="CI19" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>230</v>
       </c>
       <c r="CO19" t="s">
-        <v>189</v>
+        <v>240</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>239</v>
       </c>
       <c r="CV19">
         <v>0</v>
       </c>
       <c r="CW19" t="s">
+        <v>231</v>
+      </c>
+      <c r="CX19" t="s">
         <v>164</v>
       </c>
       <c r="CY19" t="s">
-        <v>222</v>
+        <v>258</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>214</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH19" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>192</v>
       </c>
       <c r="DN19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="DO19" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="DP19" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="DQ19" t="s">
+        <v>221</v>
       </c>
       <c r="DR19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DS19">
         <v>0</v>
       </c>
       <c r="DT19" t="s">
-        <v>189</v>
+        <v>260</v>
       </c>
       <c r="DU19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV19" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="DW19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="DX19" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="DY19" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="DZ19" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="EA19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="EB19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EC19" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED19" t="s">
+        <v>267</v>
       </c>
       <c r="EE19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF19" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG19" t="s">
+        <v>267</v>
       </c>
       <c r="EH19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI19" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ19" t="s">
+        <v>267</v>
       </c>
       <c r="EK19" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EL19" t="s">
+        <v>267</v>
       </c>
       <c r="EM19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EN19" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO19" t="s">
+        <v>267</v>
       </c>
       <c r="EP19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EQ19" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER19" t="s">
+        <v>267</v>
       </c>
       <c r="ES19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EU19" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="EV19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="EW19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="EX19" t="s">
         <v>150</v>
       </c>
       <c r="EY19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:155">
+      <c r="A20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
       <c r="D20" t="s">
         <v>154</v>
       </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>150</v>
+      </c>
       <c r="H20" t="s">
         <v>149</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
       </c>
       <c r="O20" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="P20" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>164</v>
+      </c>
+      <c r="R20" t="s">
+        <v>206</v>
       </c>
       <c r="S20" t="s">
-        <v>206</v>
-      </c>
-      <c r="T20" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="U20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="V20" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="W20" t="s">
-        <v>228</v>
-      </c>
-      <c r="X20" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="AC20" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="AD20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AE20" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>229</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>189</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>191</v>
       </c>
       <c r="BI20" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="BJ20" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="BK20" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="BL20" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="BM20" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="BN20" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="BO20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="BP20" t="s">
-        <v>189</v>
+        <v>192</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>251</v>
       </c>
       <c r="BS20" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="BT20" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="BU20" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="BV20" t="s">
-        <v>252</v>
+        <v>138</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>256</v>
       </c>
       <c r="BY20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BZ20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CA20" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC20" t="s">
-        <v>190</v>
-      </c>
-      <c r="CD20" t="s">
-        <v>190</v>
-      </c>
-      <c r="CE20" t="s">
-        <v>190</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="CG20" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="CH20" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="CI20" t="s">
-        <v>228</v>
-      </c>
-      <c r="CJ20" t="s">
-        <v>211</v>
-      </c>
-      <c r="CK20" t="s">
-        <v>229</v>
-      </c>
-      <c r="CL20" t="s">
-        <v>229</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>189</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>191</v>
       </c>
       <c r="CV20">
         <v>0</v>
       </c>
+      <c r="CW20" t="s">
+        <v>166</v>
+      </c>
+      <c r="CY20" t="s">
+        <v>224</v>
+      </c>
       <c r="DN20" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="DO20" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DP20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DS20">
         <v>0</v>
       </c>
       <c r="DT20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="DU20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV20" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="DW20" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="DX20" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DY20" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="DZ20" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="EA20" t="s">
-        <v>229</v>
-      </c>
-      <c r="EB20" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="EC20" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE20" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED20" t="s">
+        <v>267</v>
       </c>
       <c r="EF20" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH20" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG20" t="s">
+        <v>267</v>
       </c>
       <c r="EI20" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK20" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ20" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL20" t="s">
+        <v>267</v>
       </c>
       <c r="EM20" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN20" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EO20" t="s">
+        <v>267</v>
       </c>
       <c r="EP20" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ20" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ER20" t="s">
+        <v>267</v>
       </c>
       <c r="ES20" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET20" t="s">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="EU20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV20" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="EW20" t="s">
+        <v>285</v>
       </c>
       <c r="EX20" t="s">
         <v>150</v>
       </c>
       <c r="EY20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:155">
@@ -6761,142 +6776,241 @@
         <v>149</v>
       </c>
       <c r="I21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S21" t="s">
-        <v>147</v>
+        <v>208</v>
+      </c>
+      <c r="T21" t="s">
+        <v>212</v>
       </c>
       <c r="U21" t="s">
-        <v>176</v>
+        <v>164</v>
+      </c>
+      <c r="V21" t="s">
+        <v>219</v>
+      </c>
+      <c r="W21" t="s">
+        <v>229</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>191</v>
       </c>
       <c r="AC21" t="s">
-        <v>176</v>
+        <v>178</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>191</v>
       </c>
       <c r="BI21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BJ21" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="BK21" t="s">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c r="BL21" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="BM21" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BN21" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BO21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BP21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BS21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BT21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BU21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BV21" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY21" t="s">
-        <v>176</v>
+        <v>192</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>192</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>192</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>178</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>219</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>229</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>214</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>230</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>230</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>191</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>191</v>
       </c>
       <c r="CV21">
         <v>0</v>
       </c>
       <c r="DN21" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="DO21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DP21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DS21">
         <v>0</v>
       </c>
       <c r="DT21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DU21" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="DV21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="DW21" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="DX21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DY21" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="DZ21" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="EA21" t="s">
-        <v>190</v>
-      </c>
-      <c r="EB21" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="EC21" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE21" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED21" t="s">
+        <v>267</v>
       </c>
       <c r="EF21" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH21" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG21" t="s">
+        <v>267</v>
       </c>
       <c r="EI21" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK21" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN21" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ21" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ21" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL21" t="s">
+        <v>267</v>
+      </c>
+      <c r="EM21" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO21" t="s">
+        <v>267</v>
+      </c>
+      <c r="EP21" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER21" t="s">
+        <v>267</v>
+      </c>
+      <c r="ES21" t="s">
+        <v>267</v>
       </c>
       <c r="ET21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="EU21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EX21" t="s">
         <v>150</v>
       </c>
       <c r="EY21" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:155">
@@ -6907,223 +7021,142 @@
         <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="S22" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="U22" t="s">
-        <v>217</v>
-      </c>
-      <c r="V22" t="s">
-        <v>222</v>
-      </c>
-      <c r="W22" t="s">
-        <v>160</v>
-      </c>
-      <c r="X22" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
       <c r="AC22" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>211</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="BI22" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="BJ22" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="BK22" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="BL22" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="BM22" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="BN22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP22" t="s">
-        <v>190</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="BS22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BT22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BU22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BV22" t="s">
-        <v>252</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BY22" t="s">
-        <v>190</v>
-      </c>
-      <c r="BZ22" t="s">
-        <v>190</v>
-      </c>
-      <c r="CA22" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB22" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC22" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG22" t="s">
-        <v>217</v>
-      </c>
-      <c r="CH22" t="s">
-        <v>236</v>
-      </c>
-      <c r="CI22" t="s">
-        <v>160</v>
-      </c>
-      <c r="CJ22" t="s">
-        <v>211</v>
-      </c>
-      <c r="CK22" t="s">
-        <v>229</v>
-      </c>
-      <c r="CP22" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="CV22">
         <v>0</v>
       </c>
-      <c r="CW22" t="s">
-        <v>217</v>
-      </c>
-      <c r="CY22" t="s">
-        <v>222</v>
-      </c>
       <c r="DN22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DO22" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="DP22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DR22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="DS22">
         <v>0</v>
       </c>
       <c r="DT22" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="DU22" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="DV22" t="s">
-        <v>263</v>
+        <v>192</v>
       </c>
       <c r="DW22" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="DX22" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="DY22" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="DZ22" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="EA22" t="s">
-        <v>189</v>
-      </c>
-      <c r="EB22" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="EC22" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE22" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="ED22" t="s">
+        <v>267</v>
       </c>
       <c r="EF22" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH22" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EG22" t="s">
+        <v>267</v>
       </c>
       <c r="EI22" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK22" t="s">
-        <v>265</v>
-      </c>
-      <c r="EM22" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN22" t="s">
-        <v>265</v>
-      </c>
-      <c r="EP22" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ22" t="s">
-        <v>265</v>
-      </c>
-      <c r="ES22" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="EJ22" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL22" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO22" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER22" t="s">
+        <v>267</v>
       </c>
       <c r="ET22" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="EU22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EV22" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="EX22" t="s">
         <v>150</v>
       </c>
       <c r="EY22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:155">
@@ -7134,298 +7167,525 @@
         <v>149</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
-      </c>
-      <c r="J23" t="s">
-        <v>182</v>
-      </c>
-      <c r="K23" t="s">
-        <v>184</v>
-      </c>
-      <c r="L23" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="O23" t="s">
-        <v>190</v>
-      </c>
-      <c r="P23" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q23" t="s">
+        <v>192</v>
+      </c>
+      <c r="S23" t="s">
+        <v>210</v>
+      </c>
+      <c r="U23" t="s">
+        <v>161</v>
+      </c>
+      <c r="V23" t="s">
+        <v>224</v>
+      </c>
+      <c r="W23" t="s">
         <v>162</v>
       </c>
-      <c r="R23" t="s">
-        <v>205</v>
-      </c>
-      <c r="S23" t="s">
-        <v>209</v>
-      </c>
-      <c r="U23" t="s">
-        <v>218</v>
-      </c>
-      <c r="V23" t="s">
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE23" t="s">
         <v>162</v>
       </c>
-      <c r="AC23" t="s">
-        <v>223</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>229</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>190</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>190</v>
+      <c r="AF23" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>230</v>
       </c>
       <c r="AS23" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
       <c r="AT23" t="s">
-        <v>239</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>229</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="BI23" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="BJ23" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="BK23" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="BL23" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="BM23" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="BN23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BO23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="BP23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>252</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>254</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>254</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>254</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>255</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>192</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>161</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>237</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>162</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>214</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>230</v>
+      </c>
+      <c r="CP23" t="s">
         <v>241</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>251</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>252</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>252</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>252</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>252</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>254</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>190</v>
-      </c>
-      <c r="BZ23" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG23" t="s">
-        <v>218</v>
-      </c>
-      <c r="CH23" t="s">
-        <v>220</v>
       </c>
       <c r="CV23">
         <v>0</v>
       </c>
       <c r="CW23" t="s">
-        <v>225</v>
-      </c>
-      <c r="CX23" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="CY23" t="s">
-        <v>220</v>
-      </c>
-      <c r="CZ23" t="s">
-        <v>229</v>
-      </c>
-      <c r="DB23" t="s">
-        <v>190</v>
-      </c>
-      <c r="DD23" t="s">
-        <v>190</v>
-      </c>
-      <c r="DF23" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH23" t="s">
-        <v>190</v>
-      </c>
-      <c r="DJ23" t="s">
-        <v>190</v>
-      </c>
-      <c r="DM23" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="DN23" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="DO23" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="DP23" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="DR23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="DS23">
         <v>0</v>
       </c>
       <c r="DT23" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="DU23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="DV23" t="s">
-        <v>178</v>
+        <v>265</v>
       </c>
       <c r="DW23" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="DX23" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="DY23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="DZ23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="EA23" t="s">
-        <v>189</v>
-      </c>
-      <c r="EB23" t="s">
-        <v>265</v>
+        <v>191</v>
       </c>
       <c r="EC23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ED23" t="s">
-        <v>265</v>
-      </c>
-      <c r="EE23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EF23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EG23" t="s">
-        <v>265</v>
-      </c>
-      <c r="EH23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EI23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EJ23" t="s">
-        <v>265</v>
-      </c>
-      <c r="EK23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EL23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EM23" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EO23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="EP23" t="s">
-        <v>265</v>
-      </c>
-      <c r="EQ23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ER23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ES23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="ET23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="EU23" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="EV23" t="s">
-        <v>189</v>
-      </c>
-      <c r="EW23" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="EX23" t="s">
         <v>150</v>
       </c>
       <c r="EY23" t="s">
-        <v>285</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:155">
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>186</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" t="s">
+        <v>192</v>
+      </c>
+      <c r="P24" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>164</v>
+      </c>
+      <c r="R24" t="s">
+        <v>207</v>
+      </c>
+      <c r="S24" t="s">
+        <v>211</v>
+      </c>
+      <c r="U24" t="s">
+        <v>220</v>
+      </c>
+      <c r="V24" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>230</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>220</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>253</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>254</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>254</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>254</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>254</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>256</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>220</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>222</v>
+      </c>
+      <c r="CV24">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="s">
+        <v>227</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY24" t="s">
+        <v>222</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>230</v>
+      </c>
+      <c r="DB24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DD24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DF24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DH24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DJ24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DM24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DN24" t="s">
+        <v>191</v>
+      </c>
+      <c r="DO24" t="s">
+        <v>218</v>
+      </c>
+      <c r="DP24" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR24" t="s">
+        <v>180</v>
+      </c>
+      <c r="DS24">
+        <v>0</v>
+      </c>
+      <c r="DT24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DU24" t="s">
+        <v>192</v>
+      </c>
+      <c r="DV24" t="s">
+        <v>180</v>
+      </c>
+      <c r="DW24" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX24" t="s">
+        <v>239</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>231</v>
+      </c>
+      <c r="DZ24" t="s">
+        <v>231</v>
+      </c>
+      <c r="EA24" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EC24" t="s">
+        <v>267</v>
+      </c>
+      <c r="ED24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EE24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EF24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EG24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EH24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EI24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EJ24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EK24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EL24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EM24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EN24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EO24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EP24" t="s">
+        <v>267</v>
+      </c>
+      <c r="EQ24" t="s">
+        <v>267</v>
+      </c>
+      <c r="ER24" t="s">
+        <v>267</v>
+      </c>
+      <c r="ES24" t="s">
+        <v>267</v>
+      </c>
+      <c r="ET24" t="s">
+        <v>274</v>
+      </c>
+      <c r="EU24" t="s">
+        <v>230</v>
+      </c>
+      <c r="EV24" t="s">
+        <v>191</v>
+      </c>
+      <c r="EW24" t="s">
+        <v>286</v>
+      </c>
+      <c r="EX24" t="s">
+        <v>150</v>
+      </c>
+      <c r="EY24" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7455,7 +7715,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -7487,7 +7747,7 @@
         <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
         <v>150</v>
@@ -7496,28 +7756,28 @@
         <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -7525,7 +7785,7 @@
         <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
         <v>150</v>
@@ -7534,28 +7794,28 @@
         <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -7572,25 +7832,25 @@
         <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -7607,28 +7867,28 @@
         <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -7636,28 +7896,28 @@
         <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -7665,28 +7925,28 @@
         <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -7700,31 +7960,31 @@
         <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -7738,31 +7998,31 @@
         <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -7776,31 +8036,31 @@
         <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -7814,31 +8074,31 @@
         <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -7855,28 +8115,28 @@
         <v>153</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -7893,28 +8153,28 @@
         <v>153</v>
       </c>
       <c r="F13" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K13" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -7931,28 +8191,28 @@
         <v>153</v>
       </c>
       <c r="F14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -7969,28 +8229,28 @@
         <v>153</v>
       </c>
       <c r="F15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -8007,28 +8267,28 @@
         <v>154</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K16" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -8045,28 +8305,28 @@
         <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H17" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M17" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -8083,28 +8343,28 @@
         <v>154</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M18" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -8114,7 +8374,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8151,13 +8411,13 @@
         <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -8171,13 +8431,13 @@
         <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -8185,7 +8445,7 @@
         <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
         <v>150</v>
@@ -8194,10 +8454,10 @@
         <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -8205,7 +8465,7 @@
         <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C5" t="s">
         <v>150</v>
@@ -8219,7 +8479,7 @@
         <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
         <v>150</v>
@@ -8228,10 +8488,10 @@
         <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -8239,7 +8499,7 @@
         <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
         <v>150</v>
@@ -8248,10 +8508,10 @@
         <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8268,10 +8528,10 @@
         <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -8302,10 +8562,10 @@
         <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -8322,10 +8582,10 @@
         <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8333,10 +8593,10 @@
         <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -8349,7 +8609,7 @@
         <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -8358,10 +8618,10 @@
         <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -8369,19 +8629,19 @@
         <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -8389,7 +8649,7 @@
         <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
@@ -8398,10 +8658,10 @@
         <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -8409,19 +8669,19 @@
         <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C17" t="s">
         <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -8429,7 +8689,7 @@
         <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>150</v>
@@ -8438,18 +8698,18 @@
         <v>153</v>
       </c>
       <c r="E18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" t="s">
         <v>150</v>
@@ -8458,38 +8718,38 @@
         <v>153</v>
       </c>
       <c r="E19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
         <v>150</v>
@@ -8498,10 +8758,10 @@
         <v>154</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -8509,7 +8769,7 @@
         <v>138</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
         <v>150</v>
@@ -8518,10 +8778,30 @@
         <v>154</v>
       </c>
       <c r="E22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F22" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="225">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -426,9 +426,15 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>January</t>
+  </si>
+  <si>
     <t>December</t>
   </si>
   <si>
+    <t>Mbembeswana</t>
+  </si>
+  <si>
     <t>Svita Clinic</t>
   </si>
   <si>
@@ -441,6 +447,9 @@
     <t>Guruve District Hospital</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
@@ -456,9 +465,6 @@
     <t>GOKWE SOUTH</t>
   </si>
   <si>
-    <t>January</t>
-  </si>
-  <si>
     <t>Beula</t>
   </si>
   <si>
@@ -471,9 +477,6 @@
     <t>Neta Clinic</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>MAPHISA - 100890 - DISTRICT HOSPITAL</t>
   </si>
   <si>
@@ -486,6 +489,9 @@
     <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
@@ -516,12 +522,12 @@
     <t>Client is healing</t>
   </si>
   <si>
+    <t>Moderate</t>
+  </si>
+  <si>
     <t>Severe</t>
   </si>
   <si>
-    <t>Moderate</t>
-  </si>
-  <si>
     <t>COA</t>
   </si>
   <si>
@@ -537,9 +543,15 @@
     <t>Doctor</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
     <t>2024-12-07</t>
   </si>
   <si>
@@ -588,9 +600,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -606,6 +615,9 @@
     <t>Surgical</t>
   </si>
   <si>
+    <t>Client had rash and fever</t>
+  </si>
+  <si>
     <t>client was showing symptoms linked to diabetes condition</t>
   </si>
   <si>
@@ -621,15 +633,15 @@
     <t>Elavated BP</t>
   </si>
   <si>
+    <t>OPD</t>
+  </si>
+  <si>
     <t>Diabetes Services</t>
   </si>
   <si>
     <t>Hypertensive</t>
   </si>
   <si>
-    <t>OPD</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
@@ -655,6 +667,9 @@
   </si>
   <si>
     <t>32</t>
+  </si>
+  <si>
+    <t>00789</t>
   </si>
   <si>
     <t>0585858</t>
@@ -1033,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EY13"/>
+  <dimension ref="A1:EY14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1507,32 +1522,68 @@
       </c>
     </row>
     <row r="2" spans="1:155">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N2" t="s">
+        <v>171</v>
       </c>
       <c r="O2" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="P2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>175</v>
+      </c>
+      <c r="R2" t="s">
+        <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="U2" t="s">
-        <v>156</v>
+        <v>160</v>
+      </c>
+      <c r="V2" t="s">
+        <v>190</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1544,228 +1595,339 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>190</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
+      <c r="BK2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>199</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>190</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>171</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW2" t="s">
         <v>189</v>
       </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>201</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>156</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>204</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>189</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>185</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>156</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>184</v>
-      </c>
       <c r="DX2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DY2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DZ2" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="EA2">
         <v>0</v>
       </c>
       <c r="EB2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EC2" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>214</v>
       </c>
       <c r="EE2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EF2" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EG2" t="s">
+        <v>214</v>
       </c>
       <c r="EH2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EI2" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EJ2" t="s">
+        <v>214</v>
       </c>
       <c r="EK2" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>214</v>
       </c>
       <c r="EN2" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EO2" t="s">
+        <v>214</v>
       </c>
       <c r="EQ2" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ER2" t="s">
+        <v>214</v>
       </c>
       <c r="ET2" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="EU2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EV2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>217</v>
       </c>
       <c r="EX2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="EY2" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:155">
       <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" t="s">
         <v>143</v>
       </c>
       <c r="H3" t="s">
         <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S3" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="U3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1788,6 +1950,9 @@
       <c r="AJ3">
         <v>0</v>
       </c>
+      <c r="AS3" t="s">
+        <v>193</v>
+      </c>
       <c r="AW3">
         <v>0</v>
       </c>
@@ -1801,49 +1966,55 @@
         <v>0</v>
       </c>
       <c r="BH3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BI3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BJ3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BK3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BL3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BM3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BN3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BO3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BP3" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>200</v>
       </c>
       <c r="BS3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="BT3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="BU3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="BV3" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="BW3" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>206</v>
       </c>
       <c r="BY3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="CC3">
         <v>0</v>
@@ -1854,9 +2025,6 @@
       <c r="CF3">
         <v>0</v>
       </c>
-      <c r="CG3" t="s">
-        <v>157</v>
-      </c>
       <c r="CK3">
         <v>0</v>
       </c>
@@ -1887,596 +2055,572 @@
       <c r="CV3">
         <v>0</v>
       </c>
+      <c r="CW3" t="s">
+        <v>208</v>
+      </c>
       <c r="DN3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DO3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="DP3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DQ3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="DR3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DU3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="DV3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="DW3" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="DX3" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="DY3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DZ3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EA3">
         <v>0</v>
       </c>
-      <c r="EB3" t="s">
-        <v>210</v>
-      </c>
       <c r="EC3" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>214</v>
       </c>
       <c r="EF3" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>214</v>
       </c>
       <c r="EI3" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>214</v>
       </c>
       <c r="EL3" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EO3" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ER3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ET3" t="s">
         <v>157</v>
       </c>
       <c r="EU3" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>172</v>
       </c>
       <c r="EX3" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:155">
       <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" t="s">
+        <v>172</v>
+      </c>
+      <c r="S4" t="s">
+        <v>182</v>
+      </c>
+      <c r="U4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>159</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>172</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>214</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>214</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>214</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>214</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX4" t="s">
         <v>143</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" t="s">
-        <v>158</v>
-      </c>
-      <c r="O4" t="s">
-        <v>170</v>
-      </c>
-      <c r="S4" t="s">
-        <v>179</v>
-      </c>
-      <c r="U4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>158</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DS4">
-        <v>0</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>158</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>170</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EA4">
-        <v>0</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>210</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>158</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:155">
       <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" t="s">
+        <v>172</v>
+      </c>
+      <c r="S5" t="s">
+        <v>183</v>
+      </c>
+      <c r="U5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>160</v>
+      </c>
+      <c r="DS5">
+        <v>0</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>160</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>172</v>
+      </c>
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>214</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>214</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>160</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>172</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>172</v>
+      </c>
+      <c r="EX5" t="s">
         <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" t="s">
-        <v>159</v>
-      </c>
-      <c r="O5" t="s">
-        <v>170</v>
-      </c>
-      <c r="S5" t="s">
-        <v>148</v>
-      </c>
-      <c r="U5" t="s">
-        <v>182</v>
-      </c>
-      <c r="V5" t="s">
-        <v>186</v>
-      </c>
-      <c r="X5" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>169</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>187</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>202</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>182</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>187</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>185</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>159</v>
-      </c>
-      <c r="DS5">
-        <v>0</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>159</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>160</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>170</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>184</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>184</v>
-      </c>
-      <c r="EA5">
-        <v>0</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>210</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>164</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>170</v>
-      </c>
-      <c r="EV5" t="s">
-        <v>170</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:155">
       <c r="D6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
         <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="S6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U6" t="s">
-        <v>183</v>
+        <v>186</v>
+      </c>
+      <c r="V6" t="s">
+        <v>190</v>
+      </c>
+      <c r="X6" t="s">
+        <v>191</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -2488,7 +2632,13 @@
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>160</v>
+        <v>186</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>191</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2499,32 +2649,8 @@
       <c r="AJ6">
         <v>0</v>
       </c>
-      <c r="AK6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>170</v>
+      <c r="AT6" t="s">
+        <v>172</v>
       </c>
       <c r="AW6">
         <v>0</v>
@@ -2538,77 +2664,62 @@
       <c r="AZ6">
         <v>0</v>
       </c>
-      <c r="BA6" t="s">
-        <v>157</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>170</v>
-      </c>
       <c r="BH6" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="BI6" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="BJ6" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="BK6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BL6" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="BM6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BN6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BO6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BP6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BR6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BS6" t="s">
         <v>136</v>
       </c>
       <c r="BT6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="BU6" t="s">
         <v>136</v>
       </c>
       <c r="BV6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="BW6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BX6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="BY6" t="s">
-        <v>160</v>
+        <v>186</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>190</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>191</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -2649,295 +2760,250 @@
       <c r="CV6">
         <v>0</v>
       </c>
-      <c r="CX6" t="s">
-        <v>186</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>170</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>170</v>
+      <c r="CY6" t="s">
+        <v>189</v>
       </c>
       <c r="DN6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DO6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DP6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="DQ6" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="DR6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DS6">
         <v>0</v>
       </c>
       <c r="DT6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DU6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DV6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DW6" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="DX6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="DY6" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="DZ6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA6">
         <v>0</v>
       </c>
-      <c r="EB6" t="s">
-        <v>210</v>
-      </c>
       <c r="EC6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ED6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EF6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EG6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EI6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EJ6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EP6" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>210</v>
-      </c>
-      <c r="ES6" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>214</v>
       </c>
       <c r="ET6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="EU6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="EV6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="EX6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:155">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
         <v>137</v>
       </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
         <v>144</v>
-      </c>
-      <c r="E7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" t="s">
-        <v>141</v>
       </c>
       <c r="H7" t="s">
         <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>161</v>
-      </c>
-      <c r="J7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M7" t="s">
-        <v>169</v>
-      </c>
-      <c r="N7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="O7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P7" t="s">
+        <v>172</v>
+      </c>
+      <c r="S7" t="s">
+        <v>151</v>
+      </c>
+      <c r="U7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
         <v>171</v>
       </c>
-      <c r="Q7" t="s">
-        <v>173</v>
-      </c>
-      <c r="R7" t="s">
-        <v>174</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="AL7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>202</v>
+      </c>
+      <c r="BS7" t="s">
         <v>137</v>
-      </c>
-      <c r="U7" t="s">
-        <v>184</v>
-      </c>
-      <c r="W7" t="s">
-        <v>160</v>
-      </c>
-      <c r="X7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>194</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>160</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>173</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>195</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>136</v>
       </c>
       <c r="BT7" t="s">
         <v>136</v>
       </c>
       <c r="BU7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV7" t="s">
         <v>136</v>
       </c>
       <c r="BW7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BX7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BY7" t="s">
-        <v>184</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>160</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="CC7">
         <v>0</v>
@@ -2978,142 +3044,214 @@
       <c r="CV7">
         <v>0</v>
       </c>
+      <c r="CX7" t="s">
+        <v>190</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>172</v>
+      </c>
       <c r="DN7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="DO7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DP7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="DQ7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DR7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DS7">
         <v>0</v>
       </c>
       <c r="DT7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DU7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DV7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DW7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DX7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="DY7" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="DZ7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA7">
         <v>0</v>
       </c>
       <c r="EB7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EC7" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>214</v>
       </c>
       <c r="EE7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EF7" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EG7" t="s">
+        <v>214</v>
       </c>
       <c r="EH7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EI7" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EJ7" t="s">
+        <v>214</v>
       </c>
       <c r="EK7" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>214</v>
       </c>
       <c r="EN7" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EO7" t="s">
+        <v>214</v>
       </c>
       <c r="EQ7" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ER7" t="s">
+        <v>214</v>
       </c>
       <c r="ET7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="EU7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EV7" t="s">
-        <v>170</v>
-      </c>
-      <c r="EW7" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="EX7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:155">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
       <c r="D8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
         <v>144</v>
       </c>
-      <c r="E8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" t="s">
-        <v>141</v>
-      </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
+        <v>163</v>
+      </c>
+      <c r="J8" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" t="s">
+        <v>170</v>
+      </c>
+      <c r="M8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N8" t="s">
+        <v>171</v>
       </c>
       <c r="O8" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="P8" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>176</v>
+      </c>
+      <c r="R8" t="s">
+        <v>178</v>
       </c>
       <c r="S8" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="U8" t="s">
-        <v>184</v>
-      </c>
-      <c r="V8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="W8" t="s">
+        <v>162</v>
+      </c>
+      <c r="X8" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
         <v>188</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>184</v>
-      </c>
       <c r="AE8" t="s">
-        <v>191</v>
+        <v>162</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>176</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -3124,9 +3262,6 @@
       <c r="AJ8">
         <v>0</v>
       </c>
-      <c r="AU8" t="s">
-        <v>169</v>
-      </c>
       <c r="AW8">
         <v>0</v>
       </c>
@@ -3140,304 +3275,253 @@
         <v>0</v>
       </c>
       <c r="BH8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="BI8" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="BJ8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="BK8" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY8" t="s">
         <v>188</v>
       </c>
-      <c r="BL8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>170</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>197</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>203</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>160</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>184</v>
-      </c>
       <c r="CA8" t="s">
+        <v>162</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>171</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>163</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW8" t="s">
         <v>188</v>
       </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CQ8">
-        <v>0</v>
-      </c>
-      <c r="CR8">
-        <v>0</v>
-      </c>
-      <c r="CS8">
-        <v>0</v>
-      </c>
-      <c r="CT8">
-        <v>0</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>0</v>
-      </c>
-      <c r="DA8" t="s">
+      <c r="DX8" t="s">
+        <v>172</v>
+      </c>
+      <c r="DY8" t="s">
         <v>188</v>
       </c>
-      <c r="DN8" t="s">
-        <v>170</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>169</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>170</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>170</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS8">
-        <v>0</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>170</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>156</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>170</v>
-      </c>
-      <c r="DW8" t="s">
-        <v>160</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>169</v>
-      </c>
-      <c r="DY8" t="s">
-        <v>184</v>
-      </c>
       <c r="DZ8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="EA8">
         <v>0</v>
       </c>
-      <c r="EB8" t="s">
-        <v>210</v>
-      </c>
       <c r="EC8" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE8" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>214</v>
       </c>
       <c r="EF8" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH8" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EG8" t="s">
+        <v>214</v>
       </c>
       <c r="EI8" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK8" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN8" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EJ8" t="s">
+        <v>214</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO8" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER8" t="s">
+        <v>214</v>
       </c>
       <c r="ET8" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
       <c r="EU8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EV8" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>218</v>
       </c>
       <c r="EX8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:155">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" t="s">
-        <v>141</v>
-      </c>
       <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" t="s">
         <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I9" t="s">
         <v>158</v>
       </c>
-      <c r="J9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K9" t="s">
-        <v>167</v>
-      </c>
-      <c r="L9" t="s">
-        <v>168</v>
-      </c>
-      <c r="M9" t="s">
-        <v>169</v>
-      </c>
-      <c r="N9" t="s">
-        <v>169</v>
-      </c>
       <c r="O9" t="s">
-        <v>170</v>
-      </c>
-      <c r="P9" t="s">
+        <v>172</v>
+      </c>
+      <c r="S9" t="s">
+        <v>152</v>
+      </c>
+      <c r="U9" t="s">
+        <v>188</v>
+      </c>
+      <c r="V9" t="s">
+        <v>188</v>
+      </c>
+      <c r="W9" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="s">
         <v>171</v>
       </c>
-      <c r="Q9" t="s">
-        <v>158</v>
-      </c>
-      <c r="R9" t="s">
-        <v>175</v>
-      </c>
-      <c r="S9" t="s">
-        <v>138</v>
-      </c>
-      <c r="U9" t="s">
-        <v>185</v>
-      </c>
-      <c r="V9" t="s">
-        <v>187</v>
-      </c>
-      <c r="X9" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>170</v>
-      </c>
       <c r="AW9">
         <v>0</v>
       </c>
@@ -3450,84 +3534,66 @@
       <c r="AZ9">
         <v>0</v>
       </c>
-      <c r="BA9" t="s">
-        <v>189</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BE9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG9" t="s">
-        <v>170</v>
+      <c r="BH9" t="s">
+        <v>193</v>
       </c>
       <c r="BI9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="BJ9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BK9" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="BL9" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="BM9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BN9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BO9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BP9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ9" t="s">
-        <v>195</v>
+        <v>172</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>201</v>
       </c>
       <c r="BS9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW9" t="s">
-        <v>189</v>
+        <v>171</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>205</v>
       </c>
       <c r="BY9" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="BZ9" t="s">
-        <v>187</v>
-      </c>
-      <c r="CB9" t="s">
-        <v>186</v>
+        <v>188</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>192</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
-      <c r="CD9" t="s">
-        <v>169</v>
-      </c>
       <c r="CE9">
         <v>0</v>
       </c>
@@ -3564,41 +3630,20 @@
       <c r="CV9">
         <v>0</v>
       </c>
-      <c r="CX9" t="s">
-        <v>189</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DB9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DF9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>170</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>170</v>
+      <c r="DA9" t="s">
+        <v>192</v>
       </c>
       <c r="DN9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="DO9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DP9" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="DQ9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DR9" t="s">
         <v>158</v>
@@ -3607,271 +3652,283 @@
         <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DU9" t="s">
         <v>158</v>
       </c>
       <c r="DV9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DW9" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="DX9" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="DY9" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="DZ9" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="EA9">
         <v>0</v>
       </c>
-      <c r="EB9" t="s">
-        <v>210</v>
-      </c>
       <c r="EC9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ED9" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EF9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EG9" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EI9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EJ9" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK9" t="s">
-        <v>210</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN9" t="s">
-        <v>210</v>
-      </c>
-      <c r="EP9" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ9" t="s">
-        <v>210</v>
-      </c>
-      <c r="ES9" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO9" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER9" t="s">
+        <v>214</v>
       </c>
       <c r="ET9" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="EU9" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EV9" t="s">
-        <v>169</v>
-      </c>
-      <c r="EW9" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="EX9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:155">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P10" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>160</v>
+      </c>
+      <c r="R10" t="s">
+        <v>179</v>
+      </c>
+      <c r="S10" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" t="s">
+        <v>191</v>
+      </c>
+      <c r="X10" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="s">
         <v>171</v>
       </c>
-      <c r="Q10" t="s">
-        <v>158</v>
-      </c>
-      <c r="R10" t="s">
-        <v>176</v>
-      </c>
-      <c r="S10" t="s">
-        <v>139</v>
-      </c>
-      <c r="U10" t="s">
-        <v>158</v>
-      </c>
-      <c r="V10" t="s">
-        <v>186</v>
-      </c>
-      <c r="W10" t="s">
-        <v>157</v>
-      </c>
-      <c r="X10" t="s">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>158</v>
-      </c>
       <c r="AD10" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF10" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI10" t="s">
         <v>189</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="s">
+      <c r="BJ10" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BY10" t="s">
         <v>189</v>
       </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>195</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>170</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>170</v>
-      </c>
       <c r="BZ10" t="s">
-        <v>170</v>
-      </c>
-      <c r="CA10" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="CB10" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="CC10">
         <v>0</v>
       </c>
+      <c r="CD10" t="s">
+        <v>171</v>
+      </c>
       <c r="CE10">
         <v>0</v>
       </c>
       <c r="CF10">
         <v>0</v>
       </c>
-      <c r="CG10" t="s">
-        <v>158</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI10" t="s">
-        <v>157</v>
-      </c>
-      <c r="CJ10" t="s">
-        <v>189</v>
-      </c>
       <c r="CK10">
         <v>0</v>
       </c>
@@ -3902,127 +3959,193 @@
       <c r="CV10">
         <v>0</v>
       </c>
-      <c r="DA10" t="s">
-        <v>157</v>
+      <c r="CX10" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>172</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>172</v>
       </c>
       <c r="DN10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="DO10" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="DP10" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="DQ10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DR10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="DS10">
         <v>0</v>
       </c>
       <c r="DT10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DU10" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="DV10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="DW10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="DX10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DY10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="DZ10" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="EA10">
         <v>0</v>
       </c>
       <c r="EB10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EC10" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ED10" t="s">
+        <v>214</v>
       </c>
       <c r="EE10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EF10" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EG10" t="s">
+        <v>214</v>
       </c>
       <c r="EH10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EI10" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EJ10" t="s">
+        <v>214</v>
       </c>
       <c r="EK10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EL10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EN10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EO10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EQ10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ER10" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ET10" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
       <c r="EU10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EV10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="EW10" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="EX10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:155">
+      <c r="A11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="J11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" t="s">
+        <v>171</v>
+      </c>
+      <c r="N11" t="s">
+        <v>171</v>
       </c>
       <c r="O11" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="P11" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>160</v>
+      </c>
+      <c r="R11" t="s">
+        <v>180</v>
       </c>
       <c r="S11" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="U11" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="V11" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="W11" t="s">
+        <v>159</v>
       </c>
       <c r="X11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -4034,13 +4157,16 @@
         <v>0</v>
       </c>
       <c r="AC11" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="AD11" t="s">
-        <v>187</v>
+        <v>190</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>195</v>
       </c>
       <c r="AF11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -4051,32 +4177,8 @@
       <c r="AJ11">
         <v>0</v>
       </c>
-      <c r="AK11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>170</v>
+      <c r="AU11" t="s">
+        <v>193</v>
       </c>
       <c r="AW11">
         <v>0</v>
@@ -4090,74 +4192,59 @@
       <c r="AZ11">
         <v>0</v>
       </c>
-      <c r="BA11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BE11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG11" t="s">
-        <v>170</v>
-      </c>
       <c r="BI11" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="BJ11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="BK11" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="BL11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="BM11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BN11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BO11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BP11" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>198</v>
       </c>
       <c r="BS11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BY11" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="BZ11" t="s">
-        <v>187</v>
+        <v>172</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>172</v>
       </c>
       <c r="CB11" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="CC11">
         <v>0</v>
@@ -4168,6 +4255,18 @@
       <c r="CF11">
         <v>0</v>
       </c>
+      <c r="CG11" t="s">
+        <v>160</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>190</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>159</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>193</v>
+      </c>
       <c r="CK11">
         <v>0</v>
       </c>
@@ -4198,344 +4297,275 @@
       <c r="CV11">
         <v>0</v>
       </c>
-      <c r="CX11" t="s">
-        <v>170</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>189</v>
-      </c>
-      <c r="DB11" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD11" t="s">
-        <v>170</v>
-      </c>
-      <c r="DF11" t="s">
-        <v>170</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>170</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>170</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>170</v>
+      <c r="DA11" t="s">
+        <v>159</v>
       </c>
       <c r="DN11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="DO11" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="DP11" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="DQ11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DR11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="DS11">
         <v>0</v>
       </c>
       <c r="DT11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DU11" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="DV11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="DW11" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="DX11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DY11" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="DZ11" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="EA11">
         <v>0</v>
       </c>
-      <c r="EB11" t="s">
-        <v>210</v>
-      </c>
       <c r="EC11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ED11" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EF11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EG11" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EI11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EJ11" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK11" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>214</v>
       </c>
       <c r="EM11" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN11" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EO11" t="s">
+        <v>214</v>
       </c>
       <c r="EP11" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ11" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ER11" t="s">
+        <v>214</v>
       </c>
       <c r="ES11" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ET11" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="EU11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EV11" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>220</v>
       </c>
       <c r="EX11" t="s">
-        <v>141</v>
-      </c>
-      <c r="EY11" t="s">
-        <v>217</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:155">
-      <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
       <c r="D12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J12" t="s">
         <v>165</v>
       </c>
-      <c r="K12" t="s">
-        <v>167</v>
-      </c>
-      <c r="L12" t="s">
-        <v>168</v>
-      </c>
-      <c r="M12" t="s">
-        <v>169</v>
-      </c>
-      <c r="N12" t="s">
-        <v>169</v>
-      </c>
       <c r="O12" t="s">
-        <v>170</v>
-      </c>
-      <c r="P12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>158</v>
-      </c>
-      <c r="R12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="S12" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="U12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="V12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="X12" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
         <v>189</v>
       </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>186</v>
-      </c>
       <c r="AD12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BB12" t="s">
         <v>193</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="BC12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI12" t="s">
         <v>189</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AU12" t="s">
+      <c r="BJ12" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY12" t="s">
         <v>189</v>
       </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>186</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>187</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>169</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>195</v>
-      </c>
-      <c r="BR12" t="s">
-        <v>200</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>202</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>170</v>
-      </c>
       <c r="BZ12" t="s">
-        <v>170</v>
-      </c>
-      <c r="CA12" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="CB12" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="CC12">
         <v>0</v>
       </c>
-      <c r="CD12" t="s">
-        <v>170</v>
-      </c>
       <c r="CE12">
         <v>0</v>
       </c>
       <c r="CF12">
         <v>0</v>
       </c>
-      <c r="CG12" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH12" t="s">
-        <v>184</v>
-      </c>
-      <c r="CI12" t="s">
-        <v>187</v>
-      </c>
-      <c r="CJ12" t="s">
-        <v>189</v>
-      </c>
       <c r="CK12">
         <v>0</v>
       </c>
-      <c r="CL12" t="s">
-        <v>169</v>
-      </c>
       <c r="CM12">
         <v>0</v>
       </c>
@@ -4545,9 +4575,6 @@
       <c r="CO12">
         <v>0</v>
       </c>
-      <c r="CP12" t="s">
-        <v>194</v>
-      </c>
       <c r="CQ12">
         <v>0</v>
       </c>
@@ -4566,442 +4593,810 @@
       <c r="CV12">
         <v>0</v>
       </c>
-      <c r="DA12" t="s">
-        <v>187</v>
+      <c r="CX12" t="s">
+        <v>172</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>193</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>172</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>172</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>172</v>
       </c>
       <c r="DN12" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="DO12" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="DP12" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="DQ12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="DR12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="DS12">
         <v>0</v>
       </c>
       <c r="DT12" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="DU12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="DV12" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="DW12" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="DX12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="DY12" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="DZ12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="EA12">
         <v>0</v>
       </c>
       <c r="EB12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EC12" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="ED12" t="s">
+        <v>214</v>
       </c>
       <c r="EE12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EF12" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EG12" t="s">
+        <v>214</v>
       </c>
       <c r="EH12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EI12" t="s">
-        <v>210</v>
+        <v>214</v>
+      </c>
+      <c r="EJ12" t="s">
+        <v>214</v>
       </c>
       <c r="EK12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EL12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EN12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EO12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="EQ12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ER12" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="ET12" t="s">
-        <v>212</v>
+        <v>165</v>
       </c>
       <c r="EU12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="EV12" t="s">
-        <v>170</v>
-      </c>
-      <c r="EW12" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="EX12" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="EY12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:155">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
         <v>142</v>
       </c>
+      <c r="G13" t="s">
+        <v>144</v>
+      </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>166</v>
+      </c>
+      <c r="J13" t="s">
+        <v>167</v>
+      </c>
+      <c r="K13" t="s">
+        <v>168</v>
+      </c>
+      <c r="L13" t="s">
+        <v>170</v>
+      </c>
+      <c r="M13" t="s">
+        <v>171</v>
+      </c>
+      <c r="N13" t="s">
+        <v>171</v>
       </c>
       <c r="O13" t="s">
-        <v>170</v>
+        <v>172</v>
+      </c>
+      <c r="P13" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>160</v>
+      </c>
+      <c r="R13" t="s">
+        <v>181</v>
       </c>
       <c r="S13" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="U13" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="V13" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="W13" t="s">
+        <v>191</v>
+      </c>
+      <c r="X13" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>193</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>162</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>171</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>207</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>172</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>172</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>172</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>190</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>188</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>191</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>193</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>171</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>197</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>171</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>193</v>
+      </c>
+      <c r="DP13" t="s">
+        <v>172</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>166</v>
+      </c>
+      <c r="DS13">
+        <v>0</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>197</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>172</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>210</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>188</v>
+      </c>
+      <c r="DX13" t="s">
+        <v>193</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>191</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA13">
+        <v>0</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>214</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EG13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EI13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EL13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EM13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO13" t="s">
+        <v>214</v>
+      </c>
+      <c r="EP13" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER13" t="s">
+        <v>214</v>
+      </c>
+      <c r="ES13" t="s">
+        <v>214</v>
+      </c>
+      <c r="ET13" t="s">
+        <v>216</v>
+      </c>
+      <c r="EU13" t="s">
+        <v>172</v>
+      </c>
+      <c r="EV13" t="s">
+        <v>172</v>
+      </c>
+      <c r="EW13" t="s">
+        <v>221</v>
+      </c>
+      <c r="EX13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:155">
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
+      </c>
+      <c r="O14" t="s">
+        <v>172</v>
+      </c>
+      <c r="S14" t="s">
         <v>185</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC13" t="s">
+      <c r="U14" t="s">
+        <v>160</v>
+      </c>
+      <c r="V14" t="s">
+        <v>190</v>
+      </c>
+      <c r="W14" t="s">
         <v>189</v>
       </c>
-      <c r="BD13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>186</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>185</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>170</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW13" t="s">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE14" t="s">
         <v>189</v>
       </c>
-      <c r="BY13" t="s">
-        <v>158</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>185</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>185</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CE13">
-        <v>0</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>170</v>
-      </c>
-      <c r="CK13">
-        <v>0</v>
-      </c>
-      <c r="CM13">
-        <v>0</v>
-      </c>
-      <c r="CN13">
-        <v>0</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CP13" t="s">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>172</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>190</v>
+      </c>
+      <c r="BK14" t="s">
         <v>189</v>
       </c>
-      <c r="CQ13">
-        <v>0</v>
-      </c>
-      <c r="CR13">
-        <v>0</v>
-      </c>
-      <c r="CS13">
-        <v>0</v>
-      </c>
-      <c r="CT13">
-        <v>0</v>
-      </c>
-      <c r="CU13">
-        <v>0</v>
-      </c>
-      <c r="CV13">
-        <v>0</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>169</v>
-      </c>
-      <c r="CZ13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DB13" t="s">
+      <c r="BL14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>160</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>189</v>
       </c>
-      <c r="DD13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DH13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DJ13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DN13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DO13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DP13" t="s">
-        <v>194</v>
-      </c>
-      <c r="DQ13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DR13" t="s">
-        <v>161</v>
-      </c>
-      <c r="DS13">
-        <v>0</v>
-      </c>
-      <c r="DT13" t="s">
+      <c r="CA14" t="s">
         <v>189</v>
       </c>
-      <c r="DU13" t="s">
-        <v>205</v>
-      </c>
-      <c r="DV13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DW13" t="s">
-        <v>184</v>
-      </c>
-      <c r="DX13" t="s">
-        <v>194</v>
-      </c>
-      <c r="DY13" t="s">
-        <v>189</v>
-      </c>
-      <c r="DZ13" t="s">
-        <v>169</v>
-      </c>
-      <c r="EA13">
-        <v>0</v>
-      </c>
-      <c r="EB13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>210</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EE13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EF13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EI13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EJ13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EK13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EM13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EP13" t="s">
-        <v>210</v>
-      </c>
-      <c r="EQ13" t="s">
-        <v>210</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>210</v>
-      </c>
-      <c r="ES13" t="s">
-        <v>210</v>
-      </c>
-      <c r="ET13" t="s">
-        <v>161</v>
-      </c>
-      <c r="EU13" t="s">
-        <v>170</v>
-      </c>
-      <c r="EV13" t="s">
-        <v>169</v>
-      </c>
-      <c r="EX13" t="s">
-        <v>141</v>
-      </c>
-      <c r="EY13" t="s">
-        <v>217</v>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>172</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>171</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>193</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>197</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS14">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>193</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>209</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>172</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>188</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>197</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>193</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>171</v>
+      </c>
+      <c r="EA14">
+        <v>0</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>214</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>214</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>214</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>214</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>214</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>163</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>172</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>171</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>144</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +5406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5060,151 +5455,189 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L4" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
         <v>167</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F6" t="s">
         <v>168</v>
       </c>
-      <c r="H5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I5" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" t="s">
-        <v>177</v>
-      </c>
-      <c r="K5" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" t="s">
-        <v>216</v>
+      <c r="G6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" t="s">
+        <v>198</v>
+      </c>
+      <c r="L6" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5214,7 +5647,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5242,116 +5675,116 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5359,79 +5792,99 @@
         <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
-        <v>202</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="231">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -426,12 +426,18 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>November</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
     <t>December</t>
   </si>
   <si>
+    <t>Negove Clinic</t>
+  </si>
+  <si>
     <t>Mbembeswana</t>
   </si>
   <si>
@@ -453,15 +459,15 @@
     <t>2024</t>
   </si>
   <si>
+    <t>MBERENGWA</t>
+  </si>
+  <si>
     <t>MATOBO</t>
   </si>
   <si>
     <t>GURUVE</t>
   </si>
   <si>
-    <t>MBERENGWA</t>
-  </si>
-  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
@@ -477,18 +483,21 @@
     <t>Neta Clinic</t>
   </si>
   <si>
+    <t>MUSUME - 101157 - MISSION HOSPITAL</t>
+  </si>
+  <si>
     <t>MAPHISA - 100890 - DISTRICT HOSPITAL</t>
   </si>
   <si>
     <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
   </si>
   <si>
-    <t>MUSUME - 101157 - MISSION HOSPITAL</t>
-  </si>
-  <si>
     <t>GOKWE - 100513 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>35</t>
   </si>
   <si>
@@ -498,9 +507,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -576,6 +582,9 @@
     <t>Sankonjana</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -615,6 +624,9 @@
     <t>Surgical</t>
   </si>
   <si>
+    <t>Client was showing Malaria symptoms</t>
+  </si>
+  <si>
     <t>Client had rash and fever</t>
   </si>
   <si>
@@ -642,18 +654,21 @@
     <t>Hypertensive</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -661,6 +676,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
   <si>
     <t>44</t>
@@ -1048,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EY14"/>
+  <dimension ref="A1:EY17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,412 +1540,268 @@
       </c>
     </row>
     <row r="2" spans="1:155">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
       <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
+        <v>159</v>
+      </c>
+      <c r="O2" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>214</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>196</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>200</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA2">
+        <v>0</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN2" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET2" t="s">
+        <v>191</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EV2" t="s">
+        <v>174</v>
+      </c>
+      <c r="EX2" t="s">
         <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K2" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O2" t="s">
-        <v>172</v>
-      </c>
-      <c r="P2" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>175</v>
-      </c>
-      <c r="R2" t="s">
-        <v>177</v>
-      </c>
-      <c r="S2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>205</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>160</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CK2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS2">
-        <v>0</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>157</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>189</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>193</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>172</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>197</v>
-      </c>
-      <c r="EA2">
-        <v>0</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>214</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>214</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>166</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>172</v>
-      </c>
-      <c r="EV2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>217</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:155">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
         <v>136</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="U3" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="V3" t="s">
+        <v>193</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -1939,7 +1813,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>157</v>
+        <v>195</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>193</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1951,49 +1828,49 @@
         <v>0</v>
       </c>
       <c r="AS3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>193</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>172</v>
-      </c>
       <c r="BK3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BL3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BM3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BR3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BS3" t="s">
         <v>136</v>
@@ -2008,13 +1885,16 @@
         <v>136</v>
       </c>
       <c r="BW3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BX3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BY3" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>193</v>
       </c>
       <c r="CC3">
         <v>0</v>
@@ -2056,112 +1936,154 @@
         <v>0</v>
       </c>
       <c r="CW3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="DN3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DO3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="DP3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DQ3" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="DR3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="DS3">
         <v>0</v>
       </c>
       <c r="DT3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DU3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="DV3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DW3" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="DX3" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="DY3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="DZ3" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="EA3">
         <v>0</v>
       </c>
+      <c r="EB3" t="s">
+        <v>219</v>
+      </c>
       <c r="EC3" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>219</v>
       </c>
       <c r="EF3" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>219</v>
       </c>
       <c r="EI3" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>219</v>
       </c>
       <c r="ET3" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="EU3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EV3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EX3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>222</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:155">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" t="s">
+        <v>145</v>
+      </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" t="s">
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>169</v>
+      </c>
+      <c r="K4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N4" t="s">
+        <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="P4" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>177</v>
+      </c>
+      <c r="R4" t="s">
+        <v>179</v>
       </c>
       <c r="S4" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="U4" t="s">
         <v>159</v>
       </c>
+      <c r="V4" t="s">
+        <v>193</v>
+      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -2174,6 +2096,9 @@
       <c r="AC4" t="s">
         <v>159</v>
       </c>
+      <c r="AD4" t="s">
+        <v>162</v>
+      </c>
       <c r="AG4">
         <v>0</v>
       </c>
@@ -2183,6 +2108,36 @@
       <c r="AJ4">
         <v>0</v>
       </c>
+      <c r="AK4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>174</v>
+      </c>
       <c r="AW4">
         <v>0</v>
       </c>
@@ -2195,50 +2150,83 @@
       <c r="AZ4">
         <v>0</v>
       </c>
+      <c r="BA4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>174</v>
+      </c>
       <c r="BH4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BI4" t="s">
         <v>159</v>
       </c>
       <c r="BJ4" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="BK4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BL4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BM4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP4" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>203</v>
       </c>
       <c r="BS4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW4" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>209</v>
       </c>
       <c r="BY4" t="s">
-        <v>172</v>
+        <v>159</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>193</v>
       </c>
       <c r="CC4">
         <v>0</v>
@@ -2249,9 +2237,6 @@
       <c r="CF4">
         <v>0</v>
       </c>
-      <c r="CG4" t="s">
-        <v>159</v>
-      </c>
       <c r="CK4">
         <v>0</v>
       </c>
@@ -2282,112 +2267,166 @@
       <c r="CV4">
         <v>0</v>
       </c>
+      <c r="CX4" t="s">
+        <v>173</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>174</v>
+      </c>
       <c r="DN4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DO4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DP4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="DQ4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DR4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="DS4">
         <v>0</v>
       </c>
       <c r="DT4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DU4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="DV4" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="DW4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="DX4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="DY4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DZ4" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="EA4">
         <v>0</v>
       </c>
+      <c r="EB4" t="s">
+        <v>219</v>
+      </c>
       <c r="EC4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ED4" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>219</v>
       </c>
       <c r="EF4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EG4" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>219</v>
       </c>
       <c r="EI4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EJ4" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>219</v>
       </c>
       <c r="EL4" t="s">
-        <v>214</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>219</v>
       </c>
       <c r="EO4" t="s">
-        <v>214</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>219</v>
       </c>
       <c r="ER4" t="s">
-        <v>214</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ET4" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="EU4" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>173</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>223</v>
       </c>
       <c r="EX4" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:155">
       <c r="D5" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="U5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -2410,6 +2449,9 @@
       <c r="AJ5">
         <v>0</v>
       </c>
+      <c r="AS5" t="s">
+        <v>196</v>
+      </c>
       <c r="AW5">
         <v>0</v>
       </c>
@@ -2423,49 +2465,55 @@
         <v>0</v>
       </c>
       <c r="BH5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BI5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BJ5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BK5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BL5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BM5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP5" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>204</v>
       </c>
       <c r="BS5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW5" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>210</v>
       </c>
       <c r="BY5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="CC5">
         <v>0</v>
@@ -2506,121 +2554,112 @@
       <c r="CV5">
         <v>0</v>
       </c>
+      <c r="CW5" t="s">
+        <v>213</v>
+      </c>
       <c r="DN5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DO5" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="DP5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DQ5" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="DR5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DS5">
         <v>0</v>
       </c>
       <c r="DT5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DU5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="DV5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DW5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="DX5" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="DY5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DZ5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EA5">
         <v>0</v>
       </c>
+      <c r="EB5" t="s">
+        <v>219</v>
+      </c>
       <c r="EC5" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>219</v>
       </c>
       <c r="EF5" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>219</v>
       </c>
       <c r="EI5" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>219</v>
       </c>
       <c r="ET5" t="s">
         <v>160</v>
       </c>
       <c r="EU5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EV5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EX5" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:155">
       <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S6" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="U6" t="s">
-        <v>186</v>
-      </c>
-      <c r="V6" t="s">
-        <v>190</v>
-      </c>
-      <c r="X6" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -2632,13 +2671,7 @@
         <v>0</v>
       </c>
       <c r="AC6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2649,9 +2682,6 @@
       <c r="AJ6">
         <v>0</v>
       </c>
-      <c r="AT6" t="s">
-        <v>172</v>
-      </c>
       <c r="AW6">
         <v>0</v>
       </c>
@@ -2665,61 +2695,49 @@
         <v>0</v>
       </c>
       <c r="BH6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="BI6" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="BJ6" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="BK6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BL6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="BM6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP6" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="BS6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BT6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BV6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="BY6" t="s">
-        <v>186</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>190</v>
-      </c>
-      <c r="CB6" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="CC6">
         <v>0</v>
@@ -2730,6 +2748,9 @@
       <c r="CF6">
         <v>0</v>
       </c>
+      <c r="CG6" t="s">
+        <v>162</v>
+      </c>
       <c r="CK6">
         <v>0</v>
       </c>
@@ -2760,118 +2781,112 @@
       <c r="CV6">
         <v>0</v>
       </c>
-      <c r="CY6" t="s">
-        <v>189</v>
-      </c>
       <c r="DN6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DO6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DP6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DQ6" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="DR6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="DS6">
         <v>0</v>
       </c>
       <c r="DT6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DU6" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="DV6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="DW6" t="s">
+        <v>174</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA6">
+        <v>0</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>219</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET6" t="s">
         <v>162</v>
       </c>
-      <c r="DX6" t="s">
-        <v>172</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>188</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>188</v>
-      </c>
-      <c r="EA6">
-        <v>0</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>214</v>
-      </c>
-      <c r="EF6" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>214</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ6" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER6" t="s">
-        <v>214</v>
-      </c>
-      <c r="ET6" t="s">
-        <v>166</v>
-      </c>
       <c r="EU6" t="s">
-        <v>172</v>
-      </c>
-      <c r="EV6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EX6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:155">
       <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S7" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="U7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -2883,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2894,33 +2909,6 @@
       <c r="AJ7">
         <v>0</v>
       </c>
-      <c r="AK7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>172</v>
-      </c>
       <c r="AW7">
         <v>0</v>
       </c>
@@ -2933,77 +2921,50 @@
       <c r="AZ7">
         <v>0</v>
       </c>
-      <c r="BA7" t="s">
+      <c r="BH7" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI7" t="s">
         <v>159</v>
       </c>
-      <c r="BB7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>162</v>
-      </c>
       <c r="BJ7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BK7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BL7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BM7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP7" t="s">
-        <v>172</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="BS7" t="s">
         <v>137</v>
       </c>
       <c r="BT7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BU7" t="s">
         <v>137</v>
       </c>
       <c r="BV7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BW7" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="BY7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="CC7">
         <v>0</v>
@@ -3044,268 +3005,193 @@
       <c r="CV7">
         <v>0</v>
       </c>
-      <c r="CX7" t="s">
-        <v>190</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>172</v>
-      </c>
       <c r="DN7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DO7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DP7" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR7" t="s">
         <v>159</v>
       </c>
-      <c r="DQ7" t="s">
-        <v>172</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>162</v>
-      </c>
       <c r="DS7">
         <v>0</v>
       </c>
       <c r="DT7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DU7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="DV7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DW7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="DX7" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>174</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>174</v>
+      </c>
+      <c r="EA7">
+        <v>0</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN7" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET7" t="s">
         <v>159</v>
       </c>
-      <c r="DY7" t="s">
-        <v>211</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>188</v>
-      </c>
-      <c r="EA7">
-        <v>0</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EE7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EN7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>214</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER7" t="s">
-        <v>214</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>162</v>
-      </c>
       <c r="EU7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="EV7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="EX7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:155">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
         <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="G8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
         <v>163</v>
       </c>
-      <c r="J8" t="s">
-        <v>167</v>
-      </c>
-      <c r="K8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M8" t="s">
-        <v>171</v>
-      </c>
-      <c r="N8" t="s">
-        <v>171</v>
-      </c>
       <c r="O8" t="s">
-        <v>172</v>
-      </c>
-      <c r="P8" t="s">
+        <v>174</v>
+      </c>
+      <c r="S8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U8" t="s">
+        <v>189</v>
+      </c>
+      <c r="V8" t="s">
+        <v>193</v>
+      </c>
+      <c r="X8" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" t="s">
-        <v>176</v>
-      </c>
-      <c r="R8" t="s">
-        <v>178</v>
-      </c>
-      <c r="S8" t="s">
-        <v>139</v>
-      </c>
-      <c r="U8" t="s">
-        <v>188</v>
-      </c>
-      <c r="W8" t="s">
-        <v>162</v>
-      </c>
-      <c r="X8" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>197</v>
-      </c>
       <c r="BI8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BJ8" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="BK8" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="BL8" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="BM8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP8" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ8" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="BR8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="BS8" t="s">
         <v>137</v>
@@ -3320,19 +3206,19 @@
         <v>137</v>
       </c>
       <c r="BW8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BX8" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="BY8" t="s">
-        <v>188</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>162</v>
+        <v>189</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>193</v>
       </c>
       <c r="CB8" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="CC8">
         <v>0</v>
@@ -3373,17 +3259,20 @@
       <c r="CV8">
         <v>0</v>
       </c>
+      <c r="CY8" t="s">
+        <v>192</v>
+      </c>
       <c r="DN8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="DO8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DP8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DQ8" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="DR8" t="s">
         <v>163</v>
@@ -3392,105 +3281,96 @@
         <v>0</v>
       </c>
       <c r="DT8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DU8" t="s">
         <v>163</v>
       </c>
       <c r="DV8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DW8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="DX8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DY8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DZ8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="EA8">
         <v>0</v>
       </c>
+      <c r="EB8" t="s">
+        <v>219</v>
+      </c>
       <c r="EC8" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED8" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>219</v>
       </c>
       <c r="EF8" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG8" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EH8" t="s">
+        <v>219</v>
       </c>
       <c r="EI8" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ8" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL8" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER8" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EK8" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN8" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>219</v>
       </c>
       <c r="ET8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="EU8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EV8" t="s">
-        <v>172</v>
-      </c>
-      <c r="EW8" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="EX8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:155">
       <c r="D9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="S9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="U9" t="s">
-        <v>188</v>
-      </c>
-      <c r="V9" t="s">
-        <v>188</v>
-      </c>
-      <c r="W9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -3502,749 +3382,713 @@
         <v>0</v>
       </c>
       <c r="AC9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="s">
         <v>162</v>
       </c>
-      <c r="AD9" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
+      <c r="BB9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>174</v>
       </c>
       <c r="BH9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="BI9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BJ9" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="BK9" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="BL9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BM9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BR9" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="BS9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BT9" t="s">
         <v>137</v>
       </c>
       <c r="BU9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV9" t="s">
         <v>137</v>
       </c>
       <c r="BW9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BX9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="BY9" t="s">
+        <v>164</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DD9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP9" t="s">
         <v>162</v>
       </c>
-      <c r="BZ9" t="s">
-        <v>188</v>
-      </c>
-      <c r="CA9" t="s">
-        <v>192</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>0</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
-      </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
-      <c r="CT9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>192</v>
-      </c>
-      <c r="DN9" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>171</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>172</v>
-      </c>
       <c r="DQ9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DR9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="DS9">
         <v>0</v>
       </c>
       <c r="DT9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DU9" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="DV9" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DW9" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX9" t="s">
         <v>162</v>
       </c>
-      <c r="DX9" t="s">
-        <v>171</v>
-      </c>
       <c r="DY9" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="DZ9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="EA9">
         <v>0</v>
       </c>
+      <c r="EB9" t="s">
+        <v>219</v>
+      </c>
       <c r="EC9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ED9" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>219</v>
       </c>
       <c r="EF9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EG9" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EH9" t="s">
+        <v>219</v>
       </c>
       <c r="EI9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EJ9" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EK9" t="s">
+        <v>219</v>
       </c>
       <c r="EL9" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EN9" t="s">
+        <v>219</v>
       </c>
       <c r="EO9" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>219</v>
       </c>
       <c r="ER9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ET9" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="EU9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="EV9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="EX9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:155">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
         <v>147</v>
       </c>
+      <c r="E10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" t="s">
+        <v>146</v>
+      </c>
       <c r="H10" t="s">
         <v>155</v>
       </c>
       <c r="I10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P10" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" t="s">
+        <v>180</v>
+      </c>
+      <c r="S10" t="s">
+        <v>141</v>
+      </c>
+      <c r="U10" t="s">
+        <v>191</v>
+      </c>
+      <c r="W10" t="s">
+        <v>164</v>
+      </c>
+      <c r="X10" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>191</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>178</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW10" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" t="s">
-        <v>160</v>
-      </c>
-      <c r="R10" t="s">
-        <v>179</v>
-      </c>
-      <c r="S10" t="s">
-        <v>140</v>
-      </c>
-      <c r="U10" t="s">
-        <v>189</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="BX10" t="s">
+        <v>209</v>
+      </c>
+      <c r="BY10" t="s">
         <v>191</v>
       </c>
-      <c r="X10" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="CA10" t="s">
+        <v>164</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>173</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>165</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW10" t="s">
         <v>191</v>
       </c>
-      <c r="AF10" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>193</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>189</v>
-      </c>
-      <c r="BJ10" t="s">
+      <c r="DX10" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY10" t="s">
         <v>191</v>
       </c>
-      <c r="BK10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>171</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>193</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ10" t="s">
+      <c r="DZ10" t="s">
         <v>191</v>
       </c>
-      <c r="CB10" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>0</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>0</v>
-      </c>
-      <c r="CQ10">
-        <v>0</v>
-      </c>
-      <c r="CR10">
-        <v>0</v>
-      </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
-      <c r="CT10">
-        <v>0</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>193</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DB10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DF10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DJ10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DM10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN10" t="s">
-        <v>171</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>193</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>160</v>
-      </c>
-      <c r="DS10">
-        <v>0</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>160</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>188</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>193</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>212</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>212</v>
-      </c>
       <c r="EA10">
         <v>0</v>
       </c>
       <c r="EB10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EC10" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EE10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EF10" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EH10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EI10" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EK10" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EN10" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EQ10" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER10" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ET10" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="EU10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EV10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="EW10" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="EX10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:155">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
       <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" t="s">
         <v>146</v>
       </c>
       <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S11" t="s">
         <v>154</v>
       </c>
-      <c r="I11" t="s">
+      <c r="U11" t="s">
+        <v>191</v>
+      </c>
+      <c r="V11" t="s">
+        <v>191</v>
+      </c>
+      <c r="W11" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
         <v>164</v>
       </c>
-      <c r="J11" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" t="s">
-        <v>171</v>
-      </c>
-      <c r="N11" t="s">
-        <v>171</v>
-      </c>
-      <c r="O11" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="AD11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="s">
         <v>173</v>
       </c>
-      <c r="Q11" t="s">
-        <v>160</v>
-      </c>
-      <c r="R11" t="s">
-        <v>180</v>
-      </c>
-      <c r="S11" t="s">
-        <v>141</v>
-      </c>
-      <c r="U11" t="s">
-        <v>160</v>
-      </c>
-      <c r="V11" t="s">
-        <v>190</v>
-      </c>
-      <c r="W11" t="s">
-        <v>159</v>
-      </c>
-      <c r="X11" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE11" t="s">
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>191</v>
+      </c>
+      <c r="BK11" t="s">
         <v>195</v>
       </c>
-      <c r="AF11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>159</v>
-      </c>
       <c r="BL11" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="BM11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BN11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BO11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BP11" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ11" t="s">
-        <v>198</v>
+        <v>174</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>205</v>
       </c>
       <c r="BS11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BT11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BU11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BV11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BW11" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>209</v>
       </c>
       <c r="BY11" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="BZ11" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="CA11" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="CC11">
         <v>0</v>
@@ -4255,18 +4099,6 @@
       <c r="CF11">
         <v>0</v>
       </c>
-      <c r="CG11" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>190</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>159</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>193</v>
-      </c>
       <c r="CK11">
         <v>0</v>
       </c>
@@ -4298,639 +4130,645 @@
         <v>0</v>
       </c>
       <c r="DA11" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="DN11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="DO11" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="DP11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DQ11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DR11" t="s">
+        <v>161</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>161</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW11" t="s">
         <v>164</v>
       </c>
-      <c r="DS11">
-        <v>0</v>
-      </c>
-      <c r="DT11" t="s">
-        <v>172</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>172</v>
-      </c>
-      <c r="DV11" t="s">
-        <v>164</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>188</v>
-      </c>
       <c r="DX11" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="DY11" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="DZ11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="EA11">
         <v>0</v>
       </c>
+      <c r="EB11" t="s">
+        <v>219</v>
+      </c>
       <c r="EC11" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED11" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>219</v>
       </c>
       <c r="EF11" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG11" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EH11" t="s">
+        <v>219</v>
       </c>
       <c r="EI11" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ11" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL11" t="s">
-        <v>214</v>
-      </c>
-      <c r="EM11" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO11" t="s">
-        <v>214</v>
-      </c>
-      <c r="EP11" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER11" t="s">
-        <v>214</v>
-      </c>
-      <c r="ES11" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EK11" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN11" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>219</v>
       </c>
       <c r="ET11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="EU11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EV11" t="s">
-        <v>172</v>
-      </c>
-      <c r="EW11" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="EX11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:155">
+      <c r="A12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="J12" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" t="s">
+        <v>172</v>
+      </c>
+      <c r="M12" t="s">
+        <v>173</v>
+      </c>
+      <c r="N12" t="s">
+        <v>173</v>
       </c>
       <c r="O12" t="s">
-        <v>172</v>
+        <v>174</v>
+      </c>
+      <c r="P12" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>159</v>
+      </c>
+      <c r="R12" t="s">
+        <v>181</v>
       </c>
       <c r="S12" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="U12" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="V12" t="s">
+        <v>194</v>
+      </c>
+      <c r="X12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>194</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>196</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DD12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>173</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP12" t="s">
+        <v>196</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW12" t="s">
         <v>191</v>
       </c>
-      <c r="X12" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BD12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>191</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BS12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BZ12" t="s">
-        <v>191</v>
-      </c>
-      <c r="CB12" t="s">
-        <v>190</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CE12">
-        <v>0</v>
-      </c>
-      <c r="CF12">
-        <v>0</v>
-      </c>
-      <c r="CK12">
-        <v>0</v>
-      </c>
-      <c r="CM12">
-        <v>0</v>
-      </c>
-      <c r="CN12">
-        <v>0</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
-      </c>
-      <c r="CQ12">
-        <v>0</v>
-      </c>
-      <c r="CR12">
-        <v>0</v>
-      </c>
-      <c r="CS12">
-        <v>0</v>
-      </c>
-      <c r="CT12">
-        <v>0</v>
-      </c>
-      <c r="CU12">
-        <v>0</v>
-      </c>
-      <c r="CV12">
-        <v>0</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>172</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>193</v>
-      </c>
-      <c r="DB12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DF12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>193</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DR12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS12">
-        <v>0</v>
-      </c>
-      <c r="DT12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DU12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>162</v>
-      </c>
       <c r="DX12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="DY12" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="DZ12" t="s">
-        <v>188</v>
+        <v>217</v>
       </c>
       <c r="EA12">
         <v>0</v>
       </c>
       <c r="EB12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EC12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ED12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EE12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EF12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EG12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EH12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EI12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EJ12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EK12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EL12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EN12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EO12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="EQ12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ER12" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ET12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="EU12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EV12" t="s">
-        <v>171</v>
+        <v>173</v>
+      </c>
+      <c r="EW12" t="s">
+        <v>225</v>
       </c>
       <c r="EX12" t="s">
-        <v>144</v>
-      </c>
-      <c r="EY12" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:155">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I13" t="s">
         <v>166</v>
       </c>
       <c r="J13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K13" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S13" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U13" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="V13" t="s">
+        <v>193</v>
+      </c>
+      <c r="W13" t="s">
         <v>162</v>
       </c>
-      <c r="W13" t="s">
-        <v>191</v>
-      </c>
       <c r="X13" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD13" t="s">
         <v>193</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>193</v>
+      </c>
+      <c r="BK13" t="s">
         <v>162</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="BL13" t="s">
         <v>196</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="BM13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>174</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH13" t="s">
         <v>193</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>190</v>
-      </c>
-      <c r="BJ13" t="s">
+      <c r="CI13" t="s">
         <v>162</v>
       </c>
-      <c r="BK13" t="s">
-        <v>191</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>193</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>171</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>172</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>207</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>172</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>172</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>172</v>
-      </c>
-      <c r="CB13" t="s">
-        <v>172</v>
-      </c>
-      <c r="CC13">
-        <v>0</v>
-      </c>
-      <c r="CD13" t="s">
-        <v>172</v>
-      </c>
-      <c r="CE13">
-        <v>0</v>
-      </c>
-      <c r="CF13">
-        <v>0</v>
-      </c>
-      <c r="CG13" t="s">
-        <v>190</v>
-      </c>
-      <c r="CH13" t="s">
-        <v>188</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>191</v>
-      </c>
       <c r="CJ13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="CK13">
         <v>0</v>
       </c>
-      <c r="CL13" t="s">
-        <v>171</v>
-      </c>
       <c r="CM13">
         <v>0</v>
       </c>
@@ -4940,9 +4778,6 @@
       <c r="CO13">
         <v>0</v>
       </c>
-      <c r="CP13" t="s">
-        <v>197</v>
-      </c>
       <c r="CQ13">
         <v>0</v>
       </c>
@@ -4962,19 +4797,19 @@
         <v>0</v>
       </c>
       <c r="DA13" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="DN13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="DO13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="DP13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DQ13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DR13" t="s">
         <v>166</v>
@@ -4983,420 +4818,1308 @@
         <v>0</v>
       </c>
       <c r="DT13" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="DU13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="DV13" t="s">
-        <v>210</v>
+        <v>166</v>
       </c>
       <c r="DW13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="DX13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="DY13" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="DZ13" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="EA13">
         <v>0</v>
       </c>
+      <c r="EB13" t="s">
+        <v>219</v>
+      </c>
       <c r="EC13" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>219</v>
       </c>
       <c r="EF13" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EH13" t="s">
+        <v>219</v>
       </c>
       <c r="EI13" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ13" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EK13" t="s">
+        <v>219</v>
       </c>
       <c r="EM13" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EN13" t="s">
+        <v>219</v>
       </c>
       <c r="EP13" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER13" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+      <c r="EQ13" t="s">
+        <v>219</v>
       </c>
       <c r="ES13" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="ET13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="EU13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EV13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="EW13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="EX13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:155">
       <c r="D14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" t="s">
+        <v>167</v>
+      </c>
+      <c r="O14" t="s">
+        <v>174</v>
+      </c>
+      <c r="S14" t="s">
+        <v>186</v>
+      </c>
+      <c r="U14" t="s">
+        <v>192</v>
+      </c>
+      <c r="V14" t="s">
+        <v>194</v>
+      </c>
+      <c r="X14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>194</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>192</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>194</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CT14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CV14">
+        <v>0</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>174</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>196</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>196</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>167</v>
+      </c>
+      <c r="DS14">
+        <v>0</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>167</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>164</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>196</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>164</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>191</v>
+      </c>
+      <c r="EA14">
+        <v>0</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>219</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>219</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>167</v>
+      </c>
+      <c r="EU14" t="s">
+        <v>174</v>
+      </c>
+      <c r="EV14" t="s">
+        <v>173</v>
+      </c>
+      <c r="EX14" t="s">
+        <v>146</v>
+      </c>
+      <c r="EY14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:155">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N15" t="s">
+        <v>173</v>
+      </c>
+      <c r="O15" t="s">
+        <v>174</v>
+      </c>
+      <c r="P15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>159</v>
+      </c>
+      <c r="R15" t="s">
+        <v>183</v>
+      </c>
+      <c r="S15" t="s">
+        <v>144</v>
+      </c>
+      <c r="U15" t="s">
+        <v>193</v>
+      </c>
+      <c r="V15" t="s">
+        <v>164</v>
+      </c>
+      <c r="W15" t="s">
+        <v>194</v>
+      </c>
+      <c r="X15" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>164</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>173</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>211</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>174</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>174</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>191</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15">
+        <v>0</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CV15">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>194</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>173</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>196</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>168</v>
+      </c>
+      <c r="DS15">
+        <v>0</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>200</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>174</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>216</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>196</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>194</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>194</v>
+      </c>
+      <c r="EA15">
+        <v>0</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EP15" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ15" t="s">
+        <v>219</v>
+      </c>
+      <c r="ES15" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET15" t="s">
+        <v>222</v>
+      </c>
+      <c r="EU15" t="s">
+        <v>174</v>
+      </c>
+      <c r="EV15" t="s">
+        <v>174</v>
+      </c>
+      <c r="EW15" t="s">
+        <v>227</v>
+      </c>
+      <c r="EX15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:155">
+      <c r="D16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>174</v>
+      </c>
+      <c r="S16" t="s">
+        <v>187</v>
+      </c>
+      <c r="U16" t="s">
+        <v>159</v>
+      </c>
+      <c r="V16" t="s">
+        <v>193</v>
+      </c>
+      <c r="W16" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>193</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>192</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>138</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>192</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>174</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16">
+        <v>0</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>173</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>196</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DJ16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP16" t="s">
+        <v>200</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS16">
+        <v>0</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>196</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>215</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>191</v>
+      </c>
+      <c r="DX16" t="s">
+        <v>200</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>196</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>173</v>
+      </c>
+      <c r="EA16">
+        <v>0</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>219</v>
+      </c>
+      <c r="ED16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EG16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EJ16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EL16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EM16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EO16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EP16" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ16" t="s">
+        <v>219</v>
+      </c>
+      <c r="ER16" t="s">
+        <v>219</v>
+      </c>
+      <c r="ES16" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET16" t="s">
+        <v>165</v>
+      </c>
+      <c r="EU16" t="s">
+        <v>174</v>
+      </c>
+      <c r="EV16" t="s">
+        <v>173</v>
+      </c>
+      <c r="EX16" t="s">
+        <v>146</v>
+      </c>
+      <c r="EY16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="4:154">
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
+        <v>155</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="O17" t="s">
+        <v>174</v>
+      </c>
+      <c r="S17" t="s">
+        <v>139</v>
+      </c>
+      <c r="U17" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BU17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>137</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>174</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17">
+        <v>0</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CV17">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="s">
+        <v>191</v>
+      </c>
+      <c r="DN17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>214</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>159</v>
+      </c>
+      <c r="DS17">
+        <v>0</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>196</v>
+      </c>
+      <c r="DX17" t="s">
+        <v>174</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>200</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>196</v>
+      </c>
+      <c r="EA17">
+        <v>0</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EI17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EK17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN17" t="s">
+        <v>219</v>
+      </c>
+      <c r="EQ17" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET17" t="s">
+        <v>191</v>
+      </c>
+      <c r="EU17" t="s">
+        <v>174</v>
+      </c>
+      <c r="EV17" t="s">
+        <v>174</v>
+      </c>
+      <c r="EX17" t="s">
         <v>145</v>
-      </c>
-      <c r="H14" t="s">
-        <v>153</v>
-      </c>
-      <c r="I14" t="s">
-        <v>163</v>
-      </c>
-      <c r="O14" t="s">
-        <v>172</v>
-      </c>
-      <c r="S14" t="s">
-        <v>185</v>
-      </c>
-      <c r="U14" t="s">
-        <v>160</v>
-      </c>
-      <c r="V14" t="s">
-        <v>190</v>
-      </c>
-      <c r="W14" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>172</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BG14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>190</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>189</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>193</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>160</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>189</v>
-      </c>
-      <c r="CC14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>0</v>
-      </c>
-      <c r="CF14">
-        <v>0</v>
-      </c>
-      <c r="CH14" t="s">
-        <v>172</v>
-      </c>
-      <c r="CK14">
-        <v>0</v>
-      </c>
-      <c r="CM14">
-        <v>0</v>
-      </c>
-      <c r="CN14">
-        <v>0</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
-      </c>
-      <c r="CP14" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ14">
-        <v>0</v>
-      </c>
-      <c r="CR14">
-        <v>0</v>
-      </c>
-      <c r="CS14">
-        <v>0</v>
-      </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>0</v>
-      </c>
-      <c r="CV14">
-        <v>0</v>
-      </c>
-      <c r="CX14" t="s">
-        <v>171</v>
-      </c>
-      <c r="CZ14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DB14" t="s">
-        <v>193</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DF14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DH14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DJ14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DM14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DN14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DP14" t="s">
-        <v>197</v>
-      </c>
-      <c r="DQ14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DR14" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS14">
-        <v>0</v>
-      </c>
-      <c r="DT14" t="s">
-        <v>193</v>
-      </c>
-      <c r="DU14" t="s">
-        <v>209</v>
-      </c>
-      <c r="DV14" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW14" t="s">
-        <v>188</v>
-      </c>
-      <c r="DX14" t="s">
-        <v>197</v>
-      </c>
-      <c r="DY14" t="s">
-        <v>193</v>
-      </c>
-      <c r="DZ14" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA14">
-        <v>0</v>
-      </c>
-      <c r="EB14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EC14" t="s">
-        <v>214</v>
-      </c>
-      <c r="ED14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EE14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EF14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EG14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EI14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EJ14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EK14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EL14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EM14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EN14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EO14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EP14" t="s">
-        <v>214</v>
-      </c>
-      <c r="EQ14" t="s">
-        <v>214</v>
-      </c>
-      <c r="ER14" t="s">
-        <v>214</v>
-      </c>
-      <c r="ES14" t="s">
-        <v>214</v>
-      </c>
-      <c r="ET14" t="s">
-        <v>163</v>
-      </c>
-      <c r="EU14" t="s">
-        <v>172</v>
-      </c>
-      <c r="EV14" t="s">
-        <v>171</v>
-      </c>
-      <c r="EX14" t="s">
-        <v>144</v>
-      </c>
-      <c r="EY14" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5406,7 +6129,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5455,37 +6178,13 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" t="s">
-        <v>198</v>
-      </c>
-      <c r="L2" t="s">
-        <v>217</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -5493,151 +6192,189 @@
         <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
         <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" t="s">
+        <v>175</v>
+      </c>
+      <c r="I6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" t="s">
         <v>144</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>146</v>
       </c>
-      <c r="E6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="D7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" t="s">
         <v>170</v>
       </c>
-      <c r="H6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" t="s">
-        <v>198</v>
-      </c>
-      <c r="L6" t="s">
-        <v>221</v>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -5647,7 +6384,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5675,76 +6412,76 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
         <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5752,59 +6489,59 @@
         <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5812,79 +6549,99 @@
         <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
         <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
         <v>144</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="E12" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" t="s">
-        <v>207</v>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F13" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8700"/>
+    <workbookView windowWidth="22188" windowHeight="8700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="176">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -436,6 +436,9 @@
     <t>year</t>
   </si>
   <si>
+    <t>facilityType</t>
+  </si>
+  <si>
     <t>MBERENGWA</t>
   </si>
   <si>
@@ -460,33 +463,36 @@
     <t>January</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>MNENE - 101029 - MISSION HOSPITAL</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Mnene Hospital</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>MNENE - 101029 - MISSION HOSPITAL</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Mnene Hospital</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>GOKWE SOUTH</t>
   </si>
   <si>
@@ -496,6 +502,9 @@
     <t>Jiri/ndoza Clinic</t>
   </si>
   <si>
+    <t>Outreach</t>
+  </si>
+  <si>
     <t>Jahana Clinic</t>
   </si>
   <si>
@@ -505,6 +514,12 @@
     <t>Huchu Clinic</t>
   </si>
   <si>
+    <t>Client had elevated BP</t>
+  </si>
+  <si>
+    <t>Hypertensive</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
@@ -538,16 +553,10 @@
     <t>Client jad elavated BP</t>
   </si>
   <si>
-    <t>Hypertensive</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>00234</t>
-  </si>
-  <si>
-    <t>Client had elevated BP</t>
   </si>
 </sst>
 </file>
@@ -1542,18 +1551,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:FA7"/>
+  <dimension ref="A1:EF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
-  <cols>
-    <col min="8" max="8" width="37.4444444444444" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:157">
+    <row r="1" spans="1:136">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1612,2008 +1618,2031 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="CC1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="CE1" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="CK1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="CL1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="CM1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="CX1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="CY1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="CZ1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="DA1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="DB1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="DC1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="DD1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="DE1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="DJ1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="DM1" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="DN1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="DO1" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="DP1" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="DQ1" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="DR1" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="DS1" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="DT1" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="DU1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="DV1" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="DW1" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="DX1" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="DY1" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="DZ1" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="EA1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="EB1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="EC1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="ED1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="ET1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EU1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EV1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="EW1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EY1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EZ1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="FA1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
-    <row r="2" spans="4:157">
+    <row r="2" spans="4:136">
       <c r="D2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" t="s">
+        <v>140</v>
+      </c>
+      <c r="U2" t="s">
+        <v>141</v>
+      </c>
+      <c r="V2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>141</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO2" t="s">
         <v>138</v>
       </c>
-      <c r="S2" t="s">
-        <v>139</v>
-      </c>
-      <c r="T2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U2" t="s">
-        <v>139</v>
-      </c>
-      <c r="V2" t="s">
-        <v>139</v>
-      </c>
-      <c r="X2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>138</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
-      </c>
-      <c r="CF2">
-        <v>0</v>
-      </c>
-      <c r="CG2">
-        <v>0</v>
-      </c>
-      <c r="CH2">
-        <v>0</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>141</v>
-      </c>
-      <c r="CL2">
-        <v>0</v>
-      </c>
-      <c r="CM2">
-        <v>0</v>
-      </c>
-      <c r="CN2">
-        <v>0</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>0</v>
-      </c>
-      <c r="CQ2">
-        <v>0</v>
-      </c>
-      <c r="CR2">
-        <v>0</v>
-      </c>
-      <c r="CS2">
-        <v>0</v>
-      </c>
-      <c r="CT2">
-        <v>0</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CX2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
+      <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="DR2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="DS2" t="s">
         <v>138</v>
       </c>
       <c r="DT2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="DU2" t="s">
-        <v>137</v>
-      </c>
-      <c r="DV2">
-        <v>0</v>
+        <v>139</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>139</v>
       </c>
       <c r="DW2" t="s">
-        <v>138</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>138</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>137</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
       </c>
       <c r="EA2" t="s">
         <v>138</v>
       </c>
       <c r="EB2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EC2" t="s">
-        <v>141</v>
-      </c>
-      <c r="ED2">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="EE2" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="4:136">
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" t="s">
+        <v>148</v>
+      </c>
+      <c r="U3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V3" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS3" t="s">
         <v>143</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="BT3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>139</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>142</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>147</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>139</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>151</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>152</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>147</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>152</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="4:136">
+      <c r="D4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O4" t="s">
+        <v>139</v>
+      </c>
+      <c r="S4" t="s">
+        <v>156</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS4" t="s">
         <v>143</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="4:136">
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5" t="s">
+        <v>139</v>
+      </c>
+      <c r="S5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" t="s">
+        <v>142</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS5" t="s">
         <v>143</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="BT5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>142</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>142</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>139</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>142</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="4:136">
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" t="s">
+        <v>155</v>
+      </c>
+      <c r="O6" t="s">
+        <v>139</v>
+      </c>
+      <c r="S6" t="s">
+        <v>159</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS6" t="s">
         <v>143</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="4:136">
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
         <v>143</v>
       </c>
-      <c r="EL2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>143</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>143</v>
-      </c>
-      <c r="ET2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>143</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>137</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>138</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>138</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="4:157">
-      <c r="D3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" t="s">
-        <v>145</v>
-      </c>
-      <c r="I3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" t="s">
-        <v>138</v>
-      </c>
-      <c r="T3" t="s">
-        <v>147</v>
-      </c>
-      <c r="V3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>138</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>148</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>149</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CX3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DV3">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>138</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>150</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>141</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>141</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>151</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>143</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>143</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>143</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>146</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>138</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>151</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="4:157">
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V4" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>138</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>142</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4">
-        <v>0</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CX4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>138</v>
-      </c>
-      <c r="DV4">
-        <v>0</v>
-      </c>
-      <c r="ED4">
-        <v>0</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="4:157">
-      <c r="D5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" t="s">
-        <v>141</v>
-      </c>
-      <c r="O5" t="s">
-        <v>138</v>
-      </c>
-      <c r="T5" t="s">
-        <v>155</v>
-      </c>
-      <c r="V5" t="s">
-        <v>155</v>
-      </c>
-      <c r="X5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>141</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>138</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>142</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>138</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>141</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5">
-        <v>0</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CW5">
-        <v>0</v>
-      </c>
-      <c r="CX5">
-        <v>0</v>
-      </c>
-      <c r="CY5">
-        <v>0</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>138</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>138</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>138</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>138</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DV5">
-        <v>0</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>138</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>141</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>138</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>138</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>138</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>138</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>138</v>
-      </c>
-      <c r="ED5">
-        <v>0</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>143</v>
-      </c>
-      <c r="ET5" t="s">
-        <v>143</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>141</v>
-      </c>
-      <c r="EX5" t="s">
-        <v>138</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>138</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="4:157">
-      <c r="D6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6" t="s">
-        <v>153</v>
-      </c>
-      <c r="O6" t="s">
-        <v>138</v>
-      </c>
-      <c r="T6" t="s">
-        <v>156</v>
-      </c>
-      <c r="V6" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>142</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
-      <c r="CF6">
-        <v>0</v>
-      </c>
-      <c r="CG6">
-        <v>0</v>
-      </c>
-      <c r="CH6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6">
-        <v>0</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CX6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>138</v>
-      </c>
-      <c r="DV6">
-        <v>0</v>
-      </c>
-      <c r="ED6">
-        <v>0</v>
-      </c>
-      <c r="FA6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:157">
-      <c r="A7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E7" t="s">
-        <v>142</v>
-      </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
         <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" t="s">
+        <v>149</v>
+      </c>
+      <c r="O7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S7" t="s">
         <v>160</v>
       </c>
-      <c r="L7" t="s">
+      <c r="U7" t="s">
+        <v>149</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR7" t="s">
         <v>161</v>
       </c>
-      <c r="M7" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" t="s">
-        <v>151</v>
-      </c>
-      <c r="O7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="BS7" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>152</v>
+      </c>
+      <c r="BU7" t="s">
         <v>162</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="BV7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CL7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>149</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>139</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>142</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>149</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>139</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:136">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" t="s">
         <v>163</v>
       </c>
-      <c r="R7" t="s">
+      <c r="J8" t="s">
         <v>164</v>
       </c>
-      <c r="T7" t="s">
+      <c r="K8" t="s">
+        <v>165</v>
+      </c>
+      <c r="L8" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" t="s">
+        <v>152</v>
+      </c>
+      <c r="N8" t="s">
+        <v>152</v>
+      </c>
+      <c r="O8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>168</v>
+      </c>
+      <c r="R8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S8" t="s">
+        <v>160</v>
+      </c>
+      <c r="U8" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" t="s">
+        <v>170</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>143</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>152</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>162</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>0</v>
+      </c>
+      <c r="BZ8">
+        <v>0</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CG8">
+        <v>0</v>
+      </c>
+      <c r="CH8">
+        <v>0</v>
+      </c>
+      <c r="CI8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CQ8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>168</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>152</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>171</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>163</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>139</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>147</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>171</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>149</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>149</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>174</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>139</v>
+      </c>
+      <c r="EC8" t="s">
+        <v>139</v>
+      </c>
+      <c r="ED8" t="s">
+        <v>175</v>
+      </c>
+      <c r="EE8" t="s">
+        <v>144</v>
+      </c>
+      <c r="EF8" t="s">
         <v>157</v>
-      </c>
-      <c r="V7" t="s">
-        <v>157</v>
-      </c>
-      <c r="X7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>148</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>167</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>168</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>142</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>142</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>151</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>169</v>
-      </c>
-      <c r="CB7" t="s">
-        <v>148</v>
-      </c>
-      <c r="CC7" t="s">
-        <v>163</v>
-      </c>
-      <c r="CD7">
-        <v>0</v>
-      </c>
-      <c r="CE7">
-        <v>0</v>
-      </c>
-      <c r="CF7">
-        <v>0</v>
-      </c>
-      <c r="CG7">
-        <v>0</v>
-      </c>
-      <c r="CH7">
-        <v>0</v>
-      </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CL7">
-        <v>0</v>
-      </c>
-      <c r="CM7">
-        <v>0</v>
-      </c>
-      <c r="CN7">
-        <v>0</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>0</v>
-      </c>
-      <c r="CQ7">
-        <v>0</v>
-      </c>
-      <c r="CR7">
-        <v>0</v>
-      </c>
-      <c r="CS7">
-        <v>0</v>
-      </c>
-      <c r="CT7">
-        <v>0</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CW7">
-        <v>0</v>
-      </c>
-      <c r="CX7">
-        <v>0</v>
-      </c>
-      <c r="CY7">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>163</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>151</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>166</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>138</v>
-      </c>
-      <c r="DT7" t="s">
-        <v>138</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>158</v>
-      </c>
-      <c r="DV7">
-        <v>0</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>138</v>
-      </c>
-      <c r="DX7" t="s">
-        <v>158</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>138</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>146</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>166</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>148</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>148</v>
-      </c>
-      <c r="ED7">
-        <v>0</v>
-      </c>
-      <c r="EE7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EK7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EN7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>143</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>143</v>
-      </c>
-      <c r="EW7" t="s">
-        <v>170</v>
-      </c>
-      <c r="EX7" t="s">
-        <v>138</v>
-      </c>
-      <c r="EY7" t="s">
-        <v>138</v>
-      </c>
-      <c r="EZ7" t="s">
-        <v>171</v>
-      </c>
-      <c r="FA7" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3673,78 +3702,78 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="L3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3758,11 +3787,15 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -3786,82 +3819,82 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
         <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
         <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="169">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -2021,7 +2021,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2100,44 +2100,6 @@
         <v>159</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" t="s">
-        <v>159</v>
-      </c>
-      <c r="L3" t="s">
         <v>165</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="173">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -441,6 +441,9 @@
     <t>MUSUME - 101157 - MISSION HOSPITAL</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
@@ -471,19 +474,22 @@
     <t>2025-01-24</t>
   </si>
   <si>
+    <t>Mponjani Clinic</t>
+  </si>
+  <si>
     <t>Mazivofa Clinic</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>10</t>
+    <t>5</t>
   </si>
   <si>
     <t>23</t>
@@ -495,16 +501,22 @@
     <t>2</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>Surgical</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
   <si>
     <t>OK</t>
@@ -880,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF3"/>
+  <dimension ref="A1:EF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1316,17 +1328,17 @@
         <v>141</v>
       </c>
       <c r="O2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" t="s">
         <v>147</v>
       </c>
-      <c r="S2" t="s">
-        <v>151</v>
-      </c>
-      <c r="U2" t="s">
-        <v>152</v>
-      </c>
-      <c r="V2" t="s">
-        <v>153</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
@@ -1346,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="AD2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -1369,98 +1381,53 @@
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AS2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>147</v>
       </c>
-      <c r="AL2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>147</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>155</v>
-      </c>
       <c r="BK2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BL2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BM2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BN2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BO2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BP2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BR2">
         <v>0</v>
@@ -1469,17 +1436,17 @@
         <v>136</v>
       </c>
       <c r="BT2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BW2" t="s">
         <v>147</v>
       </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>153</v>
-      </c>
       <c r="BX2">
         <v>0</v>
       </c>
@@ -1498,8 +1465,8 @@
       <c r="CC2">
         <v>0</v>
       </c>
-      <c r="CE2" t="s">
-        <v>158</v>
+      <c r="CD2" t="s">
+        <v>148</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -1519,8 +1486,8 @@
       <c r="CK2">
         <v>0</v>
       </c>
-      <c r="CL2">
-        <v>0</v>
+      <c r="CL2" t="s">
+        <v>163</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -1543,41 +1510,23 @@
       <c r="CS2">
         <v>0</v>
       </c>
-      <c r="CU2" t="s">
-        <v>147</v>
-      </c>
-      <c r="CW2" t="s">
+      <c r="CT2" t="s">
         <v>157</v>
       </c>
-      <c r="CY2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>147</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>147</v>
+      <c r="CV2" t="s">
+        <v>148</v>
       </c>
       <c r="DK2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DL2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DM2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DN2" t="s">
         <v>157</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>147</v>
       </c>
       <c r="DO2" t="s">
         <v>141</v>
@@ -1586,61 +1535,46 @@
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="DR2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="DS2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="DT2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DU2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DV2" t="s">
         <v>157</v>
       </c>
-      <c r="DV2" t="s">
-        <v>162</v>
-      </c>
       <c r="DW2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
-      <c r="DY2" t="s">
-        <v>163</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>163</v>
-      </c>
       <c r="EA2" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="EB2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EC2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="EE2" t="s">
         <v>138</v>
       </c>
       <c r="EF2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:136">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
       <c r="D3" t="s">
         <v>139</v>
       </c>
@@ -1659,38 +1593,14 @@
       <c r="I3" t="s">
         <v>142</v>
       </c>
-      <c r="J3" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" t="s">
-        <v>145</v>
-      </c>
-      <c r="M3" t="s">
-        <v>146</v>
-      </c>
-      <c r="N3" t="s">
-        <v>146</v>
-      </c>
       <c r="O3" t="s">
-        <v>147</v>
-      </c>
-      <c r="P3" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>149</v>
-      </c>
-      <c r="R3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="S3" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="U3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="V3" t="s">
         <v>154</v>
@@ -1714,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="AD3" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1738,40 +1648,34 @@
         <v>0</v>
       </c>
       <c r="AK3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AL3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AM3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AO3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AP3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AQ3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AU3">
         <v>0</v>
       </c>
       <c r="AV3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AW3">
         <v>0</v>
@@ -1786,55 +1690,52 @@
         <v>0</v>
       </c>
       <c r="BA3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BB3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BC3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BD3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BE3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BF3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BG3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BH3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BI3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="BJ3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="BK3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BL3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BM3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BN3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BO3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="BP3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="BR3">
         <v>0</v>
@@ -1843,16 +1744,16 @@
         <v>136</v>
       </c>
       <c r="BT3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BU3">
         <v>0</v>
       </c>
       <c r="BV3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="BW3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="BX3">
         <v>0</v>
@@ -1872,11 +1773,8 @@
       <c r="CC3">
         <v>0</v>
       </c>
-      <c r="CD3" t="s">
-        <v>152</v>
-      </c>
       <c r="CE3" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1896,9 +1794,6 @@
       <c r="CK3">
         <v>0</v>
       </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
       <c r="CM3">
         <v>0</v>
       </c>
@@ -1921,43 +1816,40 @@
         <v>0</v>
       </c>
       <c r="CU3" t="s">
-        <v>147</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="CW3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CY3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DA3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DC3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DE3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DG3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DJ3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DK3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="DL3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="DM3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DN3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="DO3" t="s">
         <v>142</v>
@@ -1966,52 +1858,426 @@
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
+        <v>148</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>160</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>159</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>167</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>167</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>148</v>
+      </c>
+      <c r="EC3" t="s">
         <v>147</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>147</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>149</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>155</v>
-      </c>
-      <c r="DX3">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>163</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>164</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>147</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>146</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>165</v>
       </c>
       <c r="EE3" t="s">
         <v>138</v>
       </c>
       <c r="EF3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:136">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>150</v>
+      </c>
+      <c r="R4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" t="s">
+        <v>137</v>
+      </c>
+      <c r="U4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V4" t="s">
+        <v>156</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>156</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>160</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>155</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>160</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>147</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>147</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>160</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>148</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU4" t="s">
         <v>166</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>160</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>141</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>167</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>167</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>168</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>148</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>147</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>169</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>138</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2079,28 +2345,28 @@
         <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2150,10 +2416,10 @@
         <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="181">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -429,18 +429,33 @@
     <t>January</t>
   </si>
   <si>
+    <t>Brandon</t>
+  </si>
+  <si>
     <t>Chidembeko Clinic</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
+    <t>GURUVE</t>
+  </si>
+  <si>
     <t>MBERENGWA</t>
   </si>
   <si>
+    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
     <t>MUSUME - 101157 - MISSION HOSPITAL</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -450,12 +465,18 @@
     <t>36</t>
   </si>
   <si>
+    <t>Client received AE management and is steadily healing at home</t>
+  </si>
+  <si>
     <t>Client is healing steadily at home</t>
   </si>
   <si>
     <t>Moderate</t>
   </si>
   <si>
+    <t>CL</t>
+  </si>
+  <si>
     <t>COA</t>
   </si>
   <si>
@@ -474,6 +495,12 @@
     <t>2025-01-24</t>
   </si>
   <si>
+    <t>Bakasa</t>
+  </si>
+  <si>
+    <t>Guruve District Hospital</t>
+  </si>
+  <si>
     <t>Mponjani Clinic</t>
   </si>
   <si>
@@ -489,24 +516,24 @@
     <t>24</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>Surgical</t>
   </si>
   <si>
+    <t>Client exhibited signs of fever</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -525,16 +552,13 @@
     <t>35</t>
   </si>
   <si>
+    <t>00002</t>
+  </si>
+  <si>
     <t>0003</t>
   </si>
   <si>
     <t>Outreach</t>
-  </si>
-  <si>
-    <t>Client exhibited signs of fever</t>
-  </si>
-  <si>
-    <t>OPD</t>
   </si>
 </sst>
 </file>
@@ -892,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF4"/>
+  <dimension ref="A1:EF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,143 +1333,212 @@
       </c>
     </row>
     <row r="2" spans="1:136">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
       <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" t="s">
         <v>139</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N2" t="s">
+        <v>154</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>155</v>
+      </c>
+      <c r="P2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" t="s">
+        <v>158</v>
       </c>
       <c r="S2" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" t="s">
+        <v>137</v>
+      </c>
+      <c r="V2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC2" t="s">
         <v>154</v>
       </c>
-      <c r="V2" t="s">
-        <v>147</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
+      <c r="BD2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>155</v>
       </c>
       <c r="BH2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BI2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="BJ2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="BK2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BL2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BM2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BN2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BO2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BP2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
+        <v>155</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>170</v>
       </c>
       <c r="BS2" t="s">
         <v>136</v>
       </c>
       <c r="BT2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>171</v>
       </c>
       <c r="BW2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -1465,9 +1558,6 @@
       <c r="CC2">
         <v>0</v>
       </c>
-      <c r="CD2" t="s">
-        <v>148</v>
-      </c>
       <c r="CF2">
         <v>0</v>
       </c>
@@ -1486,9 +1576,6 @@
       <c r="CK2">
         <v>0</v>
       </c>
-      <c r="CL2" t="s">
-        <v>163</v>
-      </c>
       <c r="CM2">
         <v>0</v>
       </c>
@@ -1510,100 +1597,109 @@
       <c r="CS2">
         <v>0</v>
       </c>
-      <c r="CT2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>148</v>
+      <c r="CU2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>155</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>155</v>
       </c>
       <c r="DK2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="DL2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="DM2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="DN2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="DO2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="DR2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="DS2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="DT2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="DU2" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="DV2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="DW2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
+      <c r="DY2" t="s">
+        <v>176</v>
+      </c>
       <c r="EA2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="EB2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="EC2" t="s">
-        <v>148</v>
+        <v>154</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>178</v>
       </c>
       <c r="EE2" t="s">
-        <v>138</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:136">
       <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="S3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="U3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1624,10 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -1647,36 +1740,9 @@
       <c r="AJ3">
         <v>0</v>
       </c>
-      <c r="AK3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>148</v>
-      </c>
       <c r="AU3">
         <v>0</v>
       </c>
-      <c r="AV3" t="s">
-        <v>148</v>
-      </c>
       <c r="AW3">
         <v>0</v>
       </c>
@@ -1689,71 +1755,41 @@
       <c r="AZ3">
         <v>0</v>
       </c>
-      <c r="BA3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>148</v>
-      </c>
       <c r="BH3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BI3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BJ3" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="BK3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BL3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BM3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BN3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BO3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BP3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="BS3" t="s">
         <v>136</v>
       </c>
       <c r="BT3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="BV3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="BX3">
         <v>0</v>
@@ -1773,9 +1809,6 @@
       <c r="CC3">
         <v>0</v>
       </c>
-      <c r="CE3" t="s">
-        <v>160</v>
-      </c>
       <c r="CF3">
         <v>0</v>
       </c>
@@ -1815,157 +1848,76 @@
       <c r="CS3">
         <v>0</v>
       </c>
-      <c r="CU3" t="s">
-        <v>148</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>159</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>148</v>
-      </c>
       <c r="DK3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="DL3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="DM3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="DN3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="DO3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="DP3">
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="DR3" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="DS3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="DT3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="DU3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="DV3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="DW3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="DX3">
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>167</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="EA3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="EB3" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="EC3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="EE3" t="s">
-        <v>138</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:136">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
       <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="O4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>150</v>
-      </c>
-      <c r="R4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="S4" t="s">
-        <v>137</v>
-      </c>
-      <c r="U4" t="s">
-        <v>155</v>
-      </c>
-      <c r="V4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1985,12 +1937,6 @@
       <c r="AB4">
         <v>0</v>
       </c>
-      <c r="AC4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>158</v>
-      </c>
       <c r="AE4">
         <v>0</v>
       </c>
@@ -2009,39 +1955,9 @@
       <c r="AJ4">
         <v>0</v>
       </c>
-      <c r="AK4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>147</v>
-      </c>
       <c r="AU4">
         <v>0</v>
       </c>
-      <c r="AV4" t="s">
-        <v>148</v>
-      </c>
       <c r="AW4">
         <v>0</v>
       </c>
@@ -2054,230 +1970,1034 @@
       <c r="AZ4">
         <v>0</v>
       </c>
-      <c r="BA4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>148</v>
-      </c>
       <c r="BI4" t="s">
         <v>155</v>
       </c>
       <c r="BJ4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BK4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BL4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BM4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BN4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BO4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="BP4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR4">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="BS4" t="s">
         <v>136</v>
       </c>
-      <c r="BT4" t="s">
-        <v>160</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="s">
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>155</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:136">
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O5" t="s">
+        <v>155</v>
+      </c>
+      <c r="S5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" t="s">
+        <v>163</v>
+      </c>
+      <c r="V5" t="s">
+        <v>154</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>155</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>172</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>155</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>155</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>155</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>144</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>172</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>173</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>155</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>144</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>155</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>144</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>144</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>155</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>155</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>139</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:136">
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" t="s">
+        <v>155</v>
+      </c>
+      <c r="S6" t="s">
+        <v>162</v>
+      </c>
+      <c r="U6" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" t="s">
+        <v>163</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>167</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>145</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>155</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>167</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>155</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>174</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>145</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>145</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>167</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>144</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>147</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>155</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>154</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>139</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:136">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" t="s">
         <v>148</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="J7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" t="s">
+        <v>158</v>
+      </c>
+      <c r="S7" t="s">
+        <v>138</v>
+      </c>
+      <c r="U7" t="s">
+        <v>164</v>
+      </c>
+      <c r="V7" t="s">
+        <v>165</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>169</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>155</v>
+      </c>
+      <c r="BX7">
+        <v>0</v>
+      </c>
+      <c r="BY7">
+        <v>0</v>
+      </c>
+      <c r="BZ7">
+        <v>0</v>
+      </c>
+      <c r="CA7">
+        <v>0</v>
+      </c>
+      <c r="CB7">
+        <v>0</v>
+      </c>
+      <c r="CC7">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>164</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>165</v>
+      </c>
+      <c r="CF7">
+        <v>0</v>
+      </c>
+      <c r="CG7">
+        <v>0</v>
+      </c>
+      <c r="CH7">
+        <v>0</v>
+      </c>
+      <c r="CI7">
+        <v>0</v>
+      </c>
+      <c r="CJ7">
+        <v>0</v>
+      </c>
+      <c r="CK7">
+        <v>0</v>
+      </c>
+      <c r="CM7">
+        <v>0</v>
+      </c>
+      <c r="CN7">
+        <v>0</v>
+      </c>
+      <c r="CO7">
+        <v>0</v>
+      </c>
+      <c r="CP7">
+        <v>0</v>
+      </c>
+      <c r="CQ7">
+        <v>0</v>
+      </c>
+      <c r="CR7">
+        <v>0</v>
+      </c>
+      <c r="CS7">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>155</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>165</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>145</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DC7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>154</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>154</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>145</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DO7" t="s">
         <v>148</v>
       </c>
-      <c r="BX4">
-        <v>0</v>
-      </c>
-      <c r="BY4">
-        <v>0</v>
-      </c>
-      <c r="BZ4">
-        <v>0</v>
-      </c>
-      <c r="CA4">
-        <v>0</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>155</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>156</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CU4" t="s">
+      <c r="DP7">
+        <v>0</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>155</v>
+      </c>
+      <c r="DS7" t="s">
         <v>148</v>
       </c>
-      <c r="CV4" t="s">
-        <v>156</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>160</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>147</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>147</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>160</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>143</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>148</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>143</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>166</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>160</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>141</v>
-      </c>
-      <c r="DX4">
-        <v>0</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>167</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>167</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>168</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>148</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>147</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>169</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>138</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>170</v>
+      <c r="DT7" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>175</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>145</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>146</v>
+      </c>
+      <c r="DX7">
+        <v>0</v>
+      </c>
+      <c r="DY7" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>155</v>
+      </c>
+      <c r="EC7" t="s">
+        <v>154</v>
+      </c>
+      <c r="ED7" t="s">
+        <v>179</v>
+      </c>
+      <c r="EE7" t="s">
+        <v>139</v>
+      </c>
+      <c r="EF7" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +3007,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2339,34 +3059,72 @@
         <v>137</v>
       </c>
       <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>139</v>
       </c>
-      <c r="E2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="D3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E3" t="s">
         <v>150</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F3" t="s">
         <v>151</v>
       </c>
-      <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="G3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" t="s">
         <v>169</v>
+      </c>
+      <c r="L3" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2407,19 +3165,19 @@
         <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" t="s">
         <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2427,33 +3185,33 @@
         <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="151">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -429,109 +429,46 @@
     <t>GURUVE</t>
   </si>
   <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Chipuriro</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
     <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Birkdale</t>
-  </si>
-  <si>
-    <t>Camsasa</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Client exhibited high fever symptoms</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>OPD</t>
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
-    <t>cancelthisAEReport</t>
-  </si>
-  <si>
-    <t>Client is steadily healing at home</t>
-  </si>
-  <si>
-    <t>Client received proper care and is healing</t>
-  </si>
-  <si>
-    <t>Severe</t>
-  </si>
-  <si>
-    <t>Moderate</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>COA</t>
-  </si>
-  <si>
-    <t>Nurse</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2025-01-27</t>
-  </si>
-  <si>
-    <t>2025-01-26</t>
-  </si>
-  <si>
-    <t>Surgical</t>
-  </si>
-  <si>
-    <t>00003</t>
-  </si>
-  <si>
-    <t>0006</t>
-  </si>
-  <si>
-    <t>question1_cancelthisReferralReport</t>
-  </si>
-  <si>
-    <t>Client exhibited signs of fever</t>
-  </si>
-  <si>
-    <t>Client had elavated BP</t>
-  </si>
-  <si>
-    <t>OPD</t>
-  </si>
-  <si>
-    <t>Hypertensive</t>
   </si>
 </sst>
 </file>
@@ -1318,215 +1255,215 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
       </c>
       <c r="H2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>138</v>
+      </c>
+      <c r="U2" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS2" t="s">
         <v>137</v>
-      </c>
-      <c r="I2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>140</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>141</v>
-      </c>
-      <c r="U2" t="s">
-        <v>143</v>
-      </c>
-      <c r="V2" t="s">
-        <v>144</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>147</v>
       </c>
       <c r="BT2" t="s">
         <v>148</v>
       </c>
-      <c r="BU2">
-        <v>0</v>
+      <c r="BU2" t="s">
+        <v>149</v>
       </c>
       <c r="BV2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="BW2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -1546,11 +1483,11 @@
       <c r="CC2">
         <v>0</v>
       </c>
-      <c r="CD2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>146</v>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -1570,6 +1507,9 @@
       <c r="CK2">
         <v>0</v>
       </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
       <c r="CM2">
         <v>0</v>
       </c>
@@ -1591,68 +1531,68 @@
       <c r="CS2">
         <v>0</v>
       </c>
-      <c r="CU2" t="s">
-        <v>140</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>146</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>140</v>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
       </c>
       <c r="DK2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="DL2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DM2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="DN2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DO2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DR2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="DS2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="DT2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="DU2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="DV2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="DW2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="DX2">
         <v>0</v>
@@ -1664,19 +1604,19 @@
         <v>150</v>
       </c>
       <c r="EA2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="EB2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="EC2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:136">
@@ -1692,20 +1632,11 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1723,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1735,11 +1666,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" t="s">
         <v>142</v>
       </c>
-      <c r="U3" t="s">
-        <v>139</v>
-      </c>
       <c r="W3">
         <v>0</v>
       </c>
@@ -1759,10 +1690,10 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1782,6 +1713,30 @@
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
       <c r="AT3">
         <v>0</v>
       </c>
@@ -1806,47 +1761,62 @@
       <c r="BA3">
         <v>0</v>
       </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
       <c r="BI3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="BJ3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BK3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BL3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BM3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BN3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BO3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BP3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
         <v>0</v>
       </c>
       <c r="BS3" t="s">
         <v>147</v>
       </c>
       <c r="BT3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="BV3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="BX3">
         <v>0</v>
@@ -1866,8 +1836,11 @@
       <c r="CC3">
         <v>0</v>
       </c>
-      <c r="CD3" t="s">
-        <v>140</v>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
       </c>
       <c r="CF3">
         <v>0</v>
@@ -1887,8 +1860,8 @@
       <c r="CK3">
         <v>0</v>
       </c>
-      <c r="CL3" t="s">
-        <v>145</v>
+      <c r="CL3">
+        <v>0</v>
       </c>
       <c r="CM3">
         <v>0</v>
@@ -1911,44 +1884,68 @@
       <c r="CS3">
         <v>0</v>
       </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
       <c r="DK3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DL3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DM3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DN3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DO3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="DP3">
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="DR3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="DS3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DT3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="DU3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DV3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="DW3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="DX3">
         <v>0</v>
@@ -1960,19 +1957,19 @@
         <v>150</v>
       </c>
       <c r="EA3" t="s">
+        <v>142</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>143</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="s">
         <v>139</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>140</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>140</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1982,13 +1979,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,144 +1999,65 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>151</v>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="F2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" t="s">
-        <v>160</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>164</v>
-      </c>
-      <c r="M2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H3" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K3" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
@@ -2150,13 +2068,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2167,76 +2085,33 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>139</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="154">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -441,31 +441,40 @@
     <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Bakasa</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Client exhibited high fever symptoms</t>
+  </si>
+  <si>
+    <t>OPD</t>
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>Client exhibited high fever symptoms</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>OPD</t>
   </si>
   <si>
     <t>OK</t>
@@ -1255,15 +1264,6 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
       <c r="H2" t="s">
         <v>140</v>
       </c>
@@ -1298,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V2" t="s">
-        <v>142</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="W2" t="s">
+        <v>148</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1328,13 +1328,13 @@
         <v>143</v>
       </c>
       <c r="AD2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AE2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
+        <v>149</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>148</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1351,29 +1351,29 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
+      <c r="AL2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>143</v>
       </c>
       <c r="AT2">
         <v>0</v>
@@ -1399,35 +1399,35 @@
       <c r="BA2">
         <v>0</v>
       </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
+      <c r="BB2" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>143</v>
       </c>
       <c r="BI2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BJ2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="BK2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="BL2" t="s">
         <v>143</v>
@@ -1446,28 +1446,22 @@
       </c>
       <c r="BQ2">
         <v>0</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>146</v>
       </c>
       <c r="BS2" t="s">
         <v>137</v>
       </c>
       <c r="BT2" t="s">
+        <v>143</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX2" t="s">
         <v>148</v>
       </c>
-      <c r="BU2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
       <c r="BY2">
         <v>0</v>
       </c>
@@ -1531,29 +1525,29 @@
       <c r="CS2">
         <v>0</v>
       </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CW2">
-        <v>0</v>
-      </c>
-      <c r="CY2">
-        <v>0</v>
-      </c>
-      <c r="DA2">
-        <v>0</v>
-      </c>
-      <c r="DC2">
-        <v>0</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DG2">
-        <v>0</v>
-      </c>
-      <c r="DJ2">
-        <v>0</v>
+      <c r="CU2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>145</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>143</v>
       </c>
       <c r="DK2" t="s">
         <v>143</v>
@@ -1562,7 +1556,7 @@
         <v>143</v>
       </c>
       <c r="DM2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="DN2" t="s">
         <v>143</v>
@@ -1583,25 +1577,25 @@
         <v>143</v>
       </c>
       <c r="DT2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="DU2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="DV2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="DW2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="DZ2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="EA2" t="s">
         <v>141</v>
@@ -1610,7 +1604,7 @@
         <v>143</v>
       </c>
       <c r="EC2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="ED2">
         <v>0</v>
@@ -1632,6 +1626,15 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
+      <c r="E3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
       <c r="H3" t="s">
         <v>140</v>
       </c>
@@ -1669,10 +1672,10 @@
         <v>138</v>
       </c>
       <c r="U3" t="s">
-        <v>142</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="V3" t="s">
+        <v>147</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1693,10 +1696,10 @@
         <v>143</v>
       </c>
       <c r="AD3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
+        <v>145</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>147</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1713,30 +1716,6 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
       <c r="AT3">
         <v>0</v>
       </c>
@@ -1759,34 +1738,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
         <v>0</v>
       </c>
       <c r="BI3" t="s">
         <v>145</v>
       </c>
       <c r="BJ3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="BK3" t="s">
         <v>143</v>
@@ -1809,18 +1767,24 @@
       <c r="BQ3">
         <v>0</v>
       </c>
+      <c r="BR3" t="s">
+        <v>150</v>
+      </c>
       <c r="BS3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW3" t="s">
         <v>147</v>
       </c>
-      <c r="BT3" t="s">
-        <v>143</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BX3">
-        <v>0</v>
-      </c>
       <c r="BY3">
         <v>0</v>
       </c>
@@ -1882,30 +1846,6 @@
         <v>0</v>
       </c>
       <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CW3">
-        <v>0</v>
-      </c>
-      <c r="CY3">
-        <v>0</v>
-      </c>
-      <c r="DA3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
         <v>0</v>
       </c>
       <c r="DK3" t="s">
@@ -1951,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="DZ3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="EA3" t="s">
         <v>142</v>
@@ -2108,10 +2048,10 @@
         <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -426,58 +426,64 @@
     <t>facilityType</t>
   </si>
   <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
     <t>GURUVE</t>
   </si>
   <si>
+    <t>TENGWE - 101886 - CLINIC</t>
+  </si>
+  <si>
+    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>Bakasa</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>February</t>
   </si>
   <si>
-    <t>Chipuriro</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Bakasa</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Client exhibited high fever symptoms</t>
-  </si>
-  <si>
-    <t>OPD</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>OK</t>
+    <t>Static</t>
   </si>
 </sst>
 </file>
@@ -1264,12 +1270,21 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" t="s">
         <v>140</v>
       </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -1286,29 +1301,23 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
         <v>143</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>144</v>
       </c>
       <c r="U2" t="s">
         <v>145</v>
       </c>
-      <c r="V2" t="s">
-        <v>146</v>
-      </c>
-      <c r="W2" t="s">
-        <v>148</v>
-      </c>
       <c r="X2">
         <v>0</v>
       </c>
@@ -1325,16 +1334,10 @@
         <v>0</v>
       </c>
       <c r="AC2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD2" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -1351,32 +1354,8 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AL2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>143</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
+      <c r="AT2" t="s">
+        <v>142</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1399,68 +1378,47 @@
       <c r="BA2">
         <v>0</v>
       </c>
-      <c r="BB2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>143</v>
-      </c>
       <c r="BI2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="BJ2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="BK2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="BL2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BM2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BN2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BO2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BP2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BQ2">
         <v>0</v>
       </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
       <c r="BS2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="BT2" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
       </c>
       <c r="BV2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="BY2">
         <v>0</v>
@@ -1525,92 +1483,68 @@
       <c r="CS2">
         <v>0</v>
       </c>
-      <c r="CU2" t="s">
-        <v>148</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>145</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>143</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>143</v>
+      <c r="CT2" t="s">
+        <v>142</v>
       </c>
       <c r="DK2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DL2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DM2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="DN2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="DO2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DR2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="DS2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DT2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="DU2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="DV2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="DW2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="DX2">
         <v>0</v>
       </c>
-      <c r="DY2" t="s">
-        <v>153</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>153</v>
-      </c>
       <c r="EA2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="EB2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="EC2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2" t="s">
-        <v>139</v>
+        <v>154</v>
+      </c>
+      <c r="EF2" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:136">
@@ -1624,22 +1558,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
         <v>137</v>
       </c>
-      <c r="F3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>139</v>
       </c>
-      <c r="H3" t="s">
-        <v>140</v>
-      </c>
       <c r="I3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1657,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1669,14 +1603,17 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="U3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="V3" t="s">
         <v>147</v>
       </c>
+      <c r="W3" t="s">
+        <v>148</v>
+      </c>
       <c r="X3">
         <v>0</v>
       </c>
@@ -1693,13 +1630,16 @@
         <v>0</v>
       </c>
       <c r="AC3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AE3" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>148</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -1716,8 +1656,29 @@
       <c r="AK3">
         <v>0</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
+      <c r="AL3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>142</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1740,152 +1701,200 @@
       <c r="BA3">
         <v>0</v>
       </c>
+      <c r="BB3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>142</v>
+      </c>
       <c r="BI3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BJ3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BK3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="BL3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BM3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BN3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BO3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BP3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BQ3">
         <v>0</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="s">
         <v>150</v>
       </c>
-      <c r="BS3" t="s">
-        <v>137</v>
-      </c>
       <c r="BT3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX3" t="s">
         <v>148</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>148</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>146</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DM3" t="s">
         <v>151</v>
       </c>
-      <c r="BV3" t="s">
-        <v>145</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>147</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>143</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>143</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>143</v>
-      </c>
       <c r="DN3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DO3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DP3">
         <v>0</v>
       </c>
       <c r="DQ3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DR3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="DS3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="DT3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="DU3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="DV3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="DW3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="DX3">
         <v>0</v>
@@ -1897,19 +1906,19 @@
         <v>153</v>
       </c>
       <c r="EA3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="EB3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="EC3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="ED3">
         <v>0</v>
       </c>
       <c r="EE3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1998,6 +2007,44 @@
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
@@ -2008,7 +2055,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2035,23 +2082,43 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="161">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -438,6 +438,9 @@
     <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
@@ -447,40 +450,52 @@
     <t>0</t>
   </si>
   <si>
+    <t>Chinhere clinic</t>
+  </si>
+  <si>
+    <t>Murambi</t>
+  </si>
+  <si>
+    <t>Masikati</t>
+  </si>
+  <si>
     <t>Tengwe Clinic</t>
   </si>
   <si>
     <t>Bakasa</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
     <t>February</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2025</t>
+  </si>
+  <si>
+    <t>Outreach</t>
   </si>
   <si>
     <t>Static</t>
@@ -841,7 +856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF3"/>
+  <dimension ref="A1:EF6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1282,9 +1297,6 @@
       <c r="H2" t="s">
         <v>138</v>
       </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
@@ -1301,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1313,10 +1325,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="s">
-        <v>143</v>
-      </c>
-      <c r="U2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1333,12 +1342,6 @@
       <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AC2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>142</v>
-      </c>
       <c r="AG2">
         <v>0</v>
       </c>
@@ -1354,15 +1357,6 @@
       <c r="AK2">
         <v>0</v>
       </c>
-      <c r="AT2" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
       <c r="AW2">
         <v>0</v>
       </c>
@@ -1379,28 +1373,28 @@
         <v>0</v>
       </c>
       <c r="BI2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BJ2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BK2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BL2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BM2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BN2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BO2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BP2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BQ2">
         <v>0</v>
@@ -1409,17 +1403,11 @@
         <v>0</v>
       </c>
       <c r="BS2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="BU2">
         <v>0</v>
       </c>
-      <c r="BV2" t="s">
-        <v>140</v>
-      </c>
       <c r="BY2">
         <v>0</v>
       </c>
@@ -1483,68 +1471,23 @@
       <c r="CS2">
         <v>0</v>
       </c>
-      <c r="CT2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>140</v>
-      </c>
       <c r="DO2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
-      <c r="DQ2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>140</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>142</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>142</v>
-      </c>
       <c r="DX2">
         <v>0</v>
       </c>
-      <c r="EA2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>142</v>
-      </c>
       <c r="ED2">
         <v>0</v>
       </c>
       <c r="EE2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="EF2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:136">
@@ -1558,367 +1501,1261 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U3" t="s">
+        <v>149</v>
+      </c>
+      <c r="V3" t="s">
+        <v>151</v>
+      </c>
+      <c r="W3" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>155</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0</v>
+      </c>
+      <c r="CI3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CQ3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>153</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>140</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>140</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX3">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>157</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>143</v>
+      </c>
+      <c r="ED3">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>158</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:136">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>146</v>
+      </c>
+      <c r="U4" t="s">
+        <v>150</v>
+      </c>
+      <c r="V4" t="s">
+        <v>149</v>
+      </c>
+      <c r="W4" t="s">
+        <v>152</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>155</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>143</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>143</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>140</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>140</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>140</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>143</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>158</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:136">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>155</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>141</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>141</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>143</v>
+      </c>
+      <c r="DX5">
+        <v>0</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>143</v>
+      </c>
+      <c r="ED5">
+        <v>0</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>158</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:136">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>137</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
         <v>139</v>
       </c>
-      <c r="I3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="I6" t="s">
         <v>142</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U3" t="s">
-        <v>146</v>
-      </c>
-      <c r="V3" t="s">
-        <v>147</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>148</v>
       </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="U6" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" t="s">
+        <v>150</v>
+      </c>
+      <c r="W6" t="s">
+        <v>152</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>155</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>154</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>152</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>149</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>151</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DO6" t="s">
         <v>142</v>
       </c>
-      <c r="AD3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>142</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>143</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>153</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>151</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DW6" t="s">
         <v>149</v>
       </c>
-      <c r="AF3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>156</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>156</v>
+      </c>
+      <c r="EA6" t="s">
         <v>142</v>
       </c>
-      <c r="AM3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BQ3">
-        <v>0</v>
-      </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>149</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY3">
-        <v>0</v>
-      </c>
-      <c r="BZ3">
-        <v>0</v>
-      </c>
-      <c r="CA3">
-        <v>0</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CQ3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>148</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>146</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>151</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>142</v>
-      </c>
-      <c r="DT3" t="s">
+      <c r="EB6" t="s">
+        <v>143</v>
+      </c>
+      <c r="EC6" t="s">
         <v>152</v>
       </c>
-      <c r="DU3" t="s">
-        <v>151</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>148</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>146</v>
-      </c>
-      <c r="DX3">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>153</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>153</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>141</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>142</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>148</v>
-      </c>
-      <c r="ED3">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>154</v>
+      <c r="ED6">
+        <v>0</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="182">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -429,118 +429,139 @@
     <t>HURUNGWE</t>
   </si>
   <si>
-    <t>GURUVE</t>
+    <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>TENGWE - 101886 - CLINIC</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Moy Clinic</t>
+  </si>
+  <si>
+    <t>Zebra downs Clinic</t>
+  </si>
+  <si>
+    <t>Helywin Clinic</t>
+  </si>
+  <si>
+    <t>Karoi District Hospital</t>
+  </si>
+  <si>
+    <t>Karuru Clinic</t>
+  </si>
+  <si>
+    <t>Nyangoma Clinic</t>
+  </si>
+  <si>
+    <t>Nyamakate Clinic</t>
+  </si>
+  <si>
+    <t>Chirundu Clinic</t>
+  </si>
+  <si>
+    <t>Chinhere clinic</t>
+  </si>
+  <si>
+    <t>Murambi</t>
+  </si>
+  <si>
+    <t>Masikati</t>
+  </si>
+  <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>February</t>
   </si>
   <si>
-    <t>Chipuriro</t>
+    <t>January</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>TENGWE - 101886 - CLINIC</t>
-  </si>
-  <si>
-    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Karoi District Hospital</t>
-  </si>
-  <si>
-    <t>Helywin Clinic</t>
-  </si>
-  <si>
-    <t>Chirundu Clinic</t>
-  </si>
-  <si>
-    <t>Chinhere clinic</t>
-  </si>
-  <si>
-    <t>Murambi</t>
-  </si>
-  <si>
-    <t>Masikati</t>
-  </si>
-  <si>
-    <t>Tengwe Clinic</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Client exhibited high fever symptoms</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>OPD</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>37</t>
+    <t>Outreach</t>
   </si>
   <si>
     <t>Static</t>
-  </si>
-  <si>
-    <t>Outreach</t>
   </si>
 </sst>
 </file>
@@ -898,7 +919,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF9"/>
+  <dimension ref="A1:EF17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,11 +1348,20 @@
       <c r="D2" t="s">
         <v>136</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1364,16 +1394,7 @@
         <v>151</v>
       </c>
       <c r="U2" t="s">
-        <v>158</v>
-      </c>
-      <c r="V2" t="s">
-        <v>162</v>
-      </c>
-      <c r="W2" t="s">
-        <v>159</v>
-      </c>
-      <c r="X2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1385,16 +1406,7 @@
         <v>150</v>
       </c>
       <c r="AD2" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1466,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="BI2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="BJ2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="BK2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="BL2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BM2" t="s">
         <v>150</v>
@@ -1492,23 +1504,20 @@
       <c r="BQ2">
         <v>0</v>
       </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
       <c r="BS2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BT2" t="s">
         <v>150</v>
       </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
       <c r="BV2" t="s">
-        <v>158</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1565,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="CT2" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="CU2">
         <v>0</v>
@@ -1601,47 +1610,47 @@
         <v>150</v>
       </c>
       <c r="DN2" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX2">
+        <v>0</v>
+      </c>
+      <c r="DY2" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA2" t="s">
         <v>170</v>
       </c>
-      <c r="DO2" t="s">
-        <v>144</v>
-      </c>
-      <c r="DP2">
-        <v>0</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>144</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>150</v>
-      </c>
-      <c r="DX2">
-        <v>0</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>171</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>147</v>
-      </c>
       <c r="EB2" t="s">
         <v>150</v>
       </c>
@@ -1652,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="EE2" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="EF2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:136">
@@ -1671,11 +1680,20 @@
       <c r="D3" t="s">
         <v>136</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1708,16 +1726,13 @@
         <v>152</v>
       </c>
       <c r="U3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="V3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="W3" t="s">
-        <v>160</v>
-      </c>
-      <c r="X3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -1729,16 +1744,13 @@
         <v>150</v>
       </c>
       <c r="AD3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AE3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AF3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1810,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="BI3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BJ3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BK3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="BL3" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="BM3" t="s">
         <v>150</v>
@@ -1836,23 +1848,26 @@
       <c r="BQ3">
         <v>0</v>
       </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
       <c r="BS3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="BT3" t="s">
         <v>150</v>
       </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
       <c r="BV3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="BW3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BX3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -1909,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="CT3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="CU3">
         <v>0</v>
@@ -1945,10 +1960,10 @@
         <v>150</v>
       </c>
       <c r="DN3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DO3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="DP3">
         <v>0</v>
@@ -1957,7 +1972,7 @@
         <v>150</v>
       </c>
       <c r="DR3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="DS3" t="s">
         <v>150</v>
@@ -1978,13 +1993,13 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DZ3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EA3" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="EB3" t="s">
         <v>150</v>
@@ -1996,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="EE3" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="EF3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:136">
@@ -2015,11 +2030,20 @@
       <c r="D4" t="s">
         <v>136</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
       <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
         <v>141</v>
-      </c>
-      <c r="I4" t="s">
-        <v>146</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2052,302 +2076,281 @@
         <v>153</v>
       </c>
       <c r="U4" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="V4" t="s">
+        <v>166</v>
+      </c>
+      <c r="W4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4" t="s">
         <v>163</v>
       </c>
-      <c r="W4" t="s">
-        <v>164</v>
-      </c>
-      <c r="X4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="BJ4" t="s">
         <v>166</v>
       </c>
-      <c r="Z4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="BK4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
         <v>163</v>
       </c>
-      <c r="AF4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="BW4" t="s">
         <v>166</v>
       </c>
-      <c r="AI4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>0</v>
-      </c>
-      <c r="BA4">
-        <v>0</v>
-      </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>0</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>0</v>
-      </c>
-      <c r="BH4">
-        <v>0</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BJ4" t="s">
+      <c r="BX4" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN4" t="s">
         <v>163</v>
       </c>
-      <c r="BK4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ4">
-        <v>0</v>
-      </c>
-      <c r="BS4" t="s">
+      <c r="DO4" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>141</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX4">
+        <v>0</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA4" t="s">
         <v>168</v>
       </c>
-      <c r="BT4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>148</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>159</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>161</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CW4">
-        <v>0</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
-      </c>
-      <c r="DA4">
-        <v>0</v>
-      </c>
-      <c r="DC4">
-        <v>0</v>
-      </c>
-      <c r="DE4">
-        <v>0</v>
-      </c>
-      <c r="DG4">
-        <v>0</v>
-      </c>
-      <c r="DJ4">
-        <v>0</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>149</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DP4">
-        <v>0</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>146</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>150</v>
-      </c>
-      <c r="DX4">
-        <v>0</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>171</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>172</v>
-      </c>
       <c r="EB4" t="s">
         <v>150</v>
       </c>
@@ -2358,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="EE4" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="EF4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:136">
@@ -2377,7 +2380,19 @@
       <c r="D5" t="s">
         <v>136</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="H5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" t="s">
         <v>142</v>
       </c>
       <c r="J5">
@@ -2410,12 +2425,39 @@
       <c r="S5" t="s">
         <v>154</v>
       </c>
+      <c r="U5" t="s">
+        <v>164</v>
+      </c>
+      <c r="V5" t="s">
+        <v>166</v>
+      </c>
+      <c r="W5" t="s">
+        <v>166</v>
+      </c>
+      <c r="X5" t="s">
+        <v>170</v>
+      </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
       </c>
+      <c r="AC5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>170</v>
+      </c>
       <c r="AJ5">
         <v>0</v>
       </c>
@@ -2446,6 +2488,9 @@
       <c r="AS5">
         <v>0</v>
       </c>
+      <c r="AT5" t="s">
+        <v>150</v>
+      </c>
       <c r="AW5">
         <v>0</v>
       </c>
@@ -2483,16 +2528,16 @@
         <v>0</v>
       </c>
       <c r="BI5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="BJ5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="BK5" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="BL5" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BM5" t="s">
         <v>150</v>
@@ -2509,8 +2554,29 @@
       <c r="BQ5">
         <v>0</v>
       </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
       <c r="BS5" t="s">
-        <v>138</v>
+        <v>171</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>166</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>170</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -2566,6 +2632,9 @@
       <c r="CS5">
         <v>0</v>
       </c>
+      <c r="CT5" t="s">
+        <v>139</v>
+      </c>
       <c r="CU5">
         <v>0</v>
       </c>
@@ -2590,23 +2659,71 @@
       <c r="DJ5">
         <v>0</v>
       </c>
+      <c r="DK5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>173</v>
+      </c>
       <c r="DO5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="DP5">
         <v>0</v>
       </c>
+      <c r="DQ5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>142</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>150</v>
+      </c>
       <c r="DX5">
         <v>0</v>
       </c>
+      <c r="DY5" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>176</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>150</v>
+      </c>
       <c r="ED5">
         <v>0</v>
       </c>
       <c r="EE5" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="EF5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:136">
@@ -2622,11 +2739,20 @@
       <c r="D6" t="s">
         <v>136</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2659,13 +2785,16 @@
         <v>155</v>
       </c>
       <c r="U6" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="V6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="W6" t="s">
-        <v>150</v>
+        <v>166</v>
+      </c>
+      <c r="X6" t="s">
+        <v>170</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -2677,124 +2806,136 @@
         <v>150</v>
       </c>
       <c r="AD6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AE6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6" t="s">
         <v>165</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>164</v>
-      </c>
       <c r="BJ6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BK6" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="s">
         <v>165</v>
       </c>
-      <c r="BL6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>150</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>164</v>
-      </c>
       <c r="BW6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BX6" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>170</v>
       </c>
       <c r="CB6">
         <v>0</v>
@@ -2851,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="CT6" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -2887,10 +3028,10 @@
         <v>150</v>
       </c>
       <c r="DN6" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="DO6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="DP6">
         <v>0</v>
@@ -2899,7 +3040,7 @@
         <v>150</v>
       </c>
       <c r="DR6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="DS6" t="s">
         <v>150</v>
@@ -2920,13 +3061,13 @@
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DZ6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EA6" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="EB6" t="s">
         <v>150</v>
@@ -2938,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="EE6" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="EF6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:136">
@@ -2957,11 +3098,20 @@
       <c r="D7" t="s">
         <v>136</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2994,13 +3144,13 @@
         <v>156</v>
       </c>
       <c r="U7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="V7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="W7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -3012,13 +3162,13 @@
         <v>150</v>
       </c>
       <c r="AD7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AE7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AJ7">
         <v>0</v>
@@ -3053,12 +3203,6 @@
       <c r="AT7" t="s">
         <v>150</v>
       </c>
-      <c r="AU7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>150</v>
-      </c>
       <c r="AW7">
         <v>0</v>
       </c>
@@ -3096,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="BI7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="BJ7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BK7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="BL7" t="s">
         <v>150</v>
@@ -3122,20 +3266,26 @@
       <c r="BQ7">
         <v>0</v>
       </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
       <c r="BS7" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="BT7" t="s">
         <v>150</v>
       </c>
+      <c r="BU7">
+        <v>0</v>
+      </c>
       <c r="BV7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="BW7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BX7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="CB7">
         <v>0</v>
@@ -3192,20 +3342,14 @@
         <v>0</v>
       </c>
       <c r="CT7" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="CU7">
         <v>0</v>
       </c>
-      <c r="CV7" t="s">
-        <v>150</v>
-      </c>
       <c r="CW7">
         <v>0</v>
       </c>
-      <c r="CX7" t="s">
-        <v>150</v>
-      </c>
       <c r="CY7">
         <v>0</v>
       </c>
@@ -3234,10 +3378,10 @@
         <v>150</v>
       </c>
       <c r="DN7" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="DO7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="DP7">
         <v>0</v>
@@ -3246,7 +3390,7 @@
         <v>150</v>
       </c>
       <c r="DR7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="DS7" t="s">
         <v>150</v>
@@ -3267,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DZ7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EA7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="EB7" t="s">
         <v>150</v>
@@ -3285,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="EE7" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="EF7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:136">
@@ -3304,11 +3448,20 @@
       <c r="D8" t="s">
         <v>136</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3338,10 +3491,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="U8" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="V8" t="s">
+        <v>139</v>
+      </c>
+      <c r="W8" t="s">
+        <v>168</v>
+      </c>
+      <c r="X8" t="s">
+        <v>170</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -3353,7 +3515,16 @@
         <v>150</v>
       </c>
       <c r="AD8" t="s">
-        <v>150</v>
+        <v>170</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>170</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -3425,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="BI8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BJ8" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="BK8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="BL8" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BM8" t="s">
         <v>150</v>
@@ -3451,14 +3622,29 @@
       <c r="BQ8">
         <v>0</v>
       </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
       <c r="BS8" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="BT8" t="s">
         <v>150</v>
       </c>
+      <c r="BU8">
+        <v>0</v>
+      </c>
       <c r="BV8" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>168</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>170</v>
       </c>
       <c r="CB8">
         <v>0</v>
@@ -3515,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="CT8" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -3551,10 +3737,10 @@
         <v>150</v>
       </c>
       <c r="DN8" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="DO8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="DP8">
         <v>0</v>
@@ -3563,7 +3749,7 @@
         <v>150</v>
       </c>
       <c r="DR8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="DS8" t="s">
         <v>150</v>
@@ -3584,13 +3770,13 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="DZ8" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="EA8" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="EB8" t="s">
         <v>150</v>
@@ -3602,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="EE8" t="s">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="EF8" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:136">
@@ -3619,325 +3805,3092 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" t="s">
+      <c r="I9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" t="s">
+        <v>139</v>
+      </c>
+      <c r="V9" t="s">
+        <v>169</v>
+      </c>
+      <c r="W9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU9">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>139</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CG9">
+        <v>0</v>
+      </c>
+      <c r="CH9">
+        <v>0</v>
+      </c>
+      <c r="CI9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CQ9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CY9">
+        <v>0</v>
+      </c>
+      <c r="DA9">
+        <v>0</v>
+      </c>
+      <c r="DC9">
+        <v>0</v>
+      </c>
+      <c r="DE9">
+        <v>0</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>139</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>144</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>168</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC9" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED9">
+        <v>0</v>
+      </c>
+      <c r="EE9" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:136">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>152</v>
+      </c>
+      <c r="U10" t="s">
+        <v>166</v>
+      </c>
+      <c r="V10" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU10">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>168</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CG10">
+        <v>0</v>
+      </c>
+      <c r="CH10">
+        <v>0</v>
+      </c>
+      <c r="CI10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>170</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CY10">
+        <v>0</v>
+      </c>
+      <c r="DA10">
+        <v>0</v>
+      </c>
+      <c r="DC10">
+        <v>0</v>
+      </c>
+      <c r="DE10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>0</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN10" t="s">
+        <v>169</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR10" t="s">
+        <v>146</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC10" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED10">
+        <v>0</v>
+      </c>
+      <c r="EE10" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:136">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" t="s">
+        <v>167</v>
+      </c>
+      <c r="V11" t="s">
+        <v>166</v>
+      </c>
+      <c r="W11" t="s">
+        <v>168</v>
+      </c>
+      <c r="X11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>169</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>169</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU11">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>167</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>168</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>169</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CG11">
+        <v>0</v>
+      </c>
+      <c r="CH11">
+        <v>0</v>
+      </c>
+      <c r="CI11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CQ11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>169</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CY11">
+        <v>0</v>
+      </c>
+      <c r="DA11">
+        <v>0</v>
+      </c>
+      <c r="DC11">
+        <v>0</v>
+      </c>
+      <c r="DE11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>0</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN11" t="s">
+        <v>174</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR11" t="s">
+        <v>147</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW11" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>140</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC11" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED11">
+        <v>0</v>
+      </c>
+      <c r="EE11" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:136">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>150</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>153</v>
+      </c>
+      <c r="U12" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" t="s">
+        <v>166</v>
+      </c>
+      <c r="W12" t="s">
+        <v>169</v>
+      </c>
+      <c r="X12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>169</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CG12">
+        <v>0</v>
+      </c>
+      <c r="CH12">
+        <v>0</v>
+      </c>
+      <c r="CI12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CQ12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>166</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN12" t="s">
+        <v>170</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>144</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR12" t="s">
+        <v>144</v>
+      </c>
+      <c r="DS12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW12" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX12">
+        <v>0</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>141</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC12" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED12">
+        <v>0</v>
+      </c>
+      <c r="EE12" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:136">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>137</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>150</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" t="s">
+        <v>149</v>
+      </c>
+      <c r="V13" t="s">
+        <v>141</v>
+      </c>
+      <c r="W13" t="s">
+        <v>163</v>
+      </c>
+      <c r="X13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>168</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>149</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>139</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>0</v>
+      </c>
+      <c r="CH13">
+        <v>0</v>
+      </c>
+      <c r="CI13">
+        <v>0</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
+        <v>0</v>
+      </c>
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>146</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DC13">
+        <v>0</v>
+      </c>
+      <c r="DE13">
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN13" t="s">
+        <v>165</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>148</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>148</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX13">
+        <v>0</v>
+      </c>
+      <c r="DY13" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA13" t="s">
+        <v>178</v>
+      </c>
+      <c r="EB13" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+      <c r="EE13" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:136">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>138</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>171</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
+      <c r="CF14">
+        <v>0</v>
+      </c>
+      <c r="CG14">
+        <v>0</v>
+      </c>
+      <c r="CH14">
+        <v>0</v>
+      </c>
+      <c r="CI14">
+        <v>0</v>
+      </c>
+      <c r="CJ14">
+        <v>0</v>
+      </c>
+      <c r="CK14">
+        <v>0</v>
+      </c>
+      <c r="CL14">
+        <v>0</v>
+      </c>
+      <c r="CM14">
+        <v>0</v>
+      </c>
+      <c r="CN14">
+        <v>0</v>
+      </c>
+      <c r="CO14">
+        <v>0</v>
+      </c>
+      <c r="CP14">
+        <v>0</v>
+      </c>
+      <c r="CQ14">
+        <v>0</v>
+      </c>
+      <c r="CR14">
+        <v>0</v>
+      </c>
+      <c r="CS14">
+        <v>0</v>
+      </c>
+      <c r="CU14">
+        <v>0</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CY14">
+        <v>0</v>
+      </c>
+      <c r="DA14">
+        <v>0</v>
+      </c>
+      <c r="DC14">
+        <v>0</v>
+      </c>
+      <c r="DE14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>0</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DP14">
+        <v>0</v>
+      </c>
+      <c r="DX14">
+        <v>0</v>
+      </c>
+      <c r="ED14">
+        <v>0</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:136">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>150</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15" t="s">
+        <v>160</v>
+      </c>
+      <c r="U15" t="s">
+        <v>169</v>
+      </c>
+      <c r="V15" t="s">
+        <v>166</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>163</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>163</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>171</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>163</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>163</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
+      <c r="CF15">
+        <v>0</v>
+      </c>
+      <c r="CG15">
+        <v>0</v>
+      </c>
+      <c r="CH15">
+        <v>0</v>
+      </c>
+      <c r="CI15">
+        <v>0</v>
+      </c>
+      <c r="CJ15">
+        <v>0</v>
+      </c>
+      <c r="CK15">
+        <v>0</v>
+      </c>
+      <c r="CL15">
+        <v>0</v>
+      </c>
+      <c r="CM15">
+        <v>0</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15">
+        <v>0</v>
+      </c>
+      <c r="CR15">
+        <v>0</v>
+      </c>
+      <c r="CS15">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU15">
+        <v>0</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CY15">
+        <v>0</v>
+      </c>
+      <c r="DA15">
+        <v>0</v>
+      </c>
+      <c r="DC15">
+        <v>0</v>
+      </c>
+      <c r="DE15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>163</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>140</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>140</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX15">
+        <v>0</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA15" t="s">
         <v>139</v>
       </c>
-      <c r="G9" t="s">
+      <c r="EB15" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED15">
+        <v>0</v>
+      </c>
+      <c r="EE15" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:136">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" t="s">
         <v>140</v>
       </c>
-      <c r="H9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>150</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>161</v>
+      </c>
+      <c r="U16" t="s">
+        <v>146</v>
+      </c>
+      <c r="V16" t="s">
+        <v>169</v>
+      </c>
+      <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16">
+        <v>0</v>
+      </c>
+      <c r="BD16">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>0</v>
+      </c>
+      <c r="BF16">
+        <v>0</v>
+      </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
+      <c r="BH16">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>169</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>170</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ16">
+        <v>0</v>
+      </c>
+      <c r="BR16">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>171</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU16">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>169</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>170</v>
+      </c>
+      <c r="CB16">
+        <v>0</v>
+      </c>
+      <c r="CC16">
+        <v>0</v>
+      </c>
+      <c r="CD16">
+        <v>0</v>
+      </c>
+      <c r="CE16">
+        <v>0</v>
+      </c>
+      <c r="CF16">
+        <v>0</v>
+      </c>
+      <c r="CG16">
+        <v>0</v>
+      </c>
+      <c r="CH16">
+        <v>0</v>
+      </c>
+      <c r="CI16">
+        <v>0</v>
+      </c>
+      <c r="CJ16">
+        <v>0</v>
+      </c>
+      <c r="CK16">
+        <v>0</v>
+      </c>
+      <c r="CL16">
+        <v>0</v>
+      </c>
+      <c r="CM16">
+        <v>0</v>
+      </c>
+      <c r="CN16">
+        <v>0</v>
+      </c>
+      <c r="CO16">
+        <v>0</v>
+      </c>
+      <c r="CP16">
+        <v>0</v>
+      </c>
+      <c r="CQ16">
+        <v>0</v>
+      </c>
+      <c r="CR16">
+        <v>0</v>
+      </c>
+      <c r="CS16">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU16">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>150</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>150</v>
+      </c>
+      <c r="CY16">
+        <v>0</v>
+      </c>
+      <c r="DA16">
+        <v>0</v>
+      </c>
+      <c r="DC16">
+        <v>0</v>
+      </c>
+      <c r="DE16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DK16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>140</v>
+      </c>
+      <c r="DO16" t="s">
+        <v>140</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+      <c r="DQ16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>140</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX16">
+        <v>0</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>150</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED16">
+        <v>0</v>
+      </c>
+      <c r="EE16" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:136">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" t="s">
         <v>149</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>150</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" t="s">
-        <v>160</v>
-      </c>
-      <c r="V9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
-      <c r="AN9">
-        <v>0</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>164</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP9" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>167</v>
-      </c>
-      <c r="BS9" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>165</v>
-      </c>
-      <c r="BU9" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>164</v>
-      </c>
-      <c r="CB9">
-        <v>0</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0</v>
-      </c>
-      <c r="CF9">
-        <v>0</v>
-      </c>
-      <c r="CG9">
-        <v>0</v>
-      </c>
-      <c r="CH9">
-        <v>0</v>
-      </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
-      <c r="CK9">
-        <v>0</v>
-      </c>
-      <c r="CL9">
-        <v>0</v>
-      </c>
-      <c r="CM9">
-        <v>0</v>
-      </c>
-      <c r="CN9">
-        <v>0</v>
-      </c>
-      <c r="CO9">
-        <v>0</v>
-      </c>
-      <c r="CP9">
-        <v>0</v>
-      </c>
-      <c r="CQ9">
-        <v>0</v>
-      </c>
-      <c r="CR9">
-        <v>0</v>
-      </c>
-      <c r="CS9">
-        <v>0</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CW9">
-        <v>0</v>
-      </c>
-      <c r="CY9">
-        <v>0</v>
-      </c>
-      <c r="DA9">
-        <v>0</v>
-      </c>
-      <c r="DC9">
-        <v>0</v>
-      </c>
-      <c r="DE9">
-        <v>0</v>
-      </c>
-      <c r="DG9">
-        <v>0</v>
-      </c>
-      <c r="DJ9">
-        <v>0</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DN9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DO9" t="s">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>162</v>
+      </c>
+      <c r="U17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="s">
         <v>149</v>
       </c>
-      <c r="DP9">
-        <v>0</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DR9" t="s">
+      <c r="BJ17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>171</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="s">
         <v>149</v>
       </c>
-      <c r="DS9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DT9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DV9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>150</v>
-      </c>
-      <c r="DX9">
-        <v>0</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>171</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA9" t="s">
+      <c r="CB17">
+        <v>0</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
+      <c r="CF17">
+        <v>0</v>
+      </c>
+      <c r="CG17">
+        <v>0</v>
+      </c>
+      <c r="CH17">
+        <v>0</v>
+      </c>
+      <c r="CI17">
+        <v>0</v>
+      </c>
+      <c r="CJ17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU17">
+        <v>0</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CY17">
+        <v>0</v>
+      </c>
+      <c r="DA17">
+        <v>0</v>
+      </c>
+      <c r="DC17">
+        <v>0</v>
+      </c>
+      <c r="DE17">
+        <v>0</v>
+      </c>
+      <c r="DG17">
+        <v>0</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN17" t="s">
         <v>149</v>
       </c>
-      <c r="EB9" t="s">
-        <v>150</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>150</v>
-      </c>
-      <c r="ED9">
-        <v>0</v>
-      </c>
-      <c r="EE9" t="s">
-        <v>140</v>
+      <c r="DO17" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP17">
+        <v>0</v>
+      </c>
+      <c r="DQ17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>149</v>
+      </c>
+      <c r="DS17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX17">
+        <v>0</v>
+      </c>
+      <c r="DY17" t="s">
+        <v>175</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>175</v>
+      </c>
+      <c r="EA17" t="s">
+        <v>150</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED17">
+        <v>0</v>
+      </c>
+      <c r="EE17" t="s">
+        <v>179</v>
+      </c>
+      <c r="EF17" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +6900,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4026,44 +6979,6 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
         <v>0</v>
       </c>
     </row>
@@ -4101,23 +7016,23 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>169</v>
+        <v>136</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="183">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -435,21 +435,21 @@
     <t>TENGWE - 101886 - CLINIC</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -471,6 +471,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>Kasimure Clinic</t>
+  </si>
+  <si>
     <t>Moy Clinic</t>
   </si>
   <si>
@@ -507,6 +510,9 @@
     <t>Tengwe Clinic</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -520,9 +526,6 @@
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>2</t>
@@ -919,7 +922,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF17"/>
+  <dimension ref="A1:EF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1394,7 +1397,16 @@
         <v>151</v>
       </c>
       <c r="U2" t="s">
-        <v>139</v>
+        <v>164</v>
+      </c>
+      <c r="V2" t="s">
+        <v>168</v>
+      </c>
+      <c r="W2" t="s">
+        <v>171</v>
+      </c>
+      <c r="X2" t="s">
+        <v>171</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -1406,7 +1418,16 @@
         <v>150</v>
       </c>
       <c r="AD2" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>171</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1438,9 +1459,6 @@
       <c r="AS2">
         <v>0</v>
       </c>
-      <c r="AT2" t="s">
-        <v>150</v>
-      </c>
       <c r="AW2">
         <v>0</v>
       </c>
@@ -1478,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="BI2" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="BJ2" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="BK2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BL2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BM2" t="s">
         <v>150</v>
@@ -1508,16 +1526,25 @@
         <v>0</v>
       </c>
       <c r="BS2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX2" t="s">
         <v>171</v>
       </c>
-      <c r="BT2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>139</v>
+      <c r="BY2" t="s">
+        <v>171</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1573,9 +1600,6 @@
       <c r="CS2">
         <v>0</v>
       </c>
-      <c r="CT2" t="s">
-        <v>170</v>
-      </c>
       <c r="CU2">
         <v>0</v>
       </c>
@@ -1610,7 +1634,7 @@
         <v>150</v>
       </c>
       <c r="DN2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="DO2" t="s">
         <v>139</v>
@@ -1643,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA2" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="EB2" t="s">
         <v>150</v>
@@ -1661,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="EE2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:136">
@@ -1723,16 +1747,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="U3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="V3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="W3" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="X3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>171</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -1744,13 +1774,19 @@
         <v>150</v>
       </c>
       <c r="AD3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="AF3" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>171</v>
       </c>
       <c r="AJ3">
         <v>0</v>
@@ -1822,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="BI3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="BJ3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="BK3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BL3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BM3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BN3" t="s">
         <v>150</v>
@@ -1852,22 +1888,28 @@
         <v>0</v>
       </c>
       <c r="BS3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>168</v>
+      </c>
+      <c r="BY3" t="s">
         <v>171</v>
       </c>
-      <c r="BT3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>166</v>
+      <c r="BZ3" t="s">
+        <v>171</v>
       </c>
       <c r="CB3">
         <v>0</v>
@@ -1924,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="CT3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CU3">
         <v>0</v>
@@ -1960,7 +2002,7 @@
         <v>150</v>
       </c>
       <c r="DN3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="DO3" t="s">
         <v>140</v>
@@ -1993,13 +2035,13 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA3" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="EB3" t="s">
         <v>150</v>
@@ -2011,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="EE3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:136">
@@ -2073,16 +2115,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U4" t="s">
-        <v>163</v>
-      </c>
-      <c r="V4" t="s">
-        <v>166</v>
-      </c>
-      <c r="W4" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -2094,13 +2130,7 @@
         <v>150</v>
       </c>
       <c r="AD4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -2172,13 +2202,13 @@
         <v>0</v>
       </c>
       <c r="BI4" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="BJ4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="BK4" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="BL4" t="s">
         <v>150</v>
@@ -2202,80 +2232,74 @@
         <v>0</v>
       </c>
       <c r="BS4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>141</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="s">
         <v>171</v>
       </c>
-      <c r="BT4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU4">
-        <v>0</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>170</v>
-      </c>
-      <c r="CB4">
-        <v>0</v>
-      </c>
-      <c r="CC4">
-        <v>0</v>
-      </c>
-      <c r="CD4">
-        <v>0</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>0</v>
-      </c>
-      <c r="CG4">
-        <v>0</v>
-      </c>
-      <c r="CH4">
-        <v>0</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
-      </c>
-      <c r="CL4">
-        <v>0</v>
-      </c>
-      <c r="CM4">
-        <v>0</v>
-      </c>
-      <c r="CN4">
-        <v>0</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>0</v>
-      </c>
-      <c r="CQ4">
-        <v>0</v>
-      </c>
-      <c r="CR4">
-        <v>0</v>
-      </c>
-      <c r="CS4">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>150</v>
-      </c>
       <c r="CU4">
         <v>0</v>
       </c>
@@ -2310,7 +2334,7 @@
         <v>150</v>
       </c>
       <c r="DN4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="DO4" t="s">
         <v>141</v>
@@ -2343,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="EB4" t="s">
         <v>150</v>
@@ -2361,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="EE4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:136">
@@ -2423,218 +2447,209 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W5" t="s">
-        <v>166</v>
-      </c>
-      <c r="X5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>139</v>
-      </c>
       <c r="AE5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AF5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>165</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>168</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="s">
         <v>170</v>
       </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>0</v>
-      </c>
-      <c r="BA5">
-        <v>0</v>
-      </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>0</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>0</v>
-      </c>
-      <c r="BG5">
-        <v>0</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>166</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>166</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>170</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ5">
-        <v>0</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU5">
-        <v>0</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>164</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>166</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>166</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>170</v>
-      </c>
-      <c r="CB5">
-        <v>0</v>
-      </c>
-      <c r="CC5">
-        <v>0</v>
-      </c>
-      <c r="CD5">
-        <v>0</v>
-      </c>
-      <c r="CE5">
-        <v>0</v>
-      </c>
-      <c r="CF5">
-        <v>0</v>
-      </c>
-      <c r="CG5">
-        <v>0</v>
-      </c>
-      <c r="CH5">
-        <v>0</v>
-      </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
-      </c>
-      <c r="CK5">
-        <v>0</v>
-      </c>
-      <c r="CL5">
-        <v>0</v>
-      </c>
-      <c r="CM5">
-        <v>0</v>
-      </c>
-      <c r="CN5">
-        <v>0</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>0</v>
-      </c>
-      <c r="CQ5">
-        <v>0</v>
-      </c>
-      <c r="CR5">
-        <v>0</v>
-      </c>
-      <c r="CS5">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>139</v>
-      </c>
       <c r="CU5">
         <v>0</v>
       </c>
@@ -2669,7 +2684,7 @@
         <v>150</v>
       </c>
       <c r="DN5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="DO5" t="s">
         <v>142</v>
@@ -2702,13 +2717,13 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA5" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="EB5" t="s">
         <v>150</v>
@@ -2720,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="EE5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF5" t="s">
         <v>181</v>
@@ -2752,7 +2767,7 @@
         <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2782,19 +2797,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U6" t="s">
         <v>165</v>
       </c>
       <c r="V6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="W6" t="s">
-        <v>166</v>
-      </c>
-      <c r="X6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -2806,16 +2818,13 @@
         <v>150</v>
       </c>
       <c r="AD6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AE6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AF6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2890,13 +2899,13 @@
         <v>165</v>
       </c>
       <c r="BJ6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="BK6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BL6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="BM6" t="s">
         <v>150</v>
@@ -2929,13 +2938,10 @@
         <v>165</v>
       </c>
       <c r="BW6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="BX6" t="s">
-        <v>166</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CB6">
         <v>0</v>
@@ -2992,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="CT6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -3028,11 +3034,11 @@
         <v>150</v>
       </c>
       <c r="DN6" t="s">
+        <v>165</v>
+      </c>
+      <c r="DO6" t="s">
         <v>139</v>
       </c>
-      <c r="DO6" t="s">
-        <v>143</v>
-      </c>
       <c r="DP6">
         <v>0</v>
       </c>
@@ -3040,7 +3046,7 @@
         <v>150</v>
       </c>
       <c r="DR6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="DS6" t="s">
         <v>150</v>
@@ -3061,13 +3067,13 @@
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA6" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="EB6" t="s">
         <v>150</v>
@@ -3079,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="EE6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:136">
@@ -3111,7 +3117,7 @@
         <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3141,16 +3147,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="V7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W7" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="X7" t="s">
+        <v>171</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -3162,94 +3171,97 @@
         <v>150</v>
       </c>
       <c r="AD7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="s">
         <v>166</v>
       </c>
-      <c r="AE7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>146</v>
-      </c>
       <c r="BJ7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BK7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BL7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BM7" t="s">
         <v>150</v>
@@ -3279,13 +3291,16 @@
         <v>0</v>
       </c>
       <c r="BV7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="BW7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BX7" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>171</v>
       </c>
       <c r="CB7">
         <v>0</v>
@@ -3342,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="CT7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="CU7">
         <v>0</v>
@@ -3378,10 +3393,10 @@
         <v>150</v>
       </c>
       <c r="DN7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="DO7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DP7">
         <v>0</v>
@@ -3390,7 +3405,7 @@
         <v>150</v>
       </c>
       <c r="DR7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DS7" t="s">
         <v>150</v>
@@ -3411,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="EB7" t="s">
         <v>150</v>
@@ -3429,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="EE7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:136">
@@ -3461,7 +3476,7 @@
         <v>137</v>
       </c>
       <c r="I8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3491,19 +3506,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="U8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="V8" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="W8" t="s">
         <v>168</v>
       </c>
       <c r="X8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -3515,16 +3530,16 @@
         <v>150</v>
       </c>
       <c r="AD8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AE8" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="AF8" t="s">
         <v>168</v>
       </c>
       <c r="AG8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -3596,16 +3611,16 @@
         <v>0</v>
       </c>
       <c r="BI8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="BJ8" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="BK8" t="s">
         <v>168</v>
       </c>
       <c r="BL8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="BM8" t="s">
         <v>150</v>
@@ -3626,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="BS8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BT8" t="s">
         <v>150</v>
@@ -3635,16 +3650,16 @@
         <v>0</v>
       </c>
       <c r="BV8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="BW8" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="BX8" t="s">
         <v>168</v>
       </c>
       <c r="BY8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CB8">
         <v>0</v>
@@ -3701,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="CT8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -3737,10 +3752,10 @@
         <v>150</v>
       </c>
       <c r="DN8" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="DO8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="DP8">
         <v>0</v>
@@ -3749,7 +3764,7 @@
         <v>150</v>
       </c>
       <c r="DR8" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="DS8" t="s">
         <v>150</v>
@@ -3770,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA8" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="EB8" t="s">
         <v>150</v>
@@ -3788,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="EE8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:136">
@@ -3853,13 +3868,13 @@
         <v>157</v>
       </c>
       <c r="U9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="V9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="W9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -3871,13 +3886,13 @@
         <v>150</v>
       </c>
       <c r="AD9" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AE9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AF9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AJ9">
         <v>0</v>
@@ -3949,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="BI9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BJ9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BK9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BL9" t="s">
         <v>150</v>
@@ -3979,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="BS9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BT9" t="s">
         <v>150</v>
@@ -3988,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="BV9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="BW9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BX9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="CB9">
         <v>0</v>
@@ -4051,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="CT9" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -4087,7 +4102,7 @@
         <v>150</v>
       </c>
       <c r="DN9" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="DO9" t="s">
         <v>144</v>
@@ -4120,13 +4135,13 @@
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="EB9" t="s">
         <v>150</v>
@@ -4138,10 +4153,10 @@
         <v>0</v>
       </c>
       <c r="EE9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:136">
@@ -4170,7 +4185,7 @@
         <v>137</v>
       </c>
       <c r="I10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4203,13 +4218,16 @@
         <v>152</v>
       </c>
       <c r="U10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="V10" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>170</v>
+        <v>141</v>
+      </c>
+      <c r="W10" t="s">
+        <v>164</v>
+      </c>
+      <c r="X10" t="s">
+        <v>171</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -4221,13 +4239,16 @@
         <v>150</v>
       </c>
       <c r="AD10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AE10" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>170</v>
+        <v>141</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>171</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -4299,19 +4320,19 @@
         <v>0</v>
       </c>
       <c r="BI10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="BJ10" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="BK10" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="BL10" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BM10" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="BN10" t="s">
         <v>150</v>
@@ -4329,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="BS10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BT10" t="s">
         <v>150</v>
@@ -4338,13 +4359,16 @@
         <v>0</v>
       </c>
       <c r="BV10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="BW10" t="s">
-        <v>168</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>170</v>
+        <v>141</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>171</v>
       </c>
       <c r="CB10">
         <v>0</v>
@@ -4401,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="CT10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CU10">
         <v>0</v>
@@ -4437,10 +4461,10 @@
         <v>150</v>
       </c>
       <c r="DN10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="DO10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DP10">
         <v>0</v>
@@ -4449,7 +4473,7 @@
         <v>150</v>
       </c>
       <c r="DR10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="DS10" t="s">
         <v>150</v>
@@ -4470,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA10" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="EB10" t="s">
         <v>150</v>
@@ -4488,10 +4512,10 @@
         <v>0</v>
       </c>
       <c r="EE10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:136">
@@ -4520,7 +4544,7 @@
         <v>137</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4550,19 +4574,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="U11" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="V11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="W11" t="s">
-        <v>168</v>
-      </c>
-      <c r="X11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -4574,16 +4595,13 @@
         <v>150</v>
       </c>
       <c r="AD11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="AE11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="AF11" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -4655,16 +4673,16 @@
         <v>0</v>
       </c>
       <c r="BI11" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="BJ11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BK11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BL11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="BM11" t="s">
         <v>150</v>
@@ -4685,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="BS11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BT11" t="s">
         <v>150</v>
@@ -4694,16 +4712,13 @@
         <v>0</v>
       </c>
       <c r="BV11" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="BW11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="BX11" t="s">
-        <v>168</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CB11">
         <v>0</v>
@@ -4760,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="CT11" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="CU11">
         <v>0</v>
@@ -4796,10 +4811,10 @@
         <v>150</v>
       </c>
       <c r="DN11" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="DO11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="DP11">
         <v>0</v>
@@ -4808,7 +4823,7 @@
         <v>150</v>
       </c>
       <c r="DR11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="DS11" t="s">
         <v>150</v>
@@ -4829,13 +4844,13 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA11" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="EB11" t="s">
         <v>150</v>
@@ -4847,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="EE11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF11" t="s">
         <v>181</v>
@@ -4879,7 +4894,7 @@
         <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4915,13 +4930,10 @@
         <v>168</v>
       </c>
       <c r="V12" t="s">
-        <v>166</v>
-      </c>
-      <c r="W12" t="s">
-        <v>169</v>
-      </c>
-      <c r="X12" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>171</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -4933,16 +4945,13 @@
         <v>150</v>
       </c>
       <c r="AD12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AE12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>171</v>
       </c>
       <c r="AJ12">
         <v>0</v>
@@ -5017,16 +5026,16 @@
         <v>168</v>
       </c>
       <c r="BJ12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BK12" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="BL12" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="BM12" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BN12" t="s">
         <v>150</v>
@@ -5044,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="BS12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BT12" t="s">
         <v>150</v>
@@ -5056,13 +5065,10 @@
         <v>168</v>
       </c>
       <c r="BW12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>169</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>171</v>
       </c>
       <c r="CB12">
         <v>0</v>
@@ -5119,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="CT12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CU12">
         <v>0</v>
@@ -5158,7 +5164,7 @@
         <v>170</v>
       </c>
       <c r="DO12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="DP12">
         <v>0</v>
@@ -5167,7 +5173,7 @@
         <v>150</v>
       </c>
       <c r="DR12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="DS12" t="s">
         <v>150</v>
@@ -5188,10 +5194,10 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA12" t="s">
         <v>141</v>
@@ -5206,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="EE12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:136">
@@ -5238,7 +5244,7 @@
         <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -5268,178 +5274,160 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="U13" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="V13" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="W13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X13" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE13" t="s">
         <v>168</v>
       </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>141</v>
-      </c>
       <c r="AF13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BD13">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>0</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
+      <c r="BH13">
+        <v>0</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ13" t="s">
         <v>168</v>
       </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>141</v>
-      </c>
       <c r="BK13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BL13" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="BM13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="BN13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU13">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW13" t="s">
         <v>168</v>
       </c>
-      <c r="BO13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>172</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>149</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>141</v>
-      </c>
       <c r="BX13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BY13" t="s">
-        <v>163</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>139</v>
-      </c>
-      <c r="CA13" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="CB13">
         <v>0</v>
@@ -5496,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="CT13" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="CU13">
         <v>0</v>
@@ -5532,10 +5520,10 @@
         <v>150</v>
       </c>
       <c r="DN13" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="DO13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DP13">
         <v>0</v>
@@ -5544,7 +5532,7 @@
         <v>150</v>
       </c>
       <c r="DR13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DS13" t="s">
         <v>150</v>
@@ -5565,13 +5553,13 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA13" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="EB13" t="s">
         <v>150</v>
@@ -5583,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="EE13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:136">
@@ -5612,7 +5600,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5642,7 +5633,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>159</v>
+        <v>154</v>
+      </c>
+      <c r="U14" t="s">
+        <v>164</v>
+      </c>
+      <c r="V14" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" t="s">
+        <v>170</v>
+      </c>
+      <c r="X14" t="s">
+        <v>171</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -5650,6 +5653,21 @@
       <c r="AB14">
         <v>0</v>
       </c>
+      <c r="AC14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ14">
         <v>0</v>
       </c>
@@ -5680,6 +5698,9 @@
       <c r="AS14">
         <v>0</v>
       </c>
+      <c r="AT14" t="s">
+        <v>150</v>
+      </c>
       <c r="AW14">
         <v>0</v>
       </c>
@@ -5717,16 +5738,16 @@
         <v>0</v>
       </c>
       <c r="BI14" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="BJ14" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="BK14" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="BL14" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BM14" t="s">
         <v>150</v>
@@ -5747,11 +5768,26 @@
         <v>0</v>
       </c>
       <c r="BS14" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>168</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>170</v>
+      </c>
+      <c r="BY14" t="s">
         <v>171</v>
       </c>
-      <c r="BU14">
-        <v>0</v>
-      </c>
       <c r="CB14">
         <v>0</v>
       </c>
@@ -5806,6 +5842,9 @@
       <c r="CS14">
         <v>0</v>
       </c>
+      <c r="CT14" t="s">
+        <v>168</v>
+      </c>
       <c r="CU14">
         <v>0</v>
       </c>
@@ -5830,23 +5869,71 @@
       <c r="DJ14">
         <v>0</v>
       </c>
+      <c r="DK14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN14" t="s">
+        <v>171</v>
+      </c>
       <c r="DO14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="DP14">
         <v>0</v>
       </c>
+      <c r="DQ14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>144</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>150</v>
+      </c>
       <c r="DX14">
         <v>0</v>
       </c>
+      <c r="DY14" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>139</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>150</v>
+      </c>
       <c r="ED14">
         <v>0</v>
       </c>
       <c r="EE14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:136">
@@ -5872,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5905,16 +5992,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U15" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="V15" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>164</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -5926,13 +6022,22 @@
         <v>150</v>
       </c>
       <c r="AD15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AE15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>164</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -6004,22 +6109,22 @@
         <v>0</v>
       </c>
       <c r="BI15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="BJ15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="BK15" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="BL15" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="BM15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="BN15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="BO15" t="s">
         <v>150</v>
@@ -6034,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="BS15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BT15" t="s">
         <v>150</v>
@@ -6043,13 +6148,22 @@
         <v>0</v>
       </c>
       <c r="BV15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="BW15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="BX15" t="s">
-        <v>170</v>
+        <v>165</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>165</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>164</v>
       </c>
       <c r="CB15">
         <v>0</v>
@@ -6106,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="CT15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="CU15">
         <v>0</v>
@@ -6142,10 +6256,10 @@
         <v>150</v>
       </c>
       <c r="DN15" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="DO15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="DP15">
         <v>0</v>
@@ -6154,7 +6268,7 @@
         <v>150</v>
       </c>
       <c r="DR15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="DS15" t="s">
         <v>150</v>
@@ -6175,13 +6289,13 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA15" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="EB15" t="s">
         <v>150</v>
@@ -6193,10 +6307,10 @@
         <v>0</v>
       </c>
       <c r="EE15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:136">
@@ -6224,9 +6338,6 @@
       <c r="H16" t="s">
         <v>138</v>
       </c>
-      <c r="I16" t="s">
-        <v>140</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -6255,16 +6366,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>161</v>
-      </c>
-      <c r="U16" t="s">
-        <v>146</v>
-      </c>
-      <c r="V16" t="s">
-        <v>169</v>
-      </c>
-      <c r="W16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -6272,18 +6374,6 @@
       <c r="AB16">
         <v>0</v>
       </c>
-      <c r="AC16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>150</v>
-      </c>
       <c r="AJ16">
         <v>0</v>
       </c>
@@ -6314,15 +6404,6 @@
       <c r="AS16">
         <v>0</v>
       </c>
-      <c r="AT16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>150</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>150</v>
-      </c>
       <c r="AW16">
         <v>0</v>
       </c>
@@ -6360,13 +6441,13 @@
         <v>0</v>
       </c>
       <c r="BI16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="BJ16" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="BK16" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="BL16" t="s">
         <v>150</v>
@@ -6390,23 +6471,11 @@
         <v>0</v>
       </c>
       <c r="BS16" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="BU16">
         <v>0</v>
       </c>
-      <c r="BV16" t="s">
-        <v>146</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>169</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>170</v>
-      </c>
       <c r="CB16">
         <v>0</v>
       </c>
@@ -6461,21 +6530,12 @@
       <c r="CS16">
         <v>0</v>
       </c>
-      <c r="CT16" t="s">
-        <v>150</v>
-      </c>
       <c r="CU16">
         <v>0</v>
       </c>
-      <c r="CV16" t="s">
-        <v>150</v>
-      </c>
       <c r="CW16">
         <v>0</v>
       </c>
-      <c r="CX16" t="s">
-        <v>150</v>
-      </c>
       <c r="CY16">
         <v>0</v>
       </c>
@@ -6494,71 +6554,23 @@
       <c r="DJ16">
         <v>0</v>
       </c>
-      <c r="DK16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DL16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DM16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>140</v>
-      </c>
       <c r="DO16" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="DP16">
         <v>0</v>
       </c>
-      <c r="DQ16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DR16" t="s">
-        <v>140</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DT16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DU16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DV16" t="s">
-        <v>150</v>
-      </c>
-      <c r="DW16" t="s">
-        <v>150</v>
-      </c>
       <c r="DX16">
         <v>0</v>
       </c>
-      <c r="DY16" t="s">
-        <v>175</v>
-      </c>
-      <c r="DZ16" t="s">
-        <v>175</v>
-      </c>
-      <c r="EA16" t="s">
-        <v>150</v>
-      </c>
-      <c r="EB16" t="s">
-        <v>150</v>
-      </c>
-      <c r="EC16" t="s">
-        <v>150</v>
-      </c>
       <c r="ED16">
         <v>0</v>
       </c>
       <c r="EE16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:136">
@@ -6587,7 +6599,7 @@
         <v>138</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -6617,10 +6629,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U17" t="s">
-        <v>140</v>
+        <v>170</v>
+      </c>
+      <c r="V17" t="s">
+        <v>168</v>
+      </c>
+      <c r="W17" t="s">
+        <v>150</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -6634,6 +6652,12 @@
       <c r="AD17" t="s">
         <v>150</v>
       </c>
+      <c r="AE17" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ17">
         <v>0</v>
       </c>
@@ -6704,13 +6728,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="BJ17" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="BK17" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="BL17" t="s">
         <v>150</v>
@@ -6734,17 +6758,23 @@
         <v>0</v>
       </c>
       <c r="BS17" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BW17" t="s">
+        <v>165</v>
+      </c>
+      <c r="BX17" t="s">
         <v>171</v>
       </c>
-      <c r="BT17" t="s">
-        <v>150</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>149</v>
-      </c>
       <c r="CB17">
         <v>0</v>
       </c>
@@ -6836,10 +6866,10 @@
         <v>150</v>
       </c>
       <c r="DN17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="DO17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="DP17">
         <v>0</v>
@@ -6848,7 +6878,7 @@
         <v>150</v>
       </c>
       <c r="DR17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="DS17" t="s">
         <v>150</v>
@@ -6869,13 +6899,13 @@
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DZ17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="EA17" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="EB17" t="s">
         <v>150</v>
@@ -6887,10 +6917,704 @@
         <v>0</v>
       </c>
       <c r="EE17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="EF17" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:136">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>150</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>162</v>
+      </c>
+      <c r="U18" t="s">
+        <v>146</v>
+      </c>
+      <c r="V18" t="s">
+        <v>170</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>170</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>171</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>170</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>171</v>
+      </c>
+      <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
+        <v>0</v>
+      </c>
+      <c r="CF18">
+        <v>0</v>
+      </c>
+      <c r="CG18">
+        <v>0</v>
+      </c>
+      <c r="CH18">
+        <v>0</v>
+      </c>
+      <c r="CI18">
+        <v>0</v>
+      </c>
+      <c r="CJ18">
+        <v>0</v>
+      </c>
+      <c r="CK18">
+        <v>0</v>
+      </c>
+      <c r="CL18">
+        <v>0</v>
+      </c>
+      <c r="CM18">
+        <v>0</v>
+      </c>
+      <c r="CN18">
+        <v>0</v>
+      </c>
+      <c r="CO18">
+        <v>0</v>
+      </c>
+      <c r="CP18">
+        <v>0</v>
+      </c>
+      <c r="CQ18">
+        <v>0</v>
+      </c>
+      <c r="CR18">
+        <v>0</v>
+      </c>
+      <c r="CS18">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU18">
+        <v>0</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>150</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>150</v>
+      </c>
+      <c r="CY18">
+        <v>0</v>
+      </c>
+      <c r="DA18">
+        <v>0</v>
+      </c>
+      <c r="DC18">
+        <v>0</v>
+      </c>
+      <c r="DE18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>0</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+      <c r="DK18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN18" t="s">
+        <v>142</v>
+      </c>
+      <c r="DO18" t="s">
+        <v>142</v>
+      </c>
+      <c r="DP18">
+        <v>0</v>
+      </c>
+      <c r="DQ18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>142</v>
+      </c>
+      <c r="DS18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX18">
+        <v>0</v>
+      </c>
+      <c r="DY18" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA18" t="s">
+        <v>150</v>
+      </c>
+      <c r="EB18" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC18" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED18">
+        <v>0</v>
+      </c>
+      <c r="EE18" t="s">
+        <v>180</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:136">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19" t="s">
+        <v>163</v>
+      </c>
+      <c r="U19" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+      <c r="BB19">
+        <v>0</v>
+      </c>
+      <c r="BC19">
+        <v>0</v>
+      </c>
+      <c r="BD19">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>0</v>
+      </c>
+      <c r="BF19">
+        <v>0</v>
+      </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
+      <c r="BH19">
+        <v>0</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BQ19">
+        <v>0</v>
+      </c>
+      <c r="BR19">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU19">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>149</v>
+      </c>
+      <c r="CB19">
+        <v>0</v>
+      </c>
+      <c r="CC19">
+        <v>0</v>
+      </c>
+      <c r="CD19">
+        <v>0</v>
+      </c>
+      <c r="CE19">
+        <v>0</v>
+      </c>
+      <c r="CF19">
+        <v>0</v>
+      </c>
+      <c r="CG19">
+        <v>0</v>
+      </c>
+      <c r="CH19">
+        <v>0</v>
+      </c>
+      <c r="CI19">
+        <v>0</v>
+      </c>
+      <c r="CJ19">
+        <v>0</v>
+      </c>
+      <c r="CK19">
+        <v>0</v>
+      </c>
+      <c r="CL19">
+        <v>0</v>
+      </c>
+      <c r="CM19">
+        <v>0</v>
+      </c>
+      <c r="CN19">
+        <v>0</v>
+      </c>
+      <c r="CO19">
+        <v>0</v>
+      </c>
+      <c r="CP19">
+        <v>0</v>
+      </c>
+      <c r="CQ19">
+        <v>0</v>
+      </c>
+      <c r="CR19">
+        <v>0</v>
+      </c>
+      <c r="CS19">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>150</v>
+      </c>
+      <c r="CU19">
+        <v>0</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CY19">
+        <v>0</v>
+      </c>
+      <c r="DA19">
+        <v>0</v>
+      </c>
+      <c r="DC19">
+        <v>0</v>
+      </c>
+      <c r="DE19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DJ19">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DL19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DN19" t="s">
+        <v>149</v>
+      </c>
+      <c r="DO19" t="s">
+        <v>149</v>
+      </c>
+      <c r="DP19">
+        <v>0</v>
+      </c>
+      <c r="DQ19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>149</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>150</v>
+      </c>
+      <c r="DX19">
+        <v>0</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>176</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>176</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>150</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>150</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>150</v>
+      </c>
+      <c r="ED19">
+        <v>0</v>
+      </c>
+      <c r="EE19" t="s">
+        <v>180</v>
+      </c>
+      <c r="EF19" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="223">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -471,6 +471,9 @@
     <t>TENGWE - 101886 - CLINIC</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -513,9 +516,6 @@
     <t>27</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>Twintops</t>
   </si>
   <si>
     <t>Cuba Clinic</t>
@@ -1039,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF40"/>
+  <dimension ref="A1:EF41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,27 +1459,9 @@
       </c>
     </row>
     <row r="2" spans="1:136">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
       <c r="D2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
       <c r="H2" t="s">
         <v>147</v>
       </c>
@@ -1487,18 +1472,24 @@
         <v>177</v>
       </c>
       <c r="S2" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="V2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="W2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="X2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA2" t="s">
         <v>176</v>
       </c>
       <c r="AB2">
@@ -1508,15 +1499,21 @@
         <v>177</v>
       </c>
       <c r="AE2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AF2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>176</v>
       </c>
       <c r="AK2">
@@ -1583,31 +1580,31 @@
         <v>177</v>
       </c>
       <c r="BJ2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BK2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="BL2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BM2" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="BN2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BO2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BP2" t="s">
         <v>177</v>
       </c>
       <c r="BS2" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="BT2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BW2" t="s">
         <v>177</v>
@@ -1621,26 +1618,32 @@
       <c r="BZ2" t="s">
         <v>177</v>
       </c>
+      <c r="CA2" t="s">
+        <v>177</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>177</v>
+      </c>
       <c r="CC2">
         <v>0</v>
       </c>
       <c r="CE2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="CF2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="CG2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CH2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CI2">
-        <v>0</v>
-      </c>
-      <c r="CJ2">
-        <v>0</v>
+        <v>197</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>176</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>176</v>
       </c>
       <c r="CK2">
         <v>0</v>
@@ -1694,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="DK2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DL2" t="s">
         <v>177</v>
@@ -1736,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DZ2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA2" t="s">
         <v>151</v>
@@ -1755,29 +1758,50 @@
       </c>
     </row>
     <row r="3" spans="1:136">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
       <c r="D3" t="s">
         <v>144</v>
       </c>
+      <c r="E3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>142</v>
+      </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O3" t="s">
         <v>177</v>
       </c>
       <c r="S3" t="s">
-        <v>180</v>
-      </c>
-      <c r="U3" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="V3" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="W3" t="s">
-        <v>166</v>
+        <v>205</v>
+      </c>
+      <c r="X3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>176</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -1785,14 +1809,17 @@
       <c r="AC3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
-        <v>196</v>
-      </c>
       <c r="AE3" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="AF3" t="s">
-        <v>166</v>
+        <v>205</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>176</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -1855,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="BI3" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="BJ3" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="BK3" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="BL3" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="BM3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BN3" t="s">
         <v>177</v>
@@ -1879,13 +1906,10 @@
         <v>177</v>
       </c>
       <c r="BS3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="BT3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BW3" t="s">
         <v>177</v>
@@ -1893,23 +1917,26 @@
       <c r="BX3" t="s">
         <v>177</v>
       </c>
+      <c r="BY3" t="s">
+        <v>177</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>177</v>
+      </c>
       <c r="CC3">
         <v>0</v>
       </c>
-      <c r="CD3" t="s">
-        <v>196</v>
-      </c>
       <c r="CE3" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="CF3" t="s">
-        <v>166</v>
-      </c>
-      <c r="CI3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
+        <v>205</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>176</v>
       </c>
       <c r="CK3">
         <v>0</v>
@@ -1963,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="DK3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DL3" t="s">
         <v>177</v>
@@ -1975,7 +2002,7 @@
         <v>177</v>
       </c>
       <c r="DO3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DP3">
         <v>0</v>
@@ -1987,7 +2014,7 @@
         <v>177</v>
       </c>
       <c r="DS3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="DT3" t="s">
         <v>177</v>
@@ -2005,15 +2032,18 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DZ3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="EB3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EC3" t="s">
         <v>177</v>
       </c>
       <c r="EE3" t="s">
@@ -2021,27 +2051,9 @@
       </c>
     </row>
     <row r="4" spans="1:136">
-      <c r="A4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
       <c r="D4" t="s">
         <v>144</v>
       </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" t="s">
-        <v>143</v>
-      </c>
       <c r="H4" t="s">
         <v>148</v>
       </c>
@@ -2052,22 +2064,16 @@
         <v>177</v>
       </c>
       <c r="S4" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="U4" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="V4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="W4" t="s">
-        <v>202</v>
-      </c>
-      <c r="X4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -2076,19 +2082,13 @@
         <v>177</v>
       </c>
       <c r="AD4" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="AE4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="AF4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>0</v>
       </c>
       <c r="BI4" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="BJ4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="BK4" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="BL4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="BN4" t="s">
         <v>177</v>
@@ -2175,10 +2175,10 @@
         <v>177</v>
       </c>
       <c r="BS4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BT4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BV4" t="s">
         <v>177</v>
@@ -2189,35 +2189,17 @@
       <c r="BX4" t="s">
         <v>177</v>
       </c>
-      <c r="BY4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>177</v>
-      </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="CE4" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="CF4" t="s">
-        <v>202</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>176</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>196</v>
-      </c>
-      <c r="CI4">
-        <v>0</v>
-      </c>
-      <c r="CJ4">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -2271,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="DK4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DL4" t="s">
         <v>177</v>
@@ -2313,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="DZ4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA4" t="s">
         <v>152</v>
@@ -2324,41 +2306,59 @@
       <c r="EB4" t="s">
         <v>177</v>
       </c>
-      <c r="EC4" t="s">
-        <v>177</v>
-      </c>
       <c r="EE4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:136">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" t="s">
+        <v>177</v>
+      </c>
+      <c r="S5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U5" t="s">
         <v>151</v>
       </c>
-      <c r="O5" t="s">
-        <v>177</v>
-      </c>
-      <c r="S5" t="s">
-        <v>181</v>
-      </c>
-      <c r="U5" t="s">
-        <v>165</v>
-      </c>
       <c r="V5" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="W5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X5" t="s">
         <v>176</v>
       </c>
+      <c r="Y5" t="s">
+        <v>197</v>
+      </c>
       <c r="AB5">
         <v>0</v>
       </c>
@@ -2366,17 +2366,20 @@
         <v>177</v>
       </c>
       <c r="AD5" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="AF5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG5" t="s">
         <v>176</v>
       </c>
+      <c r="AH5" t="s">
+        <v>197</v>
+      </c>
       <c r="AK5">
         <v>0</v>
       </c>
@@ -2404,9 +2407,6 @@
       <c r="AS5">
         <v>0</v>
       </c>
-      <c r="AT5" t="s">
-        <v>177</v>
-      </c>
       <c r="AW5">
         <v>0</v>
       </c>
@@ -2441,19 +2441,19 @@
         <v>0</v>
       </c>
       <c r="BI5" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="BJ5" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="BK5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BL5" t="s">
         <v>176</v>
       </c>
       <c r="BM5" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="BN5" t="s">
         <v>177</v>
@@ -2465,31 +2465,43 @@
         <v>177</v>
       </c>
       <c r="BS5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BT5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BV5" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BW5" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="BX5" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="BY5" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>177</v>
       </c>
       <c r="CC5">
         <v>0</v>
       </c>
-      <c r="CI5">
-        <v>0</v>
-      </c>
-      <c r="CJ5">
-        <v>0</v>
+      <c r="CD5" t="s">
+        <v>151</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>156</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>203</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>176</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>197</v>
       </c>
       <c r="CK5">
         <v>0</v>
@@ -2518,9 +2530,6 @@
       <c r="CS5">
         <v>0</v>
       </c>
-      <c r="CT5" t="s">
-        <v>205</v>
-      </c>
       <c r="CU5">
         <v>0</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="DK5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DL5" t="s">
         <v>177</v>
@@ -2555,10 +2564,10 @@
         <v>177</v>
       </c>
       <c r="DN5" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="DO5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="DP5">
         <v>0</v>
@@ -2567,10 +2576,10 @@
         <v>177</v>
       </c>
       <c r="DR5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="DS5" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="DT5" t="s">
         <v>177</v>
@@ -2588,10 +2597,13 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>216</v>
       </c>
       <c r="EA5" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="EB5" t="s">
         <v>177</v>
@@ -2600,10 +2612,7 @@
         <v>177</v>
       </c>
       <c r="EE5" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:136">
@@ -2614,7 +2623,7 @@
         <v>149</v>
       </c>
       <c r="I6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O6" t="s">
         <v>177</v>
@@ -2623,12 +2632,15 @@
         <v>182</v>
       </c>
       <c r="U6" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="W6" t="s">
+        <v>206</v>
+      </c>
+      <c r="X6" t="s">
         <v>176</v>
       </c>
       <c r="AB6">
@@ -2638,12 +2650,15 @@
         <v>177</v>
       </c>
       <c r="AD6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE6" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AF6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG6" t="s">
         <v>176</v>
       </c>
       <c r="AK6">
@@ -2710,16 +2725,16 @@
         <v>0</v>
       </c>
       <c r="BI6" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="BJ6" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="BK6" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="BL6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BM6" t="s">
         <v>177</v>
@@ -2740,124 +2755,121 @@
         <v>177</v>
       </c>
       <c r="BV6" t="s">
+        <v>151</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>206</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>0</v>
+      </c>
+      <c r="DJ6">
+        <v>0</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>157</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>152</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX6">
+        <v>0</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>216</v>
+      </c>
+      <c r="EA6" t="s">
         <v>169</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CI6">
-        <v>0</v>
-      </c>
-      <c r="CJ6">
-        <v>0</v>
-      </c>
-      <c r="CK6">
-        <v>0</v>
-      </c>
-      <c r="CL6">
-        <v>0</v>
-      </c>
-      <c r="CM6">
-        <v>0</v>
-      </c>
-      <c r="CN6">
-        <v>0</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>0</v>
-      </c>
-      <c r="CQ6">
-        <v>0</v>
-      </c>
-      <c r="CR6">
-        <v>0</v>
-      </c>
-      <c r="CS6">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>205</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CW6">
-        <v>0</v>
-      </c>
-      <c r="CY6">
-        <v>0</v>
-      </c>
-      <c r="DA6">
-        <v>0</v>
-      </c>
-      <c r="DC6">
-        <v>0</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
-      </c>
-      <c r="DG6">
-        <v>0</v>
-      </c>
-      <c r="DJ6">
-        <v>0</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>166</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>153</v>
-      </c>
-      <c r="DP6">
-        <v>0</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>153</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>177</v>
-      </c>
-      <c r="DX6">
-        <v>0</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>202</v>
       </c>
       <c r="EB6" t="s">
         <v>177</v>
@@ -2869,7 +2881,7 @@
         <v>142</v>
       </c>
       <c r="EF6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:136">
@@ -2889,24 +2901,12 @@
         <v>183</v>
       </c>
       <c r="U7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="V7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="W7" t="s">
-        <v>204</v>
-      </c>
-      <c r="X7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA7" t="s">
         <v>176</v>
       </c>
       <c r="AB7">
@@ -2916,24 +2916,12 @@
         <v>177</v>
       </c>
       <c r="AD7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="AE7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF7" t="s">
-        <v>204</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>197</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ7" t="s">
         <v>176</v>
       </c>
       <c r="AK7">
@@ -2969,9 +2957,6 @@
       <c r="AW7">
         <v>0</v>
       </c>
-      <c r="AX7" t="s">
-        <v>177</v>
-      </c>
       <c r="AY7">
         <v>0</v>
       </c>
@@ -3003,25 +2988,25 @@
         <v>0</v>
       </c>
       <c r="BI7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="BJ7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BK7" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="BL7" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="BM7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="BN7" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="BO7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BP7" t="s">
         <v>177</v>
@@ -3033,35 +3018,17 @@
         <v>177</v>
       </c>
       <c r="BV7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="BW7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BX7" t="s">
-        <v>204</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>202</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA7" t="s">
-        <v>166</v>
-      </c>
-      <c r="CB7" t="s">
         <v>176</v>
       </c>
       <c r="CC7">
         <v>0</v>
       </c>
-      <c r="CI7">
-        <v>0</v>
-      </c>
-      <c r="CJ7">
-        <v>0</v>
-      </c>
       <c r="CK7">
         <v>0</v>
       </c>
@@ -3090,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="CT7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="CU7">
         <v>0</v>
@@ -3103,9 +3070,6 @@
       </c>
       <c r="DA7">
         <v>0</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>197</v>
       </c>
       <c r="DC7">
         <v>0</v>
@@ -3162,10 +3126,10 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA7" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="EB7" t="s">
         <v>177</v>
@@ -3177,7 +3141,7 @@
         <v>142</v>
       </c>
       <c r="EF7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:136">
@@ -3197,13 +3161,25 @@
         <v>184</v>
       </c>
       <c r="U8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V8" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="W8" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+      <c r="X8" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>176</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -3212,13 +3188,25 @@
         <v>177</v>
       </c>
       <c r="AD8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF8" t="s">
         <v>205</v>
       </c>
-      <c r="AE8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>196</v>
+      <c r="AG8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>176</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -3253,6 +3241,9 @@
       <c r="AW8">
         <v>0</v>
       </c>
+      <c r="AX8" t="s">
+        <v>177</v>
+      </c>
       <c r="AY8">
         <v>0</v>
       </c>
@@ -3284,25 +3275,25 @@
         <v>0</v>
       </c>
       <c r="BI8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BJ8" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="BK8" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="BL8" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="BM8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="BN8" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="BO8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BP8" t="s">
         <v>177</v>
@@ -3314,23 +3305,29 @@
         <v>177</v>
       </c>
       <c r="BV8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BW8" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="BX8" t="s">
-        <v>196</v>
+        <v>205</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>166</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>176</v>
       </c>
       <c r="CC8">
         <v>0</v>
       </c>
-      <c r="CI8">
-        <v>0</v>
-      </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
       <c r="CK8">
         <v>0</v>
       </c>
@@ -3359,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="CT8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -3373,6 +3370,9 @@
       <c r="DA8">
         <v>0</v>
       </c>
+      <c r="DB8" t="s">
+        <v>198</v>
+      </c>
       <c r="DC8">
         <v>0</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>177</v>
       </c>
       <c r="DN8" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="DO8" t="s">
         <v>155</v>
@@ -3428,10 +3428,10 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="EB8" t="s">
         <v>177</v>
@@ -3443,7 +3443,7 @@
         <v>142</v>
       </c>
       <c r="EF8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:136">
@@ -3463,16 +3463,13 @@
         <v>185</v>
       </c>
       <c r="U9" t="s">
+        <v>162</v>
+      </c>
+      <c r="V9" t="s">
         <v>197</v>
       </c>
-      <c r="V9" t="s">
-        <v>205</v>
-      </c>
       <c r="W9" t="s">
-        <v>176</v>
-      </c>
-      <c r="X9" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -3481,16 +3478,13 @@
         <v>177</v>
       </c>
       <c r="AD9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AE9" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AF9" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -3556,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="BI9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ9" t="s">
         <v>197</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>205</v>
-      </c>
       <c r="BK9" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="BL9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM9" t="s">
         <v>177</v>
@@ -3586,26 +3580,17 @@
         <v>177</v>
       </c>
       <c r="BV9" t="s">
+        <v>162</v>
+      </c>
+      <c r="BW9" t="s">
         <v>197</v>
       </c>
-      <c r="BW9" t="s">
-        <v>205</v>
-      </c>
       <c r="BX9" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="CC9">
         <v>0</v>
       </c>
-      <c r="CI9">
-        <v>0</v>
-      </c>
-      <c r="CJ9">
-        <v>0</v>
-      </c>
       <c r="CK9">
         <v>0</v>
       </c>
@@ -3634,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="CT9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -3670,7 +3655,7 @@
         <v>177</v>
       </c>
       <c r="DN9" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="DO9" t="s">
         <v>156</v>
@@ -3703,10 +3688,10 @@
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA9" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="EB9" t="s">
         <v>177</v>
@@ -3718,7 +3703,7 @@
         <v>142</v>
       </c>
       <c r="EF9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:136">
@@ -3738,31 +3723,31 @@
         <v>186</v>
       </c>
       <c r="U10" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="V10" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="W10" t="s">
+        <v>176</v>
+      </c>
+      <c r="X10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD10" t="s">
         <v>197</v>
       </c>
-      <c r="X10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>202</v>
-      </c>
       <c r="AE10" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="AF10" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="AG10" t="s">
         <v>176</v>
@@ -3831,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="BI10" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="BJ10" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="BK10" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="BL10" t="s">
         <v>176</v>
@@ -3861,56 +3846,50 @@
         <v>177</v>
       </c>
       <c r="BV10" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="BW10" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="BX10" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CQ10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="s">
         <v>197</v>
       </c>
-      <c r="BY10" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC10">
-        <v>0</v>
-      </c>
-      <c r="CI10">
-        <v>0</v>
-      </c>
-      <c r="CJ10">
-        <v>0</v>
-      </c>
-      <c r="CK10">
-        <v>0</v>
-      </c>
-      <c r="CL10">
-        <v>0</v>
-      </c>
-      <c r="CM10">
-        <v>0</v>
-      </c>
-      <c r="CN10">
-        <v>0</v>
-      </c>
-      <c r="CO10">
-        <v>0</v>
-      </c>
-      <c r="CP10">
-        <v>0</v>
-      </c>
-      <c r="CQ10">
-        <v>0</v>
-      </c>
-      <c r="CR10">
-        <v>0</v>
-      </c>
-      <c r="CS10">
-        <v>0</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>202</v>
-      </c>
       <c r="CU10">
         <v>0</v>
       </c>
@@ -3945,7 +3924,7 @@
         <v>177</v>
       </c>
       <c r="DN10" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="DO10" t="s">
         <v>157</v>
@@ -3978,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA10" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="EB10" t="s">
         <v>177</v>
@@ -3993,7 +3972,7 @@
         <v>142</v>
       </c>
       <c r="EF10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:136">
@@ -4013,118 +3992,112 @@
         <v>187</v>
       </c>
       <c r="U11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="V11" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="W11" t="s">
+        <v>198</v>
+      </c>
+      <c r="X11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE11" t="s">
         <v>166</v>
       </c>
-      <c r="X11" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>202</v>
-      </c>
       <c r="AF11" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BD11">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>0</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>0</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ11" t="s">
         <v>166</v>
       </c>
-      <c r="AG11" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
-        <v>0</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>153</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>202</v>
-      </c>
       <c r="BK11" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="BL11" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="BM11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BN11" t="s">
         <v>177</v>
@@ -4142,29 +4115,20 @@
         <v>177</v>
       </c>
       <c r="BV11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="BW11" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="BX11" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="BY11" t="s">
-        <v>196</v>
-      </c>
-      <c r="BZ11" t="s">
         <v>176</v>
       </c>
       <c r="CC11">
         <v>0</v>
       </c>
-      <c r="CI11">
-        <v>0</v>
-      </c>
-      <c r="CJ11">
-        <v>0</v>
-      </c>
       <c r="CK11">
         <v>0</v>
       </c>
@@ -4193,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="CT11" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="CU11">
         <v>0</v>
@@ -4229,7 +4193,7 @@
         <v>177</v>
       </c>
       <c r="DN11" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="DO11" t="s">
         <v>158</v>
@@ -4262,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA11" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="EB11" t="s">
         <v>177</v>
@@ -4277,19 +4241,10 @@
         <v>142</v>
       </c>
       <c r="EF11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:136">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
       <c r="D12" t="s">
         <v>145</v>
       </c>
@@ -4299,47 +4254,23 @@
       <c r="I12" t="s">
         <v>159</v>
       </c>
-      <c r="J12" t="s">
-        <v>173</v>
-      </c>
-      <c r="K12" t="s">
-        <v>174</v>
-      </c>
-      <c r="L12" t="s">
-        <v>175</v>
-      </c>
-      <c r="M12" t="s">
-        <v>176</v>
-      </c>
-      <c r="N12" t="s">
-        <v>176</v>
-      </c>
       <c r="O12" t="s">
         <v>177</v>
       </c>
-      <c r="P12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>161</v>
-      </c>
-      <c r="R12" t="s">
-        <v>179</v>
-      </c>
       <c r="S12" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="U12" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="V12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W12" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="X12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Y12" t="s">
         <v>176</v>
@@ -4351,16 +4282,16 @@
         <v>177</v>
       </c>
       <c r="AD12" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AE12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF12" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="AG12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="AH12" t="s">
         <v>176</v>
@@ -4429,16 +4360,16 @@
         <v>0</v>
       </c>
       <c r="BI12" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="BJ12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BK12" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="BL12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="BM12" t="s">
         <v>176</v>
@@ -4451,9 +4382,6 @@
       </c>
       <c r="BP12" t="s">
         <v>177</v>
-      </c>
-      <c r="BQ12" t="s">
-        <v>207</v>
       </c>
       <c r="BS12" t="s">
         <v>138</v>
@@ -4462,16 +4390,16 @@
         <v>177</v>
       </c>
       <c r="BV12" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="BW12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BX12" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="BY12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="BZ12" t="s">
         <v>176</v>
@@ -4479,12 +4407,6 @@
       <c r="CC12">
         <v>0</v>
       </c>
-      <c r="CI12">
-        <v>0</v>
-      </c>
-      <c r="CJ12">
-        <v>0</v>
-      </c>
       <c r="CK12">
         <v>0</v>
       </c>
@@ -4513,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="CT12" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="CU12">
         <v>0</v>
@@ -4540,7 +4462,7 @@
         <v>0</v>
       </c>
       <c r="DK12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="DL12" t="s">
         <v>177</v>
@@ -4549,7 +4471,7 @@
         <v>177</v>
       </c>
       <c r="DN12" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="DO12" t="s">
         <v>159</v>
@@ -4582,19 +4504,16 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA12" t="s">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="EB12" t="s">
         <v>177</v>
       </c>
       <c r="EC12" t="s">
         <v>177</v>
-      </c>
-      <c r="ED12" t="s">
-        <v>219</v>
       </c>
       <c r="EE12" t="s">
         <v>142</v>
@@ -4604,20 +4523,53 @@
       </c>
     </row>
     <row r="13" spans="1:136">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
       <c r="D13" t="s">
         <v>145</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I13" t="s">
         <v>160</v>
       </c>
+      <c r="J13" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" t="s">
+        <v>175</v>
+      </c>
+      <c r="M13" t="s">
+        <v>176</v>
+      </c>
+      <c r="N13" t="s">
+        <v>176</v>
+      </c>
       <c r="O13" t="s">
         <v>177</v>
       </c>
+      <c r="P13" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13" t="s">
+        <v>179</v>
+      </c>
       <c r="S13" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="U13" t="s">
         <v>199</v>
@@ -4626,10 +4578,13 @@
         <v>205</v>
       </c>
       <c r="W13" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="X13" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>176</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -4638,15 +4593,18 @@
         <v>177</v>
       </c>
       <c r="AD13" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="AE13" t="s">
         <v>205</v>
       </c>
       <c r="AF13" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AG13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH13" t="s">
         <v>176</v>
       </c>
       <c r="AK13">
@@ -4719,13 +4677,13 @@
         <v>205</v>
       </c>
       <c r="BK13" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="BL13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="BM13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BN13" t="s">
         <v>177</v>
@@ -4735,6 +4693,9 @@
       </c>
       <c r="BP13" t="s">
         <v>177</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>208</v>
       </c>
       <c r="BS13" t="s">
         <v>138</v>
@@ -4749,20 +4710,17 @@
         <v>205</v>
       </c>
       <c r="BX13" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="BY13" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>176</v>
       </c>
       <c r="CC13">
         <v>0</v>
       </c>
-      <c r="CI13">
-        <v>0</v>
-      </c>
-      <c r="CJ13">
-        <v>0</v>
-      </c>
       <c r="CK13">
         <v>0</v>
       </c>
@@ -4791,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="CT13" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="CU13">
         <v>0</v>
@@ -4818,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="DK13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DL13" t="s">
         <v>177</v>
@@ -4827,10 +4785,10 @@
         <v>177</v>
       </c>
       <c r="DN13" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="DO13" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="DP13">
         <v>0</v>
@@ -4839,7 +4797,7 @@
         <v>177</v>
       </c>
       <c r="DR13" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="DS13" t="s">
         <v>177</v>
@@ -4860,22 +4818,25 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA13" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="EB13" t="s">
         <v>177</v>
       </c>
       <c r="EC13" t="s">
         <v>177</v>
+      </c>
+      <c r="ED13" t="s">
+        <v>220</v>
       </c>
       <c r="EE13" t="s">
         <v>142</v>
       </c>
       <c r="EF13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:136">
@@ -4895,7 +4856,16 @@
         <v>189</v>
       </c>
       <c r="U14" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="V14" t="s">
+        <v>206</v>
+      </c>
+      <c r="W14" t="s">
+        <v>176</v>
+      </c>
+      <c r="X14" t="s">
+        <v>206</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -4904,7 +4874,16 @@
         <v>177</v>
       </c>
       <c r="AD14" t="s">
-        <v>177</v>
+        <v>166</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>176</v>
       </c>
       <c r="AK14">
         <v>0</v>
@@ -4970,16 +4949,16 @@
         <v>0</v>
       </c>
       <c r="BI14" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="BJ14" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="BK14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BL14" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="BM14" t="s">
         <v>177</v>
@@ -5000,17 +4979,20 @@
         <v>177</v>
       </c>
       <c r="BV14" t="s">
-        <v>161</v>
+        <v>200</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>176</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>206</v>
       </c>
       <c r="CC14">
         <v>0</v>
       </c>
-      <c r="CI14">
-        <v>0</v>
-      </c>
-      <c r="CJ14">
-        <v>0</v>
-      </c>
       <c r="CK14">
         <v>0</v>
       </c>
@@ -5039,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="CT14" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="CU14">
         <v>0</v>
@@ -5075,10 +5057,10 @@
         <v>177</v>
       </c>
       <c r="DN14" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="DO14" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="DP14">
         <v>0</v>
@@ -5087,7 +5069,7 @@
         <v>177</v>
       </c>
       <c r="DR14" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="DS14" t="s">
         <v>177</v>
@@ -5108,10 +5090,10 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA14" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="EB14" t="s">
         <v>177</v>
@@ -5121,6 +5103,9 @@
       </c>
       <c r="EE14" t="s">
         <v>142</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:136">
@@ -5140,13 +5125,7 @@
         <v>190</v>
       </c>
       <c r="U15" t="s">
-        <v>200</v>
-      </c>
-      <c r="V15" t="s">
-        <v>166</v>
-      </c>
-      <c r="W15" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -5155,13 +5134,7 @@
         <v>177</v>
       </c>
       <c r="AD15" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -5193,9 +5166,6 @@
       <c r="AT15" t="s">
         <v>177</v>
       </c>
-      <c r="AU15" t="s">
-        <v>177</v>
-      </c>
       <c r="AW15">
         <v>0</v>
       </c>
@@ -5230,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="BI15" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="BJ15" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="BK15" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="BL15" t="s">
         <v>177</v>
@@ -5260,23 +5230,11 @@
         <v>177</v>
       </c>
       <c r="BV15" t="s">
-        <v>200</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>166</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="CC15">
         <v>0</v>
       </c>
-      <c r="CI15">
-        <v>0</v>
-      </c>
-      <c r="CJ15">
-        <v>0</v>
-      </c>
       <c r="CK15">
         <v>0</v>
       </c>
@@ -5305,14 +5263,11 @@
         <v>0</v>
       </c>
       <c r="CT15" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="CU15">
         <v>0</v>
       </c>
-      <c r="CV15" t="s">
-        <v>197</v>
-      </c>
       <c r="CW15">
         <v>0</v>
       </c>
@@ -5344,7 +5299,7 @@
         <v>177</v>
       </c>
       <c r="DN15" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="DO15" t="s">
         <v>162</v>
@@ -5377,10 +5332,10 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA15" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EB15" t="s">
         <v>177</v>
@@ -5399,15 +5354,39 @@
       <c r="H16" t="s">
         <v>150</v>
       </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
       <c r="O16" t="s">
         <v>177</v>
       </c>
       <c r="S16" t="s">
         <v>191</v>
       </c>
+      <c r="U16" t="s">
+        <v>201</v>
+      </c>
+      <c r="V16" t="s">
+        <v>166</v>
+      </c>
+      <c r="W16" t="s">
+        <v>206</v>
+      </c>
       <c r="AB16">
         <v>0</v>
       </c>
+      <c r="AC16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>206</v>
+      </c>
       <c r="AK16">
         <v>0</v>
       </c>
@@ -5435,6 +5414,12 @@
       <c r="AS16">
         <v>0</v>
       </c>
+      <c r="AT16" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>177</v>
+      </c>
       <c r="AW16">
         <v>0</v>
       </c>
@@ -5469,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="BI16" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="BJ16" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="BK16" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="BL16" t="s">
         <v>177</v>
@@ -5495,15 +5480,21 @@
       <c r="BS16" t="s">
         <v>138</v>
       </c>
+      <c r="BT16" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>206</v>
+      </c>
       <c r="CC16">
         <v>0</v>
       </c>
-      <c r="CI16">
-        <v>0</v>
-      </c>
-      <c r="CJ16">
-        <v>0</v>
-      </c>
       <c r="CK16">
         <v>0</v>
       </c>
@@ -5531,9 +5522,15 @@
       <c r="CS16">
         <v>0</v>
       </c>
+      <c r="CT16" t="s">
+        <v>203</v>
+      </c>
       <c r="CU16">
         <v>0</v>
       </c>
+      <c r="CV16" t="s">
+        <v>198</v>
+      </c>
       <c r="CW16">
         <v>0</v>
       </c>
@@ -5555,77 +5552,80 @@
       <c r="DJ16">
         <v>0</v>
       </c>
+      <c r="DK16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN16" t="s">
+        <v>172</v>
+      </c>
       <c r="DO16" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="DP16">
         <v>0</v>
       </c>
+      <c r="DQ16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR16" t="s">
+        <v>163</v>
+      </c>
+      <c r="DS16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>177</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>177</v>
+      </c>
       <c r="DX16">
         <v>0</v>
+      </c>
+      <c r="DY16" t="s">
+        <v>216</v>
+      </c>
+      <c r="EA16" t="s">
+        <v>151</v>
+      </c>
+      <c r="EB16" t="s">
+        <v>177</v>
+      </c>
+      <c r="EC16" t="s">
+        <v>177</v>
       </c>
       <c r="EE16" t="s">
         <v>142</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="4:136">
       <c r="D17" t="s">
         <v>145</v>
       </c>
-      <c r="E17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17" t="s">
-        <v>142</v>
-      </c>
       <c r="H17" t="s">
         <v>150</v>
       </c>
-      <c r="I17" t="s">
-        <v>163</v>
-      </c>
       <c r="O17" t="s">
         <v>177</v>
       </c>
       <c r="S17" t="s">
-        <v>146</v>
-      </c>
-      <c r="U17" t="s">
-        <v>201</v>
-      </c>
-      <c r="V17" t="s">
-        <v>196</v>
-      </c>
-      <c r="W17" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="AB17">
         <v>0</v>
       </c>
-      <c r="AC17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>176</v>
-      </c>
       <c r="AK17">
         <v>0</v>
       </c>
@@ -5653,12 +5653,6 @@
       <c r="AS17">
         <v>0</v>
       </c>
-      <c r="AT17" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>177</v>
-      </c>
       <c r="AW17">
         <v>0</v>
       </c>
@@ -5693,13 +5687,13 @@
         <v>0</v>
       </c>
       <c r="BI17" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="BJ17" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="BK17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BL17" t="s">
         <v>177</v>
@@ -5708,47 +5702,20 @@
         <v>177</v>
       </c>
       <c r="BN17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BO17" t="s">
         <v>177</v>
       </c>
       <c r="BP17" t="s">
         <v>177</v>
-      </c>
-      <c r="BR17" t="s">
-        <v>208</v>
       </c>
       <c r="BS17" t="s">
         <v>138</v>
       </c>
-      <c r="BT17" t="s">
-        <v>176</v>
-      </c>
-      <c r="BU17" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV17" t="s">
-        <v>201</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>176</v>
-      </c>
-      <c r="CA17" t="s">
-        <v>176</v>
-      </c>
       <c r="CC17">
         <v>0</v>
       </c>
-      <c r="CI17">
-        <v>0</v>
-      </c>
-      <c r="CJ17">
-        <v>0</v>
-      </c>
       <c r="CK17">
         <v>0</v>
       </c>
@@ -5776,15 +5743,9 @@
       <c r="CS17">
         <v>0</v>
       </c>
-      <c r="CT17" t="s">
-        <v>169</v>
-      </c>
       <c r="CU17">
         <v>0</v>
       </c>
-      <c r="CV17" t="s">
-        <v>177</v>
-      </c>
       <c r="CW17">
         <v>0</v>
       </c>
@@ -5806,71 +5767,35 @@
       <c r="DJ17">
         <v>0</v>
       </c>
-      <c r="DK17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>212</v>
-      </c>
       <c r="DO17" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="DP17">
         <v>0</v>
       </c>
-      <c r="DQ17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DR17" t="s">
-        <v>163</v>
-      </c>
-      <c r="DS17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DT17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DU17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DV17" t="s">
-        <v>177</v>
-      </c>
-      <c r="DW17" t="s">
-        <v>176</v>
-      </c>
       <c r="DX17">
         <v>0</v>
-      </c>
-      <c r="DY17" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA17" t="s">
-        <v>153</v>
-      </c>
-      <c r="EB17" t="s">
-        <v>177</v>
-      </c>
-      <c r="EC17" t="s">
-        <v>177</v>
       </c>
       <c r="EE17" t="s">
         <v>142</v>
       </c>
       <c r="EF17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="4:136">
       <c r="D18" t="s">
         <v>145</v>
       </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
+      </c>
       <c r="H18" t="s">
         <v>150</v>
       </c>
@@ -5881,13 +5806,19 @@
         <v>177</v>
       </c>
       <c r="S18" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="U18" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="V18" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>176</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -5896,10 +5827,16 @@
         <v>177</v>
       </c>
       <c r="AD18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AE18" t="s">
-        <v>196</v>
+        <v>177</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>176</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -5931,6 +5868,9 @@
       <c r="AT18" t="s">
         <v>177</v>
       </c>
+      <c r="AU18" t="s">
+        <v>177</v>
+      </c>
       <c r="AW18">
         <v>0</v>
       </c>
@@ -5965,13 +5905,13 @@
         <v>0</v>
       </c>
       <c r="BI18" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="BJ18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BK18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BL18" t="s">
         <v>177</v>
@@ -5980,35 +5920,41 @@
         <v>177</v>
       </c>
       <c r="BN18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BO18" t="s">
         <v>177</v>
       </c>
       <c r="BP18" t="s">
         <v>177</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>209</v>
       </c>
       <c r="BS18" t="s">
         <v>138</v>
       </c>
       <c r="BT18" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>211</v>
       </c>
       <c r="BV18" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="BW18" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>176</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>176</v>
       </c>
       <c r="CC18">
         <v>0</v>
       </c>
-      <c r="CI18">
-        <v>0</v>
-      </c>
-      <c r="CJ18">
-        <v>0</v>
-      </c>
       <c r="CK18">
         <v>0</v>
       </c>
@@ -6037,11 +5983,14 @@
         <v>0</v>
       </c>
       <c r="CT18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="CU18">
         <v>0</v>
       </c>
+      <c r="CV18" t="s">
+        <v>177</v>
+      </c>
       <c r="CW18">
         <v>0</v>
       </c>
@@ -6073,7 +6022,7 @@
         <v>177</v>
       </c>
       <c r="DN18" t="s">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="DO18" t="s">
         <v>164</v>
@@ -6100,16 +6049,16 @@
         <v>177</v>
       </c>
       <c r="DW18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DX18">
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA18" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="EB18" t="s">
         <v>177</v>
@@ -6119,6 +6068,9 @@
       </c>
       <c r="EE18" t="s">
         <v>142</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="4:136">
@@ -6128,15 +6080,33 @@
       <c r="H19" t="s">
         <v>150</v>
       </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
       <c r="O19" t="s">
         <v>177</v>
       </c>
       <c r="S19" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="U19" t="s">
+        <v>159</v>
+      </c>
+      <c r="V19" t="s">
+        <v>197</v>
       </c>
       <c r="AB19">
         <v>0</v>
       </c>
+      <c r="AC19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>197</v>
+      </c>
       <c r="AK19">
         <v>0</v>
       </c>
@@ -6164,6 +6134,9 @@
       <c r="AS19">
         <v>0</v>
       </c>
+      <c r="AT19" t="s">
+        <v>177</v>
+      </c>
       <c r="AW19">
         <v>0</v>
       </c>
@@ -6198,10 +6171,10 @@
         <v>0</v>
       </c>
       <c r="BI19" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="BJ19" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="BK19" t="s">
         <v>177</v>
@@ -6222,17 +6195,20 @@
         <v>177</v>
       </c>
       <c r="BS19" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>159</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>197</v>
       </c>
       <c r="CC19">
         <v>0</v>
       </c>
-      <c r="CI19">
-        <v>0</v>
-      </c>
-      <c r="CJ19">
-        <v>0</v>
-      </c>
       <c r="CK19">
         <v>0</v>
       </c>
@@ -6260,6 +6236,9 @@
       <c r="CS19">
         <v>0</v>
       </c>
+      <c r="CT19" t="s">
+        <v>177</v>
+      </c>
       <c r="CU19">
         <v>0</v>
       </c>
@@ -6284,14 +6263,59 @@
       <c r="DJ19">
         <v>0</v>
       </c>
+      <c r="DK19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN19" t="s">
+        <v>159</v>
+      </c>
       <c r="DO19" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="DP19">
         <v>0</v>
       </c>
+      <c r="DQ19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>165</v>
+      </c>
+      <c r="DS19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>177</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>177</v>
+      </c>
       <c r="DX19">
         <v>0</v>
+      </c>
+      <c r="DY19" t="s">
+        <v>216</v>
+      </c>
+      <c r="EA19" t="s">
+        <v>197</v>
+      </c>
+      <c r="EB19" t="s">
+        <v>177</v>
+      </c>
+      <c r="EC19" t="s">
+        <v>177</v>
       </c>
       <c r="EE19" t="s">
         <v>142</v>
@@ -6304,39 +6328,15 @@
       <c r="H20" t="s">
         <v>150</v>
       </c>
-      <c r="I20" t="s">
-        <v>165</v>
-      </c>
       <c r="O20" t="s">
         <v>177</v>
       </c>
       <c r="S20" t="s">
         <v>190</v>
       </c>
-      <c r="U20" t="s">
-        <v>169</v>
-      </c>
-      <c r="V20" t="s">
-        <v>205</v>
-      </c>
-      <c r="W20" t="s">
-        <v>176</v>
-      </c>
       <c r="AB20">
         <v>0</v>
       </c>
-      <c r="AC20" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>176</v>
-      </c>
       <c r="AK20">
         <v>0</v>
       </c>
@@ -6398,13 +6398,13 @@
         <v>0</v>
       </c>
       <c r="BI20" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="BJ20" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="BK20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BL20" t="s">
         <v>177</v>
@@ -6424,27 +6424,9 @@
       <c r="BS20" t="s">
         <v>136</v>
       </c>
-      <c r="BT20" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>169</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>176</v>
-      </c>
       <c r="CC20">
         <v>0</v>
       </c>
-      <c r="CI20">
-        <v>0</v>
-      </c>
-      <c r="CJ20">
-        <v>0</v>
-      </c>
       <c r="CK20">
         <v>0</v>
       </c>
@@ -6496,59 +6478,14 @@
       <c r="DJ20">
         <v>0</v>
       </c>
-      <c r="DK20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DN20" t="s">
-        <v>177</v>
-      </c>
       <c r="DO20" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DP20">
         <v>0</v>
       </c>
-      <c r="DQ20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DR20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DT20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DU20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DV20" t="s">
-        <v>177</v>
-      </c>
-      <c r="DW20" t="s">
-        <v>177</v>
-      </c>
       <c r="DX20">
         <v>0</v>
-      </c>
-      <c r="DY20" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA20" t="s">
-        <v>165</v>
-      </c>
-      <c r="EB20" t="s">
-        <v>177</v>
-      </c>
-      <c r="EC20" t="s">
-        <v>177</v>
       </c>
       <c r="EE20" t="s">
         <v>142</v>
@@ -6562,16 +6499,22 @@
         <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O21" t="s">
         <v>177</v>
       </c>
       <c r="S21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U21" t="s">
-        <v>165</v>
+        <v>169</v>
+      </c>
+      <c r="V21" t="s">
+        <v>206</v>
+      </c>
+      <c r="W21" t="s">
+        <v>176</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -6580,7 +6523,13 @@
         <v>177</v>
       </c>
       <c r="AD21" t="s">
-        <v>177</v>
+        <v>169</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>176</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -6609,9 +6558,6 @@
       <c r="AS21">
         <v>0</v>
       </c>
-      <c r="AT21" t="s">
-        <v>177</v>
-      </c>
       <c r="AW21">
         <v>0</v>
       </c>
@@ -6646,13 +6592,13 @@
         <v>0</v>
       </c>
       <c r="BI21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="BJ21" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="BK21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BL21" t="s">
         <v>177</v>
@@ -6676,17 +6622,17 @@
         <v>177</v>
       </c>
       <c r="BV21" t="s">
-        <v>165</v>
+        <v>169</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>176</v>
       </c>
       <c r="CC21">
         <v>0</v>
       </c>
-      <c r="CI21">
-        <v>0</v>
-      </c>
-      <c r="CJ21">
-        <v>0</v>
-      </c>
       <c r="CK21">
         <v>0</v>
       </c>
@@ -6714,9 +6660,6 @@
       <c r="CS21">
         <v>0</v>
       </c>
-      <c r="CT21" t="s">
-        <v>177</v>
-      </c>
       <c r="CU21">
         <v>0</v>
       </c>
@@ -6751,10 +6694,10 @@
         <v>177</v>
       </c>
       <c r="DN21" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DO21" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="DP21">
         <v>0</v>
@@ -6763,7 +6706,7 @@
         <v>177</v>
       </c>
       <c r="DR21" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="DS21" t="s">
         <v>177</v>
@@ -6784,10 +6727,10 @@
         <v>0</v>
       </c>
       <c r="DY21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA21" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="EB21" t="s">
         <v>177</v>
@@ -6806,15 +6749,27 @@
       <c r="H22" t="s">
         <v>150</v>
       </c>
+      <c r="I22" t="s">
+        <v>151</v>
+      </c>
       <c r="O22" t="s">
         <v>177</v>
       </c>
       <c r="S22" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="U22" t="s">
+        <v>151</v>
       </c>
       <c r="AB22">
         <v>0</v>
       </c>
+      <c r="AC22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>177</v>
+      </c>
       <c r="AK22">
         <v>0</v>
       </c>
@@ -6842,6 +6797,9 @@
       <c r="AS22">
         <v>0</v>
       </c>
+      <c r="AT22" t="s">
+        <v>177</v>
+      </c>
       <c r="AW22">
         <v>0</v>
       </c>
@@ -6876,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="BI22" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="BJ22" t="s">
         <v>177</v>
@@ -6902,15 +6860,15 @@
       <c r="BS22" t="s">
         <v>136</v>
       </c>
+      <c r="BT22" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>151</v>
+      </c>
       <c r="CC22">
         <v>0</v>
       </c>
-      <c r="CI22">
-        <v>0</v>
-      </c>
-      <c r="CJ22">
-        <v>0</v>
-      </c>
       <c r="CK22">
         <v>0</v>
       </c>
@@ -6938,6 +6896,9 @@
       <c r="CS22">
         <v>0</v>
       </c>
+      <c r="CT22" t="s">
+        <v>177</v>
+      </c>
       <c r="CU22">
         <v>0</v>
       </c>
@@ -6962,20 +6923,62 @@
       <c r="DJ22">
         <v>0</v>
       </c>
+      <c r="DK22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN22" t="s">
+        <v>151</v>
+      </c>
       <c r="DO22" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="DP22">
         <v>0</v>
       </c>
+      <c r="DQ22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR22" t="s">
+        <v>151</v>
+      </c>
+      <c r="DS22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV22" t="s">
+        <v>177</v>
+      </c>
+      <c r="DW22" t="s">
+        <v>177</v>
+      </c>
       <c r="DX22">
         <v>0</v>
+      </c>
+      <c r="DY22" t="s">
+        <v>216</v>
+      </c>
+      <c r="EA22" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB22" t="s">
+        <v>177</v>
+      </c>
+      <c r="EC22" t="s">
+        <v>177</v>
       </c>
       <c r="EE22" t="s">
         <v>142</v>
-      </c>
-      <c r="EF22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="23" spans="4:136">
@@ -6983,47 +6986,17 @@
         <v>145</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="O23" t="s">
         <v>177</v>
       </c>
       <c r="S23" t="s">
-        <v>186</v>
-      </c>
-      <c r="U23" t="s">
-        <v>202</v>
-      </c>
-      <c r="V23" t="s">
-        <v>196</v>
-      </c>
-      <c r="W23" t="s">
-        <v>176</v>
-      </c>
-      <c r="X23" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="AB23">
         <v>0</v>
       </c>
-      <c r="AC23" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>176</v>
-      </c>
       <c r="AK23">
         <v>0</v>
       </c>
@@ -7085,16 +7058,16 @@
         <v>0</v>
       </c>
       <c r="BI23" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="BJ23" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="BK23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BL23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM23" t="s">
         <v>177</v>
@@ -7111,30 +7084,9 @@
       <c r="BS23" t="s">
         <v>136</v>
       </c>
-      <c r="BT23" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>202</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>176</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>176</v>
-      </c>
       <c r="CC23">
         <v>0</v>
       </c>
-      <c r="CI23">
-        <v>0</v>
-      </c>
-      <c r="CJ23">
-        <v>0</v>
-      </c>
       <c r="CK23">
         <v>0</v>
       </c>
@@ -7186,65 +7138,20 @@
       <c r="DJ23">
         <v>0</v>
       </c>
-      <c r="DK23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DN23" t="s">
-        <v>177</v>
-      </c>
       <c r="DO23" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="DP23">
         <v>0</v>
       </c>
-      <c r="DQ23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DR23" t="s">
-        <v>156</v>
-      </c>
-      <c r="DS23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DT23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DU23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DV23" t="s">
-        <v>177</v>
-      </c>
-      <c r="DW23" t="s">
-        <v>177</v>
-      </c>
       <c r="DX23">
         <v>0</v>
-      </c>
-      <c r="DY23" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA23" t="s">
-        <v>156</v>
-      </c>
-      <c r="EB23" t="s">
-        <v>177</v>
-      </c>
-      <c r="EC23" t="s">
-        <v>177</v>
       </c>
       <c r="EE23" t="s">
         <v>142</v>
       </c>
       <c r="EF23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="4:136">
@@ -7255,29 +7162,26 @@
         <v>149</v>
       </c>
       <c r="I24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="O24" t="s">
         <v>177</v>
       </c>
       <c r="S24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U24" t="s">
+        <v>203</v>
+      </c>
+      <c r="V24" t="s">
         <v>197</v>
       </c>
-      <c r="V24" t="s">
-        <v>166</v>
-      </c>
       <c r="W24" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="X24" t="s">
         <v>176</v>
       </c>
-      <c r="Y24" t="s">
-        <v>176</v>
-      </c>
       <c r="AB24">
         <v>0</v>
       </c>
@@ -7285,20 +7189,17 @@
         <v>177</v>
       </c>
       <c r="AD24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AE24" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AG24" t="s">
         <v>176</v>
       </c>
-      <c r="AH24" t="s">
-        <v>176</v>
-      </c>
       <c r="AK24">
         <v>0</v>
       </c>
@@ -7326,9 +7227,6 @@
       <c r="AS24">
         <v>0</v>
       </c>
-      <c r="AT24" t="s">
-        <v>177</v>
-      </c>
       <c r="AW24">
         <v>0</v>
       </c>
@@ -7363,19 +7261,19 @@
         <v>0</v>
       </c>
       <c r="BI24" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ24" t="s">
         <v>197</v>
       </c>
-      <c r="BJ24" t="s">
-        <v>166</v>
-      </c>
       <c r="BK24" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="BL24" t="s">
         <v>176</v>
       </c>
       <c r="BM24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BN24" t="s">
         <v>177</v>
@@ -7387,35 +7285,26 @@
         <v>177</v>
       </c>
       <c r="BS24" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="BT24" t="s">
         <v>177</v>
       </c>
       <c r="BV24" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW24" t="s">
         <v>197</v>
       </c>
-      <c r="BW24" t="s">
-        <v>166</v>
-      </c>
       <c r="BX24" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="BY24" t="s">
         <v>176</v>
       </c>
-      <c r="BZ24" t="s">
-        <v>176</v>
-      </c>
       <c r="CC24">
         <v>0</v>
       </c>
-      <c r="CI24">
-        <v>0</v>
-      </c>
-      <c r="CJ24">
-        <v>0</v>
-      </c>
       <c r="CK24">
         <v>0</v>
       </c>
@@ -7443,9 +7332,6 @@
       <c r="CS24">
         <v>0</v>
       </c>
-      <c r="CT24" t="s">
-        <v>205</v>
-      </c>
       <c r="CU24">
         <v>0</v>
       </c>
@@ -7480,10 +7366,10 @@
         <v>177</v>
       </c>
       <c r="DN24" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="DO24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="DP24">
         <v>0</v>
@@ -7492,7 +7378,7 @@
         <v>177</v>
       </c>
       <c r="DR24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="DS24" t="s">
         <v>177</v>
@@ -7513,10 +7399,10 @@
         <v>0</v>
       </c>
       <c r="DY24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA24" t="s">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c r="EB24" t="s">
         <v>177</v>
@@ -7528,7 +7414,7 @@
         <v>142</v>
       </c>
       <c r="EF24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="4:136">
@@ -7539,24 +7425,48 @@
         <v>149</v>
       </c>
       <c r="I25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s">
+        <v>177</v>
+      </c>
+      <c r="S25" t="s">
+        <v>187</v>
+      </c>
+      <c r="U25" t="s">
+        <v>198</v>
+      </c>
+      <c r="V25" t="s">
         <v>166</v>
       </c>
-      <c r="O25" t="s">
-        <v>177</v>
-      </c>
-      <c r="S25" t="s">
-        <v>184</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="W25" t="s">
+        <v>197</v>
+      </c>
+      <c r="X25" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE25" t="s">
         <v>166</v>
       </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="AF25" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH25" t="s">
         <v>176</v>
       </c>
       <c r="AK25">
@@ -7623,19 +7533,19 @@
         <v>0</v>
       </c>
       <c r="BI25" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ25" t="s">
         <v>166</v>
       </c>
-      <c r="BJ25" t="s">
-        <v>177</v>
-      </c>
       <c r="BK25" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="BL25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BM25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BN25" t="s">
         <v>177</v>
@@ -7647,23 +7557,29 @@
         <v>177</v>
       </c>
       <c r="BS25" t="s">
-        <v>136</v>
+        <v>210</v>
       </c>
       <c r="BT25" t="s">
         <v>177</v>
       </c>
       <c r="BV25" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW25" t="s">
         <v>166</v>
       </c>
+      <c r="BX25" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>176</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>176</v>
+      </c>
       <c r="CC25">
         <v>0</v>
       </c>
-      <c r="CI25">
-        <v>0</v>
-      </c>
-      <c r="CJ25">
-        <v>0</v>
-      </c>
       <c r="CK25">
         <v>0</v>
       </c>
@@ -7692,7 +7608,7 @@
         <v>0</v>
       </c>
       <c r="CT25" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="CU25">
         <v>0</v>
@@ -7731,7 +7647,7 @@
         <v>197</v>
       </c>
       <c r="DO25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="DP25">
         <v>0</v>
@@ -7740,7 +7656,7 @@
         <v>177</v>
       </c>
       <c r="DR25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="DS25" t="s">
         <v>177</v>
@@ -7761,10 +7677,10 @@
         <v>0</v>
       </c>
       <c r="DY25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA25" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="EB25" t="s">
         <v>177</v>
@@ -7776,7 +7692,7 @@
         <v>142</v>
       </c>
       <c r="EF25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="4:136">
@@ -7787,7 +7703,7 @@
         <v>149</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O26" t="s">
         <v>177</v>
@@ -7796,13 +7712,7 @@
         <v>185</v>
       </c>
       <c r="U26" t="s">
-        <v>197</v>
-      </c>
-      <c r="V26" t="s">
-        <v>196</v>
-      </c>
-      <c r="W26" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="AB26">
         <v>0</v>
@@ -7811,13 +7721,7 @@
         <v>177</v>
       </c>
       <c r="AD26" t="s">
-        <v>205</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AK26">
         <v>0</v>
@@ -7883,13 +7787,13 @@
         <v>0</v>
       </c>
       <c r="BI26" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="BJ26" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="BK26" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="BL26" t="s">
         <v>177</v>
@@ -7913,23 +7817,11 @@
         <v>177</v>
       </c>
       <c r="BV26" t="s">
-        <v>197</v>
-      </c>
-      <c r="BW26" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX26" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="CC26">
         <v>0</v>
       </c>
-      <c r="CI26">
-        <v>0</v>
-      </c>
-      <c r="CJ26">
-        <v>0</v>
-      </c>
       <c r="CK26">
         <v>0</v>
       </c>
@@ -7958,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="CT26" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="CU26">
         <v>0</v>
@@ -7994,10 +7886,10 @@
         <v>177</v>
       </c>
       <c r="DN26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="DO26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DP26">
         <v>0</v>
@@ -8006,7 +7898,7 @@
         <v>177</v>
       </c>
       <c r="DR26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="DS26" t="s">
         <v>177</v>
@@ -8027,10 +7919,10 @@
         <v>0</v>
       </c>
       <c r="DY26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA26" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="EB26" t="s">
         <v>177</v>
@@ -8042,7 +7934,7 @@
         <v>142</v>
       </c>
       <c r="EF26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="4:136">
@@ -8053,22 +7945,22 @@
         <v>149</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="O27" t="s">
         <v>177</v>
       </c>
       <c r="S27" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="U27" t="s">
+        <v>198</v>
+      </c>
+      <c r="V27" t="s">
         <v>197</v>
       </c>
-      <c r="V27" t="s">
-        <v>196</v>
-      </c>
       <c r="W27" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -8077,13 +7969,13 @@
         <v>177</v>
       </c>
       <c r="AD27" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="AE27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -8149,13 +8041,13 @@
         <v>0</v>
       </c>
       <c r="BI27" t="s">
+        <v>198</v>
+      </c>
+      <c r="BJ27" t="s">
         <v>197</v>
       </c>
-      <c r="BJ27" t="s">
-        <v>196</v>
-      </c>
       <c r="BK27" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="BL27" t="s">
         <v>177</v>
@@ -8179,23 +8071,17 @@
         <v>177</v>
       </c>
       <c r="BV27" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW27" t="s">
         <v>197</v>
       </c>
-      <c r="BW27" t="s">
-        <v>196</v>
-      </c>
       <c r="BX27" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="CC27">
         <v>0</v>
       </c>
-      <c r="CI27">
-        <v>0</v>
-      </c>
-      <c r="CJ27">
-        <v>0</v>
-      </c>
       <c r="CK27">
         <v>0</v>
       </c>
@@ -8224,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="CT27" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="CU27">
         <v>0</v>
@@ -8263,7 +8149,7 @@
         <v>197</v>
       </c>
       <c r="DO27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="DP27">
         <v>0</v>
@@ -8272,7 +8158,7 @@
         <v>177</v>
       </c>
       <c r="DR27" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="DS27" t="s">
         <v>177</v>
@@ -8293,10 +8179,10 @@
         <v>0</v>
       </c>
       <c r="DY27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA27" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="EB27" t="s">
         <v>177</v>
@@ -8308,7 +8194,7 @@
         <v>142</v>
       </c>
       <c r="EF27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="4:136">
@@ -8319,24 +8205,21 @@
         <v>149</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="O28" t="s">
         <v>177</v>
       </c>
       <c r="S28" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="U28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="V28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W28" t="s">
-        <v>196</v>
-      </c>
-      <c r="X28" t="s">
         <v>176</v>
       </c>
       <c r="AB28">
@@ -8346,15 +8229,12 @@
         <v>177</v>
       </c>
       <c r="AD28" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AE28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF28" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG28" t="s">
         <v>176</v>
       </c>
       <c r="AK28">
@@ -8421,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="BI28" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="BJ28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BK28" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="BL28" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM28" t="s">
         <v>177</v>
@@ -8451,127 +8331,118 @@
         <v>177</v>
       </c>
       <c r="BV28" t="s">
+        <v>198</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC28">
+        <v>0</v>
+      </c>
+      <c r="CK28">
+        <v>0</v>
+      </c>
+      <c r="CL28">
+        <v>0</v>
+      </c>
+      <c r="CM28">
+        <v>0</v>
+      </c>
+      <c r="CN28">
+        <v>0</v>
+      </c>
+      <c r="CO28">
+        <v>0</v>
+      </c>
+      <c r="CP28">
+        <v>0</v>
+      </c>
+      <c r="CQ28">
+        <v>0</v>
+      </c>
+      <c r="CR28">
+        <v>0</v>
+      </c>
+      <c r="CS28">
+        <v>0</v>
+      </c>
+      <c r="CT28" t="s">
+        <v>177</v>
+      </c>
+      <c r="CU28">
+        <v>0</v>
+      </c>
+      <c r="CW28">
+        <v>0</v>
+      </c>
+      <c r="CY28">
+        <v>0</v>
+      </c>
+      <c r="DA28">
+        <v>0</v>
+      </c>
+      <c r="DC28">
+        <v>0</v>
+      </c>
+      <c r="DE28">
+        <v>0</v>
+      </c>
+      <c r="DG28">
+        <v>0</v>
+      </c>
+      <c r="DJ28">
+        <v>0</v>
+      </c>
+      <c r="DK28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN28" t="s">
+        <v>198</v>
+      </c>
+      <c r="DO28" t="s">
+        <v>157</v>
+      </c>
+      <c r="DP28">
+        <v>0</v>
+      </c>
+      <c r="DQ28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR28" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DW28" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX28">
+        <v>0</v>
+      </c>
+      <c r="DY28" t="s">
+        <v>216</v>
+      </c>
+      <c r="EA28" t="s">
         <v>203</v>
-      </c>
-      <c r="BW28" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX28" t="s">
-        <v>196</v>
-      </c>
-      <c r="BY28" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC28">
-        <v>0</v>
-      </c>
-      <c r="CI28">
-        <v>0</v>
-      </c>
-      <c r="CJ28">
-        <v>0</v>
-      </c>
-      <c r="CK28">
-        <v>0</v>
-      </c>
-      <c r="CL28">
-        <v>0</v>
-      </c>
-      <c r="CM28">
-        <v>0</v>
-      </c>
-      <c r="CN28">
-        <v>0</v>
-      </c>
-      <c r="CO28">
-        <v>0</v>
-      </c>
-      <c r="CP28">
-        <v>0</v>
-      </c>
-      <c r="CQ28">
-        <v>0</v>
-      </c>
-      <c r="CR28">
-        <v>0</v>
-      </c>
-      <c r="CS28">
-        <v>0</v>
-      </c>
-      <c r="CT28" t="s">
-        <v>166</v>
-      </c>
-      <c r="CU28">
-        <v>0</v>
-      </c>
-      <c r="CW28">
-        <v>0</v>
-      </c>
-      <c r="CY28">
-        <v>0</v>
-      </c>
-      <c r="DA28">
-        <v>0</v>
-      </c>
-      <c r="DC28">
-        <v>0</v>
-      </c>
-      <c r="DE28">
-        <v>0</v>
-      </c>
-      <c r="DG28">
-        <v>0</v>
-      </c>
-      <c r="DJ28">
-        <v>0</v>
-      </c>
-      <c r="DK28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DN28" t="s">
-        <v>213</v>
-      </c>
-      <c r="DO28" t="s">
-        <v>167</v>
-      </c>
-      <c r="DP28">
-        <v>0</v>
-      </c>
-      <c r="DQ28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DR28" t="s">
-        <v>167</v>
-      </c>
-      <c r="DS28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DT28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DU28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DV28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DW28" t="s">
-        <v>177</v>
-      </c>
-      <c r="DX28">
-        <v>0</v>
-      </c>
-      <c r="DY28" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA28" t="s">
-        <v>217</v>
       </c>
       <c r="EB28" t="s">
         <v>177</v>
@@ -8594,13 +8465,13 @@
         <v>149</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="O29" t="s">
         <v>177</v>
       </c>
       <c r="S29" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="U29" t="s">
         <v>204</v>
@@ -8609,7 +8480,7 @@
         <v>197</v>
       </c>
       <c r="W29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X29" t="s">
         <v>176</v>
@@ -8621,13 +8492,13 @@
         <v>177</v>
       </c>
       <c r="AD29" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AE29" t="s">
         <v>197</v>
       </c>
       <c r="AF29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG29" t="s">
         <v>176</v>
@@ -8702,7 +8573,7 @@
         <v>197</v>
       </c>
       <c r="BK29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BL29" t="s">
         <v>176</v>
@@ -8720,7 +8591,7 @@
         <v>177</v>
       </c>
       <c r="BS29" t="s">
-        <v>209</v>
+        <v>136</v>
       </c>
       <c r="BT29" t="s">
         <v>177</v>
@@ -8732,7 +8603,7 @@
         <v>197</v>
       </c>
       <c r="BX29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BY29" t="s">
         <v>176</v>
@@ -8740,12 +8611,6 @@
       <c r="CC29">
         <v>0</v>
       </c>
-      <c r="CI29">
-        <v>0</v>
-      </c>
-      <c r="CJ29">
-        <v>0</v>
-      </c>
       <c r="CK29">
         <v>0</v>
       </c>
@@ -8774,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="CT29" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="CU29">
         <v>0</v>
@@ -8810,10 +8675,10 @@
         <v>177</v>
       </c>
       <c r="DN29" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="DO29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="DP29">
         <v>0</v>
@@ -8822,7 +8687,7 @@
         <v>177</v>
       </c>
       <c r="DR29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="DS29" t="s">
         <v>177</v>
@@ -8843,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="DY29" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA29" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="EB29" t="s">
         <v>177</v>
@@ -8858,7 +8723,7 @@
         <v>142</v>
       </c>
       <c r="EF29" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="4:136">
@@ -8869,21 +8734,24 @@
         <v>149</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O30" t="s">
         <v>177</v>
       </c>
       <c r="S30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U30" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="V30" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="W30" t="s">
+        <v>197</v>
+      </c>
+      <c r="X30" t="s">
         <v>176</v>
       </c>
       <c r="AB30">
@@ -8893,12 +8761,15 @@
         <v>177</v>
       </c>
       <c r="AD30" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="AE30" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="AF30" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG30" t="s">
         <v>176</v>
       </c>
       <c r="AK30">
@@ -8965,16 +8836,16 @@
         <v>0</v>
       </c>
       <c r="BI30" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="BJ30" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="BK30" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="BL30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BM30" t="s">
         <v>177</v>
@@ -8989,29 +8860,26 @@
         <v>177</v>
       </c>
       <c r="BS30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT30" t="s">
         <v>177</v>
       </c>
       <c r="BV30" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="BW30" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="BX30" t="s">
+        <v>197</v>
+      </c>
+      <c r="BY30" t="s">
         <v>176</v>
       </c>
       <c r="CC30">
         <v>0</v>
       </c>
-      <c r="CI30">
-        <v>0</v>
-      </c>
-      <c r="CJ30">
-        <v>0</v>
-      </c>
       <c r="CK30">
         <v>0</v>
       </c>
@@ -9040,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="CT30" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="CU30">
         <v>0</v>
@@ -9076,10 +8944,10 @@
         <v>177</v>
       </c>
       <c r="DN30" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="DO30" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DP30">
         <v>0</v>
@@ -9088,7 +8956,7 @@
         <v>177</v>
       </c>
       <c r="DR30" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="DS30" t="s">
         <v>177</v>
@@ -9109,10 +8977,10 @@
         <v>0</v>
       </c>
       <c r="DY30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA30" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="EB30" t="s">
         <v>177</v>
@@ -9124,7 +8992,7 @@
         <v>142</v>
       </c>
       <c r="EF30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="4:136">
@@ -9135,24 +9003,21 @@
         <v>149</v>
       </c>
       <c r="I31" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="O31" t="s">
         <v>177</v>
       </c>
       <c r="S31" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="U31" t="s">
         <v>169</v>
       </c>
       <c r="V31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="W31" t="s">
-        <v>202</v>
-      </c>
-      <c r="X31" t="s">
         <v>176</v>
       </c>
       <c r="AB31">
@@ -9162,15 +9027,12 @@
         <v>177</v>
       </c>
       <c r="AD31" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="AE31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF31" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG31" t="s">
         <v>176</v>
       </c>
       <c r="AK31">
@@ -9240,13 +9102,13 @@
         <v>169</v>
       </c>
       <c r="BJ31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BK31" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="BL31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BM31" t="s">
         <v>177</v>
@@ -9261,7 +9123,7 @@
         <v>177</v>
       </c>
       <c r="BS31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT31" t="s">
         <v>177</v>
@@ -9270,23 +9132,14 @@
         <v>169</v>
       </c>
       <c r="BW31" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="BX31" t="s">
-        <v>202</v>
-      </c>
-      <c r="BY31" t="s">
         <v>176</v>
       </c>
       <c r="CC31">
         <v>0</v>
       </c>
-      <c r="CI31">
-        <v>0</v>
-      </c>
-      <c r="CJ31">
-        <v>0</v>
-      </c>
       <c r="CK31">
         <v>0</v>
       </c>
@@ -9315,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="CT31" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="CU31">
         <v>0</v>
@@ -9351,10 +9204,10 @@
         <v>177</v>
       </c>
       <c r="DN31" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="DO31" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="DP31">
         <v>0</v>
@@ -9363,7 +9216,7 @@
         <v>177</v>
       </c>
       <c r="DR31" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="DS31" t="s">
         <v>177</v>
@@ -9384,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="DY31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA31" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="EB31" t="s">
         <v>177</v>
@@ -9399,7 +9252,7 @@
         <v>142</v>
       </c>
       <c r="EF31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="4:136">
@@ -9410,217 +9263,220 @@
         <v>149</v>
       </c>
       <c r="I32" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O32" t="s">
         <v>177</v>
       </c>
       <c r="S32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="U32" t="s">
+        <v>169</v>
+      </c>
+      <c r="V32" t="s">
         <v>166</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
+        <v>203</v>
+      </c>
+      <c r="X32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>169</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>166</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM32" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP32" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS32" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT32" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV32" t="s">
+        <v>169</v>
+      </c>
+      <c r="BW32" t="s">
+        <v>166</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>203</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC32">
+        <v>0</v>
+      </c>
+      <c r="CK32">
+        <v>0</v>
+      </c>
+      <c r="CL32">
+        <v>0</v>
+      </c>
+      <c r="CM32">
+        <v>0</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
+      <c r="CO32">
+        <v>0</v>
+      </c>
+      <c r="CP32">
+        <v>0</v>
+      </c>
+      <c r="CQ32">
+        <v>0</v>
+      </c>
+      <c r="CR32">
+        <v>0</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
+      <c r="CT32" t="s">
+        <v>176</v>
+      </c>
+      <c r="CU32">
+        <v>0</v>
+      </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CY32">
+        <v>0</v>
+      </c>
+      <c r="DA32">
+        <v>0</v>
+      </c>
+      <c r="DC32">
+        <v>0</v>
+      </c>
+      <c r="DE32">
+        <v>0</v>
+      </c>
+      <c r="DG32">
+        <v>0</v>
+      </c>
+      <c r="DJ32">
+        <v>0</v>
+      </c>
+      <c r="DK32" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL32" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM32" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN32" t="s">
         <v>205</v>
       </c>
-      <c r="W32" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>205</v>
-      </c>
-      <c r="AK32">
-        <v>0</v>
-      </c>
-      <c r="AL32">
-        <v>0</v>
-      </c>
-      <c r="AM32">
-        <v>0</v>
-      </c>
-      <c r="AN32">
-        <v>0</v>
-      </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>0</v>
-      </c>
-      <c r="AS32">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW32">
-        <v>0</v>
-      </c>
-      <c r="AY32">
-        <v>0</v>
-      </c>
-      <c r="AZ32">
-        <v>0</v>
-      </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
-      </c>
-      <c r="BC32">
-        <v>0</v>
-      </c>
-      <c r="BD32">
-        <v>0</v>
-      </c>
-      <c r="BE32">
-        <v>0</v>
-      </c>
-      <c r="BF32">
-        <v>0</v>
-      </c>
-      <c r="BG32">
-        <v>0</v>
-      </c>
-      <c r="BH32">
-        <v>0</v>
-      </c>
-      <c r="BI32" t="s">
-        <v>166</v>
-      </c>
-      <c r="BJ32" t="s">
-        <v>205</v>
-      </c>
-      <c r="BK32" t="s">
-        <v>205</v>
-      </c>
-      <c r="BL32" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM32" t="s">
-        <v>177</v>
-      </c>
-      <c r="BN32" t="s">
-        <v>177</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>177</v>
-      </c>
-      <c r="BP32" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS32" t="s">
-        <v>209</v>
-      </c>
-      <c r="BT32" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV32" t="s">
-        <v>166</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX32" t="s">
-        <v>205</v>
-      </c>
-      <c r="CC32">
-        <v>0</v>
-      </c>
-      <c r="CI32">
-        <v>0</v>
-      </c>
-      <c r="CJ32">
-        <v>0</v>
-      </c>
-      <c r="CK32">
-        <v>0</v>
-      </c>
-      <c r="CL32">
-        <v>0</v>
-      </c>
-      <c r="CM32">
-        <v>0</v>
-      </c>
-      <c r="CN32">
-        <v>0</v>
-      </c>
-      <c r="CO32">
-        <v>0</v>
-      </c>
-      <c r="CP32">
-        <v>0</v>
-      </c>
-      <c r="CQ32">
-        <v>0</v>
-      </c>
-      <c r="CR32">
-        <v>0</v>
-      </c>
-      <c r="CS32">
-        <v>0</v>
-      </c>
-      <c r="CT32" t="s">
-        <v>177</v>
-      </c>
-      <c r="CU32">
-        <v>0</v>
-      </c>
-      <c r="CW32">
-        <v>0</v>
-      </c>
-      <c r="CY32">
-        <v>0</v>
-      </c>
-      <c r="DA32">
-        <v>0</v>
-      </c>
-      <c r="DC32">
-        <v>0</v>
-      </c>
-      <c r="DE32">
-        <v>0</v>
-      </c>
-      <c r="DG32">
-        <v>0</v>
-      </c>
-      <c r="DJ32">
-        <v>0</v>
-      </c>
-      <c r="DK32" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL32" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM32" t="s">
-        <v>177</v>
-      </c>
-      <c r="DN32" t="s">
-        <v>166</v>
-      </c>
       <c r="DO32" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="DP32">
         <v>0</v>
@@ -9629,7 +9485,7 @@
         <v>177</v>
       </c>
       <c r="DR32" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="DS32" t="s">
         <v>177</v>
@@ -9650,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="DY32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA32" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="EB32" t="s">
         <v>177</v>
@@ -9665,7 +9521,7 @@
         <v>142</v>
       </c>
       <c r="EF32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="4:136">
@@ -9676,22 +9532,22 @@
         <v>149</v>
       </c>
       <c r="I33" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O33" t="s">
         <v>177</v>
       </c>
       <c r="S33" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="U33" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="V33" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>176</v>
+        <v>206</v>
+      </c>
+      <c r="W33" t="s">
+        <v>206</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -9700,13 +9556,13 @@
         <v>177</v>
       </c>
       <c r="AD33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AE33" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH33" t="s">
-        <v>176</v>
+        <v>206</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>206</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -9772,19 +9628,19 @@
         <v>0</v>
       </c>
       <c r="BI33" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="BJ33" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="BK33" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="BL33" t="s">
         <v>177</v>
       </c>
       <c r="BM33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BN33" t="s">
         <v>177</v>
@@ -9796,29 +9652,23 @@
         <v>177</v>
       </c>
       <c r="BS33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT33" t="s">
         <v>177</v>
       </c>
       <c r="BV33" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="BW33" t="s">
-        <v>202</v>
-      </c>
-      <c r="BZ33" t="s">
-        <v>176</v>
+        <v>206</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>206</v>
       </c>
       <c r="CC33">
         <v>0</v>
       </c>
-      <c r="CI33">
-        <v>0</v>
-      </c>
-      <c r="CJ33">
-        <v>0</v>
-      </c>
       <c r="CK33">
         <v>0</v>
       </c>
@@ -9847,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="CT33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CU33">
         <v>0</v>
@@ -9883,10 +9733,10 @@
         <v>177</v>
       </c>
       <c r="DN33" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="DO33" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="DP33">
         <v>0</v>
@@ -9895,7 +9745,7 @@
         <v>177</v>
       </c>
       <c r="DR33" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="DS33" t="s">
         <v>177</v>
@@ -9916,10 +9766,10 @@
         <v>0</v>
       </c>
       <c r="DY33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA33" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="EB33" t="s">
         <v>177</v>
@@ -9931,7 +9781,7 @@
         <v>142</v>
       </c>
       <c r="EF33" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="4:136">
@@ -9942,25 +9792,22 @@
         <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O34" t="s">
         <v>177</v>
       </c>
       <c r="S34" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="U34" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="V34" t="s">
-        <v>196</v>
-      </c>
-      <c r="W34" t="s">
-        <v>202</v>
-      </c>
-      <c r="X34" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>176</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -9969,16 +9816,13 @@
         <v>177</v>
       </c>
       <c r="AD34" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="AE34" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG34" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>176</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -10044,19 +9888,19 @@
         <v>0</v>
       </c>
       <c r="BI34" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="BJ34" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="BK34" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="BL34" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="BM34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BN34" t="s">
         <v>177</v>
@@ -10068,32 +9912,23 @@
         <v>177</v>
       </c>
       <c r="BS34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT34" t="s">
         <v>177</v>
       </c>
       <c r="BV34" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="BW34" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX34" t="s">
-        <v>202</v>
-      </c>
-      <c r="BY34" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="BZ34" t="s">
+        <v>176</v>
       </c>
       <c r="CC34">
         <v>0</v>
       </c>
-      <c r="CI34">
-        <v>0</v>
-      </c>
-      <c r="CJ34">
-        <v>0</v>
-      </c>
       <c r="CK34">
         <v>0</v>
       </c>
@@ -10122,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="CT34" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="CU34">
         <v>0</v>
@@ -10158,10 +9993,10 @@
         <v>177</v>
       </c>
       <c r="DN34" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="DO34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DP34">
         <v>0</v>
@@ -10170,7 +10005,7 @@
         <v>177</v>
       </c>
       <c r="DR34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DS34" t="s">
         <v>177</v>
@@ -10191,10 +10026,10 @@
         <v>0</v>
       </c>
       <c r="DY34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="EB34" t="s">
         <v>177</v>
@@ -10217,25 +10052,25 @@
         <v>149</v>
       </c>
       <c r="I35" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="O35" t="s">
         <v>177</v>
       </c>
       <c r="S35" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="U35" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="V35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="X35" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AB35">
         <v>0</v>
@@ -10244,16 +10079,16 @@
         <v>177</v>
       </c>
       <c r="AD35" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AE35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG35" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -10319,16 +10154,16 @@
         <v>0</v>
       </c>
       <c r="BI35" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="BJ35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BK35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BL35" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="BM35" t="s">
         <v>177</v>
@@ -10343,32 +10178,26 @@
         <v>177</v>
       </c>
       <c r="BS35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BT35" t="s">
         <v>177</v>
       </c>
       <c r="BV35" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="BW35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BX35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BY35" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="CC35">
         <v>0</v>
       </c>
-      <c r="CI35">
-        <v>0</v>
-      </c>
-      <c r="CJ35">
-        <v>0</v>
-      </c>
       <c r="CK35">
         <v>0</v>
       </c>
@@ -10397,7 +10226,7 @@
         <v>0</v>
       </c>
       <c r="CT35" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="CU35">
         <v>0</v>
@@ -10433,10 +10262,10 @@
         <v>177</v>
       </c>
       <c r="DN35" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="DO35" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="DP35">
         <v>0</v>
@@ -10445,7 +10274,7 @@
         <v>177</v>
       </c>
       <c r="DR35" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="DS35" t="s">
         <v>177</v>
@@ -10466,10 +10295,10 @@
         <v>0</v>
       </c>
       <c r="DY35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="EB35" t="s">
         <v>177</v>
@@ -10481,7 +10310,7 @@
         <v>142</v>
       </c>
       <c r="EF35" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="4:136">
@@ -10492,206 +10321,182 @@
         <v>149</v>
       </c>
       <c r="I36" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="O36" t="s">
         <v>177</v>
       </c>
       <c r="S36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="U36" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="V36" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="W36" t="s">
+        <v>206</v>
+      </c>
+      <c r="X36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD36" t="s">
         <v>197</v>
       </c>
-      <c r="X36" t="s">
+      <c r="AE36" t="s">
         <v>197</v>
       </c>
-      <c r="Y36" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>156</v>
-      </c>
       <c r="AF36" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <v>0</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BG36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36" t="s">
+        <v>203</v>
+      </c>
+      <c r="BJ36" t="s">
         <v>197</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="BK36" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL36" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN36" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP36" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS36" t="s">
+        <v>210</v>
+      </c>
+      <c r="BT36" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV36" t="s">
+        <v>203</v>
+      </c>
+      <c r="BW36" t="s">
         <v>197</v>
       </c>
-      <c r="AH36" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI36" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
-      </c>
-      <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>0</v>
-      </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW36">
-        <v>0</v>
-      </c>
-      <c r="AY36">
-        <v>0</v>
-      </c>
-      <c r="AZ36">
-        <v>0</v>
-      </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BB36">
-        <v>0</v>
-      </c>
-      <c r="BC36">
-        <v>0</v>
-      </c>
-      <c r="BD36">
-        <v>0</v>
-      </c>
-      <c r="BE36">
-        <v>0</v>
-      </c>
-      <c r="BF36">
-        <v>0</v>
-      </c>
-      <c r="BG36">
-        <v>0</v>
-      </c>
-      <c r="BH36">
-        <v>0</v>
-      </c>
-      <c r="BI36" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ36" t="s">
-        <v>156</v>
-      </c>
-      <c r="BK36" t="s">
+      <c r="BX36" t="s">
+        <v>206</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC36">
+        <v>0</v>
+      </c>
+      <c r="CK36">
+        <v>0</v>
+      </c>
+      <c r="CL36">
+        <v>0</v>
+      </c>
+      <c r="CM36">
+        <v>0</v>
+      </c>
+      <c r="CN36">
+        <v>0</v>
+      </c>
+      <c r="CO36">
+        <v>0</v>
+      </c>
+      <c r="CP36">
+        <v>0</v>
+      </c>
+      <c r="CQ36">
+        <v>0</v>
+      </c>
+      <c r="CR36">
+        <v>0</v>
+      </c>
+      <c r="CS36">
+        <v>0</v>
+      </c>
+      <c r="CT36" t="s">
         <v>197</v>
       </c>
-      <c r="BL36" t="s">
-        <v>197</v>
-      </c>
-      <c r="BM36" t="s">
-        <v>166</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>177</v>
-      </c>
-      <c r="BP36" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>209</v>
-      </c>
-      <c r="BT36" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV36" t="s">
-        <v>172</v>
-      </c>
-      <c r="BW36" t="s">
-        <v>156</v>
-      </c>
-      <c r="BX36" t="s">
-        <v>197</v>
-      </c>
-      <c r="BY36" t="s">
-        <v>197</v>
-      </c>
-      <c r="BZ36" t="s">
-        <v>166</v>
-      </c>
-      <c r="CA36" t="s">
-        <v>202</v>
-      </c>
-      <c r="CC36">
-        <v>0</v>
-      </c>
-      <c r="CI36">
-        <v>0</v>
-      </c>
-      <c r="CJ36">
-        <v>0</v>
-      </c>
-      <c r="CK36">
-        <v>0</v>
-      </c>
-      <c r="CL36">
-        <v>0</v>
-      </c>
-      <c r="CM36">
-        <v>0</v>
-      </c>
-      <c r="CN36">
-        <v>0</v>
-      </c>
-      <c r="CO36">
-        <v>0</v>
-      </c>
-      <c r="CP36">
-        <v>0</v>
-      </c>
-      <c r="CQ36">
-        <v>0</v>
-      </c>
-      <c r="CR36">
-        <v>0</v>
-      </c>
-      <c r="CS36">
-        <v>0</v>
-      </c>
-      <c r="CT36" t="s">
-        <v>169</v>
-      </c>
       <c r="CU36">
         <v>0</v>
       </c>
@@ -10726,10 +10531,10 @@
         <v>177</v>
       </c>
       <c r="DN36" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="DO36" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="DP36">
         <v>0</v>
@@ -10738,7 +10543,7 @@
         <v>177</v>
       </c>
       <c r="DR36" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="DS36" t="s">
         <v>177</v>
@@ -10759,10 +10564,10 @@
         <v>0</v>
       </c>
       <c r="DY36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA36" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="EB36" t="s">
         <v>177</v>
@@ -10774,7 +10579,7 @@
         <v>142</v>
       </c>
       <c r="EF36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="4:136">
@@ -10782,17 +10587,59 @@
         <v>145</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>149</v>
+      </c>
+      <c r="I37" t="s">
+        <v>171</v>
       </c>
       <c r="O37" t="s">
         <v>177</v>
       </c>
       <c r="S37" t="s">
-        <v>146</v>
+        <v>184</v>
+      </c>
+      <c r="U37" t="s">
+        <v>172</v>
+      </c>
+      <c r="V37" t="s">
+        <v>157</v>
+      </c>
+      <c r="W37" t="s">
+        <v>198</v>
+      </c>
+      <c r="X37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>203</v>
       </c>
       <c r="AB37">
         <v>0</v>
       </c>
+      <c r="AC37" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>203</v>
+      </c>
       <c r="AK37">
         <v>0</v>
       </c>
@@ -10820,6 +10667,9 @@
       <c r="AS37">
         <v>0</v>
       </c>
+      <c r="AT37" t="s">
+        <v>177</v>
+      </c>
       <c r="AW37">
         <v>0</v>
       </c>
@@ -10854,22 +10704,22 @@
         <v>0</v>
       </c>
       <c r="BI37" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="BJ37" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="BK37" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="BL37" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="BM37" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="BN37" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="BO37" t="s">
         <v>177</v>
@@ -10878,17 +10728,32 @@
         <v>177</v>
       </c>
       <c r="BS37" t="s">
-        <v>136</v>
+        <v>210</v>
+      </c>
+      <c r="BT37" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV37" t="s">
+        <v>172</v>
+      </c>
+      <c r="BW37" t="s">
+        <v>157</v>
+      </c>
+      <c r="BX37" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY37" t="s">
+        <v>198</v>
+      </c>
+      <c r="BZ37" t="s">
+        <v>166</v>
+      </c>
+      <c r="CA37" t="s">
+        <v>203</v>
       </c>
       <c r="CC37">
         <v>0</v>
       </c>
-      <c r="CI37">
-        <v>0</v>
-      </c>
-      <c r="CJ37">
-        <v>0</v>
-      </c>
       <c r="CK37">
         <v>0</v>
       </c>
@@ -10916,6 +10781,9 @@
       <c r="CS37">
         <v>0</v>
       </c>
+      <c r="CT37" t="s">
+        <v>169</v>
+      </c>
       <c r="CU37">
         <v>0</v>
       </c>
@@ -10940,20 +10808,65 @@
       <c r="DJ37">
         <v>0</v>
       </c>
+      <c r="DK37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN37" t="s">
+        <v>205</v>
+      </c>
       <c r="DO37" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="DP37">
         <v>0</v>
       </c>
+      <c r="DQ37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR37" t="s">
+        <v>171</v>
+      </c>
+      <c r="DS37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV37" t="s">
+        <v>177</v>
+      </c>
+      <c r="DW37" t="s">
+        <v>177</v>
+      </c>
       <c r="DX37">
         <v>0</v>
+      </c>
+      <c r="DY37" t="s">
+        <v>216</v>
+      </c>
+      <c r="EA37" t="s">
+        <v>199</v>
+      </c>
+      <c r="EB37" t="s">
+        <v>177</v>
+      </c>
+      <c r="EC37" t="s">
+        <v>177</v>
       </c>
       <c r="EE37" t="s">
         <v>142</v>
       </c>
       <c r="EF37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="4:136">
@@ -10963,39 +10876,15 @@
       <c r="H38" t="s">
         <v>150</v>
       </c>
-      <c r="I38" t="s">
-        <v>165</v>
-      </c>
       <c r="O38" t="s">
         <v>177</v>
       </c>
       <c r="S38" t="s">
-        <v>194</v>
-      </c>
-      <c r="U38" t="s">
-        <v>205</v>
-      </c>
-      <c r="V38" t="s">
-        <v>196</v>
-      </c>
-      <c r="W38" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="AB38">
         <v>0</v>
       </c>
-      <c r="AC38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>176</v>
-      </c>
       <c r="AK38">
         <v>0</v>
       </c>
@@ -11023,9 +10912,6 @@
       <c r="AS38">
         <v>0</v>
       </c>
-      <c r="AT38" t="s">
-        <v>177</v>
-      </c>
       <c r="AW38">
         <v>0</v>
       </c>
@@ -11060,13 +10946,13 @@
         <v>0</v>
       </c>
       <c r="BI38" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="BJ38" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="BK38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="BL38" t="s">
         <v>177</v>
@@ -11086,27 +10972,9 @@
       <c r="BS38" t="s">
         <v>136</v>
       </c>
-      <c r="BT38" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV38" t="s">
-        <v>197</v>
-      </c>
-      <c r="BW38" t="s">
-        <v>197</v>
-      </c>
-      <c r="BX38" t="s">
-        <v>176</v>
-      </c>
       <c r="CC38">
         <v>0</v>
       </c>
-      <c r="CI38">
-        <v>0</v>
-      </c>
-      <c r="CJ38">
-        <v>0</v>
-      </c>
       <c r="CK38">
         <v>0</v>
       </c>
@@ -11134,9 +11002,6 @@
       <c r="CS38">
         <v>0</v>
       </c>
-      <c r="CT38" t="s">
-        <v>177</v>
-      </c>
       <c r="CU38">
         <v>0</v>
       </c>
@@ -11161,65 +11026,20 @@
       <c r="DJ38">
         <v>0</v>
       </c>
-      <c r="DK38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DL38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DN38" t="s">
-        <v>197</v>
-      </c>
       <c r="DO38" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DP38">
         <v>0</v>
       </c>
-      <c r="DQ38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DR38" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DT38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DU38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DV38" t="s">
-        <v>177</v>
-      </c>
-      <c r="DW38" t="s">
-        <v>177</v>
-      </c>
       <c r="DX38">
         <v>0</v>
-      </c>
-      <c r="DY38" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA38" t="s">
-        <v>166</v>
-      </c>
-      <c r="EB38" t="s">
-        <v>177</v>
-      </c>
-      <c r="EC38" t="s">
-        <v>177</v>
       </c>
       <c r="EE38" t="s">
         <v>142</v>
       </c>
       <c r="EF38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="4:136">
@@ -11230,7 +11050,7 @@
         <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="O39" t="s">
         <v>177</v>
@@ -11239,13 +11059,13 @@
         <v>195</v>
       </c>
       <c r="U39" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="V39" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="W39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -11257,10 +11077,10 @@
         <v>177</v>
       </c>
       <c r="AE39" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="AF39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -11292,12 +11112,6 @@
       <c r="AT39" t="s">
         <v>177</v>
       </c>
-      <c r="AU39" t="s">
-        <v>177</v>
-      </c>
-      <c r="AV39" t="s">
-        <v>177</v>
-      </c>
       <c r="AW39">
         <v>0</v>
       </c>
@@ -11332,10 +11146,10 @@
         <v>0</v>
       </c>
       <c r="BI39" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="BJ39" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="BK39" t="s">
         <v>176</v>
@@ -11362,10 +11176,10 @@
         <v>177</v>
       </c>
       <c r="BV39" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="BW39" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="BX39" t="s">
         <v>176</v>
@@ -11373,12 +11187,6 @@
       <c r="CC39">
         <v>0</v>
       </c>
-      <c r="CI39">
-        <v>0</v>
-      </c>
-      <c r="CJ39">
-        <v>0</v>
-      </c>
       <c r="CK39">
         <v>0</v>
       </c>
@@ -11412,15 +11220,9 @@
       <c r="CU39">
         <v>0</v>
       </c>
-      <c r="CV39" t="s">
-        <v>177</v>
-      </c>
       <c r="CW39">
         <v>0</v>
       </c>
-      <c r="CX39" t="s">
-        <v>177</v>
-      </c>
       <c r="CY39">
         <v>0</v>
       </c>
@@ -11449,10 +11251,10 @@
         <v>177</v>
       </c>
       <c r="DN39" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="DO39" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="DP39">
         <v>0</v>
@@ -11461,7 +11263,7 @@
         <v>177</v>
       </c>
       <c r="DR39" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="DS39" t="s">
         <v>177</v>
@@ -11482,10 +11284,10 @@
         <v>0</v>
       </c>
       <c r="DY39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA39" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="EB39" t="s">
         <v>177</v>
@@ -11497,7 +11299,7 @@
         <v>142</v>
       </c>
       <c r="EF39" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="4:136">
@@ -11508,16 +11310,22 @@
         <v>150</v>
       </c>
       <c r="I40" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="O40" t="s">
         <v>177</v>
       </c>
       <c r="S40" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="U40" t="s">
-        <v>165</v>
+        <v>169</v>
+      </c>
+      <c r="V40" t="s">
+        <v>206</v>
+      </c>
+      <c r="W40" t="s">
+        <v>176</v>
       </c>
       <c r="AB40">
         <v>0</v>
@@ -11528,6 +11336,12 @@
       <c r="AD40" t="s">
         <v>177</v>
       </c>
+      <c r="AE40" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>177</v>
+      </c>
       <c r="AK40">
         <v>0</v>
       </c>
@@ -11558,6 +11372,12 @@
       <c r="AT40" t="s">
         <v>177</v>
       </c>
+      <c r="AU40" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>177</v>
+      </c>
       <c r="AW40">
         <v>0</v>
       </c>
@@ -11592,13 +11412,13 @@
         <v>0</v>
       </c>
       <c r="BI40" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="BJ40" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="BK40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BL40" t="s">
         <v>177</v>
@@ -11622,17 +11442,17 @@
         <v>177</v>
       </c>
       <c r="BV40" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="BW40" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX40" t="s">
+        <v>176</v>
       </c>
       <c r="CC40">
         <v>0</v>
       </c>
-      <c r="CI40">
-        <v>0</v>
-      </c>
-      <c r="CJ40">
-        <v>0</v>
-      </c>
       <c r="CK40">
         <v>0</v>
       </c>
@@ -11666,9 +11486,15 @@
       <c r="CU40">
         <v>0</v>
       </c>
+      <c r="CV40" t="s">
+        <v>177</v>
+      </c>
       <c r="CW40">
         <v>0</v>
       </c>
+      <c r="CX40" t="s">
+        <v>177</v>
+      </c>
       <c r="CY40">
         <v>0</v>
       </c>
@@ -11697,10 +11523,10 @@
         <v>177</v>
       </c>
       <c r="DN40" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="DO40" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="DP40">
         <v>0</v>
@@ -11709,7 +11535,7 @@
         <v>177</v>
       </c>
       <c r="DR40" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="DS40" t="s">
         <v>177</v>
@@ -11730,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="DY40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="EA40" t="s">
         <v>177</v>
@@ -11746,6 +11572,248 @@
       </c>
       <c r="EF40" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="4:136">
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+      <c r="H41" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" t="s">
+        <v>172</v>
+      </c>
+      <c r="O41" t="s">
+        <v>177</v>
+      </c>
+      <c r="S41" t="s">
+        <v>189</v>
+      </c>
+      <c r="U41" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>177</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+      <c r="BB41">
+        <v>0</v>
+      </c>
+      <c r="BC41">
+        <v>0</v>
+      </c>
+      <c r="BD41">
+        <v>0</v>
+      </c>
+      <c r="BE41">
+        <v>0</v>
+      </c>
+      <c r="BF41">
+        <v>0</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>0</v>
+      </c>
+      <c r="BI41" t="s">
+        <v>172</v>
+      </c>
+      <c r="BJ41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BK41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BL41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BM41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BO41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BP41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>177</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>172</v>
+      </c>
+      <c r="CC41">
+        <v>0</v>
+      </c>
+      <c r="CK41">
+        <v>0</v>
+      </c>
+      <c r="CL41">
+        <v>0</v>
+      </c>
+      <c r="CM41">
+        <v>0</v>
+      </c>
+      <c r="CN41">
+        <v>0</v>
+      </c>
+      <c r="CO41">
+        <v>0</v>
+      </c>
+      <c r="CP41">
+        <v>0</v>
+      </c>
+      <c r="CQ41">
+        <v>0</v>
+      </c>
+      <c r="CR41">
+        <v>0</v>
+      </c>
+      <c r="CS41">
+        <v>0</v>
+      </c>
+      <c r="CT41" t="s">
+        <v>177</v>
+      </c>
+      <c r="CU41">
+        <v>0</v>
+      </c>
+      <c r="CW41">
+        <v>0</v>
+      </c>
+      <c r="CY41">
+        <v>0</v>
+      </c>
+      <c r="DA41">
+        <v>0</v>
+      </c>
+      <c r="DC41">
+        <v>0</v>
+      </c>
+      <c r="DE41">
+        <v>0</v>
+      </c>
+      <c r="DG41">
+        <v>0</v>
+      </c>
+      <c r="DJ41">
+        <v>0</v>
+      </c>
+      <c r="DK41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DL41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DM41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DN41" t="s">
+        <v>172</v>
+      </c>
+      <c r="DO41" t="s">
+        <v>172</v>
+      </c>
+      <c r="DP41">
+        <v>0</v>
+      </c>
+      <c r="DQ41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DR41" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DT41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DU41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DV41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DW41" t="s">
+        <v>177</v>
+      </c>
+      <c r="DX41">
+        <v>0</v>
+      </c>
+      <c r="DY41" t="s">
+        <v>216</v>
+      </c>
+      <c r="EA41" t="s">
+        <v>177</v>
+      </c>
+      <c r="EB41" t="s">
+        <v>177</v>
+      </c>
+      <c r="EC41" t="s">
+        <v>177</v>
+      </c>
+      <c r="EE41" t="s">
+        <v>142</v>
+      </c>
+      <c r="EF41" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -11853,16 +11921,16 @@
         <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J4" t="s">
         <v>179</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -11940,10 +12008,10 @@
         <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="223">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -613,12 +613,6 @@
   </si>
   <si>
     <t>Nyamakate Clinic</t>
-  </si>
-  <si>
-    <t>Murambi</t>
-  </si>
-  <si>
-    <t>Masikati</t>
   </si>
   <si>
     <t>3</t>
@@ -1048,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF45"/>
+  <dimension ref="A1:EF43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1481,7 +1475,7 @@
         <v>182</v>
       </c>
       <c r="V2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="W2" t="s">
         <v>178</v>
@@ -1496,7 +1490,7 @@
         <v>179</v>
       </c>
       <c r="AE2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF2" t="s">
         <v>178</v>
@@ -1568,7 +1562,7 @@
         <v>179</v>
       </c>
       <c r="BJ2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BK2" t="s">
         <v>178</v>
@@ -1607,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="CE2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="CF2" t="s">
         <v>178</v>
@@ -1709,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="DY2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA2" t="s">
         <v>151</v>
@@ -1852,7 +1846,7 @@
         <v>179</v>
       </c>
       <c r="BS3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT3" t="s">
         <v>179</v>
@@ -1972,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="DY3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA3" t="s">
         <v>152</v>
@@ -2010,7 +2004,7 @@
         <v>155</v>
       </c>
       <c r="W4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X4" t="s">
         <v>178</v>
@@ -2025,7 +2019,7 @@
         <v>155</v>
       </c>
       <c r="AF4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG4" t="s">
         <v>178</v>
@@ -2097,7 +2091,7 @@
         <v>155</v>
       </c>
       <c r="BK4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BL4" t="s">
         <v>178</v>
@@ -2115,7 +2109,7 @@
         <v>179</v>
       </c>
       <c r="BS4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT4" t="s">
         <v>179</v>
@@ -2136,7 +2130,7 @@
         <v>155</v>
       </c>
       <c r="CF4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="CG4" t="s">
         <v>178</v>
@@ -2235,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="DY4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA4" t="s">
         <v>153</v>
@@ -2273,10 +2267,10 @@
         <v>168</v>
       </c>
       <c r="W5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y5" t="s">
         <v>178</v>
@@ -2291,10 +2285,10 @@
         <v>168</v>
       </c>
       <c r="AF5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AH5" t="s">
         <v>178</v>
@@ -2366,10 +2360,10 @@
         <v>168</v>
       </c>
       <c r="BK5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BL5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM5" t="s">
         <v>178</v>
@@ -2384,7 +2378,7 @@
         <v>179</v>
       </c>
       <c r="BS5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT5" t="s">
         <v>179</v>
@@ -2408,10 +2402,10 @@
         <v>168</v>
       </c>
       <c r="CF5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CG5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CH5" t="s">
         <v>178</v>
@@ -2510,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="DY5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA5" t="s">
         <v>154</v>
@@ -2545,16 +2539,16 @@
         <v>184</v>
       </c>
       <c r="V6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z6" t="s">
         <v>178</v>
@@ -2569,16 +2563,16 @@
         <v>179</v>
       </c>
       <c r="AE6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AH6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI6" t="s">
         <v>178</v>
@@ -2650,16 +2644,16 @@
         <v>179</v>
       </c>
       <c r="BJ6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BK6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BN6" t="s">
         <v>178</v>
@@ -2671,7 +2665,7 @@
         <v>179</v>
       </c>
       <c r="BS6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT6" t="s">
         <v>179</v>
@@ -2698,16 +2692,16 @@
         <v>0</v>
       </c>
       <c r="CE6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CF6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CG6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CH6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CI6" t="s">
         <v>178</v>
@@ -2809,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="DY6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA6" t="s">
         <v>155</v>
@@ -2862,13 +2856,13 @@
         <v>139</v>
       </c>
       <c r="V7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="W7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Y7" t="s">
         <v>178</v>
@@ -2880,13 +2874,13 @@
         <v>179</v>
       </c>
       <c r="AE7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AF7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AH7" t="s">
         <v>178</v>
@@ -2955,13 +2949,13 @@
         <v>179</v>
       </c>
       <c r="BJ7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BK7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BL7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM7" t="s">
         <v>178</v>
@@ -2997,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="CE7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="CF7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="CG7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CH7" t="s">
         <v>178</v>
@@ -3102,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="DY7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA7" t="s">
         <v>156</v>
@@ -3137,7 +3131,7 @@
         <v>185</v>
       </c>
       <c r="U8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V8" t="s">
         <v>171</v>
@@ -3152,7 +3146,7 @@
         <v>179</v>
       </c>
       <c r="AD8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE8" t="s">
         <v>171</v>
@@ -3221,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="BI8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BJ8" t="s">
         <v>171</v>
@@ -3263,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="CD8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CE8" t="s">
         <v>171</v>
@@ -3365,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="DY8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA8" t="s">
         <v>156</v>
@@ -3421,13 +3415,13 @@
         <v>160</v>
       </c>
       <c r="W9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X9" t="s">
         <v>178</v>
       </c>
       <c r="Y9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -3442,13 +3436,13 @@
         <v>160</v>
       </c>
       <c r="AF9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG9" t="s">
         <v>178</v>
       </c>
       <c r="AH9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -3517,13 +3511,13 @@
         <v>160</v>
       </c>
       <c r="BK9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BL9" t="s">
         <v>178</v>
       </c>
       <c r="BM9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BN9" t="s">
         <v>179</v>
@@ -3565,13 +3559,13 @@
         <v>160</v>
       </c>
       <c r="CF9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="CG9" t="s">
         <v>178</v>
       </c>
       <c r="CH9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CK9">
         <v>0</v>
@@ -3667,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="DY9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="DZ9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="EA9" t="s">
         <v>157</v>
@@ -3705,10 +3699,10 @@
         <v>155</v>
       </c>
       <c r="V10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X10" t="s">
         <v>178</v>
@@ -3720,13 +3714,13 @@
         <v>179</v>
       </c>
       <c r="AD10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG10" t="s">
         <v>178</v>
@@ -3798,10 +3792,10 @@
         <v>155</v>
       </c>
       <c r="BJ10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL10" t="s">
         <v>178</v>
@@ -3828,10 +3822,10 @@
         <v>155</v>
       </c>
       <c r="BW10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BY10" t="s">
         <v>178</v>
@@ -3867,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="CT10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CU10">
         <v>0</v>
@@ -3936,7 +3930,10 @@
         <v>0</v>
       </c>
       <c r="DY10" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>217</v>
       </c>
       <c r="EA10" t="s">
         <v>171</v>
@@ -3951,7 +3948,7 @@
         <v>142</v>
       </c>
       <c r="EF10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:136">
@@ -3986,7 +3983,7 @@
         <v>179</v>
       </c>
       <c r="AD11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE11" t="s">
         <v>178</v>
@@ -4127,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="CT11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CU11">
         <v>0</v>
@@ -4196,10 +4193,13 @@
         <v>0</v>
       </c>
       <c r="DY11" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>217</v>
       </c>
       <c r="EA11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="EB11" t="s">
         <v>179</v>
@@ -4211,7 +4211,7 @@
         <v>142</v>
       </c>
       <c r="EF11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:136">
@@ -4237,10 +4237,10 @@
         <v>168</v>
       </c>
       <c r="W12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="X12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y12" t="s">
         <v>168</v>
@@ -4258,19 +4258,19 @@
         <v>179</v>
       </c>
       <c r="AD12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AE12" t="s">
         <v>168</v>
       </c>
       <c r="AF12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AG12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AH12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AI12" t="s">
         <v>168</v>
@@ -4351,10 +4351,10 @@
         <v>168</v>
       </c>
       <c r="BK12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BL12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BM12" t="s">
         <v>168</v>
@@ -4381,10 +4381,10 @@
         <v>168</v>
       </c>
       <c r="BX12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BY12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BZ12" t="s">
         <v>168</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="CT12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="CU12">
         <v>0</v>
@@ -4441,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="DB12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DC12">
         <v>0</v>
@@ -4498,7 +4498,10 @@
         <v>0</v>
       </c>
       <c r="DY12" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>217</v>
       </c>
       <c r="EA12" t="s">
         <v>172</v>
@@ -4513,7 +4516,7 @@
         <v>142</v>
       </c>
       <c r="EF12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:136">
@@ -4536,10 +4539,10 @@
         <v>153</v>
       </c>
       <c r="V13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -4548,13 +4551,13 @@
         <v>179</v>
       </c>
       <c r="AD13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AK13">
         <v>0</v>
@@ -4623,10 +4626,10 @@
         <v>153</v>
       </c>
       <c r="BJ13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BL13" t="s">
         <v>179</v>
@@ -4653,10 +4656,10 @@
         <v>153</v>
       </c>
       <c r="BW13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CC13">
         <v>0</v>
@@ -4689,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="CT13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CU13">
         <v>0</v>
@@ -4725,7 +4728,7 @@
         <v>179</v>
       </c>
       <c r="DN13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="DO13" t="s">
         <v>160</v>
@@ -4758,7 +4761,10 @@
         <v>0</v>
       </c>
       <c r="DY13" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ13" t="s">
+        <v>217</v>
       </c>
       <c r="EA13" t="s">
         <v>171</v>
@@ -4773,7 +4779,7 @@
         <v>142</v>
       </c>
       <c r="EF13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:136">
@@ -4793,10 +4799,10 @@
         <v>190</v>
       </c>
       <c r="U14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W14" t="s">
         <v>178</v>
@@ -4811,10 +4817,10 @@
         <v>179</v>
       </c>
       <c r="AD14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF14" t="s">
         <v>178</v>
@@ -4886,10 +4892,10 @@
         <v>0</v>
       </c>
       <c r="BI14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BJ14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BK14" t="s">
         <v>178</v>
@@ -4916,10 +4922,10 @@
         <v>179</v>
       </c>
       <c r="BV14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BW14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BX14" t="s">
         <v>178</v>
@@ -4958,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="CT14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CU14">
         <v>0</v>
@@ -4994,7 +5000,7 @@
         <v>179</v>
       </c>
       <c r="DN14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DO14" t="s">
         <v>151</v>
@@ -5027,10 +5033,13 @@
         <v>0</v>
       </c>
       <c r="DY14" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>217</v>
       </c>
       <c r="EA14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="EB14" t="s">
         <v>179</v>
@@ -5042,7 +5051,7 @@
         <v>142</v>
       </c>
       <c r="EF14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:136">
@@ -5068,7 +5077,7 @@
         <v>168</v>
       </c>
       <c r="W15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X15" t="s">
         <v>178</v>
@@ -5080,13 +5089,13 @@
         <v>179</v>
       </c>
       <c r="AD15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AE15" t="s">
         <v>168</v>
       </c>
       <c r="AF15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG15" t="s">
         <v>178</v>
@@ -5161,7 +5170,7 @@
         <v>168</v>
       </c>
       <c r="BK15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BL15" t="s">
         <v>178</v>
@@ -5191,7 +5200,7 @@
         <v>168</v>
       </c>
       <c r="BX15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BY15" t="s">
         <v>178</v>
@@ -5227,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="CT15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="CU15">
         <v>0</v>
@@ -5263,7 +5272,7 @@
         <v>179</v>
       </c>
       <c r="DN15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DO15" t="s">
         <v>161</v>
@@ -5296,7 +5305,10 @@
         <v>0</v>
       </c>
       <c r="DY15" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>217</v>
       </c>
       <c r="EA15" t="s">
         <v>153</v>
@@ -5311,7 +5323,7 @@
         <v>142</v>
       </c>
       <c r="EF15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:136">
@@ -5334,13 +5346,13 @@
         <v>158</v>
       </c>
       <c r="V16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W16" t="s">
         <v>168</v>
       </c>
       <c r="X16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y16" t="s">
         <v>178</v>
@@ -5355,13 +5367,13 @@
         <v>178</v>
       </c>
       <c r="AE16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AF16" t="s">
         <v>168</v>
       </c>
       <c r="AG16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AH16" t="s">
         <v>178</v>
@@ -5433,13 +5445,13 @@
         <v>158</v>
       </c>
       <c r="BJ16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BK16" t="s">
         <v>168</v>
       </c>
       <c r="BL16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BM16" t="s">
         <v>178</v>
@@ -5463,13 +5475,13 @@
         <v>158</v>
       </c>
       <c r="BW16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BX16" t="s">
         <v>168</v>
       </c>
       <c r="BY16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BZ16" t="s">
         <v>178</v>
@@ -5574,7 +5586,10 @@
         <v>0</v>
       </c>
       <c r="DY16" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ16" t="s">
+        <v>217</v>
       </c>
       <c r="EA16" t="s">
         <v>174</v>
@@ -5589,7 +5604,7 @@
         <v>142</v>
       </c>
       <c r="EF16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:136">
@@ -5642,130 +5657,130 @@
         <v>141</v>
       </c>
       <c r="U17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V17" t="s">
+        <v>206</v>
+      </c>
+      <c r="W17" t="s">
+        <v>204</v>
+      </c>
+      <c r="X17" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD17" t="s">
         <v>208</v>
       </c>
-      <c r="W17" t="s">
+      <c r="AE17" t="s">
         <v>206</v>
       </c>
-      <c r="X17" t="s">
+      <c r="AF17" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>178</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>178</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>179</v>
+      </c>
+      <c r="BO17" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ17" t="s">
         <v>209</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>208</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>206</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>209</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>178</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17" t="s">
-        <v>203</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>208</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>206</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>178</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO17" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP17" t="s">
-        <v>179</v>
-      </c>
-      <c r="BQ17" t="s">
-        <v>211</v>
       </c>
       <c r="BS17" t="s">
         <v>138</v>
@@ -5774,53 +5789,53 @@
         <v>179</v>
       </c>
       <c r="BV17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BW17" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>207</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CK17">
+        <v>0</v>
+      </c>
+      <c r="CL17">
+        <v>0</v>
+      </c>
+      <c r="CM17">
+        <v>0</v>
+      </c>
+      <c r="CN17">
+        <v>0</v>
+      </c>
+      <c r="CO17">
+        <v>0</v>
+      </c>
+      <c r="CP17">
+        <v>0</v>
+      </c>
+      <c r="CQ17">
+        <v>0</v>
+      </c>
+      <c r="CR17">
+        <v>0</v>
+      </c>
+      <c r="CS17">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="s">
         <v>208</v>
       </c>
-      <c r="BX17" t="s">
-        <v>206</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>209</v>
-      </c>
-      <c r="BZ17" t="s">
-        <v>178</v>
-      </c>
-      <c r="CC17">
-        <v>0</v>
-      </c>
-      <c r="CK17">
-        <v>0</v>
-      </c>
-      <c r="CL17">
-        <v>0</v>
-      </c>
-      <c r="CM17">
-        <v>0</v>
-      </c>
-      <c r="CN17">
-        <v>0</v>
-      </c>
-      <c r="CO17">
-        <v>0</v>
-      </c>
-      <c r="CP17">
-        <v>0</v>
-      </c>
-      <c r="CQ17">
-        <v>0</v>
-      </c>
-      <c r="CR17">
-        <v>0</v>
-      </c>
-      <c r="CS17">
-        <v>0</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>210</v>
-      </c>
       <c r="CU17">
         <v>0</v>
       </c>
@@ -5855,7 +5870,7 @@
         <v>179</v>
       </c>
       <c r="DN17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DO17" t="s">
         <v>163</v>
@@ -5888,25 +5903,28 @@
         <v>0</v>
       </c>
       <c r="DY17" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>217</v>
       </c>
       <c r="EA17" t="s">
+        <v>218</v>
+      </c>
+      <c r="EB17" t="s">
+        <v>179</v>
+      </c>
+      <c r="EC17" t="s">
+        <v>179</v>
+      </c>
+      <c r="ED17" t="s">
         <v>220</v>
-      </c>
-      <c r="EB17" t="s">
-        <v>179</v>
-      </c>
-      <c r="EC17" t="s">
-        <v>179</v>
-      </c>
-      <c r="ED17" t="s">
-        <v>222</v>
       </c>
       <c r="EE17" t="s">
         <v>142</v>
       </c>
       <c r="EF17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:136">
@@ -5926,16 +5944,16 @@
         <v>193</v>
       </c>
       <c r="U18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="V18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W18" t="s">
         <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -5947,7 +5965,7 @@
         <v>168</v>
       </c>
       <c r="AE18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="s">
         <v>178</v>
@@ -6019,16 +6037,16 @@
         <v>0</v>
       </c>
       <c r="BI18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BJ18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BK18" t="s">
         <v>178</v>
       </c>
       <c r="BL18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM18" t="s">
         <v>179</v>
@@ -6049,16 +6067,16 @@
         <v>179</v>
       </c>
       <c r="BV18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BW18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BX18" t="s">
         <v>178</v>
       </c>
       <c r="BY18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC18">
         <v>0</v>
@@ -6130,7 +6148,7 @@
         <v>170</v>
       </c>
       <c r="DO18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="DP18">
         <v>0</v>
@@ -6139,7 +6157,7 @@
         <v>179</v>
       </c>
       <c r="DR18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="DS18" t="s">
         <v>179</v>
@@ -6160,7 +6178,10 @@
         <v>0</v>
       </c>
       <c r="DY18" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>217</v>
       </c>
       <c r="EA18" t="s">
         <v>158</v>
@@ -6175,7 +6196,7 @@
         <v>142</v>
       </c>
       <c r="EF18" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:136">
@@ -6402,7 +6423,10 @@
         <v>0</v>
       </c>
       <c r="DY19" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>217</v>
       </c>
       <c r="EA19" t="s">
         <v>179</v>
@@ -6440,7 +6464,7 @@
         <v>168</v>
       </c>
       <c r="W20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -6449,13 +6473,13 @@
         <v>179</v>
       </c>
       <c r="AD20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AE20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -6530,7 +6554,7 @@
         <v>168</v>
       </c>
       <c r="BK20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL20" t="s">
         <v>179</v>
@@ -6560,7 +6584,7 @@
         <v>168</v>
       </c>
       <c r="BX20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC20">
         <v>0</v>
@@ -6593,13 +6617,13 @@
         <v>0</v>
       </c>
       <c r="CT20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="CU20">
         <v>0</v>
       </c>
       <c r="CV20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="CW20">
         <v>0</v>
@@ -6665,7 +6689,10 @@
         <v>0</v>
       </c>
       <c r="DY20" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ20" t="s">
+        <v>217</v>
       </c>
       <c r="EA20" t="s">
         <v>155</v>
@@ -6850,7 +6877,7 @@
         <v>142</v>
       </c>
       <c r="EF21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:136">
@@ -6879,10 +6906,10 @@
         <v>146</v>
       </c>
       <c r="U22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="V22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W22" t="s">
         <v>178</v>
@@ -6975,10 +7002,10 @@
         <v>0</v>
       </c>
       <c r="BI22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BJ22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK22" t="s">
         <v>178</v>
@@ -6999,7 +7026,7 @@
         <v>179</v>
       </c>
       <c r="BR22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="BS22" t="s">
         <v>138</v>
@@ -7008,13 +7035,13 @@
         <v>178</v>
       </c>
       <c r="BU22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BV22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="BW22" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX22" t="s">
         <v>178</v>
@@ -7092,7 +7119,7 @@
         <v>179</v>
       </c>
       <c r="DN22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="DO22" t="s">
         <v>166</v>
@@ -7125,7 +7152,10 @@
         <v>0</v>
       </c>
       <c r="DY22" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ22" t="s">
+        <v>217</v>
       </c>
       <c r="EA22" t="s">
         <v>158</v>
@@ -7140,7 +7170,7 @@
         <v>142</v>
       </c>
       <c r="EF22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:136">
@@ -7163,7 +7193,7 @@
         <v>162</v>
       </c>
       <c r="V23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -7175,7 +7205,7 @@
         <v>179</v>
       </c>
       <c r="AE23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -7244,7 +7274,7 @@
         <v>162</v>
       </c>
       <c r="BJ23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK23" t="s">
         <v>179</v>
@@ -7274,7 +7304,7 @@
         <v>162</v>
       </c>
       <c r="BW23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CC23">
         <v>0</v>
@@ -7376,10 +7406,13 @@
         <v>0</v>
       </c>
       <c r="DY23" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ23" t="s">
+        <v>217</v>
       </c>
       <c r="EA23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="EB23" t="s">
         <v>179</v>
@@ -7581,7 +7614,7 @@
         <v>171</v>
       </c>
       <c r="V25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W25" t="s">
         <v>178</v>
@@ -7596,7 +7629,7 @@
         <v>171</v>
       </c>
       <c r="AE25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF25" t="s">
         <v>178</v>
@@ -7665,7 +7698,7 @@
         <v>171</v>
       </c>
       <c r="BJ25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BK25" t="s">
         <v>178</v>
@@ -7695,7 +7728,7 @@
         <v>171</v>
       </c>
       <c r="BW25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BX25" t="s">
         <v>178</v>
@@ -7797,7 +7830,10 @@
         <v>0</v>
       </c>
       <c r="DY25" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ25" t="s">
+        <v>217</v>
       </c>
       <c r="EA25" t="s">
         <v>155</v>
@@ -8036,7 +8072,10 @@
         <v>0</v>
       </c>
       <c r="DY26" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ26" t="s">
+        <v>217</v>
       </c>
       <c r="EA26" t="s">
         <v>179</v>
@@ -8221,7 +8260,7 @@
         <v>142</v>
       </c>
       <c r="EF27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:136">
@@ -8241,10 +8280,10 @@
         <v>191</v>
       </c>
       <c r="U28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W28" t="s">
         <v>178</v>
@@ -8259,10 +8298,10 @@
         <v>179</v>
       </c>
       <c r="AD28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AE28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF28" t="s">
         <v>178</v>
@@ -8331,10 +8370,10 @@
         <v>0</v>
       </c>
       <c r="BI28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BJ28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK28" t="s">
         <v>178</v>
@@ -8361,10 +8400,10 @@
         <v>179</v>
       </c>
       <c r="BV28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BW28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX28" t="s">
         <v>178</v>
@@ -8469,7 +8508,10 @@
         <v>0</v>
       </c>
       <c r="DY28" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ28" t="s">
+        <v>217</v>
       </c>
       <c r="EA28" t="s">
         <v>151</v>
@@ -8484,7 +8526,7 @@
         <v>142</v>
       </c>
       <c r="EF28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:136">
@@ -8504,13 +8546,13 @@
         <v>191</v>
       </c>
       <c r="U29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V29" t="s">
         <v>168</v>
       </c>
       <c r="W29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X29" t="s">
         <v>178</v>
@@ -8525,13 +8567,13 @@
         <v>179</v>
       </c>
       <c r="AD29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE29" t="s">
         <v>168</v>
       </c>
       <c r="AF29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG29" t="s">
         <v>178</v>
@@ -8603,13 +8645,13 @@
         <v>0</v>
       </c>
       <c r="BI29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BJ29" t="s">
         <v>168</v>
       </c>
       <c r="BK29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BL29" t="s">
         <v>178</v>
@@ -8627,19 +8669,19 @@
         <v>179</v>
       </c>
       <c r="BS29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT29" t="s">
         <v>179</v>
       </c>
       <c r="BV29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BW29" t="s">
         <v>168</v>
       </c>
       <c r="BX29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BY29" t="s">
         <v>178</v>
@@ -8678,7 +8720,7 @@
         <v>0</v>
       </c>
       <c r="CT29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CU29">
         <v>0</v>
@@ -8714,7 +8756,7 @@
         <v>179</v>
       </c>
       <c r="DN29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="DO29" t="s">
         <v>153</v>
@@ -8747,10 +8789,13 @@
         <v>0</v>
       </c>
       <c r="DY29" t="s">
+        <v>217</v>
+      </c>
+      <c r="DZ29" t="s">
+        <v>217</v>
+      </c>
+      <c r="EA29" t="s">
         <v>219</v>
-      </c>
-      <c r="EA29" t="s">
-        <v>221</v>
       </c>
       <c r="EB29" t="s">
         <v>179</v>
@@ -8762,7 +8807,7 @@
         <v>142</v>
       </c>
       <c r="EF29" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:136">
@@ -8956,7 +9001,7 @@
         <v>179</v>
       </c>
       <c r="DN30" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DO30" t="s">
         <v>168</v>
@@ -8989,7 +9034,10 @@
         <v>0</v>
       </c>
       <c r="DY30" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ30" t="s">
+        <v>217</v>
       </c>
       <c r="EA30" t="s">
         <v>178</v>
@@ -9004,7 +9052,7 @@
         <v>142</v>
       </c>
       <c r="EF30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:136">
@@ -9024,13 +9072,13 @@
         <v>190</v>
       </c>
       <c r="U31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -9039,13 +9087,13 @@
         <v>179</v>
       </c>
       <c r="AD31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -9111,13 +9159,13 @@
         <v>0</v>
       </c>
       <c r="BI31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BJ31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BL31" t="s">
         <v>179</v>
@@ -9141,13 +9189,13 @@
         <v>179</v>
       </c>
       <c r="BV31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BW31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CC31">
         <v>0</v>
@@ -9180,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="CT31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CU31">
         <v>0</v>
@@ -9216,7 +9264,7 @@
         <v>179</v>
       </c>
       <c r="DN31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="DO31" t="s">
         <v>155</v>
@@ -9249,7 +9297,10 @@
         <v>0</v>
       </c>
       <c r="DY31" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ31" t="s">
+        <v>217</v>
       </c>
       <c r="EA31" t="s">
         <v>171</v>
@@ -9264,7 +9315,7 @@
         <v>142</v>
       </c>
       <c r="EF31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:136">
@@ -9284,10 +9335,10 @@
         <v>186</v>
       </c>
       <c r="U32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="V32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W32" t="s">
         <v>178</v>
@@ -9302,7 +9353,7 @@
         <v>179</v>
       </c>
       <c r="AE32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF32" t="s">
         <v>178</v>
@@ -9371,10 +9422,10 @@
         <v>0</v>
       </c>
       <c r="BI32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BJ32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK32" t="s">
         <v>178</v>
@@ -9401,10 +9452,10 @@
         <v>179</v>
       </c>
       <c r="BV32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BW32" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX32" t="s">
         <v>178</v>
@@ -9476,7 +9527,7 @@
         <v>179</v>
       </c>
       <c r="DN32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DO32" t="s">
         <v>151</v>
@@ -9509,10 +9560,13 @@
         <v>0</v>
       </c>
       <c r="DY32" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ32" t="s">
+        <v>217</v>
       </c>
       <c r="EA32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="EB32" t="s">
         <v>179</v>
@@ -9524,7 +9578,7 @@
         <v>142</v>
       </c>
       <c r="EF32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="4:136">
@@ -9544,13 +9598,13 @@
         <v>141</v>
       </c>
       <c r="U33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X33" t="s">
         <v>178</v>
@@ -9565,10 +9619,10 @@
         <v>168</v>
       </c>
       <c r="AE33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG33" t="s">
         <v>178</v>
@@ -9637,13 +9691,13 @@
         <v>0</v>
       </c>
       <c r="BI33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BJ33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BL33" t="s">
         <v>178</v>
@@ -9667,13 +9721,13 @@
         <v>179</v>
       </c>
       <c r="BV33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="BW33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BY33" t="s">
         <v>178</v>
@@ -9745,7 +9799,7 @@
         <v>179</v>
       </c>
       <c r="DN33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="DO33" t="s">
         <v>169</v>
@@ -9778,10 +9832,13 @@
         <v>0</v>
       </c>
       <c r="DY33" t="s">
+        <v>217</v>
+      </c>
+      <c r="DZ33" t="s">
+        <v>217</v>
+      </c>
+      <c r="EA33" t="s">
         <v>219</v>
-      </c>
-      <c r="EA33" t="s">
-        <v>221</v>
       </c>
       <c r="EB33" t="s">
         <v>179</v>
@@ -9793,7 +9850,7 @@
         <v>142</v>
       </c>
       <c r="EF33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="4:136">
@@ -9813,13 +9870,13 @@
         <v>187</v>
       </c>
       <c r="U34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="V34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="X34" t="s">
         <v>178</v>
@@ -9834,10 +9891,10 @@
         <v>178</v>
       </c>
       <c r="AE34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AG34" t="s">
         <v>178</v>
@@ -9906,13 +9963,13 @@
         <v>0</v>
       </c>
       <c r="BI34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BJ34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BK34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BL34" t="s">
         <v>178</v>
@@ -9930,19 +9987,19 @@
         <v>179</v>
       </c>
       <c r="BS34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT34" t="s">
         <v>179</v>
       </c>
       <c r="BV34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BW34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BX34" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BY34" t="s">
         <v>178</v>
@@ -10047,7 +10104,10 @@
         <v>0</v>
       </c>
       <c r="DY34" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ34" t="s">
+        <v>217</v>
       </c>
       <c r="EA34" t="s">
         <v>158</v>
@@ -10062,7 +10122,7 @@
         <v>142</v>
       </c>
       <c r="EF34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="4:136">
@@ -10097,7 +10157,7 @@
         <v>179</v>
       </c>
       <c r="AD35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE35" t="s">
         <v>178</v>
@@ -10193,7 +10253,7 @@
         <v>179</v>
       </c>
       <c r="BS35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT35" t="s">
         <v>179</v>
@@ -10238,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="CT35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CU35">
         <v>0</v>
@@ -10274,7 +10334,7 @@
         <v>179</v>
       </c>
       <c r="DN35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DO35" t="s">
         <v>158</v>
@@ -10307,10 +10367,13 @@
         <v>0</v>
       </c>
       <c r="DY35" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ35" t="s">
+        <v>217</v>
       </c>
       <c r="EA35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="EB35" t="s">
         <v>179</v>
@@ -10322,7 +10385,7 @@
         <v>142</v>
       </c>
       <c r="EF35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="4:136">
@@ -10348,7 +10411,7 @@
         <v>168</v>
       </c>
       <c r="W36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X36" t="s">
         <v>178</v>
@@ -10366,7 +10429,7 @@
         <v>168</v>
       </c>
       <c r="AF36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG36" t="s">
         <v>178</v>
@@ -10441,7 +10504,7 @@
         <v>168</v>
       </c>
       <c r="BK36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BL36" t="s">
         <v>178</v>
@@ -10459,7 +10522,7 @@
         <v>179</v>
       </c>
       <c r="BS36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT36" t="s">
         <v>179</v>
@@ -10471,79 +10534,79 @@
         <v>168</v>
       </c>
       <c r="BX36" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY36" t="s">
+        <v>178</v>
+      </c>
+      <c r="CC36">
+        <v>0</v>
+      </c>
+      <c r="CK36">
+        <v>0</v>
+      </c>
+      <c r="CL36">
+        <v>0</v>
+      </c>
+      <c r="CM36">
+        <v>0</v>
+      </c>
+      <c r="CN36">
+        <v>0</v>
+      </c>
+      <c r="CO36">
+        <v>0</v>
+      </c>
+      <c r="CP36">
+        <v>0</v>
+      </c>
+      <c r="CQ36">
+        <v>0</v>
+      </c>
+      <c r="CR36">
+        <v>0</v>
+      </c>
+      <c r="CS36">
+        <v>0</v>
+      </c>
+      <c r="CT36" t="s">
+        <v>178</v>
+      </c>
+      <c r="CU36">
+        <v>0</v>
+      </c>
+      <c r="CW36">
+        <v>0</v>
+      </c>
+      <c r="CY36">
+        <v>0</v>
+      </c>
+      <c r="DA36">
+        <v>0</v>
+      </c>
+      <c r="DC36">
+        <v>0</v>
+      </c>
+      <c r="DE36">
+        <v>0</v>
+      </c>
+      <c r="DG36">
+        <v>0</v>
+      </c>
+      <c r="DJ36">
+        <v>0</v>
+      </c>
+      <c r="DK36" t="s">
+        <v>179</v>
+      </c>
+      <c r="DL36" t="s">
+        <v>179</v>
+      </c>
+      <c r="DM36" t="s">
+        <v>179</v>
+      </c>
+      <c r="DN36" t="s">
         <v>206</v>
-      </c>
-      <c r="BY36" t="s">
-        <v>178</v>
-      </c>
-      <c r="CC36">
-        <v>0</v>
-      </c>
-      <c r="CK36">
-        <v>0</v>
-      </c>
-      <c r="CL36">
-        <v>0</v>
-      </c>
-      <c r="CM36">
-        <v>0</v>
-      </c>
-      <c r="CN36">
-        <v>0</v>
-      </c>
-      <c r="CO36">
-        <v>0</v>
-      </c>
-      <c r="CP36">
-        <v>0</v>
-      </c>
-      <c r="CQ36">
-        <v>0</v>
-      </c>
-      <c r="CR36">
-        <v>0</v>
-      </c>
-      <c r="CS36">
-        <v>0</v>
-      </c>
-      <c r="CT36" t="s">
-        <v>178</v>
-      </c>
-      <c r="CU36">
-        <v>0</v>
-      </c>
-      <c r="CW36">
-        <v>0</v>
-      </c>
-      <c r="CY36">
-        <v>0</v>
-      </c>
-      <c r="DA36">
-        <v>0</v>
-      </c>
-      <c r="DC36">
-        <v>0</v>
-      </c>
-      <c r="DE36">
-        <v>0</v>
-      </c>
-      <c r="DG36">
-        <v>0</v>
-      </c>
-      <c r="DJ36">
-        <v>0</v>
-      </c>
-      <c r="DK36" t="s">
-        <v>179</v>
-      </c>
-      <c r="DL36" t="s">
-        <v>179</v>
-      </c>
-      <c r="DM36" t="s">
-        <v>179</v>
-      </c>
-      <c r="DN36" t="s">
-        <v>208</v>
       </c>
       <c r="DO36" t="s">
         <v>170</v>
@@ -10576,7 +10639,10 @@
         <v>0</v>
       </c>
       <c r="DY36" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ36" t="s">
+        <v>217</v>
       </c>
       <c r="EA36" t="s">
         <v>154</v>
@@ -10591,7 +10657,7 @@
         <v>142</v>
       </c>
       <c r="EF36" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="4:136">
@@ -10614,10 +10680,10 @@
         <v>168</v>
       </c>
       <c r="V37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB37">
         <v>0</v>
@@ -10629,10 +10695,10 @@
         <v>179</v>
       </c>
       <c r="AE37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AF37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK37">
         <v>0</v>
@@ -10701,10 +10767,10 @@
         <v>168</v>
       </c>
       <c r="BJ37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BK37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL37" t="s">
         <v>179</v>
@@ -10722,7 +10788,7 @@
         <v>179</v>
       </c>
       <c r="BS37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT37" t="s">
         <v>179</v>
@@ -10731,10 +10797,10 @@
         <v>168</v>
       </c>
       <c r="BW37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BX37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC37">
         <v>0</v>
@@ -10836,10 +10902,13 @@
         <v>0</v>
       </c>
       <c r="DY37" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ37" t="s">
+        <v>217</v>
       </c>
       <c r="EA37" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="EB37" t="s">
         <v>179</v>
@@ -10851,7 +10920,7 @@
         <v>142</v>
       </c>
       <c r="EF37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="4:136">
@@ -10871,10 +10940,10 @@
         <v>190</v>
       </c>
       <c r="U38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Y38" t="s">
         <v>178</v>
@@ -10889,7 +10958,7 @@
         <v>178</v>
       </c>
       <c r="AE38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AH38" t="s">
         <v>178</v>
@@ -10958,10 +11027,10 @@
         <v>0</v>
       </c>
       <c r="BI38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BJ38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BK38" t="s">
         <v>179</v>
@@ -10982,16 +11051,16 @@
         <v>179</v>
       </c>
       <c r="BS38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT38" t="s">
         <v>179</v>
       </c>
       <c r="BV38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BW38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BZ38" t="s">
         <v>178</v>
@@ -11063,7 +11132,7 @@
         <v>179</v>
       </c>
       <c r="DN38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DO38" t="s">
         <v>171</v>
@@ -11096,7 +11165,10 @@
         <v>0</v>
       </c>
       <c r="DY38" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ38" t="s">
+        <v>217</v>
       </c>
       <c r="EA38" t="s">
         <v>168</v>
@@ -11111,7 +11183,7 @@
         <v>142</v>
       </c>
       <c r="EF38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="4:136">
@@ -11134,13 +11206,13 @@
         <v>162</v>
       </c>
       <c r="V39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="X39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -11149,16 +11221,16 @@
         <v>179</v>
       </c>
       <c r="AD39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AE39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AG39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AK39">
         <v>0</v>
@@ -11227,13 +11299,13 @@
         <v>162</v>
       </c>
       <c r="BJ39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BL39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM39" t="s">
         <v>179</v>
@@ -11248,7 +11320,7 @@
         <v>179</v>
       </c>
       <c r="BS39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT39" t="s">
         <v>179</v>
@@ -11257,13 +11329,13 @@
         <v>162</v>
       </c>
       <c r="BW39" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BY39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC39">
         <v>0</v>
@@ -11296,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="CT39" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CU39">
         <v>0</v>
@@ -11365,7 +11437,10 @@
         <v>0</v>
       </c>
       <c r="DY39" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ39" t="s">
+        <v>217</v>
       </c>
       <c r="EA39" t="s">
         <v>155</v>
@@ -11380,7 +11455,7 @@
         <v>142</v>
       </c>
       <c r="EF39" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="4:136">
@@ -11400,13 +11475,13 @@
         <v>186</v>
       </c>
       <c r="U40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X40" t="s">
         <v>178</v>
@@ -11418,13 +11493,13 @@
         <v>179</v>
       </c>
       <c r="AD40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AE40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AF40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AG40" t="s">
         <v>178</v>
@@ -11493,13 +11568,13 @@
         <v>0</v>
       </c>
       <c r="BI40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BJ40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BK40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL40" t="s">
         <v>178</v>
@@ -11517,19 +11592,19 @@
         <v>179</v>
       </c>
       <c r="BS40" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT40" t="s">
         <v>179</v>
       </c>
       <c r="BV40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BW40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BX40" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BY40" t="s">
         <v>178</v>
@@ -11565,7 +11640,7 @@
         <v>0</v>
       </c>
       <c r="CT40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CU40">
         <v>0</v>
@@ -11634,7 +11709,10 @@
         <v>0</v>
       </c>
       <c r="DY40" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ40" t="s">
+        <v>217</v>
       </c>
       <c r="EA40" t="s">
         <v>151</v>
@@ -11649,7 +11727,7 @@
         <v>142</v>
       </c>
       <c r="EF40" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="4:136">
@@ -11675,16 +11753,16 @@
         <v>151</v>
       </c>
       <c r="W41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="X41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="Y41" t="s">
         <v>168</v>
       </c>
       <c r="Z41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AB41">
         <v>0</v>
@@ -11699,16 +11777,16 @@
         <v>151</v>
       </c>
       <c r="AF41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AG41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AH41" t="s">
         <v>168</v>
       </c>
       <c r="AI41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AK41">
         <v>0</v>
@@ -11780,16 +11858,16 @@
         <v>151</v>
       </c>
       <c r="BK41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BL41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BM41" t="s">
         <v>168</v>
       </c>
       <c r="BN41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="BO41" t="s">
         <v>179</v>
@@ -11798,7 +11876,7 @@
         <v>179</v>
       </c>
       <c r="BS41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT41" t="s">
         <v>179</v>
@@ -11810,16 +11888,16 @@
         <v>151</v>
       </c>
       <c r="BX41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BY41" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BZ41" t="s">
         <v>168</v>
       </c>
       <c r="CA41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="CC41">
         <v>0</v>
@@ -11888,7 +11966,7 @@
         <v>179</v>
       </c>
       <c r="DN41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="DO41" t="s">
         <v>173</v>
@@ -11921,10 +11999,13 @@
         <v>0</v>
       </c>
       <c r="DY41" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ41" t="s">
+        <v>217</v>
       </c>
       <c r="EA41" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="EB41" t="s">
         <v>179</v>
@@ -11936,7 +12017,7 @@
         <v>142</v>
       </c>
       <c r="EF41" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" spans="4:136">
@@ -12109,7 +12190,7 @@
         <v>142</v>
       </c>
       <c r="EF42" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="4:136">
@@ -12120,23 +12201,17 @@
         <v>150</v>
       </c>
       <c r="I43" t="s">
+        <v>174</v>
+      </c>
+      <c r="O43" t="s">
+        <v>179</v>
+      </c>
+      <c r="S43" t="s">
+        <v>193</v>
+      </c>
+      <c r="U43" t="s">
         <v>155</v>
       </c>
-      <c r="O43" t="s">
-        <v>179</v>
-      </c>
-      <c r="S43" t="s">
-        <v>199</v>
-      </c>
-      <c r="U43" t="s">
-        <v>209</v>
-      </c>
-      <c r="V43" t="s">
-        <v>201</v>
-      </c>
-      <c r="W43" t="s">
-        <v>179</v>
-      </c>
       <c r="AB43">
         <v>0</v>
       </c>
@@ -12146,12 +12221,6 @@
       <c r="AD43" t="s">
         <v>179</v>
       </c>
-      <c r="AE43" t="s">
-        <v>202</v>
-      </c>
-      <c r="AF43" t="s">
-        <v>178</v>
-      </c>
       <c r="AK43">
         <v>0</v>
       </c>
@@ -12216,13 +12285,13 @@
         <v>0</v>
       </c>
       <c r="BI43" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="BJ43" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="BK43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BL43" t="s">
         <v>179</v>
@@ -12246,13 +12315,7 @@
         <v>179</v>
       </c>
       <c r="BV43" t="s">
-        <v>202</v>
-      </c>
-      <c r="BW43" t="s">
-        <v>202</v>
-      </c>
-      <c r="BX43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="CC43">
         <v>0</v>
@@ -12321,10 +12384,10 @@
         <v>179</v>
       </c>
       <c r="DN43" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="DO43" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="DP43">
         <v>0</v>
@@ -12333,7 +12396,7 @@
         <v>179</v>
       </c>
       <c r="DR43" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="DS43" t="s">
         <v>179</v>
@@ -12354,10 +12417,13 @@
         <v>0</v>
       </c>
       <c r="DY43" t="s">
-        <v>219</v>
+        <v>217</v>
+      </c>
+      <c r="DZ43" t="s">
+        <v>217</v>
       </c>
       <c r="EA43" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="EB43" t="s">
         <v>179</v>
@@ -12369,521 +12435,7 @@
         <v>142</v>
       </c>
       <c r="EF43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="4:136">
-      <c r="D44" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" t="s">
-        <v>155</v>
-      </c>
-      <c r="O44" t="s">
-        <v>179</v>
-      </c>
-      <c r="S44" t="s">
-        <v>200</v>
-      </c>
-      <c r="U44" t="s">
-        <v>171</v>
-      </c>
-      <c r="V44" t="s">
-        <v>209</v>
-      </c>
-      <c r="W44" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB44">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK44">
-        <v>0</v>
-      </c>
-      <c r="AL44">
-        <v>0</v>
-      </c>
-      <c r="AM44">
-        <v>0</v>
-      </c>
-      <c r="AN44">
-        <v>0</v>
-      </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AV44" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
-      <c r="BB44">
-        <v>0</v>
-      </c>
-      <c r="BC44">
-        <v>0</v>
-      </c>
-      <c r="BD44">
-        <v>0</v>
-      </c>
-      <c r="BE44">
-        <v>0</v>
-      </c>
-      <c r="BF44">
-        <v>0</v>
-      </c>
-      <c r="BG44">
-        <v>0</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="s">
-        <v>171</v>
-      </c>
-      <c r="BJ44" t="s">
-        <v>209</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>178</v>
-      </c>
-      <c r="BL44" t="s">
-        <v>179</v>
-      </c>
-      <c r="BM44" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN44" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO44" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP44" t="s">
-        <v>179</v>
-      </c>
-      <c r="BS44" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT44" t="s">
-        <v>179</v>
-      </c>
-      <c r="BV44" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW44" t="s">
-        <v>209</v>
-      </c>
-      <c r="BX44" t="s">
-        <v>178</v>
-      </c>
-      <c r="CC44">
-        <v>0</v>
-      </c>
-      <c r="CK44">
-        <v>0</v>
-      </c>
-      <c r="CL44">
-        <v>0</v>
-      </c>
-      <c r="CM44">
-        <v>0</v>
-      </c>
-      <c r="CN44">
-        <v>0</v>
-      </c>
-      <c r="CO44">
-        <v>0</v>
-      </c>
-      <c r="CP44">
-        <v>0</v>
-      </c>
-      <c r="CQ44">
-        <v>0</v>
-      </c>
-      <c r="CR44">
-        <v>0</v>
-      </c>
-      <c r="CS44">
-        <v>0</v>
-      </c>
-      <c r="CT44" t="s">
-        <v>179</v>
-      </c>
-      <c r="CU44">
-        <v>0</v>
-      </c>
-      <c r="CV44" t="s">
-        <v>179</v>
-      </c>
-      <c r="CW44">
-        <v>0</v>
-      </c>
-      <c r="CX44" t="s">
-        <v>179</v>
-      </c>
-      <c r="CY44">
-        <v>0</v>
-      </c>
-      <c r="DA44">
-        <v>0</v>
-      </c>
-      <c r="DC44">
-        <v>0</v>
-      </c>
-      <c r="DE44">
-        <v>0</v>
-      </c>
-      <c r="DG44">
-        <v>0</v>
-      </c>
-      <c r="DJ44">
-        <v>0</v>
-      </c>
-      <c r="DK44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DL44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DM44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DN44" t="s">
-        <v>155</v>
-      </c>
-      <c r="DO44" t="s">
-        <v>155</v>
-      </c>
-      <c r="DP44">
-        <v>0</v>
-      </c>
-      <c r="DQ44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DR44" t="s">
-        <v>155</v>
-      </c>
-      <c r="DS44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DT44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DV44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DW44" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX44">
-        <v>0</v>
-      </c>
-      <c r="DY44" t="s">
-        <v>219</v>
-      </c>
-      <c r="EA44" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB44" t="s">
-        <v>179</v>
-      </c>
-      <c r="EC44" t="s">
-        <v>179</v>
-      </c>
-      <c r="EE44" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="4:136">
-      <c r="D45" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" t="s">
-        <v>150</v>
-      </c>
-      <c r="I45" t="s">
-        <v>174</v>
-      </c>
-      <c r="O45" t="s">
-        <v>179</v>
-      </c>
-      <c r="S45" t="s">
-        <v>193</v>
-      </c>
-      <c r="U45" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>179</v>
-      </c>
-      <c r="AK45">
-        <v>0</v>
-      </c>
-      <c r="AL45">
-        <v>0</v>
-      </c>
-      <c r="AM45">
-        <v>0</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="s">
-        <v>179</v>
-      </c>
-      <c r="AW45">
-        <v>0</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>0</v>
-      </c>
-      <c r="BB45">
-        <v>0</v>
-      </c>
-      <c r="BC45">
-        <v>0</v>
-      </c>
-      <c r="BD45">
-        <v>0</v>
-      </c>
-      <c r="BE45">
-        <v>0</v>
-      </c>
-      <c r="BF45">
-        <v>0</v>
-      </c>
-      <c r="BG45">
-        <v>0</v>
-      </c>
-      <c r="BH45">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BM45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BN45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BP45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BS45" t="s">
-        <v>136</v>
-      </c>
-      <c r="BT45" t="s">
-        <v>179</v>
-      </c>
-      <c r="BV45" t="s">
-        <v>174</v>
-      </c>
-      <c r="CC45">
-        <v>0</v>
-      </c>
-      <c r="CK45">
-        <v>0</v>
-      </c>
-      <c r="CL45">
-        <v>0</v>
-      </c>
-      <c r="CM45">
-        <v>0</v>
-      </c>
-      <c r="CN45">
-        <v>0</v>
-      </c>
-      <c r="CO45">
-        <v>0</v>
-      </c>
-      <c r="CP45">
-        <v>0</v>
-      </c>
-      <c r="CQ45">
-        <v>0</v>
-      </c>
-      <c r="CR45">
-        <v>0</v>
-      </c>
-      <c r="CS45">
-        <v>0</v>
-      </c>
-      <c r="CT45" t="s">
-        <v>179</v>
-      </c>
-      <c r="CU45">
-        <v>0</v>
-      </c>
-      <c r="CW45">
-        <v>0</v>
-      </c>
-      <c r="CY45">
-        <v>0</v>
-      </c>
-      <c r="DA45">
-        <v>0</v>
-      </c>
-      <c r="DC45">
-        <v>0</v>
-      </c>
-      <c r="DE45">
-        <v>0</v>
-      </c>
-      <c r="DG45">
-        <v>0</v>
-      </c>
-      <c r="DJ45">
-        <v>0</v>
-      </c>
-      <c r="DK45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DL45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DM45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DN45" t="s">
-        <v>174</v>
-      </c>
-      <c r="DO45" t="s">
-        <v>174</v>
-      </c>
-      <c r="DP45">
-        <v>0</v>
-      </c>
-      <c r="DQ45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DR45" t="s">
-        <v>174</v>
-      </c>
-      <c r="DS45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DT45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DU45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DV45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DW45" t="s">
-        <v>179</v>
-      </c>
-      <c r="DX45">
-        <v>0</v>
-      </c>
-      <c r="DY45" t="s">
-        <v>219</v>
-      </c>
-      <c r="EA45" t="s">
-        <v>179</v>
-      </c>
-      <c r="EB45" t="s">
-        <v>179</v>
-      </c>
-      <c r="EC45" t="s">
-        <v>179</v>
-      </c>
-      <c r="EE45" t="s">
-        <v>142</v>
-      </c>
-      <c r="EF45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -12997,10 +12549,10 @@
         <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -13078,10 +12630,10 @@
         <v>145</v>
       </c>
       <c r="E4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" t="s">
         <v>212</v>
-      </c>
-      <c r="F4" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8700" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <t>2025-05-14T06:58:59.071526Z</t>
   </si>
   <si>
-    <t>Madam ombre Clinic</t>
+    <t>Madamombe Clinic</t>
   </si>
   <si>
     <t>2025-05-14T06:56:34.599980Z</t>
@@ -1013,7 +1013,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,13 +1023,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1499,28 +1492,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1529,118 +1525,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1997,11 +1990,14 @@
   <sheetPr/>
   <dimension ref="A1:EK75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="20" max="20" width="26.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:141">
       <c r="A1" s="1" t="s">
@@ -32044,7 +32040,7 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8700"/>
+    <workbookView windowWidth="22188" windowHeight="8700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -568,7 +568,7 @@
     <t>2025-05-14T06:58:59.071526Z</t>
   </si>
   <si>
-    <t>Madamombe Clinic</t>
+    <t>Madam ombre Clinic</t>
   </si>
   <si>
     <t>2025-05-14T06:56:34.599980Z</t>
@@ -1013,7 +1013,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1023,6 +1023,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1492,31 +1499,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1525,115 +1529,118 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1990,14 +1997,11 @@
   <sheetPr/>
   <dimension ref="A1:EK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="20" max="20" width="26.6666666666667" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:141">
       <c r="A1" s="1" t="s">
@@ -5512,7 +5516,7 @@
         <v>150</v>
       </c>
       <c r="CL9" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="CM9">
         <v>0</v>
@@ -32040,8 +32044,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8700" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
     <t>2025-05-14T06:58:59.071526Z</t>
   </si>
   <si>
-    <t>Madam ombre Clinic</t>
+    <t>Madamombe Clinic</t>
   </si>
   <si>
     <t>2025-05-14T06:56:34.599980Z</t>
@@ -2036,11 +2036,14 @@
   <sheetPr/>
   <dimension ref="A1:EK81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="20" max="20" width="28.2222222222222" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:141">
       <c r="A1" s="1" t="s">
@@ -34570,8 +34573,8 @@
   <sheetPr/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -22819,13 +22819,13 @@
         <v>148</v>
       </c>
       <c r="W52" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="X52" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Y52" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -23217,10 +23217,10 @@
         <v>148</v>
       </c>
       <c r="W53" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="X53" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Y53">
         <v>0</v>
@@ -43567,7 +43567,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6929" uniqueCount="405">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -7366,22 +7366,22 @@
         <v>150</v>
       </c>
       <c r="W15" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="X15" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="Z15" t="s">
         <v>250</v>
       </c>
       <c r="AA15" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>215</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -7555,43 +7555,43 @@
         <v>0</v>
       </c>
       <c r="CI15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>215</v>
+      </c>
+      <c r="CN15">
+        <v>0</v>
+      </c>
+      <c r="CO15">
+        <v>0</v>
+      </c>
+      <c r="CP15">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="s">
         <v>200</v>
       </c>
-      <c r="CJ15" t="s">
+      <c r="CR15" t="s">
         <v>253</v>
       </c>
-      <c r="CK15" t="s">
+      <c r="CS15" t="s">
         <v>169</v>
       </c>
-      <c r="CL15" t="s">
+      <c r="CT15" t="s">
         <v>250</v>
       </c>
-      <c r="CM15" t="s">
+      <c r="CU15" t="s">
         <v>250</v>
-      </c>
-      <c r="CN15">
-        <v>0</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>0</v>
-      </c>
-      <c r="CQ15">
-        <v>0</v>
-      </c>
-      <c r="CR15">
-        <v>0</v>
-      </c>
-      <c r="CS15">
-        <v>0</v>
-      </c>
-      <c r="CT15">
-        <v>0</v>
-      </c>
-      <c r="CU15">
-        <v>0</v>
       </c>
       <c r="CV15">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7208" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7209" uniqueCount="411">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -1245,9 +1245,6 @@
     <t>00068</t>
   </si>
   <si>
-    <t>2026</t>
-  </si>
-  <si>
     <t>Static</t>
   </si>
   <si>
@@ -2848,7 +2845,7 @@
         <v>151</v>
       </c>
       <c r="EK3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:141">
@@ -3249,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="EJ4" t="s">
-        <v>409</v>
+        <v>151</v>
       </c>
       <c r="EK4">
         <v>0</v>
@@ -9045,7 +9042,7 @@
         <v>253</v>
       </c>
       <c r="AH19" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AI19" t="s">
         <v>203</v>
@@ -9092,8 +9089,8 @@
       <c r="AW19">
         <v>0</v>
       </c>
-      <c r="AX19">
-        <v>0</v>
+      <c r="AX19" t="s">
+        <v>217</v>
       </c>
       <c r="AY19">
         <v>0</v>
@@ -11374,7 +11371,7 @@
         <v>151</v>
       </c>
       <c r="EK24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:141">
@@ -11772,7 +11769,7 @@
         <v>151</v>
       </c>
       <c r="EK25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:141">
@@ -12176,7 +12173,7 @@
         <v>151</v>
       </c>
       <c r="EK26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:141">
@@ -12574,7 +12571,7 @@
         <v>151</v>
       </c>
       <c r="EK27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="28" spans="1:141">
@@ -12972,7 +12969,7 @@
         <v>151</v>
       </c>
       <c r="EK28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:141">
@@ -13370,7 +13367,7 @@
         <v>151</v>
       </c>
       <c r="EK29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:141">
@@ -13771,7 +13768,7 @@
         <v>151</v>
       </c>
       <c r="EK30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:141">
@@ -14181,7 +14178,7 @@
         <v>151</v>
       </c>
       <c r="EK31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:141">
@@ -17015,7 +17012,7 @@
         <v>151</v>
       </c>
       <c r="EK38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="39" spans="1:141">
@@ -23138,7 +23135,7 @@
         <v>151</v>
       </c>
       <c r="EK53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:141">
@@ -23536,7 +23533,7 @@
         <v>151</v>
       </c>
       <c r="EK54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:141">
@@ -23934,7 +23931,7 @@
         <v>151</v>
       </c>
       <c r="EK55" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="1:141">
@@ -24332,7 +24329,7 @@
         <v>151</v>
       </c>
       <c r="EK56" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:141">
@@ -24730,7 +24727,7 @@
         <v>151</v>
       </c>
       <c r="EK57" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:141">
@@ -25128,7 +25125,7 @@
         <v>151</v>
       </c>
       <c r="EK58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:141">
@@ -25526,7 +25523,7 @@
         <v>151</v>
       </c>
       <c r="EK59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:141">
@@ -36018,7 +36015,7 @@
         <v>151</v>
       </c>
       <c r="EK85" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="86" spans="1:141">
@@ -36416,7 +36413,7 @@
         <v>151</v>
       </c>
       <c r="EK86" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="87" spans="1:141">
@@ -36814,7 +36811,7 @@
         <v>151</v>
       </c>
       <c r="EK87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:141">
@@ -37212,7 +37209,7 @@
         <v>151</v>
       </c>
       <c r="EK88" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:141">
@@ -37610,7 +37607,7 @@
         <v>151</v>
       </c>
       <c r="EK89" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="90" spans="1:141">
@@ -38011,7 +38008,7 @@
         <v>151</v>
       </c>
       <c r="EK90" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="1:141">
@@ -38409,7 +38406,7 @@
         <v>151</v>
       </c>
       <c r="EK91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="1:141">
@@ -38807,7 +38804,7 @@
         <v>151</v>
       </c>
       <c r="EK92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="93" spans="1:141">
@@ -39208,7 +39205,7 @@
         <v>151</v>
       </c>
       <c r="EK93" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="94" spans="1:141">
@@ -44373,7 +44370,7 @@
         <v>151</v>
       </c>
       <c r="EK106" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="107" spans="1:141">
@@ -44771,7 +44768,7 @@
         <v>151</v>
       </c>
       <c r="EK107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="108" spans="1:141">
@@ -45172,7 +45169,7 @@
         <v>151</v>
       </c>
       <c r="EK108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="109" spans="1:141">
@@ -45570,7 +45567,7 @@
         <v>151</v>
       </c>
       <c r="EK109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="110" spans="1:141">
@@ -45968,7 +45965,7 @@
         <v>151</v>
       </c>
       <c r="EK110" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="111" spans="1:141">
@@ -46366,7 +46363,7 @@
         <v>151</v>
       </c>
       <c r="EK111" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="112" spans="1:141">
@@ -46764,7 +46761,7 @@
         <v>151</v>
       </c>
       <c r="EK112" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:141">
@@ -47162,7 +47159,7 @@
         <v>151</v>
       </c>
       <c r="EK113" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:141">
@@ -47560,7 +47557,7 @@
         <v>151</v>
       </c>
       <c r="EK114" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:141">
@@ -48784,7 +48781,7 @@
         <v>151</v>
       </c>
       <c r="EK117" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:141">
@@ -49185,7 +49182,7 @@
         <v>151</v>
       </c>
       <c r="EK118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:141">
@@ -51226,7 +51223,7 @@
         <v>151</v>
       </c>
       <c r="EK123" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="1:141">
@@ -51621,7 +51618,7 @@
         <v>151</v>
       </c>
       <c r="EK124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:141">
@@ -52019,7 +52016,7 @@
         <v>151</v>
       </c>
       <c r="EK125" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="1:141">
@@ -52417,7 +52414,7 @@
         <v>151</v>
       </c>
       <c r="EK126" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:141">
@@ -52815,7 +52812,7 @@
         <v>151</v>
       </c>
       <c r="EK127" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:141">
@@ -53213,7 +53210,7 @@
         <v>151</v>
       </c>
       <c r="EK128" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:141">
@@ -53611,7 +53608,7 @@
         <v>151</v>
       </c>
       <c r="EK129" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="1:141">
@@ -54009,7 +54006,7 @@
         <v>151</v>
       </c>
       <c r="EK130" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="1:141">
@@ -54407,7 +54404,7 @@
         <v>151</v>
       </c>
       <c r="EK131" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:141">
@@ -54805,7 +54802,7 @@
         <v>151</v>
       </c>
       <c r="EK132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:141">
@@ -55203,7 +55200,7 @@
         <v>151</v>
       </c>
       <c r="EK133" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="1:141">
@@ -55601,7 +55598,7 @@
         <v>151</v>
       </c>
       <c r="EK134" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="1:141">
@@ -55999,7 +55996,7 @@
         <v>151</v>
       </c>
       <c r="EK135" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="1:141">
@@ -56397,7 +56394,7 @@
         <v>151</v>
       </c>
       <c r="EK136" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:141">
@@ -56795,7 +56792,7 @@
         <v>151</v>
       </c>
       <c r="EK137" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:141">
@@ -57220,7 +57217,7 @@
         <v>151</v>
       </c>
       <c r="EK138" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:141">
@@ -57618,7 +57615,7 @@
         <v>151</v>
       </c>
       <c r="EK139" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7209" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7201" uniqueCount="411">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -780,10 +780,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
+    <t>2</t>
   </si>
   <si>
-    <t>2</t>
+    <t>4</t>
   </si>
   <si>
     <t>64</t>
@@ -2515,7 +2515,7 @@
         <v>177</v>
       </c>
       <c r="Z3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>177</v>
       </c>
       <c r="BO3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP3" t="s">
         <v>217</v>
@@ -2680,7 +2680,7 @@
         <v>177</v>
       </c>
       <c r="CD3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CE3">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>202</v>
       </c>
       <c r="X4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y4" t="s">
         <v>216</v>
@@ -3042,7 +3042,7 @@
         <v>202</v>
       </c>
       <c r="BM4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BN4" t="s">
         <v>216</v>
@@ -3084,7 +3084,7 @@
         <v>202</v>
       </c>
       <c r="CB4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CC4" t="s">
         <v>216</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="EF4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="EG4" t="s">
         <v>217</v>
@@ -3323,7 +3323,7 @@
         <v>193</v>
       </c>
       <c r="X5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y5" t="s">
         <v>174</v>
@@ -3446,7 +3446,7 @@
         <v>193</v>
       </c>
       <c r="BM5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BN5" t="s">
         <v>174</v>
@@ -3488,7 +3488,7 @@
         <v>193</v>
       </c>
       <c r="CB5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CC5" t="s">
         <v>174</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="AG7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH7" t="s">
         <v>181</v>
@@ -4553,7 +4553,7 @@
         <v>193</v>
       </c>
       <c r="Y8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -4583,7 +4583,7 @@
         <v>169</v>
       </c>
       <c r="AI8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>193</v>
       </c>
       <c r="BN8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BO8" t="s">
         <v>217</v>
@@ -4742,7 +4742,7 @@
         <v>193</v>
       </c>
       <c r="CK8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CL8">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="DC8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="DD8">
         <v>0</v>
@@ -6995,7 +6995,7 @@
         <v>197</v>
       </c>
       <c r="Y14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -7025,7 +7025,7 @@
         <v>178</v>
       </c>
       <c r="AI14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ14">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>197</v>
       </c>
       <c r="BN14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BO14" t="s">
         <v>217</v>
@@ -7184,7 +7184,7 @@
         <v>197</v>
       </c>
       <c r="CK14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CL14">
         <v>0</v>
@@ -7396,7 +7396,7 @@
         <v>202</v>
       </c>
       <c r="Y15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -7426,7 +7426,7 @@
         <v>202</v>
       </c>
       <c r="AI15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AJ15">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>150</v>
       </c>
       <c r="W16" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="X16" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="Y16" t="s">
         <v>254</v>
@@ -7802,14 +7802,14 @@
       <c r="Z16">
         <v>0</v>
       </c>
-      <c r="AA16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>217</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>216</v>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
       </c>
       <c r="AD16">
         <v>0</v>
@@ -7824,13 +7824,13 @@
         <v>217</v>
       </c>
       <c r="AH16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AI16" t="s">
         <v>254</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>255</v>
+      <c r="AJ16">
+        <v>0</v>
       </c>
       <c r="AK16">
         <v>0</v>
@@ -7838,8 +7838,8 @@
       <c r="AL16">
         <v>0</v>
       </c>
-      <c r="AM16" t="s">
-        <v>217</v>
+      <c r="AM16">
+        <v>0</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -7886,8 +7886,8 @@
       <c r="BB16">
         <v>0</v>
       </c>
-      <c r="BC16" t="s">
-        <v>217</v>
+      <c r="BC16">
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
@@ -7914,16 +7914,16 @@
         <v>0</v>
       </c>
       <c r="BL16" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="BM16" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="BN16" t="s">
         <v>254</v>
       </c>
       <c r="BO16" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="BP16" t="s">
         <v>217</v>
@@ -7932,7 +7932,7 @@
         <v>217</v>
       </c>
       <c r="BR16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BT16">
         <v>0</v>
@@ -7956,16 +7956,16 @@
         <v>0</v>
       </c>
       <c r="CA16" t="s">
-        <v>178</v>
+        <v>254</v>
       </c>
       <c r="CB16" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="CC16" t="s">
         <v>254</v>
       </c>
-      <c r="CD16" t="s">
-        <v>255</v>
+      <c r="CD16">
+        <v>0</v>
       </c>
       <c r="CE16">
         <v>0</v>
@@ -7973,8 +7973,8 @@
       <c r="CF16">
         <v>0</v>
       </c>
-      <c r="CG16" t="s">
-        <v>216</v>
+      <c r="CG16">
+        <v>0</v>
       </c>
       <c r="CH16">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="EF16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="EG16" t="s">
         <v>217</v>
@@ -8195,10 +8195,10 @@
         <v>216</v>
       </c>
       <c r="X17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y17" t="s">
         <v>254</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>255</v>
       </c>
       <c r="Z17" t="s">
         <v>216</v>
@@ -8318,10 +8318,10 @@
         <v>216</v>
       </c>
       <c r="BM17" t="s">
+        <v>255</v>
+      </c>
+      <c r="BN17" t="s">
         <v>254</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>255</v>
       </c>
       <c r="BO17" t="s">
         <v>216</v>
@@ -8408,10 +8408,10 @@
         <v>216</v>
       </c>
       <c r="CR17" t="s">
+        <v>255</v>
+      </c>
+      <c r="CS17" t="s">
         <v>254</v>
-      </c>
-      <c r="CS17" t="s">
-        <v>255</v>
       </c>
       <c r="CT17" t="s">
         <v>216</v>
@@ -8608,7 +8608,7 @@
         <v>216</v>
       </c>
       <c r="Y18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z18" t="s">
         <v>216</v>
@@ -8731,7 +8731,7 @@
         <v>216</v>
       </c>
       <c r="BN18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BO18" t="s">
         <v>216</v>
@@ -8815,13 +8815,13 @@
         <v>0</v>
       </c>
       <c r="CQ18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CR18" t="s">
         <v>216</v>
       </c>
       <c r="CS18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CT18" t="s">
         <v>216</v>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="EF18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="EG18" t="s">
         <v>217</v>
@@ -9018,7 +9018,7 @@
         <v>203</v>
       </c>
       <c r="Z19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA19">
         <v>0</v>
@@ -9048,7 +9048,7 @@
         <v>203</v>
       </c>
       <c r="AJ19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>203</v>
       </c>
       <c r="BO19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP19" t="s">
         <v>217</v>
@@ -9231,7 +9231,7 @@
         <v>203</v>
       </c>
       <c r="CT19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CU19">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>202</v>
       </c>
       <c r="BM20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN20" t="s">
         <v>174</v>
@@ -9620,7 +9620,7 @@
         <v>202</v>
       </c>
       <c r="CR20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CS20" t="s">
         <v>174</v>
@@ -9817,7 +9817,7 @@
         <v>253</v>
       </c>
       <c r="X21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y21" t="s">
         <v>216</v>
@@ -9940,7 +9940,7 @@
         <v>253</v>
       </c>
       <c r="BM21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BN21" t="s">
         <v>216</v>
@@ -10030,7 +10030,7 @@
         <v>253</v>
       </c>
       <c r="CR21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CS21" t="s">
         <v>216</v>
@@ -10637,7 +10637,7 @@
         <v>202</v>
       </c>
       <c r="X23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
         <v>202</v>
@@ -10760,7 +10760,7 @@
         <v>202</v>
       </c>
       <c r="BM23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BN23" t="s">
         <v>202</v>
@@ -10850,7 +10850,7 @@
         <v>202</v>
       </c>
       <c r="CR23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CS23" t="s">
         <v>202</v>
@@ -11445,43 +11445,43 @@
         <v>203</v>
       </c>
       <c r="X25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y25" t="s">
         <v>253</v>
       </c>
       <c r="Z25" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG25" t="s">
         <v>254</v>
       </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>255</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>254</v>
       </c>
       <c r="AI25" t="s">
         <v>253</v>
       </c>
       <c r="AJ25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK25">
         <v>0</v>
@@ -11568,13 +11568,13 @@
         <v>203</v>
       </c>
       <c r="BM25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN25" t="s">
         <v>253</v>
       </c>
       <c r="BO25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BP25" t="s">
         <v>217</v>
@@ -11610,76 +11610,76 @@
         <v>203</v>
       </c>
       <c r="CB25" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CC25" t="s">
         <v>253</v>
       </c>
       <c r="CD25" t="s">
+        <v>255</v>
+      </c>
+      <c r="CE25">
+        <v>0</v>
+      </c>
+      <c r="CF25">
+        <v>0</v>
+      </c>
+      <c r="CG25">
+        <v>0</v>
+      </c>
+      <c r="CH25">
+        <v>0</v>
+      </c>
+      <c r="CI25">
+        <v>0</v>
+      </c>
+      <c r="CJ25">
+        <v>0</v>
+      </c>
+      <c r="CK25">
+        <v>0</v>
+      </c>
+      <c r="CL25">
+        <v>0</v>
+      </c>
+      <c r="CM25">
+        <v>0</v>
+      </c>
+      <c r="CN25">
+        <v>0</v>
+      </c>
+      <c r="CO25">
+        <v>0</v>
+      </c>
+      <c r="CP25">
+        <v>0</v>
+      </c>
+      <c r="CQ25">
+        <v>0</v>
+      </c>
+      <c r="CR25">
+        <v>0</v>
+      </c>
+      <c r="CS25">
+        <v>0</v>
+      </c>
+      <c r="CT25">
+        <v>0</v>
+      </c>
+      <c r="CU25">
+        <v>0</v>
+      </c>
+      <c r="CV25">
+        <v>0</v>
+      </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>0</v>
+      </c>
+      <c r="CY25" t="s">
         <v>254</v>
-      </c>
-      <c r="CE25">
-        <v>0</v>
-      </c>
-      <c r="CF25">
-        <v>0</v>
-      </c>
-      <c r="CG25">
-        <v>0</v>
-      </c>
-      <c r="CH25">
-        <v>0</v>
-      </c>
-      <c r="CI25">
-        <v>0</v>
-      </c>
-      <c r="CJ25">
-        <v>0</v>
-      </c>
-      <c r="CK25">
-        <v>0</v>
-      </c>
-      <c r="CL25">
-        <v>0</v>
-      </c>
-      <c r="CM25">
-        <v>0</v>
-      </c>
-      <c r="CN25">
-        <v>0</v>
-      </c>
-      <c r="CO25">
-        <v>0</v>
-      </c>
-      <c r="CP25">
-        <v>0</v>
-      </c>
-      <c r="CQ25">
-        <v>0</v>
-      </c>
-      <c r="CR25">
-        <v>0</v>
-      </c>
-      <c r="CS25">
-        <v>0</v>
-      </c>
-      <c r="CT25">
-        <v>0</v>
-      </c>
-      <c r="CU25">
-        <v>0</v>
-      </c>
-      <c r="CV25">
-        <v>0</v>
-      </c>
-      <c r="CW25">
-        <v>0</v>
-      </c>
-      <c r="CX25">
-        <v>0</v>
-      </c>
-      <c r="CY25" t="s">
-        <v>255</v>
       </c>
       <c r="CZ25">
         <v>0</v>
@@ -11846,10 +11846,10 @@
         <v>203</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA26" t="s">
         <v>216</v>
@@ -11870,7 +11870,7 @@
         <v>217</v>
       </c>
       <c r="AG26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AH26" t="s">
         <v>203</v>
@@ -11969,10 +11969,10 @@
         <v>203</v>
       </c>
       <c r="BN26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BO26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BP26" t="s">
         <v>216</v>
@@ -12011,10 +12011,10 @@
         <v>203</v>
       </c>
       <c r="CC26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CD26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CE26" t="s">
         <v>216</v>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="CY26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CZ26">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>253</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -12280,7 +12280,7 @@
         <v>253</v>
       </c>
       <c r="AI27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ27">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>253</v>
       </c>
       <c r="BN27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BO27" t="s">
         <v>217</v>
@@ -12415,7 +12415,7 @@
         <v>253</v>
       </c>
       <c r="CC27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CD27">
         <v>0</v>
@@ -12651,7 +12651,7 @@
         <v>253</v>
       </c>
       <c r="Z28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -12681,7 +12681,7 @@
         <v>253</v>
       </c>
       <c r="AJ28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK28">
         <v>0</v>
@@ -12774,7 +12774,7 @@
         <v>253</v>
       </c>
       <c r="BO28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BP28" t="s">
         <v>217</v>
@@ -12816,7 +12816,7 @@
         <v>253</v>
       </c>
       <c r="CD28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CE28">
         <v>0</v>
@@ -12915,7 +12915,7 @@
         <v>217</v>
       </c>
       <c r="DS28" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DT28" t="s">
         <v>180</v>
@@ -13043,13 +13043,13 @@
         <v>190</v>
       </c>
       <c r="X29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y29" t="s">
         <v>174</v>
       </c>
       <c r="Z29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA29">
         <v>0</v>
@@ -13073,13 +13073,13 @@
         <v>253</v>
       </c>
       <c r="AH29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AI29" t="s">
         <v>174</v>
       </c>
       <c r="AJ29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AK29">
         <v>0</v>
@@ -13166,13 +13166,13 @@
         <v>190</v>
       </c>
       <c r="BM29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN29" t="s">
         <v>174</v>
       </c>
       <c r="BO29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BP29" t="s">
         <v>217</v>
@@ -13208,13 +13208,13 @@
         <v>190</v>
       </c>
       <c r="CB29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CC29" t="s">
         <v>174</v>
       </c>
       <c r="CD29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CE29">
         <v>0</v>
@@ -13447,7 +13447,7 @@
         <v>202</v>
       </c>
       <c r="Z30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA30" t="s">
         <v>216</v>
@@ -13570,7 +13570,7 @@
         <v>202</v>
       </c>
       <c r="BO30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP30" t="s">
         <v>216</v>
@@ -13612,7 +13612,7 @@
         <v>202</v>
       </c>
       <c r="CD30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CE30" t="s">
         <v>216</v>
@@ -14258,28 +14258,28 @@
         <v>174</v>
       </c>
       <c r="Z32" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG32" t="s">
         <v>255</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>254</v>
       </c>
       <c r="AH32" t="s">
         <v>202</v>
@@ -14288,7 +14288,7 @@
         <v>253</v>
       </c>
       <c r="AJ32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AK32">
         <v>0</v>
@@ -14381,7 +14381,7 @@
         <v>174</v>
       </c>
       <c r="BO32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BP32" t="s">
         <v>217</v>
@@ -14447,46 +14447,46 @@
         <v>174</v>
       </c>
       <c r="CL32" t="s">
+        <v>254</v>
+      </c>
+      <c r="CM32">
+        <v>0</v>
+      </c>
+      <c r="CN32">
+        <v>0</v>
+      </c>
+      <c r="CO32">
+        <v>0</v>
+      </c>
+      <c r="CP32">
+        <v>0</v>
+      </c>
+      <c r="CQ32">
+        <v>0</v>
+      </c>
+      <c r="CR32">
+        <v>0</v>
+      </c>
+      <c r="CS32">
+        <v>0</v>
+      </c>
+      <c r="CT32">
+        <v>0</v>
+      </c>
+      <c r="CU32">
+        <v>0</v>
+      </c>
+      <c r="CV32">
+        <v>0</v>
+      </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CX32">
+        <v>0</v>
+      </c>
+      <c r="CY32" t="s">
         <v>255</v>
-      </c>
-      <c r="CM32">
-        <v>0</v>
-      </c>
-      <c r="CN32">
-        <v>0</v>
-      </c>
-      <c r="CO32">
-        <v>0</v>
-      </c>
-      <c r="CP32">
-        <v>0</v>
-      </c>
-      <c r="CQ32">
-        <v>0</v>
-      </c>
-      <c r="CR32">
-        <v>0</v>
-      </c>
-      <c r="CS32">
-        <v>0</v>
-      </c>
-      <c r="CT32">
-        <v>0</v>
-      </c>
-      <c r="CU32">
-        <v>0</v>
-      </c>
-      <c r="CV32">
-        <v>0</v>
-      </c>
-      <c r="CW32">
-        <v>0</v>
-      </c>
-      <c r="CX32">
-        <v>0</v>
-      </c>
-      <c r="CY32" t="s">
-        <v>254</v>
       </c>
       <c r="CZ32">
         <v>0</v>
@@ -14956,7 +14956,7 @@
         <v>217</v>
       </c>
       <c r="EA33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="EB33" t="s">
         <v>217</v>
@@ -15877,10 +15877,10 @@
         <v>202</v>
       </c>
       <c r="X36" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y36" t="s">
         <v>254</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>255</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -15907,7 +15907,7 @@
         <v>253</v>
       </c>
       <c r="AH36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI36" t="s">
         <v>217</v>
@@ -16000,10 +16000,10 @@
         <v>202</v>
       </c>
       <c r="BM36" t="s">
+        <v>255</v>
+      </c>
+      <c r="BN36" t="s">
         <v>254</v>
-      </c>
-      <c r="BN36" t="s">
-        <v>255</v>
       </c>
       <c r="BO36" t="s">
         <v>217</v>
@@ -16066,10 +16066,10 @@
         <v>202</v>
       </c>
       <c r="CJ36" t="s">
+        <v>255</v>
+      </c>
+      <c r="CK36" t="s">
         <v>254</v>
-      </c>
-      <c r="CK36" t="s">
-        <v>255</v>
       </c>
       <c r="CL36">
         <v>0</v>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="DA36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="DB36">
         <v>0</v>
@@ -16284,31 +16284,31 @@
         <v>203</v>
       </c>
       <c r="Y37" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z37" t="s">
         <v>254</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+ 